--- a/CCSA.xlsx
+++ b/CCSA.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Rainy\Documents\GitHub\Economics\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D6F2B6BF-87BE-4474-9919-14C53D0DE202}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{054B1EC8-30C8-438E-B03B-D86A3510C04A}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -343,162 +343,6 @@
               </c:ext>
             </c:extLst>
           </c:dPt>
-          <c:dLbls>
-            <c:dLbl>
-              <c:idx val="5"/>
-              <c:layout>
-                <c:manualLayout>
-                  <c:x val="-1.3803891268813625E-2"/>
-                  <c:y val="-0.12773517775532597"/>
-                </c:manualLayout>
-              </c:layout>
-              <c:spPr>
-                <a:noFill/>
-                <a:ln w="25400">
-                  <a:noFill/>
-                </a:ln>
-              </c:spPr>
-              <c:txPr>
-                <a:bodyPr wrap="square" lIns="38100" tIns="19050" rIns="38100" bIns="19050" anchor="ctr">
-                  <a:spAutoFit/>
-                </a:bodyPr>
-                <a:lstStyle/>
-                <a:p>
-                  <a:pPr>
-                    <a:defRPr/>
-                  </a:pPr>
-                  <a:endParaRPr lang="en-US"/>
-                </a:p>
-              </c:txPr>
-              <c:dLblPos val="r"/>
-              <c:showLegendKey val="0"/>
-              <c:showVal val="1"/>
-              <c:showCatName val="0"/>
-              <c:showSerName val="0"/>
-              <c:showPercent val="0"/>
-              <c:showBubbleSize val="0"/>
-              <c:extLst>
-                <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}"/>
-                <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-                  <c16:uniqueId val="{00000001-56E9-43F7-B39A-E50EC1519892}"/>
-                </c:ext>
-              </c:extLst>
-            </c:dLbl>
-            <c:dLbl>
-              <c:idx val="6"/>
-              <c:layout>
-                <c:manualLayout>
-                  <c:x val="3.1551751471573998E-2"/>
-                  <c:y val="-9.8891750520252369E-2"/>
-                </c:manualLayout>
-              </c:layout>
-              <c:spPr>
-                <a:noFill/>
-                <a:ln w="25400">
-                  <a:noFill/>
-                </a:ln>
-              </c:spPr>
-              <c:txPr>
-                <a:bodyPr wrap="square" lIns="38100" tIns="19050" rIns="38100" bIns="19050" anchor="ctr">
-                  <a:spAutoFit/>
-                </a:bodyPr>
-                <a:lstStyle/>
-                <a:p>
-                  <a:pPr>
-                    <a:defRPr/>
-                  </a:pPr>
-                  <a:endParaRPr lang="en-US"/>
-                </a:p>
-              </c:txPr>
-              <c:showLegendKey val="0"/>
-              <c:showVal val="1"/>
-              <c:showCatName val="0"/>
-              <c:showSerName val="0"/>
-              <c:showPercent val="0"/>
-              <c:showBubbleSize val="0"/>
-              <c:extLst>
-                <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}"/>
-                <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-                  <c16:uniqueId val="{00000003-56E9-43F7-B39A-E50EC1519892}"/>
-                </c:ext>
-              </c:extLst>
-            </c:dLbl>
-            <c:dLbl>
-              <c:idx val="7"/>
-              <c:layout>
-                <c:manualLayout>
-                  <c:x val="1.183190680184025E-2"/>
-                  <c:y val="-5.7686854470147216E-2"/>
-                </c:manualLayout>
-              </c:layout>
-              <c:showLegendKey val="0"/>
-              <c:showVal val="1"/>
-              <c:showCatName val="0"/>
-              <c:showSerName val="0"/>
-              <c:showPercent val="0"/>
-              <c:showBubbleSize val="0"/>
-              <c:extLst>
-                <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}"/>
-                <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-                  <c16:uniqueId val="{00000008-56E9-43F7-B39A-E50EC1519892}"/>
-                </c:ext>
-              </c:extLst>
-            </c:dLbl>
-            <c:dLbl>
-              <c:idx val="8"/>
-              <c:layout>
-                <c:manualLayout>
-                  <c:x val="2.1691829136707124E-2"/>
-                  <c:y val="-2.0602448025052726E-2"/>
-                </c:manualLayout>
-              </c:layout>
-              <c:showLegendKey val="0"/>
-              <c:showVal val="1"/>
-              <c:showCatName val="0"/>
-              <c:showSerName val="0"/>
-              <c:showPercent val="0"/>
-              <c:showBubbleSize val="0"/>
-              <c:extLst>
-                <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}"/>
-                <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-                  <c16:uniqueId val="{00000006-B4B4-49F9-88A6-AD61E14B1813}"/>
-                </c:ext>
-              </c:extLst>
-            </c:dLbl>
-            <c:dLbl>
-              <c:idx val="9"/>
-              <c:showLegendKey val="0"/>
-              <c:showVal val="1"/>
-              <c:showCatName val="0"/>
-              <c:showSerName val="0"/>
-              <c:showPercent val="0"/>
-              <c:showBubbleSize val="0"/>
-              <c:extLst>
-                <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}"/>
-                <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-                  <c16:uniqueId val="{00000008-A5CB-4AB6-BD38-9E83578F397A}"/>
-                </c:ext>
-              </c:extLst>
-            </c:dLbl>
-            <c:spPr>
-              <a:noFill/>
-              <a:ln>
-                <a:noFill/>
-              </a:ln>
-              <a:effectLst/>
-            </c:spPr>
-            <c:showLegendKey val="0"/>
-            <c:showVal val="0"/>
-            <c:showCatName val="0"/>
-            <c:showSerName val="0"/>
-            <c:showPercent val="0"/>
-            <c:showBubbleSize val="0"/>
-            <c:extLst>
-              <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
-                <c15:showLeaderLines val="1"/>
-              </c:ext>
-            </c:extLst>
-          </c:dLbls>
           <c:xVal>
             <c:numRef>
               <c:f>'FRED Graph'!$A$2790:$A$2802</c:f>
@@ -579,6 +423,9 @@
                 </c:pt>
                 <c:pt idx="8">
                   <c:v>20929000</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>20544000</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -2837,8 +2684,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:L2815"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A2762" zoomScale="160" zoomScaleNormal="160" workbookViewId="0">
-      <selection activeCell="E2787" sqref="E2787"/>
+    <sheetView tabSelected="1" topLeftCell="A2783" zoomScale="160" zoomScaleNormal="160" workbookViewId="0">
+      <selection activeCell="F2802" sqref="F2802"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="20.7109375" defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
@@ -25159,7 +25006,7 @@
         <v>11914000</v>
       </c>
       <c r="D2790" s="2">
-        <f t="shared" ref="D2790:D2799" si="0">B2790</f>
+        <f t="shared" ref="D2790:D2798" si="0">B2790</f>
         <v>11914000</v>
       </c>
       <c r="E2790" s="2"/>
@@ -25359,7 +25206,7 @@
         <v>20841000</v>
       </c>
       <c r="C2796">
-        <f t="shared" ref="C2792:C2797" si="9">C2795+1</f>
+        <f t="shared" ref="C2796:C2797" si="9">C2795+1</f>
         <v>1</v>
       </c>
       <c r="D2796" s="2">
@@ -25480,7 +25327,9 @@
         <f>C2798+1</f>
         <v>4</v>
       </c>
-      <c r="D2799" s="2"/>
+      <c r="D2799" s="2">
+        <v>20544000</v>
+      </c>
       <c r="E2799" s="2">
         <f t="shared" si="10"/>
         <v>20303200</v>

--- a/CCSA.xlsx
+++ b/CCSA.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Rainy\Documents\GitHub\Economics\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{054B1EC8-30C8-438E-B03B-D86A3510C04A}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DBE32074-DCA6-4936-9F63-8C39977D0700}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -343,6 +343,50 @@
               </c:ext>
             </c:extLst>
           </c:dPt>
+          <c:dPt>
+            <c:idx val="10"/>
+            <c:marker>
+              <c:spPr>
+                <a:solidFill>
+                  <a:srgbClr val="FFFF00"/>
+                </a:solidFill>
+                <a:ln w="9525">
+                  <a:solidFill>
+                    <a:schemeClr val="accent1"/>
+                  </a:solidFill>
+                </a:ln>
+                <a:effectLst/>
+              </c:spPr>
+            </c:marker>
+            <c:bubble3D val="0"/>
+            <c:extLst>
+              <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+                <c16:uniqueId val="{0000000A-3FA1-4148-9C0C-648E50CC2FF1}"/>
+              </c:ext>
+            </c:extLst>
+          </c:dPt>
+          <c:dPt>
+            <c:idx val="11"/>
+            <c:marker>
+              <c:spPr>
+                <a:solidFill>
+                  <a:srgbClr val="FFFF00"/>
+                </a:solidFill>
+                <a:ln w="9525">
+                  <a:solidFill>
+                    <a:schemeClr val="accent1"/>
+                  </a:solidFill>
+                </a:ln>
+                <a:effectLst/>
+              </c:spPr>
+            </c:marker>
+            <c:bubble3D val="0"/>
+            <c:extLst>
+              <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+                <c16:uniqueId val="{00000008-3FA1-4148-9C0C-648E50CC2FF1}"/>
+              </c:ext>
+            </c:extLst>
+          </c:dPt>
           <c:xVal>
             <c:numRef>
               <c:f>'FRED Graph'!$A$2790:$A$2802</c:f>
@@ -425,7 +469,13 @@
                   <c:v>20929000</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>20544000</c:v>
+                  <c:v>20289000</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>19231000</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>19290000</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -438,114 +488,8 @@
           </c:extLst>
         </c:ser>
         <c:ser>
-          <c:idx val="1"/>
+          <c:idx val="2"/>
           <c:order val="1"/>
-          <c:tx>
-            <c:v>Exp. Fit</c:v>
-          </c:tx>
-          <c:spPr>
-            <a:ln w="25400" cap="rnd">
-              <a:solidFill>
-                <a:schemeClr val="accent1"/>
-              </a:solidFill>
-              <a:round/>
-            </a:ln>
-            <a:effectLst/>
-          </c:spPr>
-          <c:marker>
-            <c:symbol val="none"/>
-          </c:marker>
-          <c:xVal>
-            <c:numRef>
-              <c:f>'FRED Graph'!$A$2790:$A$2802</c:f>
-              <c:numCache>
-                <c:formatCode>yyyy\-mm\-dd</c:formatCode>
-                <c:ptCount val="13"/>
-                <c:pt idx="0">
-                  <c:v>43925</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>43932</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>43939</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>43946</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>43953</c:v>
-                </c:pt>
-                <c:pt idx="5">
-                  <c:v>43960</c:v>
-                </c:pt>
-                <c:pt idx="6">
-                  <c:v>43967</c:v>
-                </c:pt>
-                <c:pt idx="7">
-                  <c:v>43974</c:v>
-                </c:pt>
-                <c:pt idx="8">
-                  <c:v>43981</c:v>
-                </c:pt>
-                <c:pt idx="9">
-                  <c:v>43988</c:v>
-                </c:pt>
-                <c:pt idx="10">
-                  <c:v>43995</c:v>
-                </c:pt>
-                <c:pt idx="11">
-                  <c:v>44002</c:v>
-                </c:pt>
-                <c:pt idx="12">
-                  <c:v>44009</c:v>
-                </c:pt>
-              </c:numCache>
-            </c:numRef>
-          </c:xVal>
-          <c:yVal>
-            <c:numRef>
-              <c:f>'FRED Graph'!$E$2790:$E$2802</c:f>
-              <c:numCache>
-                <c:formatCode>0</c:formatCode>
-                <c:ptCount val="13"/>
-                <c:pt idx="5">
-                  <c:v>24912000</c:v>
-                </c:pt>
-                <c:pt idx="6">
-                  <c:v>23759800</c:v>
-                </c:pt>
-                <c:pt idx="7">
-                  <c:v>22607600</c:v>
-                </c:pt>
-                <c:pt idx="8">
-                  <c:v>21455400</c:v>
-                </c:pt>
-                <c:pt idx="9">
-                  <c:v>20303200</c:v>
-                </c:pt>
-                <c:pt idx="10">
-                  <c:v>19151000</c:v>
-                </c:pt>
-                <c:pt idx="11">
-                  <c:v>17998800</c:v>
-                </c:pt>
-                <c:pt idx="12">
-                  <c:v>16846600</c:v>
-                </c:pt>
-              </c:numCache>
-            </c:numRef>
-          </c:yVal>
-          <c:smooth val="0"/>
-          <c:extLst>
-            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{00000005-56E9-43F7-B39A-E50EC1519892}"/>
-            </c:ext>
-          </c:extLst>
-        </c:ser>
-        <c:ser>
-          <c:idx val="2"/>
-          <c:order val="2"/>
           <c:tx>
             <c:v>2008 Peak</c:v>
           </c:tx>
@@ -679,7 +623,7 @@
         <c:varyColors val="0"/>
         <c:ser>
           <c:idx val="3"/>
-          <c:order val="3"/>
+          <c:order val="2"/>
           <c:tx>
             <c:v>2008 CCSA Data From Peak</c:v>
           </c:tx>
@@ -2684,8 +2628,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:L2815"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A2783" zoomScale="160" zoomScaleNormal="160" workbookViewId="0">
-      <selection activeCell="F2802" sqref="F2802"/>
+    <sheetView tabSelected="1" topLeftCell="A2765" zoomScale="160" zoomScaleNormal="160" workbookViewId="0">
+      <selection activeCell="G2786" sqref="G2786"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="20.7109375" defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
@@ -25006,7 +24950,7 @@
         <v>11914000</v>
       </c>
       <c r="D2790" s="2">
-        <f t="shared" ref="D2790:D2798" si="0">B2790</f>
+        <f t="shared" ref="D2790:D2801" si="0">B2790</f>
         <v>11914000</v>
       </c>
       <c r="E2790" s="2"/>
@@ -25322,13 +25266,16 @@
         <f t="shared" si="7"/>
         <v>43988</v>
       </c>
-      <c r="B2799" s="2"/>
+      <c r="B2799" s="2">
+        <v>20289000</v>
+      </c>
       <c r="C2799">
         <f>C2798+1</f>
         <v>4</v>
       </c>
       <c r="D2799" s="2">
-        <v>20544000</v>
+        <f t="shared" si="0"/>
+        <v>20289000</v>
       </c>
       <c r="E2799" s="2">
         <f t="shared" si="10"/>
@@ -25359,9 +25306,16 @@
         <f t="shared" si="7"/>
         <v>43995</v>
       </c>
+      <c r="B2800">
+        <v>19231000</v>
+      </c>
       <c r="C2800">
         <f>C2799+1</f>
         <v>5</v>
+      </c>
+      <c r="D2800" s="2">
+        <f t="shared" si="0"/>
+        <v>19231000</v>
       </c>
       <c r="E2800" s="2">
         <f t="shared" si="10"/>
@@ -25392,9 +25346,16 @@
         <f t="shared" si="7"/>
         <v>44002</v>
       </c>
+      <c r="B2801">
+        <v>19290000</v>
+      </c>
       <c r="C2801">
         <f>C2800+1</f>
         <v>6</v>
+      </c>
+      <c r="D2801" s="2">
+        <f t="shared" si="0"/>
+        <v>19290000</v>
       </c>
       <c r="E2801" s="2">
         <f t="shared" si="10"/>

--- a/CCSA.xlsx
+++ b/CCSA.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Rainy\Documents\GitHub\Economics\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DBE32074-DCA6-4936-9F63-8C39977D0700}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DCAD0019-DE75-4D5E-BAA7-B1A085D4252F}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -387,6 +387,47 @@
               </c:ext>
             </c:extLst>
           </c:dPt>
+          <c:dLbls>
+            <c:dLbl>
+              <c:idx val="11"/>
+              <c:layout>
+                <c:manualLayout>
+                  <c:x val="-2.1664204825209185E-2"/>
+                  <c:y val="-7.5799450437405269E-2"/>
+                </c:manualLayout>
+              </c:layout>
+              <c:showLegendKey val="0"/>
+              <c:showVal val="1"/>
+              <c:showCatName val="0"/>
+              <c:showSerName val="0"/>
+              <c:showPercent val="0"/>
+              <c:showBubbleSize val="0"/>
+              <c:extLst>
+                <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}"/>
+                <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+                  <c16:uniqueId val="{00000008-3FA1-4148-9C0C-648E50CC2FF1}"/>
+                </c:ext>
+              </c:extLst>
+            </c:dLbl>
+            <c:spPr>
+              <a:noFill/>
+              <a:ln>
+                <a:noFill/>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+            <c:showLegendKey val="0"/>
+            <c:showVal val="0"/>
+            <c:showCatName val="0"/>
+            <c:showSerName val="0"/>
+            <c:showPercent val="0"/>
+            <c:showBubbleSize val="0"/>
+            <c:extLst>
+              <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
+                <c15:showLeaderLines val="1"/>
+              </c:ext>
+            </c:extLst>
+          </c:dLbls>
           <c:xVal>
             <c:numRef>
               <c:f>'FRED Graph'!$A$2790:$A$2802</c:f>
@@ -647,6 +688,67 @@
               <a:effectLst/>
             </c:spPr>
           </c:marker>
+          <c:dLbls>
+            <c:dLbl>
+              <c:idx val="0"/>
+              <c:layout>
+                <c:manualLayout>
+                  <c:x val="5.3175775480059084E-2"/>
+                  <c:y val="-6.3166208697837803E-2"/>
+                </c:manualLayout>
+              </c:layout>
+              <c:tx>
+                <c:rich>
+                  <a:bodyPr/>
+                  <a:lstStyle/>
+                  <a:p>
+                    <a:fld id="{414844D0-E852-453D-A198-5CFB11F3905A}" type="YVALUE">
+                      <a:rPr lang="en-US"/>
+                      <a:pPr/>
+                      <a:t>[Y VALUE]</a:t>
+                    </a:fld>
+                    <a:r>
+                      <a:rPr lang="en-US"/>
+                      <a:t> (2009 Peak)</a:t>
+                    </a:r>
+                  </a:p>
+                </c:rich>
+              </c:tx>
+              <c:showLegendKey val="0"/>
+              <c:showVal val="1"/>
+              <c:showCatName val="0"/>
+              <c:showSerName val="0"/>
+              <c:showPercent val="0"/>
+              <c:showBubbleSize val="0"/>
+              <c:extLst>
+                <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
+                  <c15:dlblFieldTable/>
+                  <c15:showDataLabelsRange val="0"/>
+                </c:ext>
+                <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+                  <c16:uniqueId val="{0000000A-E64B-4A4A-9C92-4C24CD0CD538}"/>
+                </c:ext>
+              </c:extLst>
+            </c:dLbl>
+            <c:spPr>
+              <a:noFill/>
+              <a:ln>
+                <a:noFill/>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+            <c:showLegendKey val="0"/>
+            <c:showVal val="0"/>
+            <c:showCatName val="0"/>
+            <c:showSerName val="0"/>
+            <c:showPercent val="0"/>
+            <c:showBubbleSize val="0"/>
+            <c:extLst>
+              <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
+                <c15:showLeaderLines val="1"/>
+              </c:ext>
+            </c:extLst>
+          </c:dLbls>
           <c:xVal>
             <c:numRef>
               <c:f>'FRED Graph'!$A$2790:$A$2802</c:f>
@@ -2629,7 +2731,7 @@
   <dimension ref="A1:L2815"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A2765" zoomScale="160" zoomScaleNormal="160" workbookViewId="0">
-      <selection activeCell="G2786" sqref="G2786"/>
+      <selection activeCell="C2775" sqref="C2775"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="20.7109375" defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>

--- a/CCSA.xlsx
+++ b/CCSA.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Rainy\Documents\GitHub\Economics\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DCAD0019-DE75-4D5E-BAA7-B1A085D4252F}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A1AFE51E-2BAF-420F-87B2-9A96D06EE921}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -25,6 +25,40 @@
     </ext>
   </extLst>
 </workbook>
+</file>
+
+<file path=xl/comments1.xml><?xml version="1.0" encoding="utf-8"?>
+<comments xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr">
+  <authors>
+    <author>Brian Howard</author>
+  </authors>
+  <commentList>
+    <comment ref="B2801" authorId="0" shapeId="0" xr:uid="{ABB340B0-CD95-46A4-92F4-AD9E6E185C93}">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <charset val="1"/>
+          </rPr>
+          <t>Brian Howard:</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <charset val="1"/>
+          </rPr>
+          <t xml:space="preserve">
+19290000</t>
+        </r>
+      </text>
+    </comment>
+  </commentList>
+</comments>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
@@ -82,7 +116,7 @@
   <numFmts count="1">
     <numFmt numFmtId="164" formatCode="yyyy\-mm\-dd"/>
   </numFmts>
-  <fonts count="2" x14ac:knownFonts="1">
+  <fonts count="4" x14ac:knownFonts="1">
     <font>
       <sz val="10"/>
       <name val="Arial"/>
@@ -92,6 +126,19 @@
       <sz val="10"/>
       <name val="Arial"/>
       <family val="2"/>
+    </font>
+    <font>
+      <sz val="9"/>
+      <color indexed="81"/>
+      <name val="Tahoma"/>
+      <charset val="1"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="9"/>
+      <color indexed="81"/>
+      <name val="Tahoma"/>
+      <charset val="1"/>
     </font>
   </fonts>
   <fills count="2">
@@ -387,13 +434,45 @@
               </c:ext>
             </c:extLst>
           </c:dPt>
+          <c:dPt>
+            <c:idx val="12"/>
+            <c:marker>
+              <c:spPr>
+                <a:solidFill>
+                  <a:srgbClr val="FFFF00"/>
+                </a:solidFill>
+                <a:ln w="9525">
+                  <a:solidFill>
+                    <a:schemeClr val="accent1"/>
+                  </a:solidFill>
+                </a:ln>
+                <a:effectLst/>
+              </c:spPr>
+            </c:marker>
+            <c:bubble3D val="0"/>
+            <c:extLst>
+              <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+                <c16:uniqueId val="{0000000A-8232-4DDC-9D49-24F67FE3D335}"/>
+              </c:ext>
+            </c:extLst>
+          </c:dPt>
           <c:dLbls>
             <c:dLbl>
               <c:idx val="11"/>
+              <c:delete val="1"/>
+              <c:extLst>
+                <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}"/>
+                <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+                  <c16:uniqueId val="{00000008-3FA1-4148-9C0C-648E50CC2FF1}"/>
+                </c:ext>
+              </c:extLst>
+            </c:dLbl>
+            <c:dLbl>
+              <c:idx val="12"/>
               <c:layout>
                 <c:manualLayout>
-                  <c:x val="-2.1664204825209185E-2"/>
-                  <c:y val="-7.5799450437405269E-2"/>
+                  <c:x val="-7.8778926637125286E-3"/>
+                  <c:y val="-0.10527701449639625"/>
                 </c:manualLayout>
               </c:layout>
               <c:showLegendKey val="0"/>
@@ -405,7 +484,7 @@
               <c:extLst>
                 <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}"/>
                 <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-                  <c16:uniqueId val="{00000008-3FA1-4148-9C0C-648E50CC2FF1}"/>
+                  <c16:uniqueId val="{0000000A-8232-4DDC-9D49-24F67FE3D335}"/>
                 </c:ext>
               </c:extLst>
             </c:dLbl>
@@ -430,10 +509,10 @@
           </c:dLbls>
           <c:xVal>
             <c:numRef>
-              <c:f>'FRED Graph'!$A$2790:$A$2802</c:f>
+              <c:f>'FRED Graph'!$A$2790:$A$2805</c:f>
               <c:numCache>
                 <c:formatCode>yyyy\-mm\-dd</c:formatCode>
-                <c:ptCount val="13"/>
+                <c:ptCount val="16"/>
                 <c:pt idx="0">
                   <c:v>43925</c:v>
                 </c:pt>
@@ -473,15 +552,24 @@
                 <c:pt idx="12">
                   <c:v>44009</c:v>
                 </c:pt>
+                <c:pt idx="13">
+                  <c:v>44016</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>44023</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>44030</c:v>
+                </c:pt>
               </c:numCache>
             </c:numRef>
           </c:xVal>
           <c:yVal>
             <c:numRef>
-              <c:f>'FRED Graph'!$D$2790:$D$2802</c:f>
+              <c:f>'FRED Graph'!$D$2790:$D$2805</c:f>
               <c:numCache>
                 <c:formatCode>0</c:formatCode>
-                <c:ptCount val="13"/>
+                <c:ptCount val="16"/>
                 <c:pt idx="0">
                   <c:v>11914000</c:v>
                 </c:pt>
@@ -516,7 +604,10 @@
                   <c:v>19231000</c:v>
                 </c:pt>
                 <c:pt idx="11">
-                  <c:v>19290000</c:v>
+                  <c:v>18760000</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>18062000</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -547,10 +638,10 @@
           </c:marker>
           <c:xVal>
             <c:numRef>
-              <c:f>'FRED Graph'!$A$2790:$A$2802</c:f>
+              <c:f>'FRED Graph'!$A$2790:$A$2805</c:f>
               <c:numCache>
                 <c:formatCode>yyyy\-mm\-dd</c:formatCode>
-                <c:ptCount val="13"/>
+                <c:ptCount val="16"/>
                 <c:pt idx="0">
                   <c:v>43925</c:v>
                 </c:pt>
@@ -590,15 +681,24 @@
                 <c:pt idx="12">
                   <c:v>44009</c:v>
                 </c:pt>
+                <c:pt idx="13">
+                  <c:v>44016</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>44023</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>44030</c:v>
+                </c:pt>
               </c:numCache>
             </c:numRef>
           </c:xVal>
           <c:yVal>
             <c:numRef>
-              <c:f>'FRED Graph'!$F$2790:$F$2802</c:f>
+              <c:f>'FRED Graph'!$F$2790:$F$2805</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="13"/>
+                <c:ptCount val="16"/>
                 <c:pt idx="0" formatCode="0">
                   <c:v>6635000</c:v>
                 </c:pt>
@@ -751,10 +851,10 @@
           </c:dLbls>
           <c:xVal>
             <c:numRef>
-              <c:f>'FRED Graph'!$A$2790:$A$2802</c:f>
+              <c:f>'FRED Graph'!$A$2790:$A$2805</c:f>
               <c:numCache>
                 <c:formatCode>yyyy\-mm\-dd</c:formatCode>
-                <c:ptCount val="13"/>
+                <c:ptCount val="16"/>
                 <c:pt idx="0">
                   <c:v>43925</c:v>
                 </c:pt>
@@ -794,15 +894,24 @@
                 <c:pt idx="12">
                   <c:v>44009</c:v>
                 </c:pt>
+                <c:pt idx="13">
+                  <c:v>44016</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>44023</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>44030</c:v>
+                </c:pt>
               </c:numCache>
             </c:numRef>
           </c:xVal>
           <c:yVal>
             <c:numRef>
-              <c:f>'FRED Graph'!$H$2790:$H$2802</c:f>
+              <c:f>'FRED Graph'!$H$2790:$H$2805</c:f>
               <c:numCache>
                 <c:formatCode>0</c:formatCode>
-                <c:ptCount val="13"/>
+                <c:ptCount val="16"/>
                 <c:pt idx="0">
                   <c:v>6635000</c:v>
                 </c:pt>
@@ -842,6 +951,15 @@
                 <c:pt idx="12">
                   <c:v>6060000</c:v>
                 </c:pt>
+                <c:pt idx="13">
+                  <c:v>5970000</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>6079000</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>6006000</c:v>
+                </c:pt>
               </c:numCache>
             </c:numRef>
           </c:yVal>
@@ -867,6 +985,7 @@
         <c:axId val="319767456"/>
         <c:scaling>
           <c:orientation val="minMax"/>
+          <c:min val="43920"/>
         </c:scaling>
         <c:delete val="0"/>
         <c:axPos val="b"/>
@@ -955,6 +1074,7 @@
         <c:crossAx val="1"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
+        <c:majorUnit val="30"/>
       </c:valAx>
       <c:valAx>
         <c:axId val="1"/>
@@ -2727,11 +2847,11 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:L2815"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A2765" zoomScale="160" zoomScaleNormal="160" workbookViewId="0">
-      <selection activeCell="C2775" sqref="C2775"/>
+    <sheetView tabSelected="1" topLeftCell="B2763" zoomScale="160" zoomScaleNormal="160" workbookViewId="0">
+      <selection activeCell="C2780" sqref="C2780"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="20.7109375" defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
@@ -25052,7 +25172,7 @@
         <v>11914000</v>
       </c>
       <c r="D2790" s="2">
-        <f t="shared" ref="D2790:D2801" si="0">B2790</f>
+        <f t="shared" ref="D2790:D2802" si="0">B2790</f>
         <v>11914000</v>
       </c>
       <c r="E2790" s="2"/>
@@ -25449,7 +25569,7 @@
         <v>44002</v>
       </c>
       <c r="B2801">
-        <v>19290000</v>
+        <v>18760000</v>
       </c>
       <c r="C2801">
         <f>C2800+1</f>
@@ -25457,7 +25577,7 @@
       </c>
       <c r="D2801" s="2">
         <f t="shared" si="0"/>
-        <v>19290000</v>
+        <v>18760000</v>
       </c>
       <c r="E2801" s="2">
         <f t="shared" si="10"/>
@@ -25488,9 +25608,16 @@
         <f t="shared" si="7"/>
         <v>44009</v>
       </c>
+      <c r="B2802">
+        <v>18062000</v>
+      </c>
       <c r="C2802">
         <f>C2801+1</f>
         <v>7</v>
+      </c>
+      <c r="D2802" s="2">
+        <f t="shared" si="0"/>
+        <v>18062000</v>
       </c>
       <c r="E2802" s="2">
         <f t="shared" si="10"/>
@@ -25764,5 +25891,6 @@
   <pageSetup orientation="portrait" horizontalDpi="4294967293" verticalDpi="4294967293" r:id="rId1"/>
   <headerFooter alignWithMargins="0"/>
   <drawing r:id="rId2"/>
+  <legacyDrawing r:id="rId3"/>
 </worksheet>
 </file>
--- a/CCSA.xlsx
+++ b/CCSA.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="22827"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="23001"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Rainy\Documents\GitHub\Economics\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A1AFE51E-2BAF-420F-87B2-9A96D06EE921}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7B7C03FF-9231-4FDD-B41A-C52BD4D54E64}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -220,8 +220,13 @@
             </a:pPr>
             <a:r>
               <a:rPr lang="en-US"/>
-              <a:t>CCSA</a:t>
+              <a:t>Continuing</a:t>
             </a:r>
+            <a:r>
+              <a:rPr lang="en-US" baseline="0"/>
+              <a:t> Claims</a:t>
+            </a:r>
+            <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:rich>
       </c:tx>
@@ -456,23 +461,35 @@
               </c:ext>
             </c:extLst>
           </c:dPt>
+          <c:dPt>
+            <c:idx val="13"/>
+            <c:marker>
+              <c:spPr>
+                <a:solidFill>
+                  <a:srgbClr val="FFFF00"/>
+                </a:solidFill>
+                <a:ln w="9525">
+                  <a:solidFill>
+                    <a:schemeClr val="accent1"/>
+                  </a:solidFill>
+                </a:ln>
+                <a:effectLst/>
+              </c:spPr>
+            </c:marker>
+            <c:bubble3D val="0"/>
+            <c:extLst>
+              <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+                <c16:uniqueId val="{0000000C-7FAC-478C-BA9C-B7E6ABC15101}"/>
+              </c:ext>
+            </c:extLst>
+          </c:dPt>
           <c:dLbls>
             <c:dLbl>
-              <c:idx val="11"/>
-              <c:delete val="1"/>
-              <c:extLst>
-                <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}"/>
-                <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-                  <c16:uniqueId val="{00000008-3FA1-4148-9C0C-648E50CC2FF1}"/>
-                </c:ext>
-              </c:extLst>
-            </c:dLbl>
-            <c:dLbl>
-              <c:idx val="12"/>
+              <c:idx val="13"/>
               <c:layout>
                 <c:manualLayout>
-                  <c:x val="-7.8778926637125286E-3"/>
-                  <c:y val="-0.10527701449639625"/>
+                  <c:x val="-9.8473658296405718E-3"/>
+                  <c:y val="-5.4744047538126027E-2"/>
                 </c:manualLayout>
               </c:layout>
               <c:showLegendKey val="0"/>
@@ -484,7 +501,7 @@
               <c:extLst>
                 <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}"/>
                 <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-                  <c16:uniqueId val="{0000000A-8232-4DDC-9D49-24F67FE3D335}"/>
+                  <c16:uniqueId val="{0000000C-7FAC-478C-BA9C-B7E6ABC15101}"/>
                 </c:ext>
               </c:extLst>
             </c:dLbl>
@@ -566,7 +583,7 @@
           </c:xVal>
           <c:yVal>
             <c:numRef>
-              <c:f>'FRED Graph'!$D$2790:$D$2805</c:f>
+              <c:f>'FRED Graph'!$E$2790:$E$2805</c:f>
               <c:numCache>
                 <c:formatCode>0</c:formatCode>
                 <c:ptCount val="16"/>
@@ -607,7 +624,10 @@
                   <c:v>18760000</c:v>
                 </c:pt>
                 <c:pt idx="12">
-                  <c:v>18062000</c:v>
+                  <c:v>17760000</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>17338000</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -621,7 +641,7 @@
         </c:ser>
         <c:ser>
           <c:idx val="2"/>
-          <c:order val="1"/>
+          <c:order val="2"/>
           <c:tx>
             <c:v>2008 Peak</c:v>
           </c:tx>
@@ -695,7 +715,7 @@
           </c:xVal>
           <c:yVal>
             <c:numRef>
-              <c:f>'FRED Graph'!$F$2790:$F$2805</c:f>
+              <c:f>'FRED Graph'!$G$2790:$G$2805</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="16"/>
@@ -763,8 +783,145 @@
         <c:scatterStyle val="lineMarker"/>
         <c:varyColors val="0"/>
         <c:ser>
+          <c:idx val="1"/>
+          <c:order val="1"/>
+          <c:tx>
+            <c:v>CCNSA</c:v>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="19050">
+              <a:noFill/>
+            </a:ln>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="circle"/>
+            <c:size val="5"/>
+            <c:spPr>
+              <a:ln>
+                <a:solidFill>
+                  <a:schemeClr val="tx1"/>
+                </a:solidFill>
+              </a:ln>
+            </c:spPr>
+          </c:marker>
+          <c:xVal>
+            <c:numRef>
+              <c:f>'FRED Graph'!$A$2790:$A$2805</c:f>
+              <c:numCache>
+                <c:formatCode>yyyy\-mm\-dd</c:formatCode>
+                <c:ptCount val="16"/>
+                <c:pt idx="0">
+                  <c:v>43925</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>43932</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>43939</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>43946</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>43953</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>43960</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>43967</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>43974</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>43981</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>43988</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>43995</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>44002</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>44009</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>44016</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>44023</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>44030</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:xVal>
+          <c:yVal>
+            <c:numRef>
+              <c:f>'FRED Graph'!$C$2790:$C$2803</c:f>
+              <c:numCache>
+                <c:formatCode>0</c:formatCode>
+                <c:ptCount val="14"/>
+                <c:pt idx="0">
+                  <c:v>12461658</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>16277322</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>17794965</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>21772595</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>20879704</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>22794145</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>18861428</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>19098624</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>18628166</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>18422711</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>17654450</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>17427940</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>16516869</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>17355176</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:yVal>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{0000000D-81A1-417F-9D6F-A8A69987238A}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
           <c:idx val="3"/>
-          <c:order val="2"/>
+          <c:order val="3"/>
           <c:tx>
             <c:v>2008 CCSA Data From Peak</c:v>
           </c:tx>
@@ -908,7 +1065,7 @@
           </c:xVal>
           <c:yVal>
             <c:numRef>
-              <c:f>'FRED Graph'!$H$2790:$H$2805</c:f>
+              <c:f>'FRED Graph'!$I$2790:$I$2805</c:f>
               <c:numCache>
                 <c:formatCode>0</c:formatCode>
                 <c:ptCount val="16"/>
@@ -1494,7 +1651,7 @@
           </c:trendline>
           <c:xVal>
             <c:numRef>
-              <c:f>'FRED Graph'!$I$2790:$I$2806</c:f>
+              <c:f>'FRED Graph'!$J$2790:$J$2806</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="17"/>
@@ -1554,7 +1711,7 @@
           </c:xVal>
           <c:yVal>
             <c:numRef>
-              <c:f>'FRED Graph'!$J$2790:$J$2806</c:f>
+              <c:f>'FRED Graph'!$K$2790:$K$2806</c:f>
               <c:numCache>
                 <c:formatCode>0</c:formatCode>
                 <c:ptCount val="17"/>
@@ -2476,13 +2633,13 @@
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>2</xdr:col>
+      <xdr:col>3</xdr:col>
       <xdr:colOff>1304925</xdr:colOff>
       <xdr:row>2766</xdr:row>
       <xdr:rowOff>47625</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>7</xdr:col>
+      <xdr:col>8</xdr:col>
       <xdr:colOff>847725</xdr:colOff>
       <xdr:row>2785</xdr:row>
       <xdr:rowOff>9525</xdr:rowOff>
@@ -2514,13 +2671,13 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>7</xdr:col>
+      <xdr:col>8</xdr:col>
       <xdr:colOff>1315640</xdr:colOff>
       <xdr:row>2766</xdr:row>
       <xdr:rowOff>27384</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>11</xdr:col>
+      <xdr:col>12</xdr:col>
       <xdr:colOff>363140</xdr:colOff>
       <xdr:row>2783</xdr:row>
       <xdr:rowOff>38099</xdr:rowOff>
@@ -2848,45 +3005,45 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:L2815"/>
+  <dimension ref="A1:M2819"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="B2763" zoomScale="160" zoomScaleNormal="160" workbookViewId="0">
-      <selection activeCell="C2780" sqref="C2780"/>
+    <sheetView tabSelected="1" topLeftCell="A2771" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
+      <selection activeCell="F2787" sqref="F2787"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="20.7109375" defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
   <sheetData>
-    <row r="1" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A1" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="2" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A2" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="3" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A3" t="s">
         <v>2</v>
       </c>
     </row>
-    <row r="4" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A4" t="s">
         <v>3</v>
       </c>
     </row>
-    <row r="5" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A5" t="s">
         <v>4</v>
       </c>
     </row>
-    <row r="6" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A6" t="s">
         <v>5</v>
       </c>
     </row>
-    <row r="8" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A8" t="s">
         <v>6</v>
       </c>
@@ -2894,24 +3051,24 @@
         <v>7</v>
       </c>
     </row>
-    <row r="10" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A10" t="s">
         <v>8</v>
       </c>
     </row>
-    <row r="11" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A11" t="s">
         <v>9</v>
       </c>
       <c r="B11" t="s">
         <v>13</v>
       </c>
-      <c r="C11" s="2">
+      <c r="D11" s="2">
         <f>AVERAGE(B12:B2787)</f>
         <v>2653342.9394812682</v>
       </c>
     </row>
-    <row r="12" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="12" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A12" s="1">
         <v>24479</v>
       </c>
@@ -2919,7 +3076,7 @@
         <v>1134000</v>
       </c>
     </row>
-    <row r="13" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A13" s="1">
         <v>24486</v>
       </c>
@@ -2927,7 +3084,7 @@
         <v>1119000</v>
       </c>
     </row>
-    <row r="14" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="14" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A14" s="1">
         <v>24493</v>
       </c>
@@ -2935,7 +3092,7 @@
         <v>1119000</v>
       </c>
     </row>
-    <row r="15" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="15" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A15" s="1">
         <v>24500</v>
       </c>
@@ -2943,7 +3100,7 @@
         <v>1103000</v>
       </c>
     </row>
-    <row r="16" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="16" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A16" s="1">
         <v>24507</v>
       </c>
@@ -25095,7 +25252,7 @@
         <v>1720000</v>
       </c>
     </row>
-    <row r="2785" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="2785" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A2785" s="1">
         <v>43890</v>
       </c>
@@ -25103,786 +25260,903 @@
         <v>1699000</v>
       </c>
     </row>
-    <row r="2786" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="2786" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A2786" s="1">
         <v>43897</v>
       </c>
       <c r="B2786">
         <v>1702000</v>
       </c>
-      <c r="K2786">
-        <f t="array" ref="K2786:L2787">LINEST(J2790:J2806,I2790:I2806,TRUE)</f>
+      <c r="C2786" s="2">
+        <v>1977272</v>
+      </c>
+      <c r="L2786">
+        <f t="array" ref="L2786:M2787">LINEST(K2790:K2806,J2790:J2806,TRUE)</f>
         <v>-41794.117647058796</v>
       </c>
-      <c r="L2786">
+      <c r="M2786">
         <v>6545764.7058823528</v>
       </c>
     </row>
-    <row r="2787" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="2787" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A2787" s="1">
         <v>43904</v>
       </c>
       <c r="B2787">
         <v>1784000</v>
       </c>
-      <c r="E2787">
-        <f>LINEST(D2795:D2798,C2795:C2798,TRUE)</f>
-        <v>-1152200</v>
-      </c>
-      <c r="K2787">
+      <c r="C2787" s="2">
+        <v>2074782</v>
+      </c>
+      <c r="F2787">
+        <f>LINEST(E2795:E2803,D2795:D2803,TRUE)</f>
+        <v>-770883.33333333326</v>
+      </c>
+      <c r="L2787">
         <v>-41794.117647058796</v>
       </c>
-      <c r="L2787">
+      <c r="M2787">
         <v>6545764.7058823528</v>
       </c>
     </row>
-    <row r="2788" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="2788" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A2788" s="1">
         <v>43911</v>
       </c>
       <c r="B2788">
         <v>3059000</v>
       </c>
-    </row>
-    <row r="2789" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="C2788" s="2">
+        <v>3416645</v>
+      </c>
+    </row>
+    <row r="2789" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A2789" s="1">
         <v>43918</v>
       </c>
       <c r="B2789">
         <v>7446000</v>
       </c>
-      <c r="C2789" s="3" t="s">
+      <c r="C2789" s="2">
+        <v>8168375</v>
+      </c>
+      <c r="D2789" s="3" t="s">
         <v>10</v>
       </c>
-      <c r="D2789" s="3" t="s">
+      <c r="E2789" s="3" t="s">
         <v>14</v>
       </c>
-      <c r="E2789" s="3" t="s">
+      <c r="F2789" s="3" t="s">
         <v>11</v>
       </c>
-      <c r="F2789" s="3" t="s">
+      <c r="G2789" s="3" t="s">
         <v>12</v>
       </c>
     </row>
-    <row r="2790" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="2790" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A2790" s="1">
         <v>43925</v>
       </c>
       <c r="B2790">
         <v>11914000</v>
       </c>
-      <c r="D2790" s="2">
-        <f t="shared" ref="D2790:D2802" si="0">B2790</f>
+      <c r="C2790" s="2">
+        <v>12461658</v>
+      </c>
+      <c r="E2790" s="2">
+        <f t="shared" ref="E2790:E2803" si="0">B2790</f>
         <v>11914000</v>
       </c>
-      <c r="E2790" s="2"/>
-      <c r="F2790" s="2">
-        <f>MAX(H2790:H2806)</f>
+      <c r="F2790" s="2"/>
+      <c r="G2790" s="2">
+        <f>MAX(I2790:I2806)</f>
         <v>6635000</v>
       </c>
-      <c r="G2790" s="1">
+      <c r="H2790" s="1">
         <f>A2224</f>
         <v>39963</v>
       </c>
-      <c r="H2790" s="2">
+      <c r="I2790" s="2">
         <f>B2224</f>
         <v>6635000</v>
       </c>
-      <c r="I2790">
+      <c r="J2790">
         <v>0</v>
       </c>
-      <c r="J2790" s="2">
-        <f>H2790</f>
+      <c r="K2790" s="2">
+        <f>I2790</f>
         <v>6635000</v>
       </c>
     </row>
-    <row r="2791" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="2791" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A2791" s="1">
         <v>43932</v>
       </c>
       <c r="B2791">
         <v>15819000</v>
       </c>
-      <c r="D2791" s="2">
+      <c r="C2791" s="2">
+        <v>16277322</v>
+      </c>
+      <c r="E2791" s="2">
         <f t="shared" si="0"/>
         <v>15819000</v>
       </c>
-      <c r="E2791" s="2"/>
-      <c r="F2791">
-        <f>F2790</f>
+      <c r="F2791" s="2"/>
+      <c r="G2791">
+        <f>G2790</f>
         <v>6635000</v>
       </c>
-      <c r="G2791" s="1">
-        <f t="shared" ref="G2791:H2791" si="1">A2225</f>
+      <c r="H2791" s="1">
+        <f>A2225</f>
         <v>39970</v>
       </c>
-      <c r="H2791" s="2">
-        <f t="shared" si="1"/>
+      <c r="I2791" s="2">
+        <f>B2225</f>
         <v>6506000</v>
       </c>
-      <c r="I2791">
+      <c r="J2791">
         <v>1</v>
       </c>
-      <c r="J2791" s="2">
-        <f t="shared" ref="J2791:J2806" si="2">H2791</f>
+      <c r="K2791" s="2">
+        <f t="shared" ref="K2791:K2806" si="1">I2791</f>
         <v>6506000</v>
       </c>
     </row>
-    <row r="2792" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="2792" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A2792" s="1">
         <v>43939</v>
       </c>
       <c r="B2792">
         <v>18011000</v>
       </c>
-      <c r="D2792" s="2">
+      <c r="C2792" s="2">
+        <v>17794965</v>
+      </c>
+      <c r="E2792" s="2">
         <f t="shared" si="0"/>
         <v>18011000</v>
       </c>
-      <c r="E2792" s="2"/>
-      <c r="F2792">
-        <f t="shared" ref="F2792:F2802" si="3">F2791</f>
+      <c r="F2792" s="2"/>
+      <c r="G2792">
+        <f t="shared" ref="G2792:G2802" si="2">G2791</f>
         <v>6635000</v>
       </c>
-      <c r="G2792" s="1">
-        <f t="shared" ref="G2792:H2792" si="4">A2226</f>
+      <c r="H2792" s="1">
+        <f>A2226</f>
         <v>39977</v>
       </c>
-      <c r="H2792" s="2">
-        <f t="shared" si="4"/>
+      <c r="I2792" s="2">
+        <f>B2226</f>
         <v>6525000</v>
       </c>
-      <c r="I2792">
+      <c r="J2792">
         <v>2</v>
       </c>
-      <c r="J2792" s="2">
-        <f t="shared" si="2"/>
+      <c r="K2792" s="2">
+        <f t="shared" si="1"/>
         <v>6525000</v>
       </c>
     </row>
-    <row r="2793" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="2793" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A2793" s="1">
         <v>43946</v>
       </c>
       <c r="B2793">
         <v>22377000</v>
       </c>
-      <c r="D2793" s="2">
+      <c r="C2793" s="2">
+        <v>21772595</v>
+      </c>
+      <c r="E2793" s="2">
         <f t="shared" si="0"/>
         <v>22377000</v>
       </c>
-      <c r="E2793" s="2"/>
-      <c r="F2793">
-        <f t="shared" si="3"/>
+      <c r="F2793" s="2"/>
+      <c r="G2793">
+        <f t="shared" si="2"/>
         <v>6635000</v>
       </c>
-      <c r="G2793" s="1">
-        <f t="shared" ref="G2793:H2793" si="5">A2227</f>
+      <c r="H2793" s="1">
+        <f>A2227</f>
         <v>39984</v>
       </c>
-      <c r="H2793" s="2">
-        <f t="shared" si="5"/>
+      <c r="I2793" s="2">
+        <f>B2227</f>
         <v>6488000</v>
       </c>
-      <c r="I2793">
+      <c r="J2793">
         <v>3</v>
       </c>
-      <c r="J2793" s="2">
-        <f t="shared" si="2"/>
+      <c r="K2793" s="2">
+        <f t="shared" si="1"/>
         <v>6488000</v>
       </c>
     </row>
-    <row r="2794" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="2794" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A2794" s="1">
         <v>43953</v>
       </c>
       <c r="B2794">
         <v>22548000</v>
       </c>
-      <c r="D2794" s="2">
+      <c r="C2794" s="2">
+        <v>20879704</v>
+      </c>
+      <c r="E2794" s="2">
         <f t="shared" si="0"/>
         <v>22548000</v>
       </c>
-      <c r="E2794" s="2"/>
-      <c r="F2794">
-        <f t="shared" si="3"/>
+      <c r="F2794" s="2"/>
+      <c r="G2794">
+        <f t="shared" si="2"/>
         <v>6635000</v>
       </c>
-      <c r="G2794" s="1">
-        <f t="shared" ref="G2794:H2794" si="6">A2228</f>
+      <c r="H2794" s="1">
+        <f>A2228</f>
         <v>39991</v>
       </c>
-      <c r="H2794" s="2">
-        <f t="shared" si="6"/>
+      <c r="I2794" s="2">
+        <f>B2228</f>
         <v>6618000</v>
       </c>
-      <c r="I2794">
+      <c r="J2794">
         <v>4</v>
       </c>
-      <c r="J2794" s="2">
-        <f t="shared" si="2"/>
+      <c r="K2794" s="2">
+        <f t="shared" si="1"/>
         <v>6618000</v>
       </c>
     </row>
-    <row r="2795" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="2795" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A2795" s="1">
-        <f t="shared" ref="A2795:A2815" si="7">A2794+7</f>
+        <f t="shared" ref="A2795:A2819" si="3">A2794+7</f>
         <v>43960</v>
       </c>
       <c r="B2795">
         <v>24912000</v>
       </c>
-      <c r="C2795">
+      <c r="C2795" s="2">
+        <v>22794145</v>
+      </c>
+      <c r="D2795">
         <v>0</v>
       </c>
-      <c r="D2795" s="2">
+      <c r="E2795" s="2">
         <f t="shared" si="0"/>
         <v>24912000</v>
       </c>
-      <c r="E2795" s="2">
-        <f>$D$2795+($E$2787*C2795)</f>
+      <c r="F2795" s="2">
+        <f>$E$2795+($F$2787*D2795)</f>
         <v>24912000</v>
       </c>
-      <c r="F2795">
+      <c r="G2795">
+        <f t="shared" si="2"/>
+        <v>6635000</v>
+      </c>
+      <c r="H2795" s="1">
+        <f>A2229</f>
+        <v>39998</v>
+      </c>
+      <c r="I2795" s="2">
+        <f>B2229</f>
+        <v>6145000</v>
+      </c>
+      <c r="J2795">
+        <v>5</v>
+      </c>
+      <c r="K2795" s="2">
+        <f t="shared" si="1"/>
+        <v>6145000</v>
+      </c>
+    </row>
+    <row r="2796" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="A2796" s="1">
         <f t="shared" si="3"/>
-        <v>6635000</v>
-      </c>
-      <c r="G2795" s="1">
-        <f t="shared" ref="G2795:H2795" si="8">A2229</f>
-        <v>39998</v>
-      </c>
-      <c r="H2795" s="2">
-        <f t="shared" si="8"/>
-        <v>6145000</v>
-      </c>
-      <c r="I2795">
-        <v>5</v>
-      </c>
-      <c r="J2795" s="2">
-        <f t="shared" si="2"/>
-        <v>6145000</v>
-      </c>
-    </row>
-    <row r="2796" spans="1:12" x14ac:dyDescent="0.2">
-      <c r="A2796" s="1">
-        <f t="shared" si="7"/>
         <v>43967</v>
       </c>
       <c r="B2796">
         <v>20841000</v>
       </c>
-      <c r="C2796">
-        <f t="shared" ref="C2796:C2797" si="9">C2795+1</f>
+      <c r="C2796" s="2">
+        <v>18861428</v>
+      </c>
+      <c r="D2796">
+        <f t="shared" ref="D2796:D2797" si="4">D2795+1</f>
         <v>1</v>
       </c>
-      <c r="D2796" s="2">
+      <c r="E2796" s="2">
         <f t="shared" si="0"/>
         <v>20841000</v>
       </c>
-      <c r="E2796" s="2">
-        <f t="shared" ref="E2796:E2815" si="10">$D$2795+($E$2787*C2796)</f>
-        <v>23759800</v>
-      </c>
-      <c r="F2796">
+      <c r="F2796" s="2">
+        <f t="shared" ref="F2796:F2815" si="5">$E$2795+($F$2787*D2796)</f>
+        <v>24141116.666666668</v>
+      </c>
+      <c r="G2796">
+        <f t="shared" si="2"/>
+        <v>6635000</v>
+      </c>
+      <c r="H2796" s="1">
+        <f>A2230</f>
+        <v>40005</v>
+      </c>
+      <c r="I2796" s="2">
+        <f>B2230</f>
+        <v>6136000</v>
+      </c>
+      <c r="J2796">
+        <v>6</v>
+      </c>
+      <c r="K2796" s="2">
+        <f t="shared" si="1"/>
+        <v>6136000</v>
+      </c>
+    </row>
+    <row r="2797" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="A2797" s="1">
         <f t="shared" si="3"/>
-        <v>6635000</v>
-      </c>
-      <c r="G2796" s="1">
-        <f t="shared" ref="G2796:H2796" si="11">A2230</f>
-        <v>40005</v>
-      </c>
-      <c r="H2796" s="2">
-        <f t="shared" si="11"/>
-        <v>6136000</v>
-      </c>
-      <c r="I2796">
-        <v>6</v>
-      </c>
-      <c r="J2796" s="2">
-        <f t="shared" si="2"/>
-        <v>6136000</v>
-      </c>
-    </row>
-    <row r="2797" spans="1:12" x14ac:dyDescent="0.2">
-      <c r="A2797" s="1">
-        <f t="shared" si="7"/>
         <v>43974</v>
       </c>
       <c r="B2797">
         <v>21268000</v>
       </c>
-      <c r="C2797">
-        <f t="shared" si="9"/>
+      <c r="C2797" s="2">
+        <v>19098624</v>
+      </c>
+      <c r="D2797">
+        <f t="shared" si="4"/>
         <v>2</v>
       </c>
-      <c r="D2797" s="2">
+      <c r="E2797" s="2">
         <f t="shared" si="0"/>
         <v>21268000</v>
       </c>
-      <c r="E2797" s="2">
-        <f t="shared" si="10"/>
-        <v>22607600</v>
-      </c>
-      <c r="F2797">
+      <c r="F2797" s="2">
+        <f t="shared" si="5"/>
+        <v>23370233.333333332</v>
+      </c>
+      <c r="G2797">
+        <f t="shared" si="2"/>
+        <v>6635000</v>
+      </c>
+      <c r="H2797" s="1">
+        <f>A2231</f>
+        <v>40012</v>
+      </c>
+      <c r="I2797" s="2">
+        <f>B2231</f>
+        <v>6118000</v>
+      </c>
+      <c r="J2797">
+        <v>7</v>
+      </c>
+      <c r="K2797" s="2">
+        <f t="shared" si="1"/>
+        <v>6118000</v>
+      </c>
+    </row>
+    <row r="2798" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="A2798" s="1">
         <f t="shared" si="3"/>
-        <v>6635000</v>
-      </c>
-      <c r="G2797" s="1">
-        <f t="shared" ref="G2797:H2797" si="12">A2231</f>
-        <v>40012</v>
-      </c>
-      <c r="H2797" s="2">
-        <f t="shared" si="12"/>
-        <v>6118000</v>
-      </c>
-      <c r="I2797">
-        <v>7</v>
-      </c>
-      <c r="J2797" s="2">
-        <f t="shared" si="2"/>
-        <v>6118000</v>
-      </c>
-    </row>
-    <row r="2798" spans="1:12" x14ac:dyDescent="0.2">
-      <c r="A2798" s="1">
-        <f t="shared" si="7"/>
         <v>43981</v>
       </c>
       <c r="B2798">
         <v>20929000</v>
       </c>
-      <c r="C2798">
-        <f>C2797+1</f>
+      <c r="C2798" s="2">
+        <v>18628166</v>
+      </c>
+      <c r="D2798">
+        <f>D2797+1</f>
         <v>3</v>
       </c>
-      <c r="D2798" s="2">
+      <c r="E2798" s="2">
         <f t="shared" si="0"/>
         <v>20929000</v>
       </c>
-      <c r="E2798" s="2">
-        <f t="shared" si="10"/>
-        <v>21455400</v>
-      </c>
-      <c r="F2798">
+      <c r="F2798" s="2">
+        <f t="shared" si="5"/>
+        <v>22599350</v>
+      </c>
+      <c r="G2798">
+        <f t="shared" si="2"/>
+        <v>6635000</v>
+      </c>
+      <c r="H2798" s="1">
+        <f>A2232</f>
+        <v>40019</v>
+      </c>
+      <c r="I2798" s="2">
+        <f>B2232</f>
+        <v>6157000</v>
+      </c>
+      <c r="J2798">
+        <v>8</v>
+      </c>
+      <c r="K2798" s="2">
+        <f t="shared" si="1"/>
+        <v>6157000</v>
+      </c>
+    </row>
+    <row r="2799" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="A2799" s="1">
         <f t="shared" si="3"/>
-        <v>6635000</v>
-      </c>
-      <c r="G2798" s="1">
-        <f t="shared" ref="G2798:H2798" si="13">A2232</f>
-        <v>40019</v>
-      </c>
-      <c r="H2798" s="2">
-        <f t="shared" si="13"/>
-        <v>6157000</v>
-      </c>
-      <c r="I2798">
-        <v>8</v>
-      </c>
-      <c r="J2798" s="2">
-        <f t="shared" si="2"/>
-        <v>6157000</v>
-      </c>
-    </row>
-    <row r="2799" spans="1:12" x14ac:dyDescent="0.2">
-      <c r="A2799" s="1">
-        <f t="shared" si="7"/>
         <v>43988</v>
       </c>
       <c r="B2799" s="2">
         <v>20289000</v>
       </c>
-      <c r="C2799">
-        <f>C2798+1</f>
+      <c r="C2799" s="2">
+        <v>18422711</v>
+      </c>
+      <c r="D2799">
+        <f>D2798+1</f>
         <v>4</v>
       </c>
-      <c r="D2799" s="2">
+      <c r="E2799" s="2">
         <f t="shared" si="0"/>
         <v>20289000</v>
       </c>
-      <c r="E2799" s="2">
-        <f t="shared" si="10"/>
-        <v>20303200</v>
-      </c>
-      <c r="F2799">
+      <c r="F2799" s="2">
+        <f t="shared" si="5"/>
+        <v>21828466.666666668</v>
+      </c>
+      <c r="G2799">
+        <f t="shared" si="2"/>
+        <v>6635000</v>
+      </c>
+      <c r="H2799" s="1">
+        <f>A2233</f>
+        <v>40026</v>
+      </c>
+      <c r="I2799" s="2">
+        <f>B2233</f>
+        <v>6111000</v>
+      </c>
+      <c r="J2799">
+        <v>9</v>
+      </c>
+      <c r="K2799" s="2">
+        <f t="shared" si="1"/>
+        <v>6111000</v>
+      </c>
+    </row>
+    <row r="2800" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="A2800" s="1">
         <f t="shared" si="3"/>
-        <v>6635000</v>
-      </c>
-      <c r="G2799" s="1">
-        <f t="shared" ref="G2799:H2799" si="14">A2233</f>
-        <v>40026</v>
-      </c>
-      <c r="H2799" s="2">
-        <f t="shared" si="14"/>
-        <v>6111000</v>
-      </c>
-      <c r="I2799">
-        <v>9</v>
-      </c>
-      <c r="J2799" s="2">
-        <f t="shared" si="2"/>
-        <v>6111000</v>
-      </c>
-    </row>
-    <row r="2800" spans="1:12" x14ac:dyDescent="0.2">
-      <c r="A2800" s="1">
-        <f t="shared" si="7"/>
         <v>43995</v>
       </c>
       <c r="B2800">
         <v>19231000</v>
       </c>
-      <c r="C2800">
-        <f>C2799+1</f>
+      <c r="C2800" s="2">
+        <v>17654450</v>
+      </c>
+      <c r="D2800">
+        <f>D2799+1</f>
         <v>5</v>
       </c>
-      <c r="D2800" s="2">
+      <c r="E2800" s="2">
         <f t="shared" si="0"/>
         <v>19231000</v>
       </c>
-      <c r="E2800" s="2">
-        <f t="shared" si="10"/>
-        <v>19151000</v>
-      </c>
-      <c r="F2800">
+      <c r="F2800" s="2">
+        <f t="shared" si="5"/>
+        <v>21057583.333333336</v>
+      </c>
+      <c r="G2800">
+        <f t="shared" si="2"/>
+        <v>6635000</v>
+      </c>
+      <c r="H2800" s="1">
+        <f>A2234</f>
+        <v>40033</v>
+      </c>
+      <c r="I2800" s="2">
+        <f>B2234</f>
+        <v>6090000</v>
+      </c>
+      <c r="J2800">
+        <v>10</v>
+      </c>
+      <c r="K2800" s="2">
+        <f t="shared" si="1"/>
+        <v>6090000</v>
+      </c>
+    </row>
+    <row r="2801" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A2801" s="1">
         <f t="shared" si="3"/>
-        <v>6635000</v>
-      </c>
-      <c r="G2800" s="1">
-        <f t="shared" ref="G2800:H2800" si="15">A2234</f>
-        <v>40033</v>
-      </c>
-      <c r="H2800" s="2">
-        <f t="shared" si="15"/>
-        <v>6090000</v>
-      </c>
-      <c r="I2800">
-        <v>10</v>
-      </c>
-      <c r="J2800" s="2">
-        <f t="shared" si="2"/>
-        <v>6090000</v>
-      </c>
-    </row>
-    <row r="2801" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A2801" s="1">
-        <f t="shared" si="7"/>
         <v>44002</v>
       </c>
       <c r="B2801">
         <v>18760000</v>
       </c>
-      <c r="C2801">
-        <f>C2800+1</f>
+      <c r="C2801" s="2">
+        <v>17427940</v>
+      </c>
+      <c r="D2801">
+        <f>D2800+1</f>
         <v>6</v>
       </c>
-      <c r="D2801" s="2">
+      <c r="E2801" s="2">
         <f t="shared" si="0"/>
         <v>18760000</v>
       </c>
-      <c r="E2801" s="2">
+      <c r="F2801" s="2">
+        <f t="shared" si="5"/>
+        <v>20286700</v>
+      </c>
+      <c r="G2801">
+        <f t="shared" si="2"/>
+        <v>6635000</v>
+      </c>
+      <c r="H2801" s="1">
+        <f>A2235</f>
+        <v>40040</v>
+      </c>
+      <c r="I2801" s="2">
+        <f>B2235</f>
+        <v>6008000</v>
+      </c>
+      <c r="J2801">
+        <v>11</v>
+      </c>
+      <c r="K2801" s="2">
+        <f t="shared" si="1"/>
+        <v>6008000</v>
+      </c>
+    </row>
+    <row r="2802" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A2802" s="1">
+        <f t="shared" si="3"/>
+        <v>44009</v>
+      </c>
+      <c r="B2802">
+        <v>17760000</v>
+      </c>
+      <c r="C2802" s="2">
+        <v>16516869</v>
+      </c>
+      <c r="D2802">
+        <f>D2801+1</f>
+        <v>7</v>
+      </c>
+      <c r="E2802" s="2">
+        <f t="shared" si="0"/>
+        <v>17760000</v>
+      </c>
+      <c r="F2802" s="2">
+        <f t="shared" si="5"/>
+        <v>19515816.666666668</v>
+      </c>
+      <c r="G2802">
+        <f t="shared" si="2"/>
+        <v>6635000</v>
+      </c>
+      <c r="H2802" s="1">
+        <f>A2236</f>
+        <v>40047</v>
+      </c>
+      <c r="I2802" s="2">
+        <f>B2236</f>
+        <v>6060000</v>
+      </c>
+      <c r="J2802">
+        <v>12</v>
+      </c>
+      <c r="K2802" s="2">
+        <f t="shared" si="1"/>
+        <v>6060000</v>
+      </c>
+    </row>
+    <row r="2803" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A2803" s="1">
+        <f t="shared" si="3"/>
+        <v>44016</v>
+      </c>
+      <c r="B2803">
+        <v>17338000</v>
+      </c>
+      <c r="C2803" s="2">
+        <v>17355176</v>
+      </c>
+      <c r="D2803">
+        <f t="shared" ref="D2803:D2819" si="6">D2802+1</f>
+        <v>8</v>
+      </c>
+      <c r="E2803" s="2">
+        <f t="shared" si="0"/>
+        <v>17338000</v>
+      </c>
+      <c r="F2803" s="2">
+        <f t="shared" si="5"/>
+        <v>18744933.333333336</v>
+      </c>
+      <c r="H2803" s="1">
+        <f t="shared" ref="H2803:I2803" si="7">A2237</f>
+        <v>40054</v>
+      </c>
+      <c r="I2803" s="2">
+        <f t="shared" si="7"/>
+        <v>5970000</v>
+      </c>
+      <c r="J2803">
+        <v>13</v>
+      </c>
+      <c r="K2803" s="2">
+        <f t="shared" si="1"/>
+        <v>5970000</v>
+      </c>
+    </row>
+    <row r="2804" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A2804" s="1">
+        <f t="shared" si="3"/>
+        <v>44023</v>
+      </c>
+      <c r="D2804">
+        <f t="shared" si="6"/>
+        <v>9</v>
+      </c>
+      <c r="F2804" s="2">
+        <f t="shared" si="5"/>
+        <v>17974050</v>
+      </c>
+      <c r="H2804" s="1">
+        <f t="shared" ref="H2804:I2804" si="8">A2238</f>
+        <v>40061</v>
+      </c>
+      <c r="I2804" s="2">
+        <f t="shared" si="8"/>
+        <v>6079000</v>
+      </c>
+      <c r="J2804">
+        <v>14</v>
+      </c>
+      <c r="K2804" s="2">
+        <f t="shared" si="1"/>
+        <v>6079000</v>
+      </c>
+    </row>
+    <row r="2805" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A2805" s="1">
+        <f t="shared" si="3"/>
+        <v>44030</v>
+      </c>
+      <c r="D2805">
+        <f t="shared" si="6"/>
+        <v>10</v>
+      </c>
+      <c r="F2805" s="2">
+        <f t="shared" si="5"/>
+        <v>17203166.666666668</v>
+      </c>
+      <c r="H2805" s="1">
+        <f t="shared" ref="H2805:I2805" si="9">A2239</f>
+        <v>40068</v>
+      </c>
+      <c r="I2805" s="2">
+        <f t="shared" si="9"/>
+        <v>6006000</v>
+      </c>
+      <c r="J2805">
+        <v>15</v>
+      </c>
+      <c r="K2805" s="2">
+        <f t="shared" si="1"/>
+        <v>6006000</v>
+      </c>
+    </row>
+    <row r="2806" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A2806" s="1">
+        <f t="shared" si="3"/>
+        <v>44037</v>
+      </c>
+      <c r="D2806">
+        <f t="shared" si="6"/>
+        <v>11</v>
+      </c>
+      <c r="F2806" s="2">
+        <f t="shared" si="5"/>
+        <v>16432283.333333334</v>
+      </c>
+      <c r="H2806" s="1">
+        <f t="shared" ref="H2806:I2806" si="10">A2240</f>
+        <v>40075</v>
+      </c>
+      <c r="I2806" s="2">
         <f t="shared" si="10"/>
-        <v>17998800</v>
-      </c>
-      <c r="F2801">
+        <v>5942000</v>
+      </c>
+      <c r="J2806">
+        <v>16</v>
+      </c>
+      <c r="K2806" s="2">
+        <f t="shared" si="1"/>
+        <v>5942000</v>
+      </c>
+    </row>
+    <row r="2807" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A2807" s="1">
         <f t="shared" si="3"/>
-        <v>6635000</v>
-      </c>
-      <c r="G2801" s="1">
-        <f t="shared" ref="G2801:H2801" si="16">A2235</f>
-        <v>40040</v>
-      </c>
-      <c r="H2801" s="2">
-        <f t="shared" si="16"/>
-        <v>6008000</v>
-      </c>
-      <c r="I2801">
-        <v>11</v>
-      </c>
-      <c r="J2801" s="2">
-        <f t="shared" si="2"/>
-        <v>6008000</v>
-      </c>
-    </row>
-    <row r="2802" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A2802" s="1">
-        <f t="shared" si="7"/>
-        <v>44009</v>
-      </c>
-      <c r="B2802">
-        <v>18062000</v>
-      </c>
-      <c r="C2802">
-        <f>C2801+1</f>
-        <v>7</v>
-      </c>
-      <c r="D2802" s="2">
-        <f t="shared" si="0"/>
-        <v>18062000</v>
-      </c>
-      <c r="E2802" s="2">
-        <f t="shared" si="10"/>
-        <v>16846600</v>
-      </c>
-      <c r="F2802">
+        <v>44044</v>
+      </c>
+      <c r="D2807">
+        <f t="shared" si="6"/>
+        <v>12</v>
+      </c>
+      <c r="F2807" s="2">
+        <f t="shared" si="5"/>
+        <v>15661400</v>
+      </c>
+    </row>
+    <row r="2808" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A2808" s="1">
         <f t="shared" si="3"/>
-        <v>6635000</v>
-      </c>
-      <c r="G2802" s="1">
-        <f t="shared" ref="G2802:H2802" si="17">A2236</f>
-        <v>40047</v>
-      </c>
-      <c r="H2802" s="2">
-        <f t="shared" si="17"/>
-        <v>6060000</v>
-      </c>
-      <c r="I2802">
-        <v>12</v>
-      </c>
-      <c r="J2802" s="2">
-        <f t="shared" si="2"/>
-        <v>6060000</v>
-      </c>
-    </row>
-    <row r="2803" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A2803" s="1">
-        <f t="shared" si="7"/>
-        <v>44016</v>
-      </c>
-      <c r="C2803">
-        <f t="shared" ref="C2803:C2815" si="18">C2802+1</f>
-        <v>8</v>
-      </c>
-      <c r="E2803" s="2">
-        <f t="shared" si="10"/>
-        <v>15694400</v>
-      </c>
-      <c r="G2803" s="1">
-        <f t="shared" ref="G2803:H2803" si="19">A2237</f>
-        <v>40054</v>
-      </c>
-      <c r="H2803" s="2">
-        <f t="shared" si="19"/>
-        <v>5970000</v>
-      </c>
-      <c r="I2803">
+        <v>44051</v>
+      </c>
+      <c r="D2808">
+        <f t="shared" si="6"/>
         <v>13</v>
       </c>
-      <c r="J2803" s="2">
-        <f t="shared" si="2"/>
-        <v>5970000</v>
-      </c>
-    </row>
-    <row r="2804" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A2804" s="1">
-        <f t="shared" si="7"/>
-        <v>44023</v>
-      </c>
-      <c r="C2804">
-        <f t="shared" si="18"/>
-        <v>9</v>
-      </c>
-      <c r="E2804" s="2">
-        <f t="shared" si="10"/>
-        <v>14542200</v>
-      </c>
-      <c r="G2804" s="1">
-        <f t="shared" ref="G2804:H2804" si="20">A2238</f>
-        <v>40061</v>
-      </c>
-      <c r="H2804" s="2">
-        <f t="shared" si="20"/>
-        <v>6079000</v>
-      </c>
-      <c r="I2804">
+      <c r="F2808" s="2">
+        <f t="shared" si="5"/>
+        <v>14890516.666666668</v>
+      </c>
+    </row>
+    <row r="2809" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A2809" s="1">
+        <f t="shared" si="3"/>
+        <v>44058</v>
+      </c>
+      <c r="D2809">
+        <f t="shared" si="6"/>
         <v>14</v>
       </c>
-      <c r="J2804" s="2">
-        <f t="shared" si="2"/>
-        <v>6079000</v>
-      </c>
-    </row>
-    <row r="2805" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A2805" s="1">
-        <f t="shared" si="7"/>
-        <v>44030</v>
-      </c>
-      <c r="C2805">
-        <f t="shared" si="18"/>
-        <v>10</v>
-      </c>
-      <c r="E2805" s="2">
-        <f t="shared" si="10"/>
-        <v>13390000</v>
-      </c>
-      <c r="G2805" s="1">
-        <f t="shared" ref="G2805:H2805" si="21">A2239</f>
-        <v>40068</v>
-      </c>
-      <c r="H2805" s="2">
-        <f t="shared" si="21"/>
-        <v>6006000</v>
-      </c>
-      <c r="I2805">
+      <c r="F2809" s="2">
+        <f t="shared" si="5"/>
+        <v>14119633.333333334</v>
+      </c>
+    </row>
+    <row r="2810" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A2810" s="1">
+        <f t="shared" si="3"/>
+        <v>44065</v>
+      </c>
+      <c r="D2810">
+        <f t="shared" si="6"/>
         <v>15</v>
       </c>
-      <c r="J2805" s="2">
-        <f t="shared" si="2"/>
-        <v>6006000</v>
-      </c>
-    </row>
-    <row r="2806" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A2806" s="1">
-        <f t="shared" si="7"/>
-        <v>44037</v>
-      </c>
-      <c r="C2806">
-        <f t="shared" si="18"/>
-        <v>11</v>
-      </c>
-      <c r="E2806" s="2">
-        <f t="shared" si="10"/>
-        <v>12237800</v>
-      </c>
-      <c r="G2806" s="1">
-        <f t="shared" ref="G2806:H2806" si="22">A2240</f>
-        <v>40075</v>
-      </c>
-      <c r="H2806" s="2">
-        <f t="shared" si="22"/>
-        <v>5942000</v>
-      </c>
-      <c r="I2806">
+      <c r="F2810" s="2">
+        <f t="shared" si="5"/>
+        <v>13348750.000000002</v>
+      </c>
+    </row>
+    <row r="2811" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A2811" s="1">
+        <f t="shared" si="3"/>
+        <v>44072</v>
+      </c>
+      <c r="D2811">
+        <f t="shared" si="6"/>
         <v>16</v>
       </c>
-      <c r="J2806" s="2">
-        <f t="shared" si="2"/>
-        <v>5942000</v>
-      </c>
-    </row>
-    <row r="2807" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A2807" s="1">
-        <f t="shared" si="7"/>
-        <v>44044</v>
-      </c>
-      <c r="C2807">
-        <f t="shared" si="18"/>
-        <v>12</v>
-      </c>
-      <c r="E2807" s="2">
-        <f t="shared" si="10"/>
-        <v>11085600</v>
-      </c>
-    </row>
-    <row r="2808" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A2808" s="1">
-        <f t="shared" si="7"/>
-        <v>44051</v>
-      </c>
-      <c r="C2808">
-        <f t="shared" si="18"/>
-        <v>13</v>
-      </c>
-      <c r="E2808" s="2">
-        <f t="shared" si="10"/>
-        <v>9933400</v>
-      </c>
-    </row>
-    <row r="2809" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A2809" s="1">
-        <f t="shared" si="7"/>
-        <v>44058</v>
-      </c>
-      <c r="C2809">
-        <f t="shared" si="18"/>
-        <v>14</v>
-      </c>
-      <c r="E2809" s="2">
-        <f t="shared" si="10"/>
-        <v>8781200</v>
-      </c>
-    </row>
-    <row r="2810" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A2810" s="1">
-        <f t="shared" si="7"/>
-        <v>44065</v>
-      </c>
-      <c r="C2810">
-        <f t="shared" si="18"/>
-        <v>15</v>
-      </c>
-      <c r="E2810" s="2">
-        <f t="shared" si="10"/>
-        <v>7629000</v>
-      </c>
-    </row>
-    <row r="2811" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A2811" s="1">
-        <f t="shared" si="7"/>
-        <v>44072</v>
-      </c>
-      <c r="C2811">
-        <f t="shared" si="18"/>
-        <v>16</v>
-      </c>
-      <c r="E2811" s="2">
-        <f t="shared" si="10"/>
-        <v>6476800</v>
-      </c>
-    </row>
-    <row r="2812" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="F2811" s="2">
+        <f t="shared" si="5"/>
+        <v>12577866.666666668</v>
+      </c>
+    </row>
+    <row r="2812" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A2812" s="1">
-        <f t="shared" si="7"/>
+        <f t="shared" si="3"/>
         <v>44079</v>
       </c>
-      <c r="C2812">
-        <f t="shared" si="18"/>
+      <c r="D2812">
+        <f t="shared" si="6"/>
         <v>17</v>
       </c>
-      <c r="E2812" s="2">
-        <f t="shared" si="10"/>
-        <v>5324600</v>
-      </c>
-    </row>
-    <row r="2813" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="F2812" s="2">
+        <f t="shared" si="5"/>
+        <v>11806983.333333334</v>
+      </c>
+    </row>
+    <row r="2813" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A2813" s="1">
-        <f t="shared" si="7"/>
+        <f t="shared" si="3"/>
         <v>44086</v>
       </c>
-      <c r="C2813">
-        <f t="shared" si="18"/>
+      <c r="D2813">
+        <f t="shared" si="6"/>
         <v>18</v>
       </c>
-      <c r="E2813" s="2">
-        <f t="shared" si="10"/>
-        <v>4172400</v>
-      </c>
-    </row>
-    <row r="2814" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="F2813" s="2">
+        <f t="shared" si="5"/>
+        <v>11036100.000000002</v>
+      </c>
+    </row>
+    <row r="2814" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A2814" s="1">
-        <f t="shared" si="7"/>
+        <f t="shared" si="3"/>
         <v>44093</v>
       </c>
-      <c r="C2814">
-        <f t="shared" si="18"/>
+      <c r="D2814">
+        <f t="shared" si="6"/>
         <v>19</v>
       </c>
-      <c r="E2814" s="2">
-        <f t="shared" si="10"/>
-        <v>3020200</v>
-      </c>
-    </row>
-    <row r="2815" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="F2814" s="2">
+        <f t="shared" si="5"/>
+        <v>10265216.666666668</v>
+      </c>
+    </row>
+    <row r="2815" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A2815" s="1">
-        <f t="shared" si="7"/>
+        <f t="shared" si="3"/>
         <v>44100</v>
       </c>
-      <c r="C2815">
-        <f t="shared" si="18"/>
+      <c r="D2815">
+        <f t="shared" si="6"/>
         <v>20</v>
       </c>
-      <c r="E2815" s="2">
-        <f t="shared" si="10"/>
-        <v>1868000</v>
+      <c r="F2815" s="2">
+        <f t="shared" si="5"/>
+        <v>9494333.3333333358</v>
+      </c>
+    </row>
+    <row r="2816" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A2816" s="1">
+        <f t="shared" si="3"/>
+        <v>44107</v>
+      </c>
+      <c r="D2816">
+        <f t="shared" si="6"/>
+        <v>21</v>
+      </c>
+      <c r="F2816" s="2">
+        <f t="shared" ref="F2816:F2819" si="11">$E$2795+($F$2787*D2816)</f>
+        <v>8723450.0000000019</v>
+      </c>
+    </row>
+    <row r="2817" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A2817" s="1">
+        <f t="shared" si="3"/>
+        <v>44114</v>
+      </c>
+      <c r="D2817">
+        <f t="shared" si="6"/>
+        <v>22</v>
+      </c>
+      <c r="F2817" s="2">
+        <f t="shared" si="11"/>
+        <v>7952566.6666666679</v>
+      </c>
+    </row>
+    <row r="2818" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A2818" s="1">
+        <f t="shared" si="3"/>
+        <v>44121</v>
+      </c>
+      <c r="D2818">
+        <f t="shared" si="6"/>
+        <v>23</v>
+      </c>
+      <c r="F2818" s="2">
+        <f t="shared" si="11"/>
+        <v>7181683.3333333358</v>
+      </c>
+    </row>
+    <row r="2819" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A2819" s="1">
+        <f t="shared" si="3"/>
+        <v>44128</v>
+      </c>
+      <c r="D2819">
+        <f t="shared" si="6"/>
+        <v>24</v>
+      </c>
+      <c r="F2819" s="2">
+        <f t="shared" si="11"/>
+        <v>6410800</v>
       </c>
     </row>
   </sheetData>

--- a/CCSA.xlsx
+++ b/CCSA.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Rainy\Documents\GitHub\Economics\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7B7C03FF-9231-4FDD-B41A-C52BD4D54E64}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{99927F56-A262-4779-B3FB-7D451B289BDF}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -483,47 +483,28 @@
               </c:ext>
             </c:extLst>
           </c:dPt>
-          <c:dLbls>
-            <c:dLbl>
-              <c:idx val="13"/>
-              <c:layout>
-                <c:manualLayout>
-                  <c:x val="-9.8473658296405718E-3"/>
-                  <c:y val="-5.4744047538126027E-2"/>
-                </c:manualLayout>
-              </c:layout>
-              <c:showLegendKey val="0"/>
-              <c:showVal val="1"/>
-              <c:showCatName val="0"/>
-              <c:showSerName val="0"/>
-              <c:showPercent val="0"/>
-              <c:showBubbleSize val="0"/>
-              <c:extLst>
-                <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}"/>
-                <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-                  <c16:uniqueId val="{0000000C-7FAC-478C-BA9C-B7E6ABC15101}"/>
-                </c:ext>
-              </c:extLst>
-            </c:dLbl>
-            <c:spPr>
-              <a:noFill/>
-              <a:ln>
-                <a:noFill/>
-              </a:ln>
-              <a:effectLst/>
-            </c:spPr>
-            <c:showLegendKey val="0"/>
-            <c:showVal val="0"/>
-            <c:showCatName val="0"/>
-            <c:showSerName val="0"/>
-            <c:showPercent val="0"/>
-            <c:showBubbleSize val="0"/>
+          <c:dPt>
+            <c:idx val="14"/>
+            <c:marker>
+              <c:spPr>
+                <a:solidFill>
+                  <a:srgbClr val="FFFF00"/>
+                </a:solidFill>
+                <a:ln w="9525">
+                  <a:solidFill>
+                    <a:schemeClr val="accent1"/>
+                  </a:solidFill>
+                </a:ln>
+                <a:effectLst/>
+              </c:spPr>
+            </c:marker>
+            <c:bubble3D val="0"/>
             <c:extLst>
-              <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
-                <c15:showLeaderLines val="1"/>
+              <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+                <c16:uniqueId val="{0000000E-9DC2-412E-8450-CDF10A4ECBCD}"/>
               </c:ext>
             </c:extLst>
-          </c:dLbls>
+          </c:dPt>
           <c:xVal>
             <c:numRef>
               <c:f>'FRED Graph'!$A$2790:$A$2805</c:f>
@@ -627,7 +608,10 @@
                   <c:v>17760000</c:v>
                 </c:pt>
                 <c:pt idx="13">
-                  <c:v>17338000</c:v>
+                  <c:v>17304000</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>16197000</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -804,12 +788,53 @@
               </a:ln>
             </c:spPr>
           </c:marker>
+          <c:dLbls>
+            <c:dLbl>
+              <c:idx val="14"/>
+              <c:layout>
+                <c:manualLayout>
+                  <c:x val="-1.3803889125423545E-2"/>
+                  <c:y val="-5.3566364865136697E-2"/>
+                </c:manualLayout>
+              </c:layout>
+              <c:showLegendKey val="0"/>
+              <c:showVal val="1"/>
+              <c:showCatName val="0"/>
+              <c:showSerName val="0"/>
+              <c:showPercent val="0"/>
+              <c:showBubbleSize val="0"/>
+              <c:extLst>
+                <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}"/>
+                <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+                  <c16:uniqueId val="{0000000D-9DC2-412E-8450-CDF10A4ECBCD}"/>
+                </c:ext>
+              </c:extLst>
+            </c:dLbl>
+            <c:spPr>
+              <a:noFill/>
+              <a:ln>
+                <a:noFill/>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+            <c:showLegendKey val="0"/>
+            <c:showVal val="0"/>
+            <c:showCatName val="0"/>
+            <c:showSerName val="0"/>
+            <c:showPercent val="0"/>
+            <c:showBubbleSize val="0"/>
+            <c:extLst>
+              <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
+                <c15:showLeaderLines val="1"/>
+              </c:ext>
+            </c:extLst>
+          </c:dLbls>
           <c:xVal>
             <c:numRef>
-              <c:f>'FRED Graph'!$A$2790:$A$2805</c:f>
+              <c:f>'FRED Graph'!$A$2790:$A$2819</c:f>
               <c:numCache>
                 <c:formatCode>yyyy\-mm\-dd</c:formatCode>
-                <c:ptCount val="16"/>
+                <c:ptCount val="30"/>
                 <c:pt idx="0">
                   <c:v>43925</c:v>
                 </c:pt>
@@ -858,15 +883,57 @@
                 <c:pt idx="15">
                   <c:v>44030</c:v>
                 </c:pt>
+                <c:pt idx="16">
+                  <c:v>44037</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>44044</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>44051</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>44058</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>44065</c:v>
+                </c:pt>
+                <c:pt idx="21">
+                  <c:v>44072</c:v>
+                </c:pt>
+                <c:pt idx="22">
+                  <c:v>44079</c:v>
+                </c:pt>
+                <c:pt idx="23">
+                  <c:v>44086</c:v>
+                </c:pt>
+                <c:pt idx="24">
+                  <c:v>44093</c:v>
+                </c:pt>
+                <c:pt idx="25">
+                  <c:v>44100</c:v>
+                </c:pt>
+                <c:pt idx="26">
+                  <c:v>44107</c:v>
+                </c:pt>
+                <c:pt idx="27">
+                  <c:v>44114</c:v>
+                </c:pt>
+                <c:pt idx="28">
+                  <c:v>44121</c:v>
+                </c:pt>
+                <c:pt idx="29">
+                  <c:v>44128</c:v>
+                </c:pt>
               </c:numCache>
             </c:numRef>
           </c:xVal>
           <c:yVal>
             <c:numRef>
-              <c:f>'FRED Graph'!$C$2790:$C$2803</c:f>
+              <c:f>'FRED Graph'!$C$2790:$C$2819</c:f>
               <c:numCache>
                 <c:formatCode>0</c:formatCode>
-                <c:ptCount val="14"/>
+                <c:ptCount val="30"/>
                 <c:pt idx="0">
                   <c:v>12461658</c:v>
                 </c:pt>
@@ -907,7 +974,10 @@
                   <c:v>16516869</c:v>
                 </c:pt>
                 <c:pt idx="13">
-                  <c:v>17355176</c:v>
+                  <c:v>17321213</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>16390919</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -1142,6 +1212,7 @@
         <c:axId val="319767456"/>
         <c:scaling>
           <c:orientation val="minMax"/>
+          <c:max val="44050"/>
           <c:min val="43920"/>
         </c:scaling>
         <c:delete val="0"/>
@@ -3007,8 +3078,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:M2819"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A2771" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
-      <selection activeCell="F2787" sqref="F2787"/>
+    <sheetView tabSelected="1" topLeftCell="C2763" zoomScale="160" zoomScaleNormal="160" workbookViewId="0">
+      <selection activeCell="H2788" sqref="H2788"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="20.7109375" defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
@@ -25290,7 +25361,7 @@
       </c>
       <c r="F2787">
         <f>LINEST(E2795:E2803,D2795:D2803,TRUE)</f>
-        <v>-770883.33333333326</v>
+        <v>-773149.99999999965</v>
       </c>
       <c r="L2787">
         <v>-41794.117647058796</v>
@@ -25344,7 +25415,7 @@
         <v>12461658</v>
       </c>
       <c r="E2790" s="2">
-        <f t="shared" ref="E2790:E2803" si="0">B2790</f>
+        <f t="shared" ref="E2790:E2804" si="0">B2790</f>
         <v>11914000</v>
       </c>
       <c r="F2790" s="2"/>
@@ -25353,11 +25424,11 @@
         <v>6635000</v>
       </c>
       <c r="H2790" s="1">
-        <f>A2224</f>
+        <f t="shared" ref="H2790:H2802" si="1">A2224</f>
         <v>39963</v>
       </c>
       <c r="I2790" s="2">
-        <f>B2224</f>
+        <f t="shared" ref="I2790:I2802" si="2">B2224</f>
         <v>6635000</v>
       </c>
       <c r="J2790">
@@ -25388,18 +25459,18 @@
         <v>6635000</v>
       </c>
       <c r="H2791" s="1">
-        <f>A2225</f>
+        <f t="shared" si="1"/>
         <v>39970</v>
       </c>
       <c r="I2791" s="2">
-        <f>B2225</f>
+        <f t="shared" si="2"/>
         <v>6506000</v>
       </c>
       <c r="J2791">
         <v>1</v>
       </c>
       <c r="K2791" s="2">
-        <f t="shared" ref="K2791:K2806" si="1">I2791</f>
+        <f t="shared" ref="K2791:K2806" si="3">I2791</f>
         <v>6506000</v>
       </c>
     </row>
@@ -25419,22 +25490,22 @@
       </c>
       <c r="F2792" s="2"/>
       <c r="G2792">
-        <f t="shared" ref="G2792:G2802" si="2">G2791</f>
+        <f t="shared" ref="G2792:G2802" si="4">G2791</f>
         <v>6635000</v>
       </c>
       <c r="H2792" s="1">
-        <f>A2226</f>
+        <f t="shared" si="1"/>
         <v>39977</v>
       </c>
       <c r="I2792" s="2">
-        <f>B2226</f>
+        <f t="shared" si="2"/>
         <v>6525000</v>
       </c>
       <c r="J2792">
         <v>2</v>
       </c>
       <c r="K2792" s="2">
-        <f t="shared" si="1"/>
+        <f t="shared" si="3"/>
         <v>6525000</v>
       </c>
     </row>
@@ -25454,22 +25525,22 @@
       </c>
       <c r="F2793" s="2"/>
       <c r="G2793">
+        <f t="shared" si="4"/>
+        <v>6635000</v>
+      </c>
+      <c r="H2793" s="1">
+        <f t="shared" si="1"/>
+        <v>39984</v>
+      </c>
+      <c r="I2793" s="2">
         <f t="shared" si="2"/>
-        <v>6635000</v>
-      </c>
-      <c r="H2793" s="1">
-        <f>A2227</f>
-        <v>39984</v>
-      </c>
-      <c r="I2793" s="2">
-        <f>B2227</f>
         <v>6488000</v>
       </c>
       <c r="J2793">
         <v>3</v>
       </c>
       <c r="K2793" s="2">
-        <f t="shared" si="1"/>
+        <f t="shared" si="3"/>
         <v>6488000</v>
       </c>
     </row>
@@ -25489,28 +25560,28 @@
       </c>
       <c r="F2794" s="2"/>
       <c r="G2794">
+        <f t="shared" si="4"/>
+        <v>6635000</v>
+      </c>
+      <c r="H2794" s="1">
+        <f t="shared" si="1"/>
+        <v>39991</v>
+      </c>
+      <c r="I2794" s="2">
         <f t="shared" si="2"/>
-        <v>6635000</v>
-      </c>
-      <c r="H2794" s="1">
-        <f>A2228</f>
-        <v>39991</v>
-      </c>
-      <c r="I2794" s="2">
-        <f>B2228</f>
         <v>6618000</v>
       </c>
       <c r="J2794">
         <v>4</v>
       </c>
       <c r="K2794" s="2">
-        <f t="shared" si="1"/>
+        <f t="shared" si="3"/>
         <v>6618000</v>
       </c>
     </row>
     <row r="2795" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A2795" s="1">
-        <f t="shared" ref="A2795:A2819" si="3">A2794+7</f>
+        <f t="shared" ref="A2795:A2819" si="5">A2794+7</f>
         <v>43960</v>
       </c>
       <c r="B2795">
@@ -25531,28 +25602,28 @@
         <v>24912000</v>
       </c>
       <c r="G2795">
+        <f t="shared" si="4"/>
+        <v>6635000</v>
+      </c>
+      <c r="H2795" s="1">
+        <f t="shared" si="1"/>
+        <v>39998</v>
+      </c>
+      <c r="I2795" s="2">
         <f t="shared" si="2"/>
-        <v>6635000</v>
-      </c>
-      <c r="H2795" s="1">
-        <f>A2229</f>
-        <v>39998</v>
-      </c>
-      <c r="I2795" s="2">
-        <f>B2229</f>
         <v>6145000</v>
       </c>
       <c r="J2795">
         <v>5</v>
       </c>
       <c r="K2795" s="2">
-        <f t="shared" si="1"/>
+        <f t="shared" si="3"/>
         <v>6145000</v>
       </c>
     </row>
     <row r="2796" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A2796" s="1">
-        <f t="shared" si="3"/>
+        <f t="shared" si="5"/>
         <v>43967</v>
       </c>
       <c r="B2796">
@@ -25562,7 +25633,7 @@
         <v>18861428</v>
       </c>
       <c r="D2796">
-        <f t="shared" ref="D2796:D2797" si="4">D2795+1</f>
+        <f t="shared" ref="D2796:D2797" si="6">D2795+1</f>
         <v>1</v>
       </c>
       <c r="E2796" s="2">
@@ -25570,32 +25641,32 @@
         <v>20841000</v>
       </c>
       <c r="F2796" s="2">
-        <f t="shared" ref="F2796:F2815" si="5">$E$2795+($F$2787*D2796)</f>
-        <v>24141116.666666668</v>
+        <f t="shared" ref="F2796:F2815" si="7">$E$2795+($F$2787*D2796)</f>
+        <v>24138850</v>
       </c>
       <c r="G2796">
+        <f t="shared" si="4"/>
+        <v>6635000</v>
+      </c>
+      <c r="H2796" s="1">
+        <f t="shared" si="1"/>
+        <v>40005</v>
+      </c>
+      <c r="I2796" s="2">
         <f t="shared" si="2"/>
-        <v>6635000</v>
-      </c>
-      <c r="H2796" s="1">
-        <f>A2230</f>
-        <v>40005</v>
-      </c>
-      <c r="I2796" s="2">
-        <f>B2230</f>
         <v>6136000</v>
       </c>
       <c r="J2796">
         <v>6</v>
       </c>
       <c r="K2796" s="2">
-        <f t="shared" si="1"/>
+        <f t="shared" si="3"/>
         <v>6136000</v>
       </c>
     </row>
     <row r="2797" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A2797" s="1">
-        <f t="shared" si="3"/>
+        <f t="shared" si="5"/>
         <v>43974</v>
       </c>
       <c r="B2797">
@@ -25605,7 +25676,7 @@
         <v>19098624</v>
       </c>
       <c r="D2797">
-        <f t="shared" si="4"/>
+        <f t="shared" si="6"/>
         <v>2</v>
       </c>
       <c r="E2797" s="2">
@@ -25613,32 +25684,32 @@
         <v>21268000</v>
       </c>
       <c r="F2797" s="2">
-        <f t="shared" si="5"/>
-        <v>23370233.333333332</v>
+        <f t="shared" si="7"/>
+        <v>23365700</v>
       </c>
       <c r="G2797">
+        <f t="shared" si="4"/>
+        <v>6635000</v>
+      </c>
+      <c r="H2797" s="1">
+        <f t="shared" si="1"/>
+        <v>40012</v>
+      </c>
+      <c r="I2797" s="2">
         <f t="shared" si="2"/>
-        <v>6635000</v>
-      </c>
-      <c r="H2797" s="1">
-        <f>A2231</f>
-        <v>40012</v>
-      </c>
-      <c r="I2797" s="2">
-        <f>B2231</f>
         <v>6118000</v>
       </c>
       <c r="J2797">
         <v>7</v>
       </c>
       <c r="K2797" s="2">
-        <f t="shared" si="1"/>
+        <f t="shared" si="3"/>
         <v>6118000</v>
       </c>
     </row>
     <row r="2798" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A2798" s="1">
-        <f t="shared" si="3"/>
+        <f t="shared" si="5"/>
         <v>43981</v>
       </c>
       <c r="B2798">
@@ -25656,32 +25727,32 @@
         <v>20929000</v>
       </c>
       <c r="F2798" s="2">
-        <f t="shared" si="5"/>
-        <v>22599350</v>
+        <f t="shared" si="7"/>
+        <v>22592550</v>
       </c>
       <c r="G2798">
+        <f t="shared" si="4"/>
+        <v>6635000</v>
+      </c>
+      <c r="H2798" s="1">
+        <f t="shared" si="1"/>
+        <v>40019</v>
+      </c>
+      <c r="I2798" s="2">
         <f t="shared" si="2"/>
-        <v>6635000</v>
-      </c>
-      <c r="H2798" s="1">
-        <f>A2232</f>
-        <v>40019</v>
-      </c>
-      <c r="I2798" s="2">
-        <f>B2232</f>
         <v>6157000</v>
       </c>
       <c r="J2798">
         <v>8</v>
       </c>
       <c r="K2798" s="2">
-        <f t="shared" si="1"/>
+        <f t="shared" si="3"/>
         <v>6157000</v>
       </c>
     </row>
     <row r="2799" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A2799" s="1">
-        <f t="shared" si="3"/>
+        <f t="shared" si="5"/>
         <v>43988</v>
       </c>
       <c r="B2799" s="2">
@@ -25699,32 +25770,32 @@
         <v>20289000</v>
       </c>
       <c r="F2799" s="2">
-        <f t="shared" si="5"/>
-        <v>21828466.666666668</v>
+        <f t="shared" si="7"/>
+        <v>21819400</v>
       </c>
       <c r="G2799">
+        <f t="shared" si="4"/>
+        <v>6635000</v>
+      </c>
+      <c r="H2799" s="1">
+        <f t="shared" si="1"/>
+        <v>40026</v>
+      </c>
+      <c r="I2799" s="2">
         <f t="shared" si="2"/>
-        <v>6635000</v>
-      </c>
-      <c r="H2799" s="1">
-        <f>A2233</f>
-        <v>40026</v>
-      </c>
-      <c r="I2799" s="2">
-        <f>B2233</f>
         <v>6111000</v>
       </c>
       <c r="J2799">
         <v>9</v>
       </c>
       <c r="K2799" s="2">
-        <f t="shared" si="1"/>
+        <f t="shared" si="3"/>
         <v>6111000</v>
       </c>
     </row>
     <row r="2800" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A2800" s="1">
-        <f t="shared" si="3"/>
+        <f t="shared" si="5"/>
         <v>43995</v>
       </c>
       <c r="B2800">
@@ -25742,32 +25813,32 @@
         <v>19231000</v>
       </c>
       <c r="F2800" s="2">
-        <f t="shared" si="5"/>
-        <v>21057583.333333336</v>
+        <f t="shared" si="7"/>
+        <v>21046250</v>
       </c>
       <c r="G2800">
+        <f t="shared" si="4"/>
+        <v>6635000</v>
+      </c>
+      <c r="H2800" s="1">
+        <f t="shared" si="1"/>
+        <v>40033</v>
+      </c>
+      <c r="I2800" s="2">
         <f t="shared" si="2"/>
-        <v>6635000</v>
-      </c>
-      <c r="H2800" s="1">
-        <f>A2234</f>
-        <v>40033</v>
-      </c>
-      <c r="I2800" s="2">
-        <f>B2234</f>
         <v>6090000</v>
       </c>
       <c r="J2800">
         <v>10</v>
       </c>
       <c r="K2800" s="2">
-        <f t="shared" si="1"/>
+        <f t="shared" si="3"/>
         <v>6090000</v>
       </c>
     </row>
     <row r="2801" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A2801" s="1">
-        <f t="shared" si="3"/>
+        <f t="shared" si="5"/>
         <v>44002</v>
       </c>
       <c r="B2801">
@@ -25785,32 +25856,32 @@
         <v>18760000</v>
       </c>
       <c r="F2801" s="2">
-        <f t="shared" si="5"/>
-        <v>20286700</v>
+        <f t="shared" si="7"/>
+        <v>20273100</v>
       </c>
       <c r="G2801">
+        <f t="shared" si="4"/>
+        <v>6635000</v>
+      </c>
+      <c r="H2801" s="1">
+        <f t="shared" si="1"/>
+        <v>40040</v>
+      </c>
+      <c r="I2801" s="2">
         <f t="shared" si="2"/>
-        <v>6635000</v>
-      </c>
-      <c r="H2801" s="1">
-        <f>A2235</f>
-        <v>40040</v>
-      </c>
-      <c r="I2801" s="2">
-        <f>B2235</f>
         <v>6008000</v>
       </c>
       <c r="J2801">
         <v>11</v>
       </c>
       <c r="K2801" s="2">
-        <f t="shared" si="1"/>
+        <f t="shared" si="3"/>
         <v>6008000</v>
       </c>
     </row>
     <row r="2802" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A2802" s="1">
-        <f t="shared" si="3"/>
+        <f t="shared" si="5"/>
         <v>44009</v>
       </c>
       <c r="B2802">
@@ -25828,335 +25899,345 @@
         <v>17760000</v>
       </c>
       <c r="F2802" s="2">
-        <f t="shared" si="5"/>
-        <v>19515816.666666668</v>
+        <f t="shared" si="7"/>
+        <v>19499950.000000004</v>
       </c>
       <c r="G2802">
+        <f t="shared" si="4"/>
+        <v>6635000</v>
+      </c>
+      <c r="H2802" s="1">
+        <f t="shared" si="1"/>
+        <v>40047</v>
+      </c>
+      <c r="I2802" s="2">
         <f t="shared" si="2"/>
-        <v>6635000</v>
-      </c>
-      <c r="H2802" s="1">
-        <f>A2236</f>
-        <v>40047</v>
-      </c>
-      <c r="I2802" s="2">
-        <f>B2236</f>
         <v>6060000</v>
       </c>
       <c r="J2802">
         <v>12</v>
       </c>
       <c r="K2802" s="2">
-        <f t="shared" si="1"/>
+        <f t="shared" si="3"/>
         <v>6060000</v>
       </c>
     </row>
     <row r="2803" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A2803" s="1">
-        <f t="shared" si="3"/>
+        <f t="shared" si="5"/>
         <v>44016</v>
       </c>
       <c r="B2803">
-        <v>17338000</v>
+        <v>17304000</v>
       </c>
       <c r="C2803" s="2">
-        <v>17355176</v>
+        <v>17321213</v>
       </c>
       <c r="D2803">
-        <f t="shared" ref="D2803:D2819" si="6">D2802+1</f>
+        <f t="shared" ref="D2803:D2819" si="8">D2802+1</f>
         <v>8</v>
       </c>
       <c r="E2803" s="2">
         <f t="shared" si="0"/>
-        <v>17338000</v>
+        <v>17304000</v>
       </c>
       <c r="F2803" s="2">
-        <f t="shared" si="5"/>
-        <v>18744933.333333336</v>
+        <f t="shared" si="7"/>
+        <v>18726800.000000004</v>
       </c>
       <c r="H2803" s="1">
-        <f t="shared" ref="H2803:I2803" si="7">A2237</f>
+        <f t="shared" ref="H2803:I2803" si="9">A2237</f>
         <v>40054</v>
       </c>
       <c r="I2803" s="2">
-        <f t="shared" si="7"/>
+        <f t="shared" si="9"/>
         <v>5970000</v>
       </c>
       <c r="J2803">
         <v>13</v>
       </c>
       <c r="K2803" s="2">
-        <f t="shared" si="1"/>
+        <f t="shared" si="3"/>
         <v>5970000</v>
       </c>
     </row>
     <row r="2804" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A2804" s="1">
-        <f t="shared" si="3"/>
+        <f t="shared" si="5"/>
         <v>44023</v>
       </c>
+      <c r="B2804">
+        <v>16197000</v>
+      </c>
+      <c r="C2804" s="2">
+        <v>16390919</v>
+      </c>
       <c r="D2804">
-        <f t="shared" si="6"/>
+        <f t="shared" si="8"/>
         <v>9</v>
       </c>
+      <c r="E2804" s="2">
+        <f t="shared" si="0"/>
+        <v>16197000</v>
+      </c>
       <c r="F2804" s="2">
-        <f t="shared" si="5"/>
-        <v>17974050</v>
+        <f t="shared" si="7"/>
+        <v>17953650.000000004</v>
       </c>
       <c r="H2804" s="1">
-        <f t="shared" ref="H2804:I2804" si="8">A2238</f>
+        <f t="shared" ref="H2804:I2804" si="10">A2238</f>
         <v>40061</v>
       </c>
       <c r="I2804" s="2">
-        <f t="shared" si="8"/>
+        <f t="shared" si="10"/>
         <v>6079000</v>
       </c>
       <c r="J2804">
         <v>14</v>
       </c>
       <c r="K2804" s="2">
-        <f t="shared" si="1"/>
+        <f t="shared" si="3"/>
         <v>6079000</v>
       </c>
     </row>
     <row r="2805" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A2805" s="1">
-        <f t="shared" si="3"/>
+        <f t="shared" si="5"/>
         <v>44030</v>
       </c>
       <c r="D2805">
-        <f t="shared" si="6"/>
+        <f t="shared" si="8"/>
         <v>10</v>
       </c>
       <c r="F2805" s="2">
-        <f t="shared" si="5"/>
-        <v>17203166.666666668</v>
+        <f t="shared" si="7"/>
+        <v>17180500.000000004</v>
       </c>
       <c r="H2805" s="1">
-        <f t="shared" ref="H2805:I2805" si="9">A2239</f>
+        <f t="shared" ref="H2805:I2805" si="11">A2239</f>
         <v>40068</v>
       </c>
       <c r="I2805" s="2">
-        <f t="shared" si="9"/>
+        <f t="shared" si="11"/>
         <v>6006000</v>
       </c>
       <c r="J2805">
         <v>15</v>
       </c>
       <c r="K2805" s="2">
-        <f t="shared" si="1"/>
+        <f t="shared" si="3"/>
         <v>6006000</v>
       </c>
     </row>
     <row r="2806" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A2806" s="1">
-        <f t="shared" si="3"/>
+        <f t="shared" si="5"/>
         <v>44037</v>
       </c>
       <c r="D2806">
-        <f t="shared" si="6"/>
+        <f t="shared" si="8"/>
         <v>11</v>
       </c>
       <c r="F2806" s="2">
-        <f t="shared" si="5"/>
-        <v>16432283.333333334</v>
+        <f t="shared" si="7"/>
+        <v>16407350.000000004</v>
       </c>
       <c r="H2806" s="1">
-        <f t="shared" ref="H2806:I2806" si="10">A2240</f>
+        <f t="shared" ref="H2806:I2806" si="12">A2240</f>
         <v>40075</v>
       </c>
       <c r="I2806" s="2">
-        <f t="shared" si="10"/>
+        <f t="shared" si="12"/>
         <v>5942000</v>
       </c>
       <c r="J2806">
         <v>16</v>
       </c>
       <c r="K2806" s="2">
-        <f t="shared" si="1"/>
+        <f t="shared" si="3"/>
         <v>5942000</v>
       </c>
     </row>
     <row r="2807" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A2807" s="1">
-        <f t="shared" si="3"/>
+        <f t="shared" si="5"/>
         <v>44044</v>
       </c>
       <c r="D2807">
-        <f t="shared" si="6"/>
+        <f t="shared" si="8"/>
         <v>12</v>
       </c>
       <c r="F2807" s="2">
-        <f t="shared" si="5"/>
-        <v>15661400</v>
+        <f t="shared" si="7"/>
+        <v>15634200.000000004</v>
       </c>
     </row>
     <row r="2808" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A2808" s="1">
-        <f t="shared" si="3"/>
+        <f t="shared" si="5"/>
         <v>44051</v>
       </c>
       <c r="D2808">
-        <f t="shared" si="6"/>
+        <f t="shared" si="8"/>
         <v>13</v>
       </c>
       <c r="F2808" s="2">
-        <f t="shared" si="5"/>
-        <v>14890516.666666668</v>
+        <f t="shared" si="7"/>
+        <v>14861050.000000004</v>
       </c>
     </row>
     <row r="2809" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A2809" s="1">
-        <f t="shared" si="3"/>
+        <f t="shared" si="5"/>
         <v>44058</v>
       </c>
       <c r="D2809">
-        <f t="shared" si="6"/>
+        <f t="shared" si="8"/>
         <v>14</v>
       </c>
       <c r="F2809" s="2">
-        <f t="shared" si="5"/>
-        <v>14119633.333333334</v>
+        <f t="shared" si="7"/>
+        <v>14087900.000000006</v>
       </c>
     </row>
     <row r="2810" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A2810" s="1">
-        <f t="shared" si="3"/>
+        <f t="shared" si="5"/>
         <v>44065</v>
       </c>
       <c r="D2810">
-        <f t="shared" si="6"/>
+        <f t="shared" si="8"/>
         <v>15</v>
       </c>
       <c r="F2810" s="2">
-        <f t="shared" si="5"/>
-        <v>13348750.000000002</v>
+        <f t="shared" si="7"/>
+        <v>13314750.000000006</v>
       </c>
     </row>
     <row r="2811" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A2811" s="1">
-        <f t="shared" si="3"/>
+        <f t="shared" si="5"/>
         <v>44072</v>
       </c>
       <c r="D2811">
-        <f t="shared" si="6"/>
+        <f t="shared" si="8"/>
         <v>16</v>
       </c>
       <c r="F2811" s="2">
-        <f t="shared" si="5"/>
-        <v>12577866.666666668</v>
+        <f t="shared" si="7"/>
+        <v>12541600.000000006</v>
       </c>
     </row>
     <row r="2812" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A2812" s="1">
-        <f t="shared" si="3"/>
+        <f t="shared" si="5"/>
         <v>44079</v>
       </c>
       <c r="D2812">
-        <f t="shared" si="6"/>
+        <f t="shared" si="8"/>
         <v>17</v>
       </c>
       <c r="F2812" s="2">
-        <f t="shared" si="5"/>
-        <v>11806983.333333334</v>
+        <f t="shared" si="7"/>
+        <v>11768450.000000006</v>
       </c>
     </row>
     <row r="2813" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A2813" s="1">
-        <f t="shared" si="3"/>
+        <f t="shared" si="5"/>
         <v>44086</v>
       </c>
       <c r="D2813">
-        <f t="shared" si="6"/>
+        <f t="shared" si="8"/>
         <v>18</v>
       </c>
       <c r="F2813" s="2">
-        <f t="shared" si="5"/>
-        <v>11036100.000000002</v>
+        <f t="shared" si="7"/>
+        <v>10995300.000000006</v>
       </c>
     </row>
     <row r="2814" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A2814" s="1">
-        <f t="shared" si="3"/>
+        <f t="shared" si="5"/>
         <v>44093</v>
       </c>
       <c r="D2814">
-        <f t="shared" si="6"/>
+        <f t="shared" si="8"/>
         <v>19</v>
       </c>
       <c r="F2814" s="2">
-        <f t="shared" si="5"/>
-        <v>10265216.666666668</v>
+        <f t="shared" si="7"/>
+        <v>10222150.000000007</v>
       </c>
     </row>
     <row r="2815" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A2815" s="1">
-        <f t="shared" si="3"/>
+        <f t="shared" si="5"/>
         <v>44100</v>
       </c>
       <c r="D2815">
-        <f t="shared" si="6"/>
+        <f t="shared" si="8"/>
         <v>20</v>
       </c>
       <c r="F2815" s="2">
-        <f t="shared" si="5"/>
-        <v>9494333.3333333358</v>
+        <f t="shared" si="7"/>
+        <v>9449000.0000000075</v>
       </c>
     </row>
     <row r="2816" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A2816" s="1">
-        <f t="shared" si="3"/>
+        <f t="shared" si="5"/>
         <v>44107</v>
       </c>
       <c r="D2816">
-        <f t="shared" si="6"/>
+        <f t="shared" si="8"/>
         <v>21</v>
       </c>
       <c r="F2816" s="2">
-        <f t="shared" ref="F2816:F2819" si="11">$E$2795+($F$2787*D2816)</f>
-        <v>8723450.0000000019</v>
+        <f t="shared" ref="F2816:F2819" si="13">$E$2795+($F$2787*D2816)</f>
+        <v>8675850.0000000075</v>
       </c>
     </row>
     <row r="2817" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A2817" s="1">
-        <f t="shared" si="3"/>
+        <f t="shared" si="5"/>
         <v>44114</v>
       </c>
       <c r="D2817">
-        <f t="shared" si="6"/>
+        <f t="shared" si="8"/>
         <v>22</v>
       </c>
       <c r="F2817" s="2">
-        <f t="shared" si="11"/>
-        <v>7952566.6666666679</v>
+        <f t="shared" si="13"/>
+        <v>7902700.0000000075</v>
       </c>
     </row>
     <row r="2818" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A2818" s="1">
-        <f t="shared" si="3"/>
+        <f t="shared" si="5"/>
         <v>44121</v>
       </c>
       <c r="D2818">
-        <f t="shared" si="6"/>
+        <f t="shared" si="8"/>
         <v>23</v>
       </c>
       <c r="F2818" s="2">
-        <f t="shared" si="11"/>
-        <v>7181683.3333333358</v>
+        <f t="shared" si="13"/>
+        <v>7129550.0000000075</v>
       </c>
     </row>
     <row r="2819" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A2819" s="1">
-        <f t="shared" si="3"/>
+        <f t="shared" si="5"/>
         <v>44128</v>
       </c>
       <c r="D2819">
-        <f t="shared" si="6"/>
+        <f t="shared" si="8"/>
         <v>24</v>
       </c>
       <c r="F2819" s="2">
-        <f t="shared" si="11"/>
-        <v>6410800</v>
+        <f t="shared" si="13"/>
+        <v>6356400.0000000075</v>
       </c>
     </row>
   </sheetData>

--- a/CCSA.xlsx
+++ b/CCSA.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Rainy\Documents\GitHub\Economics\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{99927F56-A262-4779-B3FB-7D451B289BDF}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1F3D1F0C-3790-41AF-99A3-C80DB5653ABF}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -625,7 +625,7 @@
         </c:ser>
         <c:ser>
           <c:idx val="2"/>
-          <c:order val="2"/>
+          <c:order val="3"/>
           <c:tx>
             <c:v>2008 Peak</c:v>
           </c:tx>
@@ -990,8 +990,199 @@
           </c:extLst>
         </c:ser>
         <c:ser>
+          <c:idx val="4"/>
+          <c:order val="2"/>
+          <c:tx>
+            <c:v>Lin. Projection</c:v>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="19050">
+              <a:solidFill>
+                <a:schemeClr val="accent1"/>
+              </a:solidFill>
+            </a:ln>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="none"/>
+          </c:marker>
+          <c:xVal>
+            <c:numRef>
+              <c:f>'FRED Graph'!$A$2795:$A$2819</c:f>
+              <c:numCache>
+                <c:formatCode>yyyy\-mm\-dd</c:formatCode>
+                <c:ptCount val="25"/>
+                <c:pt idx="0">
+                  <c:v>43960</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>43967</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>43974</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>43981</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>43988</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>43995</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>44002</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>44009</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>44016</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>44023</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>44030</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>44037</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>44044</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>44051</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>44058</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>44065</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>44072</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>44079</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>44086</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>44093</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>44100</c:v>
+                </c:pt>
+                <c:pt idx="21">
+                  <c:v>44107</c:v>
+                </c:pt>
+                <c:pt idx="22">
+                  <c:v>44114</c:v>
+                </c:pt>
+                <c:pt idx="23">
+                  <c:v>44121</c:v>
+                </c:pt>
+                <c:pt idx="24">
+                  <c:v>44128</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:xVal>
+          <c:yVal>
+            <c:numRef>
+              <c:f>'FRED Graph'!$F$2795:$F$2819</c:f>
+              <c:numCache>
+                <c:formatCode>0</c:formatCode>
+                <c:ptCount val="25"/>
+                <c:pt idx="0">
+                  <c:v>23236377.777777776</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>22463227.777777776</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>21690077.777777776</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>20916927.777777776</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>20143777.777777776</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>19370627.777777776</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>18597477.777777776</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>17824327.77777778</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>17051177.77777778</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>16278027.77777778</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>15504877.77777778</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>14731727.77777778</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>13958577.77777778</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>13185427.77777778</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>12412277.777777782</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>11639127.777777782</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>10865977.777777782</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>10092827.777777782</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>9319677.7777777817</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>8546527.7777777836</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>7773377.7777777836</c:v>
+                </c:pt>
+                <c:pt idx="21">
+                  <c:v>7000227.7777777836</c:v>
+                </c:pt>
+                <c:pt idx="22">
+                  <c:v>6227077.7777777836</c:v>
+                </c:pt>
+                <c:pt idx="23">
+                  <c:v>5453927.7777777836</c:v>
+                </c:pt>
+                <c:pt idx="24">
+                  <c:v>4680777.7777777836</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:yVal>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{0000000F-8E70-4620-A5D3-02867E777C38}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
           <c:idx val="3"/>
-          <c:order val="3"/>
+          <c:order val="4"/>
           <c:tx>
             <c:v>2008 CCSA Data From Peak</c:v>
           </c:tx>
@@ -3078,8 +3269,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:M2819"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="C2763" zoomScale="160" zoomScaleNormal="160" workbookViewId="0">
-      <selection activeCell="H2788" sqref="H2788"/>
+    <sheetView tabSelected="1" topLeftCell="A2768" zoomScale="160" zoomScaleNormal="160" workbookViewId="0">
+      <selection activeCell="F2796" sqref="F2796:F2819"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="20.7109375" defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
@@ -25360,8 +25551,11 @@
         <v>2074782</v>
       </c>
       <c r="F2787">
-        <f>LINEST(E2795:E2803,D2795:D2803,TRUE)</f>
+        <f t="array" ref="F2787:G2787">LINEST(E2795:E2803,D2795:D2803,TRUE)</f>
         <v>-773149.99999999965</v>
+      </c>
+      <c r="G2787">
+        <v>23236377.777777776</v>
       </c>
       <c r="L2787">
         <v>-41794.117647058796</v>
@@ -25598,8 +25792,8 @@
         <v>24912000</v>
       </c>
       <c r="F2795" s="2">
-        <f>$E$2795+($F$2787*D2795)</f>
-        <v>24912000</v>
+        <f>$G$2787+($F$2787*D2795)</f>
+        <v>23236377.777777776</v>
       </c>
       <c r="G2795">
         <f t="shared" si="4"/>
@@ -25641,8 +25835,8 @@
         <v>20841000</v>
       </c>
       <c r="F2796" s="2">
-        <f t="shared" ref="F2796:F2815" si="7">$E$2795+($F$2787*D2796)</f>
-        <v>24138850</v>
+        <f t="shared" ref="F2796:F2819" si="7">$G$2787+($F$2787*D2796)</f>
+        <v>22463227.777777776</v>
       </c>
       <c r="G2796">
         <f t="shared" si="4"/>
@@ -25685,7 +25879,7 @@
       </c>
       <c r="F2797" s="2">
         <f t="shared" si="7"/>
-        <v>23365700</v>
+        <v>21690077.777777776</v>
       </c>
       <c r="G2797">
         <f t="shared" si="4"/>
@@ -25728,7 +25922,7 @@
       </c>
       <c r="F2798" s="2">
         <f t="shared" si="7"/>
-        <v>22592550</v>
+        <v>20916927.777777776</v>
       </c>
       <c r="G2798">
         <f t="shared" si="4"/>
@@ -25771,7 +25965,7 @@
       </c>
       <c r="F2799" s="2">
         <f t="shared" si="7"/>
-        <v>21819400</v>
+        <v>20143777.777777776</v>
       </c>
       <c r="G2799">
         <f t="shared" si="4"/>
@@ -25814,7 +26008,7 @@
       </c>
       <c r="F2800" s="2">
         <f t="shared" si="7"/>
-        <v>21046250</v>
+        <v>19370627.777777776</v>
       </c>
       <c r="G2800">
         <f t="shared" si="4"/>
@@ -25857,7 +26051,7 @@
       </c>
       <c r="F2801" s="2">
         <f t="shared" si="7"/>
-        <v>20273100</v>
+        <v>18597477.777777776</v>
       </c>
       <c r="G2801">
         <f t="shared" si="4"/>
@@ -25900,7 +26094,7 @@
       </c>
       <c r="F2802" s="2">
         <f t="shared" si="7"/>
-        <v>19499950.000000004</v>
+        <v>17824327.77777778</v>
       </c>
       <c r="G2802">
         <f t="shared" si="4"/>
@@ -25943,7 +26137,7 @@
       </c>
       <c r="F2803" s="2">
         <f t="shared" si="7"/>
-        <v>18726800.000000004</v>
+        <v>17051177.77777778</v>
       </c>
       <c r="H2803" s="1">
         <f t="shared" ref="H2803:I2803" si="9">A2237</f>
@@ -25982,7 +26176,7 @@
       </c>
       <c r="F2804" s="2">
         <f t="shared" si="7"/>
-        <v>17953650.000000004</v>
+        <v>16278027.77777778</v>
       </c>
       <c r="H2804" s="1">
         <f t="shared" ref="H2804:I2804" si="10">A2238</f>
@@ -26011,7 +26205,7 @@
       </c>
       <c r="F2805" s="2">
         <f t="shared" si="7"/>
-        <v>17180500.000000004</v>
+        <v>15504877.77777778</v>
       </c>
       <c r="H2805" s="1">
         <f t="shared" ref="H2805:I2805" si="11">A2239</f>
@@ -26040,7 +26234,7 @@
       </c>
       <c r="F2806" s="2">
         <f t="shared" si="7"/>
-        <v>16407350.000000004</v>
+        <v>14731727.77777778</v>
       </c>
       <c r="H2806" s="1">
         <f t="shared" ref="H2806:I2806" si="12">A2240</f>
@@ -26069,7 +26263,7 @@
       </c>
       <c r="F2807" s="2">
         <f t="shared" si="7"/>
-        <v>15634200.000000004</v>
+        <v>13958577.77777778</v>
       </c>
     </row>
     <row r="2808" spans="1:11" x14ac:dyDescent="0.2">
@@ -26083,7 +26277,7 @@
       </c>
       <c r="F2808" s="2">
         <f t="shared" si="7"/>
-        <v>14861050.000000004</v>
+        <v>13185427.77777778</v>
       </c>
     </row>
     <row r="2809" spans="1:11" x14ac:dyDescent="0.2">
@@ -26097,7 +26291,7 @@
       </c>
       <c r="F2809" s="2">
         <f t="shared" si="7"/>
-        <v>14087900.000000006</v>
+        <v>12412277.777777782</v>
       </c>
     </row>
     <row r="2810" spans="1:11" x14ac:dyDescent="0.2">
@@ -26111,7 +26305,7 @@
       </c>
       <c r="F2810" s="2">
         <f t="shared" si="7"/>
-        <v>13314750.000000006</v>
+        <v>11639127.777777782</v>
       </c>
     </row>
     <row r="2811" spans="1:11" x14ac:dyDescent="0.2">
@@ -26125,7 +26319,7 @@
       </c>
       <c r="F2811" s="2">
         <f t="shared" si="7"/>
-        <v>12541600.000000006</v>
+        <v>10865977.777777782</v>
       </c>
     </row>
     <row r="2812" spans="1:11" x14ac:dyDescent="0.2">
@@ -26139,7 +26333,7 @@
       </c>
       <c r="F2812" s="2">
         <f t="shared" si="7"/>
-        <v>11768450.000000006</v>
+        <v>10092827.777777782</v>
       </c>
     </row>
     <row r="2813" spans="1:11" x14ac:dyDescent="0.2">
@@ -26153,7 +26347,7 @@
       </c>
       <c r="F2813" s="2">
         <f t="shared" si="7"/>
-        <v>10995300.000000006</v>
+        <v>9319677.7777777817</v>
       </c>
     </row>
     <row r="2814" spans="1:11" x14ac:dyDescent="0.2">
@@ -26167,7 +26361,7 @@
       </c>
       <c r="F2814" s="2">
         <f t="shared" si="7"/>
-        <v>10222150.000000007</v>
+        <v>8546527.7777777836</v>
       </c>
     </row>
     <row r="2815" spans="1:11" x14ac:dyDescent="0.2">
@@ -26181,7 +26375,7 @@
       </c>
       <c r="F2815" s="2">
         <f t="shared" si="7"/>
-        <v>9449000.0000000075</v>
+        <v>7773377.7777777836</v>
       </c>
     </row>
     <row r="2816" spans="1:11" x14ac:dyDescent="0.2">
@@ -26194,8 +26388,8 @@
         <v>21</v>
       </c>
       <c r="F2816" s="2">
-        <f t="shared" ref="F2816:F2819" si="13">$E$2795+($F$2787*D2816)</f>
-        <v>8675850.0000000075</v>
+        <f t="shared" si="7"/>
+        <v>7000227.7777777836</v>
       </c>
     </row>
     <row r="2817" spans="1:6" x14ac:dyDescent="0.2">
@@ -26208,8 +26402,8 @@
         <v>22</v>
       </c>
       <c r="F2817" s="2">
-        <f t="shared" si="13"/>
-        <v>7902700.0000000075</v>
+        <f t="shared" si="7"/>
+        <v>6227077.7777777836</v>
       </c>
     </row>
     <row r="2818" spans="1:6" x14ac:dyDescent="0.2">
@@ -26222,8 +26416,8 @@
         <v>23</v>
       </c>
       <c r="F2818" s="2">
-        <f t="shared" si="13"/>
-        <v>7129550.0000000075</v>
+        <f t="shared" si="7"/>
+        <v>5453927.7777777836</v>
       </c>
     </row>
     <row r="2819" spans="1:6" x14ac:dyDescent="0.2">
@@ -26236,8 +26430,8 @@
         <v>24</v>
       </c>
       <c r="F2819" s="2">
-        <f t="shared" si="13"/>
-        <v>6356400.0000000075</v>
+        <f t="shared" si="7"/>
+        <v>4680777.7777777836</v>
       </c>
     </row>
   </sheetData>

--- a/CCSA.xlsx
+++ b/CCSA.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Rainy\Documents\GitHub\Economics\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1F3D1F0C-3790-41AF-99A3-C80DB5653ABF}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{35CFD107-EBBC-4C11-B35F-FE8E2691B52B}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -611,7 +611,10 @@
                   <c:v>17304000</c:v>
                 </c:pt>
                 <c:pt idx="14">
-                  <c:v>16197000</c:v>
+                  <c:v>16151000</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>17018000</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -791,10 +794,20 @@
           <c:dLbls>
             <c:dLbl>
               <c:idx val="14"/>
+              <c:delete val="1"/>
+              <c:extLst>
+                <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}"/>
+                <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+                  <c16:uniqueId val="{0000000D-9DC2-412E-8450-CDF10A4ECBCD}"/>
+                </c:ext>
+              </c:extLst>
+            </c:dLbl>
+            <c:dLbl>
+              <c:idx val="15"/>
               <c:layout>
                 <c:manualLayout>
-                  <c:x val="-1.3803889125423545E-2"/>
-                  <c:y val="-5.3566364865136697E-2"/>
+                  <c:x val="-2.1664204825209185E-2"/>
+                  <c:y val="-8.422161159711701E-2"/>
                 </c:manualLayout>
               </c:layout>
               <c:showLegendKey val="0"/>
@@ -806,7 +819,7 @@
               <c:extLst>
                 <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}"/>
                 <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-                  <c16:uniqueId val="{0000000D-9DC2-412E-8450-CDF10A4ECBCD}"/>
+                  <c16:uniqueId val="{0000000E-84D9-44A1-BBCF-BDFD492E0D27}"/>
                 </c:ext>
               </c:extLst>
             </c:dLbl>
@@ -973,11 +986,14 @@
                 <c:pt idx="12">
                   <c:v>16516869</c:v>
                 </c:pt>
-                <c:pt idx="13">
-                  <c:v>17321213</c:v>
+                <c:pt idx="13" formatCode="General">
+                  <c:v>17321763</c:v>
                 </c:pt>
-                <c:pt idx="14">
-                  <c:v>16390919</c:v>
+                <c:pt idx="14" formatCode="General">
+                  <c:v>16344706</c:v>
+                </c:pt>
+                <c:pt idx="15" formatCode="General">
+                  <c:v>16881463</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -1096,79 +1112,79 @@
                 <c:formatCode>0</c:formatCode>
                 <c:ptCount val="25"/>
                 <c:pt idx="0">
-                  <c:v>23236377.777777776</c:v>
+                  <c:v>23041590.90909091</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>22463227.777777776</c:v>
+                  <c:v>22332600</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>21690077.777777776</c:v>
+                  <c:v>21623609.090909094</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>20916927.777777776</c:v>
+                  <c:v>20914618.181818184</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>20143777.777777776</c:v>
+                  <c:v>20205627.272727273</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>19370627.777777776</c:v>
+                  <c:v>19496636.363636363</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>18597477.777777776</c:v>
+                  <c:v>18787645.454545457</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>17824327.77777778</c:v>
+                  <c:v>18078654.545454547</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>17051177.77777778</c:v>
+                  <c:v>17369663.636363637</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>16278027.77777778</c:v>
+                  <c:v>16660672.727272728</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>15504877.77777778</c:v>
+                  <c:v>15951681.81818182</c:v>
                 </c:pt>
                 <c:pt idx="11">
-                  <c:v>14731727.77777778</c:v>
+                  <c:v>15242690.90909091</c:v>
                 </c:pt>
                 <c:pt idx="12">
-                  <c:v>13958577.77777778</c:v>
+                  <c:v>14533700.000000002</c:v>
                 </c:pt>
                 <c:pt idx="13">
-                  <c:v>13185427.77777778</c:v>
+                  <c:v>13824709.090909092</c:v>
                 </c:pt>
                 <c:pt idx="14">
-                  <c:v>12412277.777777782</c:v>
+                  <c:v>13115718.181818184</c:v>
                 </c:pt>
                 <c:pt idx="15">
-                  <c:v>11639127.777777782</c:v>
+                  <c:v>12406727.272727273</c:v>
                 </c:pt>
                 <c:pt idx="16">
-                  <c:v>10865977.777777782</c:v>
+                  <c:v>11697736.363636365</c:v>
                 </c:pt>
                 <c:pt idx="17">
-                  <c:v>10092827.777777782</c:v>
+                  <c:v>10988745.454545457</c:v>
                 </c:pt>
                 <c:pt idx="18">
-                  <c:v>9319677.7777777817</c:v>
+                  <c:v>10279754.545454547</c:v>
                 </c:pt>
                 <c:pt idx="19">
-                  <c:v>8546527.7777777836</c:v>
+                  <c:v>9570763.6363636386</c:v>
                 </c:pt>
                 <c:pt idx="20">
-                  <c:v>7773377.7777777836</c:v>
+                  <c:v>8861772.7272727285</c:v>
                 </c:pt>
                 <c:pt idx="21">
-                  <c:v>7000227.7777777836</c:v>
+                  <c:v>8152781.8181818202</c:v>
                 </c:pt>
                 <c:pt idx="22">
-                  <c:v>6227077.7777777836</c:v>
+                  <c:v>7443790.9090909101</c:v>
                 </c:pt>
                 <c:pt idx="23">
-                  <c:v>5453927.7777777836</c:v>
+                  <c:v>6734800.0000000019</c:v>
                 </c:pt>
                 <c:pt idx="24">
-                  <c:v>4680777.7777777836</c:v>
+                  <c:v>6025809.0909090936</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -3269,8 +3285,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:M2819"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A2768" zoomScale="160" zoomScaleNormal="160" workbookViewId="0">
-      <selection activeCell="F2796" sqref="F2796:F2819"/>
+    <sheetView tabSelected="1" topLeftCell="D2765" zoomScale="160" zoomScaleNormal="160" workbookViewId="0">
+      <selection activeCell="F2791" sqref="F2791"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="20.7109375" defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
@@ -25551,11 +25567,11 @@
         <v>2074782</v>
       </c>
       <c r="F2787">
-        <f t="array" ref="F2787:G2787">LINEST(E2795:E2803,D2795:D2803,TRUE)</f>
-        <v>-773149.99999999965</v>
+        <f t="array" ref="F2787:G2787">LINEST(E2795:E2805,D2795:D2805,TRUE)</f>
+        <v>-708990.90909090906</v>
       </c>
       <c r="G2787">
-        <v>23236377.777777776</v>
+        <v>23041590.90909091</v>
       </c>
       <c r="L2787">
         <v>-41794.117647058796</v>
@@ -25609,7 +25625,7 @@
         <v>12461658</v>
       </c>
       <c r="E2790" s="2">
-        <f t="shared" ref="E2790:E2804" si="0">B2790</f>
+        <f t="shared" ref="E2790:E2805" si="0">B2790</f>
         <v>11914000</v>
       </c>
       <c r="F2790" s="2"/>
@@ -25793,7 +25809,7 @@
       </c>
       <c r="F2795" s="2">
         <f>$G$2787+($F$2787*D2795)</f>
-        <v>23236377.777777776</v>
+        <v>23041590.90909091</v>
       </c>
       <c r="G2795">
         <f t="shared" si="4"/>
@@ -25836,7 +25852,7 @@
       </c>
       <c r="F2796" s="2">
         <f t="shared" ref="F2796:F2819" si="7">$G$2787+($F$2787*D2796)</f>
-        <v>22463227.777777776</v>
+        <v>22332600</v>
       </c>
       <c r="G2796">
         <f t="shared" si="4"/>
@@ -25879,7 +25895,7 @@
       </c>
       <c r="F2797" s="2">
         <f t="shared" si="7"/>
-        <v>21690077.777777776</v>
+        <v>21623609.090909094</v>
       </c>
       <c r="G2797">
         <f t="shared" si="4"/>
@@ -25922,7 +25938,7 @@
       </c>
       <c r="F2798" s="2">
         <f t="shared" si="7"/>
-        <v>20916927.777777776</v>
+        <v>20914618.181818184</v>
       </c>
       <c r="G2798">
         <f t="shared" si="4"/>
@@ -25965,7 +25981,7 @@
       </c>
       <c r="F2799" s="2">
         <f t="shared" si="7"/>
-        <v>20143777.777777776</v>
+        <v>20205627.272727273</v>
       </c>
       <c r="G2799">
         <f t="shared" si="4"/>
@@ -26008,7 +26024,7 @@
       </c>
       <c r="F2800" s="2">
         <f t="shared" si="7"/>
-        <v>19370627.777777776</v>
+        <v>19496636.363636363</v>
       </c>
       <c r="G2800">
         <f t="shared" si="4"/>
@@ -26051,7 +26067,7 @@
       </c>
       <c r="F2801" s="2">
         <f t="shared" si="7"/>
-        <v>18597477.777777776</v>
+        <v>18787645.454545457</v>
       </c>
       <c r="G2801">
         <f t="shared" si="4"/>
@@ -26094,7 +26110,7 @@
       </c>
       <c r="F2802" s="2">
         <f t="shared" si="7"/>
-        <v>17824327.77777778</v>
+        <v>18078654.545454547</v>
       </c>
       <c r="G2802">
         <f t="shared" si="4"/>
@@ -26124,8 +26140,8 @@
       <c r="B2803">
         <v>17304000</v>
       </c>
-      <c r="C2803" s="2">
-        <v>17321213</v>
+      <c r="C2803">
+        <v>17321763</v>
       </c>
       <c r="D2803">
         <f t="shared" ref="D2803:D2819" si="8">D2802+1</f>
@@ -26137,7 +26153,7 @@
       </c>
       <c r="F2803" s="2">
         <f t="shared" si="7"/>
-        <v>17051177.77777778</v>
+        <v>17369663.636363637</v>
       </c>
       <c r="H2803" s="1">
         <f t="shared" ref="H2803:I2803" si="9">A2237</f>
@@ -26161,10 +26177,10 @@
         <v>44023</v>
       </c>
       <c r="B2804">
-        <v>16197000</v>
-      </c>
-      <c r="C2804" s="2">
-        <v>16390919</v>
+        <v>16151000</v>
+      </c>
+      <c r="C2804">
+        <v>16344706</v>
       </c>
       <c r="D2804">
         <f t="shared" si="8"/>
@@ -26172,11 +26188,11 @@
       </c>
       <c r="E2804" s="2">
         <f t="shared" si="0"/>
-        <v>16197000</v>
+        <v>16151000</v>
       </c>
       <c r="F2804" s="2">
         <f t="shared" si="7"/>
-        <v>16278027.77777778</v>
+        <v>16660672.727272728</v>
       </c>
       <c r="H2804" s="1">
         <f t="shared" ref="H2804:I2804" si="10">A2238</f>
@@ -26199,13 +26215,23 @@
         <f t="shared" si="5"/>
         <v>44030</v>
       </c>
+      <c r="B2805">
+        <v>17018000</v>
+      </c>
+      <c r="C2805">
+        <v>16881463</v>
+      </c>
       <c r="D2805">
         <f t="shared" si="8"/>
         <v>10</v>
       </c>
+      <c r="E2805" s="2">
+        <f t="shared" si="0"/>
+        <v>17018000</v>
+      </c>
       <c r="F2805" s="2">
         <f t="shared" si="7"/>
-        <v>15504877.77777778</v>
+        <v>15951681.81818182</v>
       </c>
       <c r="H2805" s="1">
         <f t="shared" ref="H2805:I2805" si="11">A2239</f>
@@ -26234,7 +26260,7 @@
       </c>
       <c r="F2806" s="2">
         <f t="shared" si="7"/>
-        <v>14731727.77777778</v>
+        <v>15242690.90909091</v>
       </c>
       <c r="H2806" s="1">
         <f t="shared" ref="H2806:I2806" si="12">A2240</f>
@@ -26263,7 +26289,7 @@
       </c>
       <c r="F2807" s="2">
         <f t="shared" si="7"/>
-        <v>13958577.77777778</v>
+        <v>14533700.000000002</v>
       </c>
     </row>
     <row r="2808" spans="1:11" x14ac:dyDescent="0.2">
@@ -26277,7 +26303,7 @@
       </c>
       <c r="F2808" s="2">
         <f t="shared" si="7"/>
-        <v>13185427.77777778</v>
+        <v>13824709.090909092</v>
       </c>
     </row>
     <row r="2809" spans="1:11" x14ac:dyDescent="0.2">
@@ -26291,7 +26317,7 @@
       </c>
       <c r="F2809" s="2">
         <f t="shared" si="7"/>
-        <v>12412277.777777782</v>
+        <v>13115718.181818184</v>
       </c>
     </row>
     <row r="2810" spans="1:11" x14ac:dyDescent="0.2">
@@ -26305,7 +26331,7 @@
       </c>
       <c r="F2810" s="2">
         <f t="shared" si="7"/>
-        <v>11639127.777777782</v>
+        <v>12406727.272727273</v>
       </c>
     </row>
     <row r="2811" spans="1:11" x14ac:dyDescent="0.2">
@@ -26319,7 +26345,7 @@
       </c>
       <c r="F2811" s="2">
         <f t="shared" si="7"/>
-        <v>10865977.777777782</v>
+        <v>11697736.363636365</v>
       </c>
     </row>
     <row r="2812" spans="1:11" x14ac:dyDescent="0.2">
@@ -26333,7 +26359,7 @@
       </c>
       <c r="F2812" s="2">
         <f t="shared" si="7"/>
-        <v>10092827.777777782</v>
+        <v>10988745.454545457</v>
       </c>
     </row>
     <row r="2813" spans="1:11" x14ac:dyDescent="0.2">
@@ -26347,7 +26373,7 @@
       </c>
       <c r="F2813" s="2">
         <f t="shared" si="7"/>
-        <v>9319677.7777777817</v>
+        <v>10279754.545454547</v>
       </c>
     </row>
     <row r="2814" spans="1:11" x14ac:dyDescent="0.2">
@@ -26361,7 +26387,7 @@
       </c>
       <c r="F2814" s="2">
         <f t="shared" si="7"/>
-        <v>8546527.7777777836</v>
+        <v>9570763.6363636386</v>
       </c>
     </row>
     <row r="2815" spans="1:11" x14ac:dyDescent="0.2">
@@ -26375,7 +26401,7 @@
       </c>
       <c r="F2815" s="2">
         <f t="shared" si="7"/>
-        <v>7773377.7777777836</v>
+        <v>8861772.7272727285</v>
       </c>
     </row>
     <row r="2816" spans="1:11" x14ac:dyDescent="0.2">
@@ -26389,7 +26415,7 @@
       </c>
       <c r="F2816" s="2">
         <f t="shared" si="7"/>
-        <v>7000227.7777777836</v>
+        <v>8152781.8181818202</v>
       </c>
     </row>
     <row r="2817" spans="1:6" x14ac:dyDescent="0.2">
@@ -26403,7 +26429,7 @@
       </c>
       <c r="F2817" s="2">
         <f t="shared" si="7"/>
-        <v>6227077.7777777836</v>
+        <v>7443790.9090909101</v>
       </c>
     </row>
     <row r="2818" spans="1:6" x14ac:dyDescent="0.2">
@@ -26417,7 +26443,7 @@
       </c>
       <c r="F2818" s="2">
         <f t="shared" si="7"/>
-        <v>5453927.7777777836</v>
+        <v>6734800.0000000019</v>
       </c>
     </row>
     <row r="2819" spans="1:6" x14ac:dyDescent="0.2">
@@ -26431,7 +26457,7 @@
       </c>
       <c r="F2819" s="2">
         <f t="shared" si="7"/>
-        <v>4680777.7777777836</v>
+        <v>6025809.0909090936</v>
       </c>
     </row>
   </sheetData>

--- a/CCSA.xlsx
+++ b/CCSA.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="23001"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="23029"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Rainy\Documents\GitHub\Economics\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{35CFD107-EBBC-4C11-B35F-FE8E2691B52B}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{046D1181-181B-433F-AFB3-14BD4C1FFBEE}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -16,14 +16,6 @@
     <sheet name="FRED Graph" sheetId="1" r:id="rId1"/>
   </sheets>
   <calcPr calcId="181029"/>
-  <extLst>
-    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
-      <xcalcf:calcFeatures>
-        <xcalcf:feature name="microsoft.com:RD"/>
-        <xcalcf:feature name="microsoft.com:FV"/>
-      </xcalcf:calcFeatures>
-    </ext>
-  </extLst>
 </workbook>
 </file>
 
@@ -614,7 +606,7 @@
                   <c:v>16151000</c:v>
                 </c:pt>
                 <c:pt idx="15">
-                  <c:v>17018000</c:v>
+                  <c:v>16951000</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -793,21 +785,21 @@
           </c:marker>
           <c:dLbls>
             <c:dLbl>
-              <c:idx val="14"/>
+              <c:idx val="15"/>
               <c:delete val="1"/>
               <c:extLst>
                 <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}"/>
                 <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-                  <c16:uniqueId val="{0000000D-9DC2-412E-8450-CDF10A4ECBCD}"/>
+                  <c16:uniqueId val="{0000000E-84D9-44A1-BBCF-BDFD492E0D27}"/>
                 </c:ext>
               </c:extLst>
             </c:dLbl>
             <c:dLbl>
-              <c:idx val="15"/>
+              <c:idx val="16"/>
               <c:layout>
                 <c:manualLayout>
-                  <c:x val="-2.1664204825209185E-2"/>
-                  <c:y val="-8.422161159711701E-2"/>
+                  <c:x val="-4.9236829148202925E-2"/>
+                  <c:y val="-9.264377275682871E-2"/>
                 </c:manualLayout>
               </c:layout>
               <c:showLegendKey val="0"/>
@@ -819,7 +811,7 @@
               <c:extLst>
                 <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}"/>
                 <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-                  <c16:uniqueId val="{0000000E-84D9-44A1-BBCF-BDFD492E0D27}"/>
+                  <c16:uniqueId val="{0000000E-8588-4E81-A7C3-7FEB6FD3F84D}"/>
                 </c:ext>
               </c:extLst>
             </c:dLbl>
@@ -990,10 +982,13 @@
                   <c:v>17321763</c:v>
                 </c:pt>
                 <c:pt idx="14" formatCode="General">
-                  <c:v>16344706</c:v>
+                  <c:v>16344839</c:v>
                 </c:pt>
                 <c:pt idx="15" formatCode="General">
-                  <c:v>16881463</c:v>
+                  <c:v>16815199</c:v>
+                </c:pt>
+                <c:pt idx="16" formatCode="General">
+                  <c:v>15849488</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -1112,79 +1107,79 @@
                 <c:formatCode>0</c:formatCode>
                 <c:ptCount val="25"/>
                 <c:pt idx="0">
-                  <c:v>23041590.90909091</c:v>
+                  <c:v>23050727.27272727</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>22332600</c:v>
+                  <c:v>22338690.909090906</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>21623609.090909094</c:v>
+                  <c:v>21626654.545454543</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>20914618.181818184</c:v>
+                  <c:v>20914618.18181818</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>20205627.272727273</c:v>
+                  <c:v>20202581.818181816</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>19496636.363636363</c:v>
+                  <c:v>19490545.454545453</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>18787645.454545457</c:v>
+                  <c:v>18778509.090909086</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>18078654.545454547</c:v>
+                  <c:v>18066472.727272727</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>17369663.636363637</c:v>
+                  <c:v>17354436.36363636</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>16660672.727272728</c:v>
+                  <c:v>16642399.999999998</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>15951681.81818182</c:v>
+                  <c:v>15930363.636363635</c:v>
                 </c:pt>
                 <c:pt idx="11">
-                  <c:v>15242690.90909091</c:v>
+                  <c:v>15218327.27272727</c:v>
                 </c:pt>
                 <c:pt idx="12">
-                  <c:v>14533700.000000002</c:v>
+                  <c:v>14506290.909090906</c:v>
                 </c:pt>
                 <c:pt idx="13">
-                  <c:v>13824709.090909092</c:v>
+                  <c:v>13794254.545454543</c:v>
                 </c:pt>
                 <c:pt idx="14">
-                  <c:v>13115718.181818184</c:v>
+                  <c:v>13082218.18181818</c:v>
                 </c:pt>
                 <c:pt idx="15">
-                  <c:v>12406727.272727273</c:v>
+                  <c:v>12370181.818181816</c:v>
                 </c:pt>
                 <c:pt idx="16">
-                  <c:v>11697736.363636365</c:v>
+                  <c:v>11658145.454545453</c:v>
                 </c:pt>
                 <c:pt idx="17">
-                  <c:v>10988745.454545457</c:v>
+                  <c:v>10946109.09090909</c:v>
                 </c:pt>
                 <c:pt idx="18">
-                  <c:v>10279754.545454547</c:v>
+                  <c:v>10234072.727272727</c:v>
                 </c:pt>
                 <c:pt idx="19">
-                  <c:v>9570763.6363636386</c:v>
+                  <c:v>9522036.3636363633</c:v>
                 </c:pt>
                 <c:pt idx="20">
-                  <c:v>8861772.7272727285</c:v>
+                  <c:v>8810000</c:v>
                 </c:pt>
                 <c:pt idx="21">
-                  <c:v>8152781.8181818202</c:v>
+                  <c:v>8097963.6363636348</c:v>
                 </c:pt>
                 <c:pt idx="22">
-                  <c:v>7443790.9090909101</c:v>
+                  <c:v>7385927.2727272715</c:v>
                 </c:pt>
                 <c:pt idx="23">
-                  <c:v>6734800.0000000019</c:v>
+                  <c:v>6673890.9090909082</c:v>
                 </c:pt>
                 <c:pt idx="24">
-                  <c:v>6025809.0909090936</c:v>
+                  <c:v>5961854.5454545431</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -3285,8 +3280,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:M2819"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="D2765" zoomScale="160" zoomScaleNormal="160" workbookViewId="0">
-      <selection activeCell="F2791" sqref="F2791"/>
+    <sheetView tabSelected="1" topLeftCell="A2768" zoomScale="160" zoomScaleNormal="160" workbookViewId="0">
+      <selection activeCell="D2775" sqref="D2775"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="20.7109375" defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
@@ -25568,10 +25563,10 @@
       </c>
       <c r="F2787">
         <f t="array" ref="F2787:G2787">LINEST(E2795:E2805,D2795:D2805,TRUE)</f>
-        <v>-708990.90909090906</v>
+        <v>-712036.36363636353</v>
       </c>
       <c r="G2787">
-        <v>23041590.90909091</v>
+        <v>23050727.27272727</v>
       </c>
       <c r="L2787">
         <v>-41794.117647058796</v>
@@ -25625,7 +25620,7 @@
         <v>12461658</v>
       </c>
       <c r="E2790" s="2">
-        <f t="shared" ref="E2790:E2805" si="0">B2790</f>
+        <f t="shared" ref="E2790:E2806" si="0">B2790</f>
         <v>11914000</v>
       </c>
       <c r="F2790" s="2"/>
@@ -25809,7 +25804,7 @@
       </c>
       <c r="F2795" s="2">
         <f>$G$2787+($F$2787*D2795)</f>
-        <v>23041590.90909091</v>
+        <v>23050727.27272727</v>
       </c>
       <c r="G2795">
         <f t="shared" si="4"/>
@@ -25852,7 +25847,7 @@
       </c>
       <c r="F2796" s="2">
         <f t="shared" ref="F2796:F2819" si="7">$G$2787+($F$2787*D2796)</f>
-        <v>22332600</v>
+        <v>22338690.909090906</v>
       </c>
       <c r="G2796">
         <f t="shared" si="4"/>
@@ -25895,7 +25890,7 @@
       </c>
       <c r="F2797" s="2">
         <f t="shared" si="7"/>
-        <v>21623609.090909094</v>
+        <v>21626654.545454543</v>
       </c>
       <c r="G2797">
         <f t="shared" si="4"/>
@@ -25938,7 +25933,7 @@
       </c>
       <c r="F2798" s="2">
         <f t="shared" si="7"/>
-        <v>20914618.181818184</v>
+        <v>20914618.18181818</v>
       </c>
       <c r="G2798">
         <f t="shared" si="4"/>
@@ -25981,7 +25976,7 @@
       </c>
       <c r="F2799" s="2">
         <f t="shared" si="7"/>
-        <v>20205627.272727273</v>
+        <v>20202581.818181816</v>
       </c>
       <c r="G2799">
         <f t="shared" si="4"/>
@@ -26024,7 +26019,7 @@
       </c>
       <c r="F2800" s="2">
         <f t="shared" si="7"/>
-        <v>19496636.363636363</v>
+        <v>19490545.454545453</v>
       </c>
       <c r="G2800">
         <f t="shared" si="4"/>
@@ -26067,7 +26062,7 @@
       </c>
       <c r="F2801" s="2">
         <f t="shared" si="7"/>
-        <v>18787645.454545457</v>
+        <v>18778509.090909086</v>
       </c>
       <c r="G2801">
         <f t="shared" si="4"/>
@@ -26110,7 +26105,7 @@
       </c>
       <c r="F2802" s="2">
         <f t="shared" si="7"/>
-        <v>18078654.545454547</v>
+        <v>18066472.727272727</v>
       </c>
       <c r="G2802">
         <f t="shared" si="4"/>
@@ -26153,7 +26148,7 @@
       </c>
       <c r="F2803" s="2">
         <f t="shared" si="7"/>
-        <v>17369663.636363637</v>
+        <v>17354436.36363636</v>
       </c>
       <c r="H2803" s="1">
         <f t="shared" ref="H2803:I2803" si="9">A2237</f>
@@ -26180,7 +26175,7 @@
         <v>16151000</v>
       </c>
       <c r="C2804">
-        <v>16344706</v>
+        <v>16344839</v>
       </c>
       <c r="D2804">
         <f t="shared" si="8"/>
@@ -26192,7 +26187,7 @@
       </c>
       <c r="F2804" s="2">
         <f t="shared" si="7"/>
-        <v>16660672.727272728</v>
+        <v>16642399.999999998</v>
       </c>
       <c r="H2804" s="1">
         <f t="shared" ref="H2804:I2804" si="10">A2238</f>
@@ -26216,10 +26211,10 @@
         <v>44030</v>
       </c>
       <c r="B2805">
-        <v>17018000</v>
+        <v>16951000</v>
       </c>
       <c r="C2805">
-        <v>16881463</v>
+        <v>16815199</v>
       </c>
       <c r="D2805">
         <f t="shared" si="8"/>
@@ -26227,11 +26222,11 @@
       </c>
       <c r="E2805" s="2">
         <f t="shared" si="0"/>
-        <v>17018000</v>
+        <v>16951000</v>
       </c>
       <c r="F2805" s="2">
         <f t="shared" si="7"/>
-        <v>15951681.81818182</v>
+        <v>15930363.636363635</v>
       </c>
       <c r="H2805" s="1">
         <f t="shared" ref="H2805:I2805" si="11">A2239</f>
@@ -26254,13 +26249,23 @@
         <f t="shared" si="5"/>
         <v>44037</v>
       </c>
+      <c r="B2806">
+        <v>16107000</v>
+      </c>
+      <c r="C2806">
+        <v>15849488</v>
+      </c>
       <c r="D2806">
         <f t="shared" si="8"/>
         <v>11</v>
       </c>
+      <c r="E2806" s="2">
+        <f t="shared" si="0"/>
+        <v>16107000</v>
+      </c>
       <c r="F2806" s="2">
         <f t="shared" si="7"/>
-        <v>15242690.90909091</v>
+        <v>15218327.27272727</v>
       </c>
       <c r="H2806" s="1">
         <f t="shared" ref="H2806:I2806" si="12">A2240</f>
@@ -26289,7 +26294,7 @@
       </c>
       <c r="F2807" s="2">
         <f t="shared" si="7"/>
-        <v>14533700.000000002</v>
+        <v>14506290.909090906</v>
       </c>
     </row>
     <row r="2808" spans="1:11" x14ac:dyDescent="0.2">
@@ -26303,7 +26308,7 @@
       </c>
       <c r="F2808" s="2">
         <f t="shared" si="7"/>
-        <v>13824709.090909092</v>
+        <v>13794254.545454543</v>
       </c>
     </row>
     <row r="2809" spans="1:11" x14ac:dyDescent="0.2">
@@ -26317,7 +26322,7 @@
       </c>
       <c r="F2809" s="2">
         <f t="shared" si="7"/>
-        <v>13115718.181818184</v>
+        <v>13082218.18181818</v>
       </c>
     </row>
     <row r="2810" spans="1:11" x14ac:dyDescent="0.2">
@@ -26331,7 +26336,7 @@
       </c>
       <c r="F2810" s="2">
         <f t="shared" si="7"/>
-        <v>12406727.272727273</v>
+        <v>12370181.818181816</v>
       </c>
     </row>
     <row r="2811" spans="1:11" x14ac:dyDescent="0.2">
@@ -26345,7 +26350,7 @@
       </c>
       <c r="F2811" s="2">
         <f t="shared" si="7"/>
-        <v>11697736.363636365</v>
+        <v>11658145.454545453</v>
       </c>
     </row>
     <row r="2812" spans="1:11" x14ac:dyDescent="0.2">
@@ -26359,7 +26364,7 @@
       </c>
       <c r="F2812" s="2">
         <f t="shared" si="7"/>
-        <v>10988745.454545457</v>
+        <v>10946109.09090909</v>
       </c>
     </row>
     <row r="2813" spans="1:11" x14ac:dyDescent="0.2">
@@ -26373,7 +26378,7 @@
       </c>
       <c r="F2813" s="2">
         <f t="shared" si="7"/>
-        <v>10279754.545454547</v>
+        <v>10234072.727272727</v>
       </c>
     </row>
     <row r="2814" spans="1:11" x14ac:dyDescent="0.2">
@@ -26387,7 +26392,7 @@
       </c>
       <c r="F2814" s="2">
         <f t="shared" si="7"/>
-        <v>9570763.6363636386</v>
+        <v>9522036.3636363633</v>
       </c>
     </row>
     <row r="2815" spans="1:11" x14ac:dyDescent="0.2">
@@ -26401,7 +26406,7 @@
       </c>
       <c r="F2815" s="2">
         <f t="shared" si="7"/>
-        <v>8861772.7272727285</v>
+        <v>8810000</v>
       </c>
     </row>
     <row r="2816" spans="1:11" x14ac:dyDescent="0.2">
@@ -26415,7 +26420,7 @@
       </c>
       <c r="F2816" s="2">
         <f t="shared" si="7"/>
-        <v>8152781.8181818202</v>
+        <v>8097963.6363636348</v>
       </c>
     </row>
     <row r="2817" spans="1:6" x14ac:dyDescent="0.2">
@@ -26429,7 +26434,7 @@
       </c>
       <c r="F2817" s="2">
         <f t="shared" si="7"/>
-        <v>7443790.9090909101</v>
+        <v>7385927.2727272715</v>
       </c>
     </row>
     <row r="2818" spans="1:6" x14ac:dyDescent="0.2">
@@ -26443,7 +26448,7 @@
       </c>
       <c r="F2818" s="2">
         <f t="shared" si="7"/>
-        <v>6734800.0000000019</v>
+        <v>6673890.9090909082</v>
       </c>
     </row>
     <row r="2819" spans="1:6" x14ac:dyDescent="0.2">
@@ -26457,7 +26462,7 @@
       </c>
       <c r="F2819" s="2">
         <f t="shared" si="7"/>
-        <v>6025809.0909090936</v>
+        <v>5961854.5454545431</v>
       </c>
     </row>
   </sheetData>

--- a/CCSA.xlsx
+++ b/CCSA.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Rainy\Documents\GitHub\Economics\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{046D1181-181B-433F-AFB3-14BD4C1FFBEE}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4B350559-38A9-4530-AF6A-AD17E9907511}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -33,7 +33,7 @@
             <sz val="9"/>
             <color indexed="81"/>
             <rFont val="Tahoma"/>
-            <charset val="1"/>
+            <family val="2"/>
           </rPr>
           <t>Brian Howard:</t>
         </r>
@@ -42,7 +42,7 @@
             <sz val="9"/>
             <color indexed="81"/>
             <rFont val="Tahoma"/>
-            <charset val="1"/>
+            <family val="2"/>
           </rPr>
           <t xml:space="preserve">
 19290000</t>
@@ -105,8 +105,9 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <numFmts count="1">
+  <numFmts count="2">
     <numFmt numFmtId="164" formatCode="yyyy\-mm\-dd"/>
+    <numFmt numFmtId="166" formatCode="yyyy\-mm\-dd;@"/>
   </numFmts>
   <fonts count="4" x14ac:knownFonts="1">
     <font>
@@ -123,14 +124,14 @@
       <sz val="9"/>
       <color indexed="81"/>
       <name val="Tahoma"/>
-      <charset val="1"/>
+      <family val="2"/>
     </font>
     <font>
       <b/>
       <sz val="9"/>
       <color indexed="81"/>
       <name val="Tahoma"/>
-      <charset val="1"/>
+      <family val="2"/>
     </font>
   </fonts>
   <fills count="2">
@@ -153,13 +154,14 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="4">
+  <cellXfs count="5">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="1" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="166" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -539,16 +541,16 @@
                 <c:pt idx="11">
                   <c:v>44002</c:v>
                 </c:pt>
-                <c:pt idx="12">
+                <c:pt idx="12" formatCode="yyyy\-mm\-dd;@">
                   <c:v>44009</c:v>
                 </c:pt>
-                <c:pt idx="13">
+                <c:pt idx="13" formatCode="yyyy\-mm\-dd;@">
                   <c:v>44016</c:v>
                 </c:pt>
-                <c:pt idx="14">
+                <c:pt idx="14" formatCode="yyyy\-mm\-dd;@">
                   <c:v>44023</c:v>
                 </c:pt>
-                <c:pt idx="15">
+                <c:pt idx="15" formatCode="yyyy\-mm\-dd;@">
                   <c:v>44030</c:v>
                 </c:pt>
               </c:numCache>
@@ -677,16 +679,16 @@
                 <c:pt idx="11">
                   <c:v>44002</c:v>
                 </c:pt>
-                <c:pt idx="12">
+                <c:pt idx="12" formatCode="yyyy\-mm\-dd;@">
                   <c:v>44009</c:v>
                 </c:pt>
-                <c:pt idx="13">
+                <c:pt idx="13" formatCode="yyyy\-mm\-dd;@">
                   <c:v>44016</c:v>
                 </c:pt>
-                <c:pt idx="14">
+                <c:pt idx="14" formatCode="yyyy\-mm\-dd;@">
                   <c:v>44023</c:v>
                 </c:pt>
-                <c:pt idx="15">
+                <c:pt idx="15" formatCode="yyyy\-mm\-dd;@">
                   <c:v>44030</c:v>
                 </c:pt>
               </c:numCache>
@@ -785,21 +787,11 @@
           </c:marker>
           <c:dLbls>
             <c:dLbl>
-              <c:idx val="15"/>
-              <c:delete val="1"/>
-              <c:extLst>
-                <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}"/>
-                <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-                  <c16:uniqueId val="{0000000E-84D9-44A1-BBCF-BDFD492E0D27}"/>
-                </c:ext>
-              </c:extLst>
-            </c:dLbl>
-            <c:dLbl>
-              <c:idx val="16"/>
+              <c:idx val="17"/>
               <c:layout>
                 <c:manualLayout>
-                  <c:x val="-4.9236829148202925E-2"/>
-                  <c:y val="-9.264377275682871E-2"/>
+                  <c:x val="-0.10221394412407572"/>
+                  <c:y val="-0.21518987341772156"/>
                 </c:manualLayout>
               </c:layout>
               <c:showLegendKey val="0"/>
@@ -811,7 +803,7 @@
               <c:extLst>
                 <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}"/>
                 <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-                  <c16:uniqueId val="{0000000E-8588-4E81-A7C3-7FEB6FD3F84D}"/>
+                  <c16:uniqueId val="{0000000E-6858-4C41-B754-F14DD203BD8C}"/>
                 </c:ext>
               </c:extLst>
             </c:dLbl>
@@ -876,25 +868,25 @@
                 <c:pt idx="11">
                   <c:v>44002</c:v>
                 </c:pt>
-                <c:pt idx="12">
+                <c:pt idx="12" formatCode="yyyy\-mm\-dd;@">
                   <c:v>44009</c:v>
                 </c:pt>
-                <c:pt idx="13">
+                <c:pt idx="13" formatCode="yyyy\-mm\-dd;@">
                   <c:v>44016</c:v>
                 </c:pt>
-                <c:pt idx="14">
+                <c:pt idx="14" formatCode="yyyy\-mm\-dd;@">
                   <c:v>44023</c:v>
                 </c:pt>
-                <c:pt idx="15">
+                <c:pt idx="15" formatCode="yyyy\-mm\-dd;@">
                   <c:v>44030</c:v>
                 </c:pt>
-                <c:pt idx="16">
+                <c:pt idx="16" formatCode="yyyy\-mm\-dd;@">
                   <c:v>44037</c:v>
                 </c:pt>
-                <c:pt idx="17">
+                <c:pt idx="17" formatCode="yyyy\-mm\-dd;@">
                   <c:v>44044</c:v>
                 </c:pt>
-                <c:pt idx="18">
+                <c:pt idx="18" formatCode="yyyy\-mm\-dd;@">
                   <c:v>44051</c:v>
                 </c:pt>
                 <c:pt idx="19">
@@ -985,10 +977,13 @@
                   <c:v>16344839</c:v>
                 </c:pt>
                 <c:pt idx="15" formatCode="General">
-                  <c:v>16815199</c:v>
+                  <c:v>16815346</c:v>
                 </c:pt>
                 <c:pt idx="16" formatCode="General">
-                  <c:v>15849488</c:v>
+                  <c:v>15832355</c:v>
+                </c:pt>
+                <c:pt idx="17" formatCode="General">
+                  <c:v>15207671</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -1043,25 +1038,25 @@
                 <c:pt idx="6">
                   <c:v>44002</c:v>
                 </c:pt>
-                <c:pt idx="7">
+                <c:pt idx="7" formatCode="yyyy\-mm\-dd;@">
                   <c:v>44009</c:v>
                 </c:pt>
-                <c:pt idx="8">
+                <c:pt idx="8" formatCode="yyyy\-mm\-dd;@">
                   <c:v>44016</c:v>
                 </c:pt>
-                <c:pt idx="9">
+                <c:pt idx="9" formatCode="yyyy\-mm\-dd;@">
                   <c:v>44023</c:v>
                 </c:pt>
-                <c:pt idx="10">
+                <c:pt idx="10" formatCode="yyyy\-mm\-dd;@">
                   <c:v>44030</c:v>
                 </c:pt>
-                <c:pt idx="11">
+                <c:pt idx="11" formatCode="yyyy\-mm\-dd;@">
                   <c:v>44037</c:v>
                 </c:pt>
-                <c:pt idx="12">
+                <c:pt idx="12" formatCode="yyyy\-mm\-dd;@">
                   <c:v>44044</c:v>
                 </c:pt>
-                <c:pt idx="13">
+                <c:pt idx="13" formatCode="yyyy\-mm\-dd;@">
                   <c:v>44051</c:v>
                 </c:pt>
                 <c:pt idx="14">
@@ -1107,79 +1102,79 @@
                 <c:formatCode>0</c:formatCode>
                 <c:ptCount val="25"/>
                 <c:pt idx="0">
-                  <c:v>23050727.27272727</c:v>
+                  <c:v>22855670.329670329</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>22338690.909090906</c:v>
+                  <c:v>22199879.120879121</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>21626654.545454543</c:v>
+                  <c:v>21544087.91208791</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>20914618.18181818</c:v>
+                  <c:v>20888296.703296702</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>20202581.818181816</c:v>
+                  <c:v>20232505.494505495</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>19490545.454545453</c:v>
+                  <c:v>19576714.285714284</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>18778509.090909086</c:v>
+                  <c:v>18920923.076923076</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>18066472.727272727</c:v>
+                  <c:v>18265131.868131869</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>17354436.36363636</c:v>
+                  <c:v>17609340.659340657</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>16642399.999999998</c:v>
+                  <c:v>16953549.450549446</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>15930363.636363635</c:v>
+                  <c:v>16297758.241758239</c:v>
                 </c:pt>
                 <c:pt idx="11">
-                  <c:v>15218327.27272727</c:v>
+                  <c:v>15641967.032967031</c:v>
                 </c:pt>
                 <c:pt idx="12">
-                  <c:v>14506290.909090906</c:v>
+                  <c:v>14986175.824175822</c:v>
                 </c:pt>
                 <c:pt idx="13">
-                  <c:v>13794254.545454543</c:v>
+                  <c:v>14330384.615384612</c:v>
                 </c:pt>
                 <c:pt idx="14">
-                  <c:v>13082218.18181818</c:v>
+                  <c:v>13674593.406593405</c:v>
                 </c:pt>
                 <c:pt idx="15">
-                  <c:v>12370181.818181816</c:v>
+                  <c:v>13018802.197802195</c:v>
                 </c:pt>
                 <c:pt idx="16">
-                  <c:v>11658145.454545453</c:v>
+                  <c:v>12363010.989010986</c:v>
                 </c:pt>
                 <c:pt idx="17">
-                  <c:v>10946109.09090909</c:v>
+                  <c:v>11707219.780219777</c:v>
                 </c:pt>
                 <c:pt idx="18">
-                  <c:v>10234072.727272727</c:v>
+                  <c:v>11051428.571428567</c:v>
                 </c:pt>
                 <c:pt idx="19">
-                  <c:v>9522036.3636363633</c:v>
+                  <c:v>10395637.36263736</c:v>
                 </c:pt>
                 <c:pt idx="20">
-                  <c:v>8810000</c:v>
+                  <c:v>9739846.1538461503</c:v>
                 </c:pt>
                 <c:pt idx="21">
-                  <c:v>8097963.6363636348</c:v>
+                  <c:v>9084054.9450549409</c:v>
                 </c:pt>
                 <c:pt idx="22">
-                  <c:v>7385927.2727272715</c:v>
+                  <c:v>8428263.7362637334</c:v>
                 </c:pt>
                 <c:pt idx="23">
-                  <c:v>6673890.9090909082</c:v>
+                  <c:v>7772472.527472524</c:v>
                 </c:pt>
                 <c:pt idx="24">
-                  <c:v>5961854.5454545431</c:v>
+                  <c:v>7116681.3186813146</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -1320,16 +1315,16 @@
                 <c:pt idx="11">
                   <c:v>44002</c:v>
                 </c:pt>
-                <c:pt idx="12">
+                <c:pt idx="12" formatCode="yyyy\-mm\-dd;@">
                   <c:v>44009</c:v>
                 </c:pt>
-                <c:pt idx="13">
+                <c:pt idx="13" formatCode="yyyy\-mm\-dd;@">
                   <c:v>44016</c:v>
                 </c:pt>
-                <c:pt idx="14">
+                <c:pt idx="14" formatCode="yyyy\-mm\-dd;@">
                   <c:v>44023</c:v>
                 </c:pt>
-                <c:pt idx="15">
+                <c:pt idx="15" formatCode="yyyy\-mm\-dd;@">
                   <c:v>44030</c:v>
                 </c:pt>
               </c:numCache>
@@ -3278,10 +3273,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:M2819"/>
+  <dimension ref="A1:M2834"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A2768" zoomScale="160" zoomScaleNormal="160" workbookViewId="0">
-      <selection activeCell="D2775" sqref="D2775"/>
+    <sheetView tabSelected="1" topLeftCell="D2765" zoomScale="190" zoomScaleNormal="190" workbookViewId="0">
+      <selection activeCell="F2820" sqref="F2820"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="20.7109375" defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
@@ -25562,11 +25557,11 @@
         <v>2074782</v>
       </c>
       <c r="F2787">
-        <f t="array" ref="F2787:G2787">LINEST(E2795:E2805,D2795:D2805,TRUE)</f>
-        <v>-712036.36363636353</v>
+        <f t="array" ref="F2787:G2787">LINEST(E2795:E2807,D2795:D2807,TRUE)</f>
+        <v>-655791.20879120892</v>
       </c>
       <c r="G2787">
-        <v>23050727.27272727</v>
+        <v>22855670.329670329</v>
       </c>
       <c r="L2787">
         <v>-41794.117647058796</v>
@@ -25620,7 +25615,7 @@
         <v>12461658</v>
       </c>
       <c r="E2790" s="2">
-        <f t="shared" ref="E2790:E2806" si="0">B2790</f>
+        <f t="shared" ref="E2790:E2807" si="0">B2790</f>
         <v>11914000</v>
       </c>
       <c r="F2790" s="2"/>
@@ -25786,7 +25781,7 @@
     </row>
     <row r="2795" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A2795" s="1">
-        <f t="shared" ref="A2795:A2819" si="5">A2794+7</f>
+        <f t="shared" ref="A2795:A2834" si="5">A2794+7</f>
         <v>43960</v>
       </c>
       <c r="B2795">
@@ -25804,7 +25799,7 @@
       </c>
       <c r="F2795" s="2">
         <f>$G$2787+($F$2787*D2795)</f>
-        <v>23050727.27272727</v>
+        <v>22855670.329670329</v>
       </c>
       <c r="G2795">
         <f t="shared" si="4"/>
@@ -25846,8 +25841,8 @@
         <v>20841000</v>
       </c>
       <c r="F2796" s="2">
-        <f t="shared" ref="F2796:F2819" si="7">$G$2787+($F$2787*D2796)</f>
-        <v>22338690.909090906</v>
+        <f t="shared" ref="F2796:F2826" si="7">$G$2787+($F$2787*D2796)</f>
+        <v>22199879.120879121</v>
       </c>
       <c r="G2796">
         <f t="shared" si="4"/>
@@ -25890,7 +25885,7 @@
       </c>
       <c r="F2797" s="2">
         <f t="shared" si="7"/>
-        <v>21626654.545454543</v>
+        <v>21544087.91208791</v>
       </c>
       <c r="G2797">
         <f t="shared" si="4"/>
@@ -25933,7 +25928,7 @@
       </c>
       <c r="F2798" s="2">
         <f t="shared" si="7"/>
-        <v>20914618.18181818</v>
+        <v>20888296.703296702</v>
       </c>
       <c r="G2798">
         <f t="shared" si="4"/>
@@ -25976,7 +25971,7 @@
       </c>
       <c r="F2799" s="2">
         <f t="shared" si="7"/>
-        <v>20202581.818181816</v>
+        <v>20232505.494505495</v>
       </c>
       <c r="G2799">
         <f t="shared" si="4"/>
@@ -26019,7 +26014,7 @@
       </c>
       <c r="F2800" s="2">
         <f t="shared" si="7"/>
-        <v>19490545.454545453</v>
+        <v>19576714.285714284</v>
       </c>
       <c r="G2800">
         <f t="shared" si="4"/>
@@ -26062,7 +26057,7 @@
       </c>
       <c r="F2801" s="2">
         <f t="shared" si="7"/>
-        <v>18778509.090909086</v>
+        <v>18920923.076923076</v>
       </c>
       <c r="G2801">
         <f t="shared" si="4"/>
@@ -26085,7 +26080,7 @@
       </c>
     </row>
     <row r="2802" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A2802" s="1">
+      <c r="A2802" s="4">
         <f t="shared" si="5"/>
         <v>44009</v>
       </c>
@@ -26105,7 +26100,7 @@
       </c>
       <c r="F2802" s="2">
         <f t="shared" si="7"/>
-        <v>18066472.727272727</v>
+        <v>18265131.868131869</v>
       </c>
       <c r="G2802">
         <f t="shared" si="4"/>
@@ -26128,8 +26123,7 @@
       </c>
     </row>
     <row r="2803" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A2803" s="1">
-        <f t="shared" si="5"/>
+      <c r="A2803" s="4">
         <v>44016</v>
       </c>
       <c r="B2803">
@@ -26139,7 +26133,7 @@
         <v>17321763</v>
       </c>
       <c r="D2803">
-        <f t="shared" ref="D2803:D2819" si="8">D2802+1</f>
+        <f t="shared" ref="D2803:D2833" si="8">D2802+1</f>
         <v>8</v>
       </c>
       <c r="E2803" s="2">
@@ -26148,7 +26142,7 @@
       </c>
       <c r="F2803" s="2">
         <f t="shared" si="7"/>
-        <v>17354436.36363636</v>
+        <v>17609340.659340657</v>
       </c>
       <c r="H2803" s="1">
         <f t="shared" ref="H2803:I2803" si="9">A2237</f>
@@ -26167,8 +26161,7 @@
       </c>
     </row>
     <row r="2804" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A2804" s="1">
-        <f t="shared" si="5"/>
+      <c r="A2804" s="4">
         <v>44023</v>
       </c>
       <c r="B2804">
@@ -26187,7 +26180,7 @@
       </c>
       <c r="F2804" s="2">
         <f t="shared" si="7"/>
-        <v>16642399.999999998</v>
+        <v>16953549.450549446</v>
       </c>
       <c r="H2804" s="1">
         <f t="shared" ref="H2804:I2804" si="10">A2238</f>
@@ -26206,15 +26199,14 @@
       </c>
     </row>
     <row r="2805" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A2805" s="1">
-        <f t="shared" si="5"/>
+      <c r="A2805" s="4">
         <v>44030</v>
       </c>
       <c r="B2805">
         <v>16951000</v>
       </c>
       <c r="C2805">
-        <v>16815199</v>
+        <v>16815346</v>
       </c>
       <c r="D2805">
         <f t="shared" si="8"/>
@@ -26226,7 +26218,7 @@
       </c>
       <c r="F2805" s="2">
         <f t="shared" si="7"/>
-        <v>15930363.636363635</v>
+        <v>16297758.241758239</v>
       </c>
       <c r="H2805" s="1">
         <f t="shared" ref="H2805:I2805" si="11">A2239</f>
@@ -26245,15 +26237,14 @@
       </c>
     </row>
     <row r="2806" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A2806" s="1">
-        <f t="shared" si="5"/>
+      <c r="A2806" s="4">
         <v>44037</v>
       </c>
       <c r="B2806">
-        <v>16107000</v>
+        <v>16090000</v>
       </c>
       <c r="C2806">
-        <v>15849488</v>
+        <v>15832355</v>
       </c>
       <c r="D2806">
         <f t="shared" si="8"/>
@@ -26261,11 +26252,11 @@
       </c>
       <c r="E2806" s="2">
         <f t="shared" si="0"/>
-        <v>16107000</v>
+        <v>16090000</v>
       </c>
       <c r="F2806" s="2">
         <f t="shared" si="7"/>
-        <v>15218327.27272727</v>
+        <v>15641967.032967031</v>
       </c>
       <c r="H2806" s="1">
         <f t="shared" ref="H2806:I2806" si="12">A2240</f>
@@ -26284,21 +26275,30 @@
       </c>
     </row>
     <row r="2807" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A2807" s="1">
-        <f t="shared" si="5"/>
+      <c r="A2807" s="4">
         <v>44044</v>
+      </c>
+      <c r="B2807">
+        <v>15486000</v>
+      </c>
+      <c r="C2807">
+        <v>15207671</v>
       </c>
       <c r="D2807">
         <f t="shared" si="8"/>
         <v>12</v>
       </c>
+      <c r="E2807" s="2">
+        <f t="shared" si="0"/>
+        <v>15486000</v>
+      </c>
       <c r="F2807" s="2">
         <f t="shared" si="7"/>
-        <v>14506290.909090906</v>
+        <v>14986175.824175822</v>
       </c>
     </row>
     <row r="2808" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A2808" s="1">
+      <c r="A2808" s="4">
         <f t="shared" si="5"/>
         <v>44051</v>
       </c>
@@ -26308,7 +26308,7 @@
       </c>
       <c r="F2808" s="2">
         <f t="shared" si="7"/>
-        <v>13794254.545454543</v>
+        <v>14330384.615384612</v>
       </c>
     </row>
     <row r="2809" spans="1:11" x14ac:dyDescent="0.2">
@@ -26322,7 +26322,7 @@
       </c>
       <c r="F2809" s="2">
         <f t="shared" si="7"/>
-        <v>13082218.18181818</v>
+        <v>13674593.406593405</v>
       </c>
     </row>
     <row r="2810" spans="1:11" x14ac:dyDescent="0.2">
@@ -26336,7 +26336,7 @@
       </c>
       <c r="F2810" s="2">
         <f t="shared" si="7"/>
-        <v>12370181.818181816</v>
+        <v>13018802.197802195</v>
       </c>
     </row>
     <row r="2811" spans="1:11" x14ac:dyDescent="0.2">
@@ -26350,7 +26350,7 @@
       </c>
       <c r="F2811" s="2">
         <f t="shared" si="7"/>
-        <v>11658145.454545453</v>
+        <v>12363010.989010986</v>
       </c>
     </row>
     <row r="2812" spans="1:11" x14ac:dyDescent="0.2">
@@ -26364,7 +26364,7 @@
       </c>
       <c r="F2812" s="2">
         <f t="shared" si="7"/>
-        <v>10946109.09090909</v>
+        <v>11707219.780219777</v>
       </c>
     </row>
     <row r="2813" spans="1:11" x14ac:dyDescent="0.2">
@@ -26378,7 +26378,7 @@
       </c>
       <c r="F2813" s="2">
         <f t="shared" si="7"/>
-        <v>10234072.727272727</v>
+        <v>11051428.571428567</v>
       </c>
     </row>
     <row r="2814" spans="1:11" x14ac:dyDescent="0.2">
@@ -26392,7 +26392,7 @@
       </c>
       <c r="F2814" s="2">
         <f t="shared" si="7"/>
-        <v>9522036.3636363633</v>
+        <v>10395637.36263736</v>
       </c>
     </row>
     <row r="2815" spans="1:11" x14ac:dyDescent="0.2">
@@ -26406,7 +26406,7 @@
       </c>
       <c r="F2815" s="2">
         <f t="shared" si="7"/>
-        <v>8810000</v>
+        <v>9739846.1538461503</v>
       </c>
     </row>
     <row r="2816" spans="1:11" x14ac:dyDescent="0.2">
@@ -26420,7 +26420,7 @@
       </c>
       <c r="F2816" s="2">
         <f t="shared" si="7"/>
-        <v>8097963.6363636348</v>
+        <v>9084054.9450549409</v>
       </c>
     </row>
     <row r="2817" spans="1:6" x14ac:dyDescent="0.2">
@@ -26434,7 +26434,7 @@
       </c>
       <c r="F2817" s="2">
         <f t="shared" si="7"/>
-        <v>7385927.2727272715</v>
+        <v>8428263.7362637334</v>
       </c>
     </row>
     <row r="2818" spans="1:6" x14ac:dyDescent="0.2">
@@ -26448,7 +26448,7 @@
       </c>
       <c r="F2818" s="2">
         <f t="shared" si="7"/>
-        <v>6673890.9090909082</v>
+        <v>7772472.527472524</v>
       </c>
     </row>
     <row r="2819" spans="1:6" x14ac:dyDescent="0.2">
@@ -26462,7 +26462,181 @@
       </c>
       <c r="F2819" s="2">
         <f t="shared" si="7"/>
-        <v>5961854.5454545431</v>
+        <v>7116681.3186813146</v>
+      </c>
+    </row>
+    <row r="2820" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A2820" s="1">
+        <f t="shared" si="5"/>
+        <v>44135</v>
+      </c>
+      <c r="D2820">
+        <f t="shared" si="8"/>
+        <v>25</v>
+      </c>
+      <c r="F2820" s="2">
+        <f t="shared" si="7"/>
+        <v>6460890.1098901052</v>
+      </c>
+    </row>
+    <row r="2821" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A2821" s="1">
+        <f t="shared" si="5"/>
+        <v>44142</v>
+      </c>
+      <c r="D2821">
+        <f t="shared" si="8"/>
+        <v>26</v>
+      </c>
+      <c r="F2821" s="2">
+        <f t="shared" si="7"/>
+        <v>5805098.9010988958</v>
+      </c>
+    </row>
+    <row r="2822" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A2822" s="1">
+        <f t="shared" si="5"/>
+        <v>44149</v>
+      </c>
+      <c r="D2822">
+        <f t="shared" si="8"/>
+        <v>27</v>
+      </c>
+      <c r="F2822" s="2">
+        <f t="shared" si="7"/>
+        <v>5149307.6923076883</v>
+      </c>
+    </row>
+    <row r="2823" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A2823" s="1">
+        <f t="shared" si="5"/>
+        <v>44156</v>
+      </c>
+      <c r="D2823">
+        <f t="shared" si="8"/>
+        <v>28</v>
+      </c>
+      <c r="F2823" s="2">
+        <f t="shared" si="7"/>
+        <v>4493516.4835164808</v>
+      </c>
+    </row>
+    <row r="2824" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A2824" s="1">
+        <f t="shared" si="5"/>
+        <v>44163</v>
+      </c>
+      <c r="D2824">
+        <f t="shared" si="8"/>
+        <v>29</v>
+      </c>
+      <c r="F2824" s="2">
+        <f t="shared" si="7"/>
+        <v>3837725.2747252695</v>
+      </c>
+    </row>
+    <row r="2825" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A2825" s="1">
+        <f t="shared" si="5"/>
+        <v>44170</v>
+      </c>
+      <c r="D2825">
+        <f t="shared" si="8"/>
+        <v>30</v>
+      </c>
+      <c r="F2825" s="2">
+        <f t="shared" si="7"/>
+        <v>3181934.065934062</v>
+      </c>
+    </row>
+    <row r="2826" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A2826" s="1">
+        <f t="shared" si="5"/>
+        <v>44177</v>
+      </c>
+      <c r="D2826">
+        <f t="shared" si="8"/>
+        <v>31</v>
+      </c>
+      <c r="F2826" s="2">
+        <f t="shared" si="7"/>
+        <v>2526142.8571428508</v>
+      </c>
+    </row>
+    <row r="2827" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A2827" s="1">
+        <f t="shared" si="5"/>
+        <v>44184</v>
+      </c>
+      <c r="D2827">
+        <f t="shared" si="8"/>
+        <v>32</v>
+      </c>
+    </row>
+    <row r="2828" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A2828" s="1">
+        <f t="shared" si="5"/>
+        <v>44191</v>
+      </c>
+      <c r="D2828">
+        <f t="shared" si="8"/>
+        <v>33</v>
+      </c>
+    </row>
+    <row r="2829" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A2829" s="1">
+        <f t="shared" si="5"/>
+        <v>44198</v>
+      </c>
+      <c r="D2829">
+        <f t="shared" si="8"/>
+        <v>34</v>
+      </c>
+    </row>
+    <row r="2830" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A2830" s="1">
+        <f t="shared" si="5"/>
+        <v>44205</v>
+      </c>
+      <c r="D2830">
+        <f t="shared" si="8"/>
+        <v>35</v>
+      </c>
+    </row>
+    <row r="2831" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A2831" s="1">
+        <f t="shared" si="5"/>
+        <v>44212</v>
+      </c>
+      <c r="D2831">
+        <f t="shared" si="8"/>
+        <v>36</v>
+      </c>
+    </row>
+    <row r="2832" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A2832" s="1">
+        <f t="shared" si="5"/>
+        <v>44219</v>
+      </c>
+      <c r="D2832">
+        <f t="shared" si="8"/>
+        <v>37</v>
+      </c>
+    </row>
+    <row r="2833" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A2833" s="1">
+        <f t="shared" si="5"/>
+        <v>44226</v>
+      </c>
+      <c r="D2833">
+        <f t="shared" si="8"/>
+        <v>38</v>
+      </c>
+    </row>
+    <row r="2834" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A2834" s="1">
+        <f t="shared" si="5"/>
+        <v>44233</v>
       </c>
     </row>
   </sheetData>

--- a/CCSA.xlsx
+++ b/CCSA.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Rainy\Documents\GitHub\Economics\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4B350559-38A9-4530-AF6A-AD17E9907511}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{AE63F1D9-2E33-48A4-9693-400D5317DC90}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -54,7 +54,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="15" uniqueCount="15">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="16" uniqueCount="16">
   <si>
     <t>FRED Graph Observations</t>
   </si>
@@ -100,6 +100,9 @@
   <si>
     <t>CCSA Data</t>
   </si>
+  <si>
+    <t>CCNSA</t>
+  </si>
 </sst>
 </file>
 
@@ -107,7 +110,7 @@
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <numFmts count="2">
     <numFmt numFmtId="164" formatCode="yyyy\-mm\-dd"/>
-    <numFmt numFmtId="166" formatCode="yyyy\-mm\-dd;@"/>
+    <numFmt numFmtId="165" formatCode="yyyy\-mm\-dd;@"/>
   </numFmts>
   <fonts count="4" x14ac:knownFonts="1">
     <font>
@@ -161,7 +164,7 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="166" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="165" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -499,12 +502,75 @@
               </c:ext>
             </c:extLst>
           </c:dPt>
+          <c:dPt>
+            <c:idx val="18"/>
+            <c:marker>
+              <c:spPr>
+                <a:solidFill>
+                  <a:srgbClr val="FFFF00"/>
+                </a:solidFill>
+                <a:ln w="9525">
+                  <a:solidFill>
+                    <a:schemeClr val="accent1"/>
+                  </a:solidFill>
+                </a:ln>
+                <a:effectLst/>
+              </c:spPr>
+            </c:marker>
+            <c:bubble3D val="0"/>
+            <c:extLst>
+              <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+                <c16:uniqueId val="{0000000E-2C58-4ACA-AFCF-33DC423D0FD7}"/>
+              </c:ext>
+            </c:extLst>
+          </c:dPt>
+          <c:dLbls>
+            <c:dLbl>
+              <c:idx val="18"/>
+              <c:layout>
+                <c:manualLayout>
+                  <c:x val="-8.0591763636290475E-2"/>
+                  <c:y val="-0.1476793248945148"/>
+                </c:manualLayout>
+              </c:layout>
+              <c:showLegendKey val="0"/>
+              <c:showVal val="1"/>
+              <c:showCatName val="0"/>
+              <c:showSerName val="0"/>
+              <c:showPercent val="0"/>
+              <c:showBubbleSize val="0"/>
+              <c:extLst>
+                <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}"/>
+                <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+                  <c16:uniqueId val="{0000000E-2C58-4ACA-AFCF-33DC423D0FD7}"/>
+                </c:ext>
+              </c:extLst>
+            </c:dLbl>
+            <c:spPr>
+              <a:noFill/>
+              <a:ln>
+                <a:noFill/>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+            <c:showLegendKey val="0"/>
+            <c:showVal val="0"/>
+            <c:showCatName val="0"/>
+            <c:showSerName val="0"/>
+            <c:showPercent val="0"/>
+            <c:showBubbleSize val="0"/>
+            <c:extLst>
+              <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
+                <c15:showLeaderLines val="1"/>
+              </c:ext>
+            </c:extLst>
+          </c:dLbls>
           <c:xVal>
             <c:numRef>
-              <c:f>'FRED Graph'!$A$2790:$A$2805</c:f>
+              <c:f>'FRED Graph'!$A$2790:$A$2810</c:f>
               <c:numCache>
                 <c:formatCode>yyyy\-mm\-dd</c:formatCode>
-                <c:ptCount val="16"/>
+                <c:ptCount val="21"/>
                 <c:pt idx="0">
                   <c:v>43925</c:v>
                 </c:pt>
@@ -553,15 +619,30 @@
                 <c:pt idx="15" formatCode="yyyy\-mm\-dd;@">
                   <c:v>44030</c:v>
                 </c:pt>
+                <c:pt idx="16" formatCode="yyyy\-mm\-dd;@">
+                  <c:v>44037</c:v>
+                </c:pt>
+                <c:pt idx="17" formatCode="yyyy\-mm\-dd;@">
+                  <c:v>44044</c:v>
+                </c:pt>
+                <c:pt idx="18" formatCode="yyyy\-mm\-dd;@">
+                  <c:v>44051</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>44058</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>44065</c:v>
+                </c:pt>
               </c:numCache>
             </c:numRef>
           </c:xVal>
           <c:yVal>
             <c:numRef>
-              <c:f>'FRED Graph'!$E$2790:$E$2805</c:f>
+              <c:f>'FRED Graph'!$E$2790:$E$2810</c:f>
               <c:numCache>
                 <c:formatCode>0</c:formatCode>
-                <c:ptCount val="16"/>
+                <c:ptCount val="21"/>
                 <c:pt idx="0">
                   <c:v>11914000</c:v>
                 </c:pt>
@@ -609,6 +690,15 @@
                 </c:pt>
                 <c:pt idx="15">
                   <c:v>16951000</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>16090000</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>15480000</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>14844000</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -785,47 +875,6 @@
               </a:ln>
             </c:spPr>
           </c:marker>
-          <c:dLbls>
-            <c:dLbl>
-              <c:idx val="17"/>
-              <c:layout>
-                <c:manualLayout>
-                  <c:x val="-0.10221394412407572"/>
-                  <c:y val="-0.21518987341772156"/>
-                </c:manualLayout>
-              </c:layout>
-              <c:showLegendKey val="0"/>
-              <c:showVal val="1"/>
-              <c:showCatName val="0"/>
-              <c:showSerName val="0"/>
-              <c:showPercent val="0"/>
-              <c:showBubbleSize val="0"/>
-              <c:extLst>
-                <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}"/>
-                <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-                  <c16:uniqueId val="{0000000E-6858-4C41-B754-F14DD203BD8C}"/>
-                </c:ext>
-              </c:extLst>
-            </c:dLbl>
-            <c:spPr>
-              <a:noFill/>
-              <a:ln>
-                <a:noFill/>
-              </a:ln>
-              <a:effectLst/>
-            </c:spPr>
-            <c:showLegendKey val="0"/>
-            <c:showVal val="0"/>
-            <c:showCatName val="0"/>
-            <c:showSerName val="0"/>
-            <c:showPercent val="0"/>
-            <c:showBubbleSize val="0"/>
-            <c:extLst>
-              <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
-                <c15:showLeaderLines val="1"/>
-              </c:ext>
-            </c:extLst>
-          </c:dLbls>
           <c:xVal>
             <c:numRef>
               <c:f>'FRED Graph'!$A$2790:$A$2819</c:f>
@@ -980,10 +1029,13 @@
                   <c:v>16815346</c:v>
                 </c:pt>
                 <c:pt idx="16" formatCode="General">
-                  <c:v>15832355</c:v>
+                  <c:v>15832498</c:v>
                 </c:pt>
                 <c:pt idx="17" formatCode="General">
-                  <c:v>15207671</c:v>
+                  <c:v>15201342</c:v>
+                </c:pt>
+                <c:pt idx="18" formatCode="General">
+                  <c:v>14265344</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -1102,79 +1154,79 @@
                 <c:formatCode>0</c:formatCode>
                 <c:ptCount val="25"/>
                 <c:pt idx="0">
-                  <c:v>22855670.329670329</c:v>
+                  <c:v>22856395.604395606</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>22199879.120879121</c:v>
+                  <c:v>22200406.593406595</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>21544087.91208791</c:v>
+                  <c:v>21544417.582417585</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>20888296.703296702</c:v>
+                  <c:v>20888428.571428571</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>20232505.494505495</c:v>
+                  <c:v>20232439.560439561</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>19576714.285714284</c:v>
+                  <c:v>19576450.54945055</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>18920923.076923076</c:v>
+                  <c:v>18920461.53846154</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>18265131.868131869</c:v>
+                  <c:v>18264472.527472526</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>17609340.659340657</c:v>
+                  <c:v>17608483.516483516</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>16953549.450549446</c:v>
+                  <c:v>16952494.505494505</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>16297758.241758239</c:v>
+                  <c:v>16296505.494505495</c:v>
                 </c:pt>
                 <c:pt idx="11">
-                  <c:v>15641967.032967031</c:v>
+                  <c:v>15640516.483516483</c:v>
                 </c:pt>
                 <c:pt idx="12">
-                  <c:v>14986175.824175822</c:v>
+                  <c:v>14984527.472527472</c:v>
                 </c:pt>
                 <c:pt idx="13">
-                  <c:v>14330384.615384612</c:v>
+                  <c:v>14328538.46153846</c:v>
                 </c:pt>
                 <c:pt idx="14">
-                  <c:v>13674593.406593405</c:v>
+                  <c:v>13672549.45054945</c:v>
                 </c:pt>
                 <c:pt idx="15">
-                  <c:v>13018802.197802195</c:v>
+                  <c:v>13016560.439560438</c:v>
                 </c:pt>
                 <c:pt idx="16">
-                  <c:v>12363010.989010986</c:v>
+                  <c:v>12360571.428571427</c:v>
                 </c:pt>
                 <c:pt idx="17">
-                  <c:v>11707219.780219777</c:v>
+                  <c:v>11704582.417582417</c:v>
                 </c:pt>
                 <c:pt idx="18">
-                  <c:v>11051428.571428567</c:v>
+                  <c:v>11048593.406593405</c:v>
                 </c:pt>
                 <c:pt idx="19">
-                  <c:v>10395637.36263736</c:v>
+                  <c:v>10392604.395604394</c:v>
                 </c:pt>
                 <c:pt idx="20">
-                  <c:v>9739846.1538461503</c:v>
+                  <c:v>9736615.3846153822</c:v>
                 </c:pt>
                 <c:pt idx="21">
-                  <c:v>9084054.9450549409</c:v>
+                  <c:v>9080626.3736263718</c:v>
                 </c:pt>
                 <c:pt idx="22">
-                  <c:v>8428263.7362637334</c:v>
+                  <c:v>8424637.3626373596</c:v>
                 </c:pt>
                 <c:pt idx="23">
-                  <c:v>7772472.527472524</c:v>
+                  <c:v>7768648.3516483493</c:v>
                 </c:pt>
                 <c:pt idx="24">
-                  <c:v>7116681.3186813146</c:v>
+                  <c:v>7112659.340659339</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -1409,7 +1461,7 @@
         <c:axId val="319767456"/>
         <c:scaling>
           <c:orientation val="minMax"/>
-          <c:max val="44050"/>
+          <c:max val="44064"/>
           <c:min val="43920"/>
         </c:scaling>
         <c:delete val="0"/>
@@ -3275,7 +3327,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:M2834"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="D2765" zoomScale="190" zoomScaleNormal="190" workbookViewId="0">
+    <sheetView tabSelected="1" topLeftCell="E2765" zoomScale="190" zoomScaleNormal="190" workbookViewId="0">
       <selection activeCell="F2820" sqref="F2820"/>
     </sheetView>
   </sheetViews>
@@ -25527,6 +25579,9 @@
       <c r="B2785">
         <v>1699000</v>
       </c>
+      <c r="C2785" s="3" t="s">
+        <v>15</v>
+      </c>
     </row>
     <row r="2786" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A2786" s="1">
@@ -25558,10 +25613,10 @@
       </c>
       <c r="F2787">
         <f t="array" ref="F2787:G2787">LINEST(E2795:E2807,D2795:D2807,TRUE)</f>
-        <v>-655791.20879120892</v>
+        <v>-655989.01098901115</v>
       </c>
       <c r="G2787">
-        <v>22855670.329670329</v>
+        <v>22856395.604395606</v>
       </c>
       <c r="L2787">
         <v>-41794.117647058796</v>
@@ -25615,7 +25670,7 @@
         <v>12461658</v>
       </c>
       <c r="E2790" s="2">
-        <f t="shared" ref="E2790:E2807" si="0">B2790</f>
+        <f t="shared" ref="E2790:E2808" si="0">B2790</f>
         <v>11914000</v>
       </c>
       <c r="F2790" s="2"/>
@@ -25799,7 +25854,7 @@
       </c>
       <c r="F2795" s="2">
         <f>$G$2787+($F$2787*D2795)</f>
-        <v>22855670.329670329</v>
+        <v>22856395.604395606</v>
       </c>
       <c r="G2795">
         <f t="shared" si="4"/>
@@ -25842,7 +25897,7 @@
       </c>
       <c r="F2796" s="2">
         <f t="shared" ref="F2796:F2826" si="7">$G$2787+($F$2787*D2796)</f>
-        <v>22199879.120879121</v>
+        <v>22200406.593406595</v>
       </c>
       <c r="G2796">
         <f t="shared" si="4"/>
@@ -25885,7 +25940,7 @@
       </c>
       <c r="F2797" s="2">
         <f t="shared" si="7"/>
-        <v>21544087.91208791</v>
+        <v>21544417.582417585</v>
       </c>
       <c r="G2797">
         <f t="shared" si="4"/>
@@ -25928,7 +25983,7 @@
       </c>
       <c r="F2798" s="2">
         <f t="shared" si="7"/>
-        <v>20888296.703296702</v>
+        <v>20888428.571428571</v>
       </c>
       <c r="G2798">
         <f t="shared" si="4"/>
@@ -25971,7 +26026,7 @@
       </c>
       <c r="F2799" s="2">
         <f t="shared" si="7"/>
-        <v>20232505.494505495</v>
+        <v>20232439.560439561</v>
       </c>
       <c r="G2799">
         <f t="shared" si="4"/>
@@ -26014,7 +26069,7 @@
       </c>
       <c r="F2800" s="2">
         <f t="shared" si="7"/>
-        <v>19576714.285714284</v>
+        <v>19576450.54945055</v>
       </c>
       <c r="G2800">
         <f t="shared" si="4"/>
@@ -26057,7 +26112,7 @@
       </c>
       <c r="F2801" s="2">
         <f t="shared" si="7"/>
-        <v>18920923.076923076</v>
+        <v>18920461.53846154</v>
       </c>
       <c r="G2801">
         <f t="shared" si="4"/>
@@ -26100,7 +26155,7 @@
       </c>
       <c r="F2802" s="2">
         <f t="shared" si="7"/>
-        <v>18265131.868131869</v>
+        <v>18264472.527472526</v>
       </c>
       <c r="G2802">
         <f t="shared" si="4"/>
@@ -26142,7 +26197,7 @@
       </c>
       <c r="F2803" s="2">
         <f t="shared" si="7"/>
-        <v>17609340.659340657</v>
+        <v>17608483.516483516</v>
       </c>
       <c r="H2803" s="1">
         <f t="shared" ref="H2803:I2803" si="9">A2237</f>
@@ -26180,7 +26235,7 @@
       </c>
       <c r="F2804" s="2">
         <f t="shared" si="7"/>
-        <v>16953549.450549446</v>
+        <v>16952494.505494505</v>
       </c>
       <c r="H2804" s="1">
         <f t="shared" ref="H2804:I2804" si="10">A2238</f>
@@ -26218,7 +26273,7 @@
       </c>
       <c r="F2805" s="2">
         <f t="shared" si="7"/>
-        <v>16297758.241758239</v>
+        <v>16296505.494505495</v>
       </c>
       <c r="H2805" s="1">
         <f t="shared" ref="H2805:I2805" si="11">A2239</f>
@@ -26244,7 +26299,7 @@
         <v>16090000</v>
       </c>
       <c r="C2806">
-        <v>15832355</v>
+        <v>15832498</v>
       </c>
       <c r="D2806">
         <f t="shared" si="8"/>
@@ -26256,7 +26311,7 @@
       </c>
       <c r="F2806" s="2">
         <f t="shared" si="7"/>
-        <v>15641967.032967031</v>
+        <v>15640516.483516483</v>
       </c>
       <c r="H2806" s="1">
         <f t="shared" ref="H2806:I2806" si="12">A2240</f>
@@ -26279,10 +26334,10 @@
         <v>44044</v>
       </c>
       <c r="B2807">
-        <v>15486000</v>
+        <v>15480000</v>
       </c>
       <c r="C2807">
-        <v>15207671</v>
+        <v>15201342</v>
       </c>
       <c r="D2807">
         <f t="shared" si="8"/>
@@ -26290,11 +26345,11 @@
       </c>
       <c r="E2807" s="2">
         <f t="shared" si="0"/>
-        <v>15486000</v>
+        <v>15480000</v>
       </c>
       <c r="F2807" s="2">
         <f t="shared" si="7"/>
-        <v>14986175.824175822</v>
+        <v>14984527.472527472</v>
       </c>
     </row>
     <row r="2808" spans="1:11" x14ac:dyDescent="0.2">
@@ -26302,13 +26357,23 @@
         <f t="shared" si="5"/>
         <v>44051</v>
       </c>
+      <c r="B2808">
+        <v>14844000</v>
+      </c>
+      <c r="C2808">
+        <v>14265344</v>
+      </c>
       <c r="D2808">
         <f t="shared" si="8"/>
         <v>13</v>
       </c>
+      <c r="E2808" s="2">
+        <f t="shared" si="0"/>
+        <v>14844000</v>
+      </c>
       <c r="F2808" s="2">
         <f t="shared" si="7"/>
-        <v>14330384.615384612</v>
+        <v>14328538.46153846</v>
       </c>
     </row>
     <row r="2809" spans="1:11" x14ac:dyDescent="0.2">
@@ -26322,7 +26387,7 @@
       </c>
       <c r="F2809" s="2">
         <f t="shared" si="7"/>
-        <v>13674593.406593405</v>
+        <v>13672549.45054945</v>
       </c>
     </row>
     <row r="2810" spans="1:11" x14ac:dyDescent="0.2">
@@ -26336,7 +26401,7 @@
       </c>
       <c r="F2810" s="2">
         <f t="shared" si="7"/>
-        <v>13018802.197802195</v>
+        <v>13016560.439560438</v>
       </c>
     </row>
     <row r="2811" spans="1:11" x14ac:dyDescent="0.2">
@@ -26350,7 +26415,7 @@
       </c>
       <c r="F2811" s="2">
         <f t="shared" si="7"/>
-        <v>12363010.989010986</v>
+        <v>12360571.428571427</v>
       </c>
     </row>
     <row r="2812" spans="1:11" x14ac:dyDescent="0.2">
@@ -26364,7 +26429,7 @@
       </c>
       <c r="F2812" s="2">
         <f t="shared" si="7"/>
-        <v>11707219.780219777</v>
+        <v>11704582.417582417</v>
       </c>
     </row>
     <row r="2813" spans="1:11" x14ac:dyDescent="0.2">
@@ -26378,7 +26443,7 @@
       </c>
       <c r="F2813" s="2">
         <f t="shared" si="7"/>
-        <v>11051428.571428567</v>
+        <v>11048593.406593405</v>
       </c>
     </row>
     <row r="2814" spans="1:11" x14ac:dyDescent="0.2">
@@ -26392,7 +26457,7 @@
       </c>
       <c r="F2814" s="2">
         <f t="shared" si="7"/>
-        <v>10395637.36263736</v>
+        <v>10392604.395604394</v>
       </c>
     </row>
     <row r="2815" spans="1:11" x14ac:dyDescent="0.2">
@@ -26406,7 +26471,7 @@
       </c>
       <c r="F2815" s="2">
         <f t="shared" si="7"/>
-        <v>9739846.1538461503</v>
+        <v>9736615.3846153822</v>
       </c>
     </row>
     <row r="2816" spans="1:11" x14ac:dyDescent="0.2">
@@ -26420,7 +26485,7 @@
       </c>
       <c r="F2816" s="2">
         <f t="shared" si="7"/>
-        <v>9084054.9450549409</v>
+        <v>9080626.3736263718</v>
       </c>
     </row>
     <row r="2817" spans="1:6" x14ac:dyDescent="0.2">
@@ -26434,7 +26499,7 @@
       </c>
       <c r="F2817" s="2">
         <f t="shared" si="7"/>
-        <v>8428263.7362637334</v>
+        <v>8424637.3626373596</v>
       </c>
     </row>
     <row r="2818" spans="1:6" x14ac:dyDescent="0.2">
@@ -26448,7 +26513,7 @@
       </c>
       <c r="F2818" s="2">
         <f t="shared" si="7"/>
-        <v>7772472.527472524</v>
+        <v>7768648.3516483493</v>
       </c>
     </row>
     <row r="2819" spans="1:6" x14ac:dyDescent="0.2">
@@ -26462,7 +26527,7 @@
       </c>
       <c r="F2819" s="2">
         <f t="shared" si="7"/>
-        <v>7116681.3186813146</v>
+        <v>7112659.340659339</v>
       </c>
     </row>
     <row r="2820" spans="1:6" x14ac:dyDescent="0.2">
@@ -26476,7 +26541,7 @@
       </c>
       <c r="F2820" s="2">
         <f t="shared" si="7"/>
-        <v>6460890.1098901052</v>
+        <v>6456670.3296703268</v>
       </c>
     </row>
     <row r="2821" spans="1:6" x14ac:dyDescent="0.2">
@@ -26490,7 +26555,7 @@
       </c>
       <c r="F2821" s="2">
         <f t="shared" si="7"/>
-        <v>5805098.9010988958</v>
+        <v>5800681.3186813146</v>
       </c>
     </row>
     <row r="2822" spans="1:6" x14ac:dyDescent="0.2">
@@ -26504,7 +26569,7 @@
       </c>
       <c r="F2822" s="2">
         <f t="shared" si="7"/>
-        <v>5149307.6923076883</v>
+        <v>5144692.3076923043</v>
       </c>
     </row>
     <row r="2823" spans="1:6" x14ac:dyDescent="0.2">
@@ -26518,7 +26583,7 @@
       </c>
       <c r="F2823" s="2">
         <f t="shared" si="7"/>
-        <v>4493516.4835164808</v>
+        <v>4488703.2967032939</v>
       </c>
     </row>
     <row r="2824" spans="1:6" x14ac:dyDescent="0.2">
@@ -26532,7 +26597,7 @@
       </c>
       <c r="F2824" s="2">
         <f t="shared" si="7"/>
-        <v>3837725.2747252695</v>
+        <v>3832714.2857142836</v>
       </c>
     </row>
     <row r="2825" spans="1:6" x14ac:dyDescent="0.2">
@@ -26546,7 +26611,7 @@
       </c>
       <c r="F2825" s="2">
         <f t="shared" si="7"/>
-        <v>3181934.065934062</v>
+        <v>3176725.2747252695</v>
       </c>
     </row>
     <row r="2826" spans="1:6" x14ac:dyDescent="0.2">
@@ -26560,7 +26625,7 @@
       </c>
       <c r="F2826" s="2">
         <f t="shared" si="7"/>
-        <v>2526142.8571428508</v>
+        <v>2520736.2637362592</v>
       </c>
     </row>
     <row r="2827" spans="1:6" x14ac:dyDescent="0.2">

--- a/CCSA.xlsx
+++ b/CCSA.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Rainy\Documents\GitHub\Economics\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{AE63F1D9-2E33-48A4-9693-400D5317DC90}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5E6CC5AE-12C7-481B-A5BD-6830A0041A0D}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -524,13 +524,35 @@
               </c:ext>
             </c:extLst>
           </c:dPt>
+          <c:dPt>
+            <c:idx val="19"/>
+            <c:marker>
+              <c:spPr>
+                <a:solidFill>
+                  <a:srgbClr val="FFFF00"/>
+                </a:solidFill>
+                <a:ln w="9525">
+                  <a:solidFill>
+                    <a:schemeClr val="accent1"/>
+                  </a:solidFill>
+                </a:ln>
+                <a:effectLst/>
+              </c:spPr>
+            </c:marker>
+            <c:bubble3D val="0"/>
+            <c:extLst>
+              <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+                <c16:uniqueId val="{0000000F-AAD6-4CEA-AA11-2F25C400B5C7}"/>
+              </c:ext>
+            </c:extLst>
+          </c:dPt>
           <c:dLbls>
             <c:dLbl>
-              <c:idx val="18"/>
+              <c:idx val="19"/>
               <c:layout>
                 <c:manualLayout>
-                  <c:x val="-8.0591763636290475E-2"/>
-                  <c:y val="-0.1476793248945148"/>
+                  <c:x val="-9.8282638580842102E-2"/>
+                  <c:y val="-0.24472573839662448"/>
                 </c:manualLayout>
               </c:layout>
               <c:showLegendKey val="0"/>
@@ -542,7 +564,7 @@
               <c:extLst>
                 <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}"/>
                 <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-                  <c16:uniqueId val="{0000000E-2C58-4ACA-AFCF-33DC423D0FD7}"/>
+                  <c16:uniqueId val="{0000000F-AAD6-4CEA-AA11-2F25C400B5C7}"/>
                 </c:ext>
               </c:extLst>
             </c:dLbl>
@@ -698,7 +720,10 @@
                   <c:v>15480000</c:v>
                 </c:pt>
                 <c:pt idx="18">
-                  <c:v>14844000</c:v>
+                  <c:v>14758000</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>14535000</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -1032,10 +1057,13 @@
                   <c:v>15832498</c:v>
                 </c:pt>
                 <c:pt idx="17" formatCode="General">
-                  <c:v>15201342</c:v>
+                  <c:v>15201491</c:v>
                 </c:pt>
                 <c:pt idx="18" formatCode="General">
-                  <c:v>14265344</c:v>
+                  <c:v>14182813</c:v>
+                </c:pt>
+                <c:pt idx="19" formatCode="General">
+                  <c:v>13909872</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -3327,8 +3355,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:M2834"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="E2765" zoomScale="190" zoomScaleNormal="190" workbookViewId="0">
-      <selection activeCell="F2820" sqref="F2820"/>
+    <sheetView tabSelected="1" topLeftCell="D2765" zoomScale="190" zoomScaleNormal="190" workbookViewId="0">
+      <selection activeCell="B2803" sqref="B2803:B2810"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="20.7109375" defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
@@ -25670,7 +25698,7 @@
         <v>12461658</v>
       </c>
       <c r="E2790" s="2">
-        <f t="shared" ref="E2790:E2808" si="0">B2790</f>
+        <f t="shared" ref="E2790:E2809" si="0">B2790</f>
         <v>11914000</v>
       </c>
       <c r="F2790" s="2"/>
@@ -26337,7 +26365,7 @@
         <v>15480000</v>
       </c>
       <c r="C2807">
-        <v>15201342</v>
+        <v>15201491</v>
       </c>
       <c r="D2807">
         <f t="shared" si="8"/>
@@ -26358,10 +26386,10 @@
         <v>44051</v>
       </c>
       <c r="B2808">
-        <v>14844000</v>
+        <v>14758000</v>
       </c>
       <c r="C2808">
-        <v>14265344</v>
+        <v>14182813</v>
       </c>
       <c r="D2808">
         <f t="shared" si="8"/>
@@ -26369,7 +26397,7 @@
       </c>
       <c r="E2808" s="2">
         <f t="shared" si="0"/>
-        <v>14844000</v>
+        <v>14758000</v>
       </c>
       <c r="F2808" s="2">
         <f t="shared" si="7"/>
@@ -26381,9 +26409,19 @@
         <f t="shared" si="5"/>
         <v>44058</v>
       </c>
+      <c r="B2809">
+        <v>14535000</v>
+      </c>
+      <c r="C2809">
+        <v>13909872</v>
+      </c>
       <c r="D2809">
         <f t="shared" si="8"/>
         <v>14</v>
+      </c>
+      <c r="E2809" s="2">
+        <f t="shared" si="0"/>
+        <v>14535000</v>
       </c>
       <c r="F2809" s="2">
         <f t="shared" si="7"/>

--- a/CCSA.xlsx
+++ b/CCSA.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Rainy\Documents\GitHub\Economics\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5E6CC5AE-12C7-481B-A5BD-6830A0041A0D}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2C641B7E-DE34-4822-864F-4845B00D8A27}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -546,13 +546,45 @@
               </c:ext>
             </c:extLst>
           </c:dPt>
+          <c:dPt>
+            <c:idx val="20"/>
+            <c:marker>
+              <c:spPr>
+                <a:solidFill>
+                  <a:srgbClr val="FFFF00"/>
+                </a:solidFill>
+                <a:ln w="9525">
+                  <a:solidFill>
+                    <a:schemeClr val="accent1"/>
+                  </a:solidFill>
+                </a:ln>
+                <a:effectLst/>
+              </c:spPr>
+            </c:marker>
+            <c:bubble3D val="0"/>
+            <c:extLst>
+              <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+                <c16:uniqueId val="{00000010-B2C2-45C9-AB94-9FE0A9CB3089}"/>
+              </c:ext>
+            </c:extLst>
+          </c:dPt>
           <c:dLbls>
             <c:dLbl>
               <c:idx val="19"/>
+              <c:delete val="1"/>
+              <c:extLst>
+                <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}"/>
+                <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+                  <c16:uniqueId val="{0000000F-AAD6-4CEA-AA11-2F25C400B5C7}"/>
+                </c:ext>
+              </c:extLst>
+            </c:dLbl>
+            <c:dLbl>
+              <c:idx val="20"/>
               <c:layout>
                 <c:manualLayout>
-                  <c:x val="-9.8282638580842102E-2"/>
-                  <c:y val="-0.24472573839662448"/>
+                  <c:x val="-6.8797847006589419E-2"/>
+                  <c:y val="-0.21940928270042198"/>
                 </c:manualLayout>
               </c:layout>
               <c:showLegendKey val="0"/>
@@ -564,7 +596,7 @@
               <c:extLst>
                 <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}"/>
                 <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-                  <c16:uniqueId val="{0000000F-AAD6-4CEA-AA11-2F25C400B5C7}"/>
+                  <c16:uniqueId val="{00000010-B2C2-45C9-AB94-9FE0A9CB3089}"/>
                 </c:ext>
               </c:extLst>
             </c:dLbl>
@@ -720,10 +752,13 @@
                   <c:v>15480000</c:v>
                 </c:pt>
                 <c:pt idx="18">
-                  <c:v>14758000</c:v>
+                  <c:v>14759000</c:v>
                 </c:pt>
                 <c:pt idx="19">
-                  <c:v>14535000</c:v>
+                  <c:v>14492000</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>13254000</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -1060,10 +1095,13 @@
                   <c:v>15201491</c:v>
                 </c:pt>
                 <c:pt idx="18" formatCode="General">
-                  <c:v>14182813</c:v>
+                  <c:v>14182946</c:v>
                 </c:pt>
                 <c:pt idx="19" formatCode="General">
-                  <c:v>13909872</c:v>
+                  <c:v>13869079</c:v>
+                </c:pt>
+                <c:pt idx="20" formatCode="General">
+                  <c:v>13104366</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -1489,7 +1527,7 @@
         <c:axId val="319767456"/>
         <c:scaling>
           <c:orientation val="minMax"/>
-          <c:max val="44064"/>
+          <c:max val="44080"/>
           <c:min val="43920"/>
         </c:scaling>
         <c:delete val="0"/>
@@ -2982,7 +3020,7 @@
   <xdr:twoCellAnchor>
     <xdr:from>
       <xdr:col>3</xdr:col>
-      <xdr:colOff>1304925</xdr:colOff>
+      <xdr:colOff>842210</xdr:colOff>
       <xdr:row>2766</xdr:row>
       <xdr:rowOff>47625</xdr:rowOff>
     </xdr:from>
@@ -3355,8 +3393,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:M2834"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="D2765" zoomScale="190" zoomScaleNormal="190" workbookViewId="0">
-      <selection activeCell="B2803" sqref="B2803:B2810"/>
+    <sheetView tabSelected="1" topLeftCell="A2798" zoomScale="190" zoomScaleNormal="190" workbookViewId="0">
+      <selection activeCell="C2803" sqref="C2803:C2810"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="20.7109375" defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
@@ -25698,7 +25736,7 @@
         <v>12461658</v>
       </c>
       <c r="E2790" s="2">
-        <f t="shared" ref="E2790:E2809" si="0">B2790</f>
+        <f t="shared" ref="E2790:E2810" si="0">B2790</f>
         <v>11914000</v>
       </c>
       <c r="F2790" s="2"/>
@@ -26386,10 +26424,10 @@
         <v>44051</v>
       </c>
       <c r="B2808">
-        <v>14758000</v>
+        <v>14759000</v>
       </c>
       <c r="C2808">
-        <v>14182813</v>
+        <v>14182946</v>
       </c>
       <c r="D2808">
         <f t="shared" si="8"/>
@@ -26397,7 +26435,7 @@
       </c>
       <c r="E2808" s="2">
         <f t="shared" si="0"/>
-        <v>14758000</v>
+        <v>14759000</v>
       </c>
       <c r="F2808" s="2">
         <f t="shared" si="7"/>
@@ -26410,10 +26448,10 @@
         <v>44058</v>
       </c>
       <c r="B2809">
-        <v>14535000</v>
+        <v>14492000</v>
       </c>
       <c r="C2809">
-        <v>13909872</v>
+        <v>13869079</v>
       </c>
       <c r="D2809">
         <f t="shared" si="8"/>
@@ -26421,7 +26459,7 @@
       </c>
       <c r="E2809" s="2">
         <f t="shared" si="0"/>
-        <v>14535000</v>
+        <v>14492000</v>
       </c>
       <c r="F2809" s="2">
         <f t="shared" si="7"/>
@@ -26433,9 +26471,19 @@
         <f t="shared" si="5"/>
         <v>44065</v>
       </c>
+      <c r="B2810">
+        <v>13254000</v>
+      </c>
+      <c r="C2810">
+        <v>13104366</v>
+      </c>
       <c r="D2810">
         <f t="shared" si="8"/>
         <v>15</v>
+      </c>
+      <c r="E2810" s="2">
+        <f t="shared" si="0"/>
+        <v>13254000</v>
       </c>
       <c r="F2810" s="2">
         <f t="shared" si="7"/>

--- a/CCSA.xlsx
+++ b/CCSA.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Rainy\Documents\GitHub\Economics\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2C641B7E-DE34-4822-864F-4845B00D8A27}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{49D9B5DA-8F7B-42F7-9900-18563D8D548C}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -568,57 +568,6 @@
               </c:ext>
             </c:extLst>
           </c:dPt>
-          <c:dLbls>
-            <c:dLbl>
-              <c:idx val="19"/>
-              <c:delete val="1"/>
-              <c:extLst>
-                <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}"/>
-                <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-                  <c16:uniqueId val="{0000000F-AAD6-4CEA-AA11-2F25C400B5C7}"/>
-                </c:ext>
-              </c:extLst>
-            </c:dLbl>
-            <c:dLbl>
-              <c:idx val="20"/>
-              <c:layout>
-                <c:manualLayout>
-                  <c:x val="-6.8797847006589419E-2"/>
-                  <c:y val="-0.21940928270042198"/>
-                </c:manualLayout>
-              </c:layout>
-              <c:showLegendKey val="0"/>
-              <c:showVal val="1"/>
-              <c:showCatName val="0"/>
-              <c:showSerName val="0"/>
-              <c:showPercent val="0"/>
-              <c:showBubbleSize val="0"/>
-              <c:extLst>
-                <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}"/>
-                <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-                  <c16:uniqueId val="{00000010-B2C2-45C9-AB94-9FE0A9CB3089}"/>
-                </c:ext>
-              </c:extLst>
-            </c:dLbl>
-            <c:spPr>
-              <a:noFill/>
-              <a:ln>
-                <a:noFill/>
-              </a:ln>
-              <a:effectLst/>
-            </c:spPr>
-            <c:showLegendKey val="0"/>
-            <c:showVal val="0"/>
-            <c:showCatName val="0"/>
-            <c:showSerName val="0"/>
-            <c:showPercent val="0"/>
-            <c:showBubbleSize val="0"/>
-            <c:extLst>
-              <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
-                <c15:showLeaderLines val="1"/>
-              </c:ext>
-            </c:extLst>
-          </c:dLbls>
           <c:xVal>
             <c:numRef>
               <c:f>'FRED Graph'!$A$2790:$A$2810</c:f>
@@ -758,7 +707,7 @@
                   <c:v>14492000</c:v>
                 </c:pt>
                 <c:pt idx="20">
-                  <c:v>13254000</c:v>
+                  <c:v>13292000</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -935,6 +884,47 @@
               </a:ln>
             </c:spPr>
           </c:marker>
+          <c:dLbls>
+            <c:dLbl>
+              <c:idx val="21"/>
+              <c:layout>
+                <c:manualLayout>
+                  <c:x val="-7.5342128794960092E-2"/>
+                  <c:y val="-0.17265430377408977"/>
+                </c:manualLayout>
+              </c:layout>
+              <c:showLegendKey val="0"/>
+              <c:showVal val="1"/>
+              <c:showCatName val="0"/>
+              <c:showSerName val="0"/>
+              <c:showPercent val="0"/>
+              <c:showBubbleSize val="0"/>
+              <c:extLst>
+                <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}"/>
+                <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+                  <c16:uniqueId val="{00000011-437D-4438-9304-05899760E6DF}"/>
+                </c:ext>
+              </c:extLst>
+            </c:dLbl>
+            <c:spPr>
+              <a:noFill/>
+              <a:ln>
+                <a:noFill/>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+            <c:showLegendKey val="0"/>
+            <c:showVal val="0"/>
+            <c:showCatName val="0"/>
+            <c:showSerName val="0"/>
+            <c:showPercent val="0"/>
+            <c:showBubbleSize val="0"/>
+            <c:extLst>
+              <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
+                <c15:showLeaderLines val="1"/>
+              </c:ext>
+            </c:extLst>
+          </c:dLbls>
           <c:xVal>
             <c:numRef>
               <c:f>'FRED Graph'!$A$2790:$A$2819</c:f>
@@ -1098,10 +1088,13 @@
                   <c:v>14182946</c:v>
                 </c:pt>
                 <c:pt idx="19" formatCode="General">
-                  <c:v>13869079</c:v>
+                  <c:v>13869218</c:v>
                 </c:pt>
                 <c:pt idx="20" formatCode="General">
-                  <c:v>13104366</c:v>
+                  <c:v>13142587</c:v>
+                </c:pt>
+                <c:pt idx="21" formatCode="General">
+                  <c:v>13197059</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -1220,79 +1213,79 @@
                 <c:formatCode>0</c:formatCode>
                 <c:ptCount val="25"/>
                 <c:pt idx="0">
-                  <c:v>22856395.604395606</c:v>
+                  <c:v>22669274.509803921</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>22200406.593406595</c:v>
+                  <c:v>22055424.019607842</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>21544417.582417585</c:v>
+                  <c:v>21441573.529411763</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>20888428.571428571</c:v>
+                  <c:v>20827723.039215684</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>20232439.560439561</c:v>
+                  <c:v>20213872.549019609</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>19576450.54945055</c:v>
+                  <c:v>19600022.05882353</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>18920461.53846154</c:v>
+                  <c:v>18986171.568627451</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>18264472.527472526</c:v>
+                  <c:v>18372321.078431372</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>17608483.516483516</c:v>
+                  <c:v>17758470.588235293</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>16952494.505494505</c:v>
+                  <c:v>17144620.098039217</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>16296505.494505495</c:v>
+                  <c:v>16530769.607843136</c:v>
                 </c:pt>
                 <c:pt idx="11">
-                  <c:v>15640516.483516483</c:v>
+                  <c:v>15916919.117647059</c:v>
                 </c:pt>
                 <c:pt idx="12">
-                  <c:v>14984527.472527472</c:v>
+                  <c:v>15303068.62745098</c:v>
                 </c:pt>
                 <c:pt idx="13">
-                  <c:v>14328538.46153846</c:v>
+                  <c:v>14689218.137254901</c:v>
                 </c:pt>
                 <c:pt idx="14">
-                  <c:v>13672549.45054945</c:v>
+                  <c:v>14075367.647058822</c:v>
                 </c:pt>
                 <c:pt idx="15">
-                  <c:v>13016560.439560438</c:v>
+                  <c:v>13461517.156862745</c:v>
                 </c:pt>
                 <c:pt idx="16">
-                  <c:v>12360571.428571427</c:v>
+                  <c:v>12847666.666666666</c:v>
                 </c:pt>
                 <c:pt idx="17">
-                  <c:v>11704582.417582417</c:v>
+                  <c:v>12233816.176470587</c:v>
                 </c:pt>
                 <c:pt idx="18">
-                  <c:v>11048593.406593405</c:v>
+                  <c:v>11619965.68627451</c:v>
                 </c:pt>
                 <c:pt idx="19">
-                  <c:v>10392604.395604394</c:v>
+                  <c:v>11006115.196078431</c:v>
                 </c:pt>
                 <c:pt idx="20">
-                  <c:v>9736615.3846153822</c:v>
+                  <c:v>10392264.705882352</c:v>
                 </c:pt>
                 <c:pt idx="21">
-                  <c:v>9080626.3736263718</c:v>
+                  <c:v>9778414.2156862747</c:v>
                 </c:pt>
                 <c:pt idx="22">
-                  <c:v>8424637.3626373596</c:v>
+                  <c:v>9164563.7254901957</c:v>
                 </c:pt>
                 <c:pt idx="23">
-                  <c:v>7768648.3516483493</c:v>
+                  <c:v>8550713.2352941167</c:v>
                 </c:pt>
                 <c:pt idx="24">
-                  <c:v>7112659.340659339</c:v>
+                  <c:v>7936862.7450980395</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -3393,8 +3386,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:M2834"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A2798" zoomScale="190" zoomScaleNormal="190" workbookViewId="0">
-      <selection activeCell="C2803" sqref="C2803:C2810"/>
+    <sheetView tabSelected="1" topLeftCell="A2756" zoomScale="160" zoomScaleNormal="160" workbookViewId="0">
+      <selection activeCell="F2822" sqref="F2822"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="20.7109375" defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
@@ -25678,11 +25671,11 @@
         <v>2074782</v>
       </c>
       <c r="F2787">
-        <f t="array" ref="F2787:G2787">LINEST(E2795:E2807,D2795:D2807,TRUE)</f>
-        <v>-655989.01098901115</v>
+        <f t="array" ref="F2787:G2787">LINEST(E2795:E2811,D2795:D2811,TRUE)</f>
+        <v>-613850.49019607843</v>
       </c>
       <c r="G2787">
-        <v>22856395.604395606</v>
+        <v>22669274.509803921</v>
       </c>
       <c r="L2787">
         <v>-41794.117647058796</v>
@@ -25736,7 +25729,7 @@
         <v>12461658</v>
       </c>
       <c r="E2790" s="2">
-        <f t="shared" ref="E2790:E2810" si="0">B2790</f>
+        <f t="shared" ref="E2790:E2811" si="0">B2790</f>
         <v>11914000</v>
       </c>
       <c r="F2790" s="2"/>
@@ -25920,7 +25913,7 @@
       </c>
       <c r="F2795" s="2">
         <f>$G$2787+($F$2787*D2795)</f>
-        <v>22856395.604395606</v>
+        <v>22669274.509803921</v>
       </c>
       <c r="G2795">
         <f t="shared" si="4"/>
@@ -25963,7 +25956,7 @@
       </c>
       <c r="F2796" s="2">
         <f t="shared" ref="F2796:F2826" si="7">$G$2787+($F$2787*D2796)</f>
-        <v>22200406.593406595</v>
+        <v>22055424.019607842</v>
       </c>
       <c r="G2796">
         <f t="shared" si="4"/>
@@ -26006,7 +25999,7 @@
       </c>
       <c r="F2797" s="2">
         <f t="shared" si="7"/>
-        <v>21544417.582417585</v>
+        <v>21441573.529411763</v>
       </c>
       <c r="G2797">
         <f t="shared" si="4"/>
@@ -26049,7 +26042,7 @@
       </c>
       <c r="F2798" s="2">
         <f t="shared" si="7"/>
-        <v>20888428.571428571</v>
+        <v>20827723.039215684</v>
       </c>
       <c r="G2798">
         <f t="shared" si="4"/>
@@ -26092,7 +26085,7 @@
       </c>
       <c r="F2799" s="2">
         <f t="shared" si="7"/>
-        <v>20232439.560439561</v>
+        <v>20213872.549019609</v>
       </c>
       <c r="G2799">
         <f t="shared" si="4"/>
@@ -26135,7 +26128,7 @@
       </c>
       <c r="F2800" s="2">
         <f t="shared" si="7"/>
-        <v>19576450.54945055</v>
+        <v>19600022.05882353</v>
       </c>
       <c r="G2800">
         <f t="shared" si="4"/>
@@ -26178,7 +26171,7 @@
       </c>
       <c r="F2801" s="2">
         <f t="shared" si="7"/>
-        <v>18920461.53846154</v>
+        <v>18986171.568627451</v>
       </c>
       <c r="G2801">
         <f t="shared" si="4"/>
@@ -26221,7 +26214,7 @@
       </c>
       <c r="F2802" s="2">
         <f t="shared" si="7"/>
-        <v>18264472.527472526</v>
+        <v>18372321.078431372</v>
       </c>
       <c r="G2802">
         <f t="shared" si="4"/>
@@ -26263,7 +26256,7 @@
       </c>
       <c r="F2803" s="2">
         <f t="shared" si="7"/>
-        <v>17608483.516483516</v>
+        <v>17758470.588235293</v>
       </c>
       <c r="H2803" s="1">
         <f t="shared" ref="H2803:I2803" si="9">A2237</f>
@@ -26301,7 +26294,7 @@
       </c>
       <c r="F2804" s="2">
         <f t="shared" si="7"/>
-        <v>16952494.505494505</v>
+        <v>17144620.098039217</v>
       </c>
       <c r="H2804" s="1">
         <f t="shared" ref="H2804:I2804" si="10">A2238</f>
@@ -26339,7 +26332,7 @@
       </c>
       <c r="F2805" s="2">
         <f t="shared" si="7"/>
-        <v>16296505.494505495</v>
+        <v>16530769.607843136</v>
       </c>
       <c r="H2805" s="1">
         <f t="shared" ref="H2805:I2805" si="11">A2239</f>
@@ -26377,7 +26370,7 @@
       </c>
       <c r="F2806" s="2">
         <f t="shared" si="7"/>
-        <v>15640516.483516483</v>
+        <v>15916919.117647059</v>
       </c>
       <c r="H2806" s="1">
         <f t="shared" ref="H2806:I2806" si="12">A2240</f>
@@ -26415,7 +26408,7 @@
       </c>
       <c r="F2807" s="2">
         <f t="shared" si="7"/>
-        <v>14984527.472527472</v>
+        <v>15303068.62745098</v>
       </c>
     </row>
     <row r="2808" spans="1:11" x14ac:dyDescent="0.2">
@@ -26439,7 +26432,7 @@
       </c>
       <c r="F2808" s="2">
         <f t="shared" si="7"/>
-        <v>14328538.46153846</v>
+        <v>14689218.137254901</v>
       </c>
     </row>
     <row r="2809" spans="1:11" x14ac:dyDescent="0.2">
@@ -26451,7 +26444,7 @@
         <v>14492000</v>
       </c>
       <c r="C2809">
-        <v>13869079</v>
+        <v>13869218</v>
       </c>
       <c r="D2809">
         <f t="shared" si="8"/>
@@ -26463,7 +26456,7 @@
       </c>
       <c r="F2809" s="2">
         <f t="shared" si="7"/>
-        <v>13672549.45054945</v>
+        <v>14075367.647058822</v>
       </c>
     </row>
     <row r="2810" spans="1:11" x14ac:dyDescent="0.2">
@@ -26472,10 +26465,10 @@
         <v>44065</v>
       </c>
       <c r="B2810">
-        <v>13254000</v>
+        <v>13292000</v>
       </c>
       <c r="C2810">
-        <v>13104366</v>
+        <v>13142587</v>
       </c>
       <c r="D2810">
         <f t="shared" si="8"/>
@@ -26483,11 +26476,11 @@
       </c>
       <c r="E2810" s="2">
         <f t="shared" si="0"/>
-        <v>13254000</v>
+        <v>13292000</v>
       </c>
       <c r="F2810" s="2">
         <f t="shared" si="7"/>
-        <v>13016560.439560438</v>
+        <v>13461517.156862745</v>
       </c>
     </row>
     <row r="2811" spans="1:11" x14ac:dyDescent="0.2">
@@ -26495,13 +26488,23 @@
         <f t="shared" si="5"/>
         <v>44072</v>
       </c>
+      <c r="B2811">
+        <v>13385000</v>
+      </c>
+      <c r="C2811">
+        <v>13197059</v>
+      </c>
       <c r="D2811">
         <f t="shared" si="8"/>
         <v>16</v>
       </c>
+      <c r="E2811" s="2">
+        <f t="shared" si="0"/>
+        <v>13385000</v>
+      </c>
       <c r="F2811" s="2">
         <f t="shared" si="7"/>
-        <v>12360571.428571427</v>
+        <v>12847666.666666666</v>
       </c>
     </row>
     <row r="2812" spans="1:11" x14ac:dyDescent="0.2">
@@ -26515,7 +26518,7 @@
       </c>
       <c r="F2812" s="2">
         <f t="shared" si="7"/>
-        <v>11704582.417582417</v>
+        <v>12233816.176470587</v>
       </c>
     </row>
     <row r="2813" spans="1:11" x14ac:dyDescent="0.2">
@@ -26529,7 +26532,7 @@
       </c>
       <c r="F2813" s="2">
         <f t="shared" si="7"/>
-        <v>11048593.406593405</v>
+        <v>11619965.68627451</v>
       </c>
     </row>
     <row r="2814" spans="1:11" x14ac:dyDescent="0.2">
@@ -26543,7 +26546,7 @@
       </c>
       <c r="F2814" s="2">
         <f t="shared" si="7"/>
-        <v>10392604.395604394</v>
+        <v>11006115.196078431</v>
       </c>
     </row>
     <row r="2815" spans="1:11" x14ac:dyDescent="0.2">
@@ -26557,7 +26560,7 @@
       </c>
       <c r="F2815" s="2">
         <f t="shared" si="7"/>
-        <v>9736615.3846153822</v>
+        <v>10392264.705882352</v>
       </c>
     </row>
     <row r="2816" spans="1:11" x14ac:dyDescent="0.2">
@@ -26571,7 +26574,7 @@
       </c>
       <c r="F2816" s="2">
         <f t="shared" si="7"/>
-        <v>9080626.3736263718</v>
+        <v>9778414.2156862747</v>
       </c>
     </row>
     <row r="2817" spans="1:6" x14ac:dyDescent="0.2">
@@ -26585,7 +26588,7 @@
       </c>
       <c r="F2817" s="2">
         <f t="shared" si="7"/>
-        <v>8424637.3626373596</v>
+        <v>9164563.7254901957</v>
       </c>
     </row>
     <row r="2818" spans="1:6" x14ac:dyDescent="0.2">
@@ -26599,7 +26602,7 @@
       </c>
       <c r="F2818" s="2">
         <f t="shared" si="7"/>
-        <v>7768648.3516483493</v>
+        <v>8550713.2352941167</v>
       </c>
     </row>
     <row r="2819" spans="1:6" x14ac:dyDescent="0.2">
@@ -26613,7 +26616,7 @@
       </c>
       <c r="F2819" s="2">
         <f t="shared" si="7"/>
-        <v>7112659.340659339</v>
+        <v>7936862.7450980395</v>
       </c>
     </row>
     <row r="2820" spans="1:6" x14ac:dyDescent="0.2">
@@ -26627,7 +26630,7 @@
       </c>
       <c r="F2820" s="2">
         <f t="shared" si="7"/>
-        <v>6456670.3296703268</v>
+        <v>7323012.2549019605</v>
       </c>
     </row>
     <row r="2821" spans="1:6" x14ac:dyDescent="0.2">
@@ -26641,7 +26644,7 @@
       </c>
       <c r="F2821" s="2">
         <f t="shared" si="7"/>
-        <v>5800681.3186813146</v>
+        <v>6709161.7647058815</v>
       </c>
     </row>
     <row r="2822" spans="1:6" x14ac:dyDescent="0.2">
@@ -26655,7 +26658,7 @@
       </c>
       <c r="F2822" s="2">
         <f t="shared" si="7"/>
-        <v>5144692.3076923043</v>
+        <v>6095311.2745098025</v>
       </c>
     </row>
     <row r="2823" spans="1:6" x14ac:dyDescent="0.2">
@@ -26669,7 +26672,7 @@
       </c>
       <c r="F2823" s="2">
         <f t="shared" si="7"/>
-        <v>4488703.2967032939</v>
+        <v>5481460.7843137234</v>
       </c>
     </row>
     <row r="2824" spans="1:6" x14ac:dyDescent="0.2">
@@ -26683,7 +26686,7 @@
       </c>
       <c r="F2824" s="2">
         <f t="shared" si="7"/>
-        <v>3832714.2857142836</v>
+        <v>4867610.2941176482</v>
       </c>
     </row>
     <row r="2825" spans="1:6" x14ac:dyDescent="0.2">
@@ -26697,7 +26700,7 @@
       </c>
       <c r="F2825" s="2">
         <f t="shared" si="7"/>
-        <v>3176725.2747252695</v>
+        <v>4253759.8039215691</v>
       </c>
     </row>
     <row r="2826" spans="1:6" x14ac:dyDescent="0.2">
@@ -26711,7 +26714,7 @@
       </c>
       <c r="F2826" s="2">
         <f t="shared" si="7"/>
-        <v>2520736.2637362592</v>
+        <v>3639909.3137254901</v>
       </c>
     </row>
     <row r="2827" spans="1:6" x14ac:dyDescent="0.2">

--- a/CCSA.xlsx
+++ b/CCSA.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Rainy\Documents\GitHub\Economics\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{49D9B5DA-8F7B-42F7-9900-18563D8D548C}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{162EE358-50D9-4469-A236-EF53B15B00ED}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -886,11 +886,11 @@
           </c:marker>
           <c:dLbls>
             <c:dLbl>
-              <c:idx val="21"/>
+              <c:idx val="22"/>
               <c:layout>
                 <c:manualLayout>
-                  <c:x val="-7.5342128794960092E-2"/>
-                  <c:y val="-0.17265430377408977"/>
+                  <c:x val="-0.14700903179504393"/>
+                  <c:y val="-0.2316094318920717"/>
                 </c:manualLayout>
               </c:layout>
               <c:showLegendKey val="0"/>
@@ -902,7 +902,7 @@
               <c:extLst>
                 <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}"/>
                 <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-                  <c16:uniqueId val="{00000011-437D-4438-9304-05899760E6DF}"/>
+                  <c16:uniqueId val="{00000011-20D2-4EBA-96F6-829395DD9748}"/>
                 </c:ext>
               </c:extLst>
             </c:dLbl>
@@ -1091,10 +1091,13 @@
                   <c:v>13869218</c:v>
                 </c:pt>
                 <c:pt idx="20" formatCode="General">
-                  <c:v>13142587</c:v>
+                  <c:v>13142717</c:v>
                 </c:pt>
                 <c:pt idx="21" formatCode="General">
-                  <c:v>13197059</c:v>
+                  <c:v>13355447</c:v>
+                </c:pt>
+                <c:pt idx="22" formatCode="General">
+                  <c:v>12321395</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -1213,79 +1216,79 @@
                 <c:formatCode>0</c:formatCode>
                 <c:ptCount val="25"/>
                 <c:pt idx="0">
-                  <c:v>22669274.509803921</c:v>
+                  <c:v>22653686.274509802</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>22055424.019607842</c:v>
+                  <c:v>22042953.431372549</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>21441573.529411763</c:v>
+                  <c:v>21432220.588235293</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>20827723.039215684</c:v>
+                  <c:v>20821487.74509804</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>20213872.549019609</c:v>
+                  <c:v>20210754.901960783</c:v>
                 </c:pt>
                 <c:pt idx="5">
                   <c:v>19600022.05882353</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>18986171.568627451</c:v>
+                  <c:v>18989289.215686273</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>18372321.078431372</c:v>
+                  <c:v>18378556.37254902</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>17758470.588235293</c:v>
+                  <c:v>17767823.529411763</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>17144620.098039217</c:v>
+                  <c:v>17157090.68627451</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>16530769.607843136</c:v>
+                  <c:v>16546357.843137253</c:v>
                 </c:pt>
                 <c:pt idx="11">
-                  <c:v>15916919.117647059</c:v>
+                  <c:v>15935625</c:v>
                 </c:pt>
                 <c:pt idx="12">
-                  <c:v>15303068.62745098</c:v>
+                  <c:v>15324892.156862745</c:v>
                 </c:pt>
                 <c:pt idx="13">
-                  <c:v>14689218.137254901</c:v>
+                  <c:v>14714159.31372549</c:v>
                 </c:pt>
                 <c:pt idx="14">
-                  <c:v>14075367.647058822</c:v>
+                  <c:v>14103426.470588235</c:v>
                 </c:pt>
                 <c:pt idx="15">
-                  <c:v>13461517.156862745</c:v>
+                  <c:v>13492693.62745098</c:v>
                 </c:pt>
                 <c:pt idx="16">
-                  <c:v>12847666.666666666</c:v>
+                  <c:v>12881960.784313725</c:v>
                 </c:pt>
                 <c:pt idx="17">
-                  <c:v>12233816.176470587</c:v>
+                  <c:v>12271227.94117647</c:v>
                 </c:pt>
                 <c:pt idx="18">
-                  <c:v>11619965.68627451</c:v>
+                  <c:v>11660495.098039215</c:v>
                 </c:pt>
                 <c:pt idx="19">
-                  <c:v>11006115.196078431</c:v>
+                  <c:v>11049762.25490196</c:v>
                 </c:pt>
                 <c:pt idx="20">
-                  <c:v>10392264.705882352</c:v>
+                  <c:v>10439029.411764706</c:v>
                 </c:pt>
                 <c:pt idx="21">
-                  <c:v>9778414.2156862747</c:v>
+                  <c:v>9828296.5686274506</c:v>
                 </c:pt>
                 <c:pt idx="22">
-                  <c:v>9164563.7254901957</c:v>
+                  <c:v>9217563.7254901957</c:v>
                 </c:pt>
                 <c:pt idx="23">
-                  <c:v>8550713.2352941167</c:v>
+                  <c:v>8606830.8823529407</c:v>
                 </c:pt>
                 <c:pt idx="24">
-                  <c:v>7936862.7450980395</c:v>
+                  <c:v>7996098.0392156877</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -3386,8 +3389,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:M2834"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A2756" zoomScale="160" zoomScaleNormal="160" workbookViewId="0">
-      <selection activeCell="F2822" sqref="F2822"/>
+    <sheetView tabSelected="1" topLeftCell="B2758" zoomScale="160" zoomScaleNormal="160" workbookViewId="0">
+      <selection activeCell="H2787" sqref="H2787"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="20.7109375" defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
@@ -25672,10 +25675,10 @@
       </c>
       <c r="F2787">
         <f t="array" ref="F2787:G2787">LINEST(E2795:E2811,D2795:D2811,TRUE)</f>
-        <v>-613850.49019607843</v>
+        <v>-610732.84313725482</v>
       </c>
       <c r="G2787">
-        <v>22669274.509803921</v>
+        <v>22653686.274509802</v>
       </c>
       <c r="L2787">
         <v>-41794.117647058796</v>
@@ -25729,7 +25732,7 @@
         <v>12461658</v>
       </c>
       <c r="E2790" s="2">
-        <f t="shared" ref="E2790:E2811" si="0">B2790</f>
+        <f t="shared" ref="E2790:E2812" si="0">B2790</f>
         <v>11914000</v>
       </c>
       <c r="F2790" s="2"/>
@@ -25913,7 +25916,7 @@
       </c>
       <c r="F2795" s="2">
         <f>$G$2787+($F$2787*D2795)</f>
-        <v>22669274.509803921</v>
+        <v>22653686.274509802</v>
       </c>
       <c r="G2795">
         <f t="shared" si="4"/>
@@ -25956,7 +25959,7 @@
       </c>
       <c r="F2796" s="2">
         <f t="shared" ref="F2796:F2826" si="7">$G$2787+($F$2787*D2796)</f>
-        <v>22055424.019607842</v>
+        <v>22042953.431372549</v>
       </c>
       <c r="G2796">
         <f t="shared" si="4"/>
@@ -25999,7 +26002,7 @@
       </c>
       <c r="F2797" s="2">
         <f t="shared" si="7"/>
-        <v>21441573.529411763</v>
+        <v>21432220.588235293</v>
       </c>
       <c r="G2797">
         <f t="shared" si="4"/>
@@ -26042,7 +26045,7 @@
       </c>
       <c r="F2798" s="2">
         <f t="shared" si="7"/>
-        <v>20827723.039215684</v>
+        <v>20821487.74509804</v>
       </c>
       <c r="G2798">
         <f t="shared" si="4"/>
@@ -26085,7 +26088,7 @@
       </c>
       <c r="F2799" s="2">
         <f t="shared" si="7"/>
-        <v>20213872.549019609</v>
+        <v>20210754.901960783</v>
       </c>
       <c r="G2799">
         <f t="shared" si="4"/>
@@ -26171,7 +26174,7 @@
       </c>
       <c r="F2801" s="2">
         <f t="shared" si="7"/>
-        <v>18986171.568627451</v>
+        <v>18989289.215686273</v>
       </c>
       <c r="G2801">
         <f t="shared" si="4"/>
@@ -26214,7 +26217,7 @@
       </c>
       <c r="F2802" s="2">
         <f t="shared" si="7"/>
-        <v>18372321.078431372</v>
+        <v>18378556.37254902</v>
       </c>
       <c r="G2802">
         <f t="shared" si="4"/>
@@ -26256,7 +26259,7 @@
       </c>
       <c r="F2803" s="2">
         <f t="shared" si="7"/>
-        <v>17758470.588235293</v>
+        <v>17767823.529411763</v>
       </c>
       <c r="H2803" s="1">
         <f t="shared" ref="H2803:I2803" si="9">A2237</f>
@@ -26294,7 +26297,7 @@
       </c>
       <c r="F2804" s="2">
         <f t="shared" si="7"/>
-        <v>17144620.098039217</v>
+        <v>17157090.68627451</v>
       </c>
       <c r="H2804" s="1">
         <f t="shared" ref="H2804:I2804" si="10">A2238</f>
@@ -26332,7 +26335,7 @@
       </c>
       <c r="F2805" s="2">
         <f t="shared" si="7"/>
-        <v>16530769.607843136</v>
+        <v>16546357.843137253</v>
       </c>
       <c r="H2805" s="1">
         <f t="shared" ref="H2805:I2805" si="11">A2239</f>
@@ -26370,7 +26373,7 @@
       </c>
       <c r="F2806" s="2">
         <f t="shared" si="7"/>
-        <v>15916919.117647059</v>
+        <v>15935625</v>
       </c>
       <c r="H2806" s="1">
         <f t="shared" ref="H2806:I2806" si="12">A2240</f>
@@ -26408,7 +26411,7 @@
       </c>
       <c r="F2807" s="2">
         <f t="shared" si="7"/>
-        <v>15303068.62745098</v>
+        <v>15324892.156862745</v>
       </c>
     </row>
     <row r="2808" spans="1:11" x14ac:dyDescent="0.2">
@@ -26432,7 +26435,7 @@
       </c>
       <c r="F2808" s="2">
         <f t="shared" si="7"/>
-        <v>14689218.137254901</v>
+        <v>14714159.31372549</v>
       </c>
     </row>
     <row r="2809" spans="1:11" x14ac:dyDescent="0.2">
@@ -26456,7 +26459,7 @@
       </c>
       <c r="F2809" s="2">
         <f t="shared" si="7"/>
-        <v>14075367.647058822</v>
+        <v>14103426.470588235</v>
       </c>
     </row>
     <row r="2810" spans="1:11" x14ac:dyDescent="0.2">
@@ -26468,7 +26471,7 @@
         <v>13292000</v>
       </c>
       <c r="C2810">
-        <v>13142587</v>
+        <v>13142717</v>
       </c>
       <c r="D2810">
         <f t="shared" si="8"/>
@@ -26480,7 +26483,7 @@
       </c>
       <c r="F2810" s="2">
         <f t="shared" si="7"/>
-        <v>13461517.156862745</v>
+        <v>13492693.62745098</v>
       </c>
     </row>
     <row r="2811" spans="1:11" x14ac:dyDescent="0.2">
@@ -26489,10 +26492,10 @@
         <v>44072</v>
       </c>
       <c r="B2811">
-        <v>13385000</v>
+        <v>13544000</v>
       </c>
       <c r="C2811">
-        <v>13197059</v>
+        <v>13355447</v>
       </c>
       <c r="D2811">
         <f t="shared" si="8"/>
@@ -26500,11 +26503,11 @@
       </c>
       <c r="E2811" s="2">
         <f t="shared" si="0"/>
-        <v>13385000</v>
+        <v>13544000</v>
       </c>
       <c r="F2811" s="2">
         <f t="shared" si="7"/>
-        <v>12847666.666666666</v>
+        <v>12881960.784313725</v>
       </c>
     </row>
     <row r="2812" spans="1:11" x14ac:dyDescent="0.2">
@@ -26512,13 +26515,23 @@
         <f t="shared" si="5"/>
         <v>44079</v>
       </c>
+      <c r="B2812">
+        <v>12628000</v>
+      </c>
+      <c r="C2812">
+        <v>12321395</v>
+      </c>
       <c r="D2812">
         <f t="shared" si="8"/>
         <v>17</v>
       </c>
+      <c r="E2812" s="2">
+        <f t="shared" si="0"/>
+        <v>12628000</v>
+      </c>
       <c r="F2812" s="2">
         <f t="shared" si="7"/>
-        <v>12233816.176470587</v>
+        <v>12271227.94117647</v>
       </c>
     </row>
     <row r="2813" spans="1:11" x14ac:dyDescent="0.2">
@@ -26532,7 +26545,7 @@
       </c>
       <c r="F2813" s="2">
         <f t="shared" si="7"/>
-        <v>11619965.68627451</v>
+        <v>11660495.098039215</v>
       </c>
     </row>
     <row r="2814" spans="1:11" x14ac:dyDescent="0.2">
@@ -26546,7 +26559,7 @@
       </c>
       <c r="F2814" s="2">
         <f t="shared" si="7"/>
-        <v>11006115.196078431</v>
+        <v>11049762.25490196</v>
       </c>
     </row>
     <row r="2815" spans="1:11" x14ac:dyDescent="0.2">
@@ -26560,7 +26573,7 @@
       </c>
       <c r="F2815" s="2">
         <f t="shared" si="7"/>
-        <v>10392264.705882352</v>
+        <v>10439029.411764706</v>
       </c>
     </row>
     <row r="2816" spans="1:11" x14ac:dyDescent="0.2">
@@ -26574,7 +26587,7 @@
       </c>
       <c r="F2816" s="2">
         <f t="shared" si="7"/>
-        <v>9778414.2156862747</v>
+        <v>9828296.5686274506</v>
       </c>
     </row>
     <row r="2817" spans="1:6" x14ac:dyDescent="0.2">
@@ -26588,7 +26601,7 @@
       </c>
       <c r="F2817" s="2">
         <f t="shared" si="7"/>
-        <v>9164563.7254901957</v>
+        <v>9217563.7254901957</v>
       </c>
     </row>
     <row r="2818" spans="1:6" x14ac:dyDescent="0.2">
@@ -26602,7 +26615,7 @@
       </c>
       <c r="F2818" s="2">
         <f t="shared" si="7"/>
-        <v>8550713.2352941167</v>
+        <v>8606830.8823529407</v>
       </c>
     </row>
     <row r="2819" spans="1:6" x14ac:dyDescent="0.2">
@@ -26616,7 +26629,7 @@
       </c>
       <c r="F2819" s="2">
         <f t="shared" si="7"/>
-        <v>7936862.7450980395</v>
+        <v>7996098.0392156877</v>
       </c>
     </row>
     <row r="2820" spans="1:6" x14ac:dyDescent="0.2">
@@ -26630,7 +26643,7 @@
       </c>
       <c r="F2820" s="2">
         <f t="shared" si="7"/>
-        <v>7323012.2549019605</v>
+        <v>7385365.1960784327</v>
       </c>
     </row>
     <row r="2821" spans="1:6" x14ac:dyDescent="0.2">
@@ -26644,7 +26657,7 @@
       </c>
       <c r="F2821" s="2">
         <f t="shared" si="7"/>
-        <v>6709161.7647058815</v>
+        <v>6774632.3529411778</v>
       </c>
     </row>
     <row r="2822" spans="1:6" x14ac:dyDescent="0.2">
@@ -26658,7 +26671,7 @@
       </c>
       <c r="F2822" s="2">
         <f t="shared" si="7"/>
-        <v>6095311.2745098025</v>
+        <v>6163899.5098039228</v>
       </c>
     </row>
     <row r="2823" spans="1:6" x14ac:dyDescent="0.2">
@@ -26672,7 +26685,7 @@
       </c>
       <c r="F2823" s="2">
         <f t="shared" si="7"/>
-        <v>5481460.7843137234</v>
+        <v>5553166.6666666679</v>
       </c>
     </row>
     <row r="2824" spans="1:6" x14ac:dyDescent="0.2">
@@ -26686,7 +26699,7 @@
       </c>
       <c r="F2824" s="2">
         <f t="shared" si="7"/>
-        <v>4867610.2941176482</v>
+        <v>4942433.8235294111</v>
       </c>
     </row>
     <row r="2825" spans="1:6" x14ac:dyDescent="0.2">
@@ -26700,7 +26713,7 @@
       </c>
       <c r="F2825" s="2">
         <f t="shared" si="7"/>
-        <v>4253759.8039215691</v>
+        <v>4331700.980392158</v>
       </c>
     </row>
     <row r="2826" spans="1:6" x14ac:dyDescent="0.2">
@@ -26714,7 +26727,7 @@
       </c>
       <c r="F2826" s="2">
         <f t="shared" si="7"/>
-        <v>3639909.3137254901</v>
+        <v>3720968.1372549012</v>
       </c>
     </row>
     <row r="2827" spans="1:6" x14ac:dyDescent="0.2">

--- a/CCSA.xlsx
+++ b/CCSA.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="23029"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="23127"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Rainy\Documents\GitHub\Economics\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{162EE358-50D9-4469-A236-EF53B15B00ED}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A6553E93-9B03-4F63-A886-C337E3763BF1}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -886,11 +886,11 @@
           </c:marker>
           <c:dLbls>
             <c:dLbl>
-              <c:idx val="22"/>
+              <c:idx val="23"/>
               <c:layout>
                 <c:manualLayout>
-                  <c:x val="-0.14700903179504393"/>
-                  <c:y val="-0.2316094318920717"/>
+                  <c:x val="-0.1231200641283493"/>
+                  <c:y val="-0.19792078725322496"/>
                 </c:manualLayout>
               </c:layout>
               <c:showLegendKey val="0"/>
@@ -902,7 +902,7 @@
               <c:extLst>
                 <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}"/>
                 <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-                  <c16:uniqueId val="{00000011-20D2-4EBA-96F6-829395DD9748}"/>
+                  <c16:uniqueId val="{00000011-4A04-4E09-ACAD-2358E39F7A61}"/>
                 </c:ext>
               </c:extLst>
             </c:dLbl>
@@ -1094,10 +1094,13 @@
                   <c:v>13142717</c:v>
                 </c:pt>
                 <c:pt idx="21" formatCode="General">
-                  <c:v>13355447</c:v>
+                  <c:v>13355586</c:v>
                 </c:pt>
                 <c:pt idx="22" formatCode="General">
-                  <c:v>12321395</c:v>
+                  <c:v>12440861</c:v>
+                </c:pt>
+                <c:pt idx="23" formatCode="General">
+                  <c:v>12264351</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -1216,79 +1219,79 @@
                 <c:formatCode>0</c:formatCode>
                 <c:ptCount val="25"/>
                 <c:pt idx="0">
-                  <c:v>22653686.274509802</c:v>
+                  <c:v>17880200</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>22042953.431372549</c:v>
+                  <c:v>17586900</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>21432220.588235293</c:v>
+                  <c:v>17293600</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>20821487.74509804</c:v>
+                  <c:v>17000300</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>20210754.901960783</c:v>
+                  <c:v>16707000</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>19600022.05882353</c:v>
+                  <c:v>16413700</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>18989289.215686273</c:v>
+                  <c:v>16120400</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>18378556.37254902</c:v>
+                  <c:v>15827100</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>17767823.529411763</c:v>
+                  <c:v>15533800</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>17157090.68627451</c:v>
+                  <c:v>15240500</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>16546357.843137253</c:v>
+                  <c:v>14947200</c:v>
                 </c:pt>
                 <c:pt idx="11">
-                  <c:v>15935625</c:v>
+                  <c:v>14653900</c:v>
                 </c:pt>
                 <c:pt idx="12">
-                  <c:v>15324892.156862745</c:v>
+                  <c:v>14360600</c:v>
                 </c:pt>
                 <c:pt idx="13">
-                  <c:v>14714159.31372549</c:v>
+                  <c:v>14067300</c:v>
                 </c:pt>
                 <c:pt idx="14">
-                  <c:v>14103426.470588235</c:v>
+                  <c:v>13774000</c:v>
                 </c:pt>
                 <c:pt idx="15">
-                  <c:v>13492693.62745098</c:v>
+                  <c:v>13480700</c:v>
                 </c:pt>
                 <c:pt idx="16">
-                  <c:v>12881960.784313725</c:v>
+                  <c:v>13187400</c:v>
                 </c:pt>
                 <c:pt idx="17">
-                  <c:v>12271227.94117647</c:v>
+                  <c:v>12894100</c:v>
                 </c:pt>
                 <c:pt idx="18">
-                  <c:v>11660495.098039215</c:v>
+                  <c:v>12600800</c:v>
                 </c:pt>
                 <c:pt idx="19">
-                  <c:v>11049762.25490196</c:v>
+                  <c:v>12307500</c:v>
                 </c:pt>
                 <c:pt idx="20">
-                  <c:v>10439029.411764706</c:v>
+                  <c:v>12014200</c:v>
                 </c:pt>
                 <c:pt idx="21">
-                  <c:v>9828296.5686274506</c:v>
+                  <c:v>11720900</c:v>
                 </c:pt>
                 <c:pt idx="22">
-                  <c:v>9217563.7254901957</c:v>
+                  <c:v>11427600</c:v>
                 </c:pt>
                 <c:pt idx="23">
-                  <c:v>8606830.8823529407</c:v>
+                  <c:v>11134300</c:v>
                 </c:pt>
                 <c:pt idx="24">
-                  <c:v>7996098.0392156877</c:v>
+                  <c:v>10840999.999999998</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -1523,7 +1526,7 @@
         <c:axId val="319767456"/>
         <c:scaling>
           <c:orientation val="minMax"/>
-          <c:max val="44080"/>
+          <c:max val="44090"/>
           <c:min val="43920"/>
         </c:scaling>
         <c:delete val="0"/>
@@ -3389,8 +3392,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:M2834"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="B2758" zoomScale="160" zoomScaleNormal="160" workbookViewId="0">
-      <selection activeCell="H2787" sqref="H2787"/>
+    <sheetView tabSelected="1" topLeftCell="A2816" zoomScale="160" zoomScaleNormal="160" workbookViewId="0">
+      <selection activeCell="F2836" sqref="F2836"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="20.7109375" defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
@@ -25674,11 +25677,11 @@
         <v>2074782</v>
       </c>
       <c r="F2787">
-        <f t="array" ref="F2787:G2787">LINEST(E2795:E2811,D2795:D2811,TRUE)</f>
-        <v>-610732.84313725482</v>
+        <f t="array" ref="F2787:G2787">LINEST(E2810:E2813,D2810:D2813,TRUE)</f>
+        <v>-293300.00000000006</v>
       </c>
       <c r="G2787">
-        <v>22653686.274509802</v>
+        <v>17880200</v>
       </c>
       <c r="L2787">
         <v>-41794.117647058796</v>
@@ -25732,7 +25735,7 @@
         <v>12461658</v>
       </c>
       <c r="E2790" s="2">
-        <f t="shared" ref="E2790:E2812" si="0">B2790</f>
+        <f t="shared" ref="E2790:E2813" si="0">B2790</f>
         <v>11914000</v>
       </c>
       <c r="F2790" s="2"/>
@@ -25916,7 +25919,7 @@
       </c>
       <c r="F2795" s="2">
         <f>$G$2787+($F$2787*D2795)</f>
-        <v>22653686.274509802</v>
+        <v>17880200</v>
       </c>
       <c r="G2795">
         <f t="shared" si="4"/>
@@ -25958,8 +25961,8 @@
         <v>20841000</v>
       </c>
       <c r="F2796" s="2">
-        <f t="shared" ref="F2796:F2826" si="7">$G$2787+($F$2787*D2796)</f>
-        <v>22042953.431372549</v>
+        <f t="shared" ref="F2796:F2833" si="7">$G$2787+($F$2787*D2796)</f>
+        <v>17586900</v>
       </c>
       <c r="G2796">
         <f t="shared" si="4"/>
@@ -26002,7 +26005,7 @@
       </c>
       <c r="F2797" s="2">
         <f t="shared" si="7"/>
-        <v>21432220.588235293</v>
+        <v>17293600</v>
       </c>
       <c r="G2797">
         <f t="shared" si="4"/>
@@ -26045,7 +26048,7 @@
       </c>
       <c r="F2798" s="2">
         <f t="shared" si="7"/>
-        <v>20821487.74509804</v>
+        <v>17000300</v>
       </c>
       <c r="G2798">
         <f t="shared" si="4"/>
@@ -26088,7 +26091,7 @@
       </c>
       <c r="F2799" s="2">
         <f t="shared" si="7"/>
-        <v>20210754.901960783</v>
+        <v>16707000</v>
       </c>
       <c r="G2799">
         <f t="shared" si="4"/>
@@ -26131,7 +26134,7 @@
       </c>
       <c r="F2800" s="2">
         <f t="shared" si="7"/>
-        <v>19600022.05882353</v>
+        <v>16413700</v>
       </c>
       <c r="G2800">
         <f t="shared" si="4"/>
@@ -26174,7 +26177,7 @@
       </c>
       <c r="F2801" s="2">
         <f t="shared" si="7"/>
-        <v>18989289.215686273</v>
+        <v>16120400</v>
       </c>
       <c r="G2801">
         <f t="shared" si="4"/>
@@ -26217,7 +26220,7 @@
       </c>
       <c r="F2802" s="2">
         <f t="shared" si="7"/>
-        <v>18378556.37254902</v>
+        <v>15827100</v>
       </c>
       <c r="G2802">
         <f t="shared" si="4"/>
@@ -26259,7 +26262,7 @@
       </c>
       <c r="F2803" s="2">
         <f t="shared" si="7"/>
-        <v>17767823.529411763</v>
+        <v>15533800</v>
       </c>
       <c r="H2803" s="1">
         <f t="shared" ref="H2803:I2803" si="9">A2237</f>
@@ -26297,7 +26300,7 @@
       </c>
       <c r="F2804" s="2">
         <f t="shared" si="7"/>
-        <v>17157090.68627451</v>
+        <v>15240500</v>
       </c>
       <c r="H2804" s="1">
         <f t="shared" ref="H2804:I2804" si="10">A2238</f>
@@ -26335,7 +26338,7 @@
       </c>
       <c r="F2805" s="2">
         <f t="shared" si="7"/>
-        <v>16546357.843137253</v>
+        <v>14947200</v>
       </c>
       <c r="H2805" s="1">
         <f t="shared" ref="H2805:I2805" si="11">A2239</f>
@@ -26373,7 +26376,7 @@
       </c>
       <c r="F2806" s="2">
         <f t="shared" si="7"/>
-        <v>15935625</v>
+        <v>14653900</v>
       </c>
       <c r="H2806" s="1">
         <f t="shared" ref="H2806:I2806" si="12">A2240</f>
@@ -26411,7 +26414,7 @@
       </c>
       <c r="F2807" s="2">
         <f t="shared" si="7"/>
-        <v>15324892.156862745</v>
+        <v>14360600</v>
       </c>
     </row>
     <row r="2808" spans="1:11" x14ac:dyDescent="0.2">
@@ -26435,7 +26438,7 @@
       </c>
       <c r="F2808" s="2">
         <f t="shared" si="7"/>
-        <v>14714159.31372549</v>
+        <v>14067300</v>
       </c>
     </row>
     <row r="2809" spans="1:11" x14ac:dyDescent="0.2">
@@ -26459,7 +26462,7 @@
       </c>
       <c r="F2809" s="2">
         <f t="shared" si="7"/>
-        <v>14103426.470588235</v>
+        <v>13774000</v>
       </c>
     </row>
     <row r="2810" spans="1:11" x14ac:dyDescent="0.2">
@@ -26483,7 +26486,7 @@
       </c>
       <c r="F2810" s="2">
         <f t="shared" si="7"/>
-        <v>13492693.62745098</v>
+        <v>13480700</v>
       </c>
     </row>
     <row r="2811" spans="1:11" x14ac:dyDescent="0.2">
@@ -26495,7 +26498,7 @@
         <v>13544000</v>
       </c>
       <c r="C2811">
-        <v>13355447</v>
+        <v>13355586</v>
       </c>
       <c r="D2811">
         <f t="shared" si="8"/>
@@ -26507,7 +26510,7 @@
       </c>
       <c r="F2811" s="2">
         <f t="shared" si="7"/>
-        <v>12881960.784313725</v>
+        <v>13187400</v>
       </c>
     </row>
     <row r="2812" spans="1:11" x14ac:dyDescent="0.2">
@@ -26516,10 +26519,10 @@
         <v>44079</v>
       </c>
       <c r="B2812">
-        <v>12628000</v>
+        <v>12747000</v>
       </c>
       <c r="C2812">
-        <v>12321395</v>
+        <v>12440861</v>
       </c>
       <c r="D2812">
         <f t="shared" si="8"/>
@@ -26527,11 +26530,11 @@
       </c>
       <c r="E2812" s="2">
         <f t="shared" si="0"/>
-        <v>12628000</v>
+        <v>12747000</v>
       </c>
       <c r="F2812" s="2">
         <f t="shared" si="7"/>
-        <v>12271227.94117647</v>
+        <v>12894100</v>
       </c>
     </row>
     <row r="2813" spans="1:11" x14ac:dyDescent="0.2">
@@ -26539,13 +26542,23 @@
         <f t="shared" si="5"/>
         <v>44086</v>
       </c>
+      <c r="B2813">
+        <v>12580000</v>
+      </c>
+      <c r="C2813">
+        <v>12264351</v>
+      </c>
       <c r="D2813">
         <f t="shared" si="8"/>
         <v>18</v>
       </c>
+      <c r="E2813" s="2">
+        <f t="shared" si="0"/>
+        <v>12580000</v>
+      </c>
       <c r="F2813" s="2">
         <f t="shared" si="7"/>
-        <v>11660495.098039215</v>
+        <v>12600800</v>
       </c>
     </row>
     <row r="2814" spans="1:11" x14ac:dyDescent="0.2">
@@ -26559,7 +26572,7 @@
       </c>
       <c r="F2814" s="2">
         <f t="shared" si="7"/>
-        <v>11049762.25490196</v>
+        <v>12307500</v>
       </c>
     </row>
     <row r="2815" spans="1:11" x14ac:dyDescent="0.2">
@@ -26573,7 +26586,7 @@
       </c>
       <c r="F2815" s="2">
         <f t="shared" si="7"/>
-        <v>10439029.411764706</v>
+        <v>12014200</v>
       </c>
     </row>
     <row r="2816" spans="1:11" x14ac:dyDescent="0.2">
@@ -26587,7 +26600,7 @@
       </c>
       <c r="F2816" s="2">
         <f t="shared" si="7"/>
-        <v>9828296.5686274506</v>
+        <v>11720900</v>
       </c>
     </row>
     <row r="2817" spans="1:6" x14ac:dyDescent="0.2">
@@ -26601,7 +26614,7 @@
       </c>
       <c r="F2817" s="2">
         <f t="shared" si="7"/>
-        <v>9217563.7254901957</v>
+        <v>11427600</v>
       </c>
     </row>
     <row r="2818" spans="1:6" x14ac:dyDescent="0.2">
@@ -26615,7 +26628,7 @@
       </c>
       <c r="F2818" s="2">
         <f t="shared" si="7"/>
-        <v>8606830.8823529407</v>
+        <v>11134300</v>
       </c>
     </row>
     <row r="2819" spans="1:6" x14ac:dyDescent="0.2">
@@ -26629,7 +26642,7 @@
       </c>
       <c r="F2819" s="2">
         <f t="shared" si="7"/>
-        <v>7996098.0392156877</v>
+        <v>10840999.999999998</v>
       </c>
     </row>
     <row r="2820" spans="1:6" x14ac:dyDescent="0.2">
@@ -26643,7 +26656,7 @@
       </c>
       <c r="F2820" s="2">
         <f t="shared" si="7"/>
-        <v>7385365.1960784327</v>
+        <v>10547699.999999998</v>
       </c>
     </row>
     <row r="2821" spans="1:6" x14ac:dyDescent="0.2">
@@ -26657,7 +26670,7 @@
       </c>
       <c r="F2821" s="2">
         <f t="shared" si="7"/>
-        <v>6774632.3529411778</v>
+        <v>10254399.999999998</v>
       </c>
     </row>
     <row r="2822" spans="1:6" x14ac:dyDescent="0.2">
@@ -26671,7 +26684,7 @@
       </c>
       <c r="F2822" s="2">
         <f t="shared" si="7"/>
-        <v>6163899.5098039228</v>
+        <v>9961099.9999999981</v>
       </c>
     </row>
     <row r="2823" spans="1:6" x14ac:dyDescent="0.2">
@@ -26685,7 +26698,7 @@
       </c>
       <c r="F2823" s="2">
         <f t="shared" si="7"/>
-        <v>5553166.6666666679</v>
+        <v>9667799.9999999981</v>
       </c>
     </row>
     <row r="2824" spans="1:6" x14ac:dyDescent="0.2">
@@ -26699,7 +26712,7 @@
       </c>
       <c r="F2824" s="2">
         <f t="shared" si="7"/>
-        <v>4942433.8235294111</v>
+        <v>9374499.9999999981</v>
       </c>
     </row>
     <row r="2825" spans="1:6" x14ac:dyDescent="0.2">
@@ -26713,7 +26726,7 @@
       </c>
       <c r="F2825" s="2">
         <f t="shared" si="7"/>
-        <v>4331700.980392158</v>
+        <v>9081199.9999999981</v>
       </c>
     </row>
     <row r="2826" spans="1:6" x14ac:dyDescent="0.2">
@@ -26727,7 +26740,7 @@
       </c>
       <c r="F2826" s="2">
         <f t="shared" si="7"/>
-        <v>3720968.1372549012</v>
+        <v>8787899.9999999981</v>
       </c>
     </row>
     <row r="2827" spans="1:6" x14ac:dyDescent="0.2">
@@ -26739,6 +26752,10 @@
         <f t="shared" si="8"/>
         <v>32</v>
       </c>
+      <c r="F2827" s="2">
+        <f t="shared" si="7"/>
+        <v>8494599.9999999981</v>
+      </c>
     </row>
     <row r="2828" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A2828" s="1">
@@ -26749,6 +26766,10 @@
         <f t="shared" si="8"/>
         <v>33</v>
       </c>
+      <c r="F2828" s="2">
+        <f t="shared" si="7"/>
+        <v>8201299.9999999981</v>
+      </c>
     </row>
     <row r="2829" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A2829" s="1">
@@ -26759,6 +26780,10 @@
         <f t="shared" si="8"/>
         <v>34</v>
       </c>
+      <c r="F2829" s="2">
+        <f t="shared" si="7"/>
+        <v>7907999.9999999981</v>
+      </c>
     </row>
     <row r="2830" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A2830" s="1">
@@ -26769,6 +26794,10 @@
         <f t="shared" si="8"/>
         <v>35</v>
       </c>
+      <c r="F2830" s="2">
+        <f t="shared" si="7"/>
+        <v>7614699.9999999981</v>
+      </c>
     </row>
     <row r="2831" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A2831" s="1">
@@ -26779,6 +26808,10 @@
         <f t="shared" si="8"/>
         <v>36</v>
       </c>
+      <c r="F2831" s="2">
+        <f t="shared" si="7"/>
+        <v>7321399.9999999981</v>
+      </c>
     </row>
     <row r="2832" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A2832" s="1">
@@ -26789,8 +26822,12 @@
         <f t="shared" si="8"/>
         <v>37</v>
       </c>
-    </row>
-    <row r="2833" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="F2832" s="2">
+        <f t="shared" si="7"/>
+        <v>7028099.9999999981</v>
+      </c>
+    </row>
+    <row r="2833" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A2833" s="1">
         <f t="shared" si="5"/>
         <v>44226</v>
@@ -26799,8 +26836,12 @@
         <f t="shared" si="8"/>
         <v>38</v>
       </c>
-    </row>
-    <row r="2834" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="F2833" s="2">
+        <f t="shared" si="7"/>
+        <v>6734799.9999999981</v>
+      </c>
+    </row>
+    <row r="2834" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A2834" s="1">
         <f t="shared" si="5"/>
         <v>44233</v>

--- a/CCSA.xlsx
+++ b/CCSA.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Rainy\Documents\GitHub\Economics\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A6553E93-9B03-4F63-A886-C337E3763BF1}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9E102038-6836-4C84-9103-F68C8996E964}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -269,19 +269,6 @@
           </c:marker>
           <c:dPt>
             <c:idx val="5"/>
-            <c:marker>
-              <c:spPr>
-                <a:solidFill>
-                  <a:srgbClr val="FFFF00"/>
-                </a:solidFill>
-                <a:ln w="9525">
-                  <a:solidFill>
-                    <a:schemeClr val="accent1"/>
-                  </a:solidFill>
-                </a:ln>
-                <a:effectLst/>
-              </c:spPr>
-            </c:marker>
             <c:bubble3D val="0"/>
             <c:spPr>
               <a:ln w="19050">
@@ -296,19 +283,6 @@
           </c:dPt>
           <c:dPt>
             <c:idx val="6"/>
-            <c:marker>
-              <c:spPr>
-                <a:solidFill>
-                  <a:srgbClr val="FFFF00"/>
-                </a:solidFill>
-                <a:ln w="9525">
-                  <a:solidFill>
-                    <a:schemeClr val="accent1"/>
-                  </a:solidFill>
-                </a:ln>
-                <a:effectLst/>
-              </c:spPr>
-            </c:marker>
             <c:bubble3D val="0"/>
             <c:spPr>
               <a:ln w="19050">
@@ -323,19 +297,6 @@
           </c:dPt>
           <c:dPt>
             <c:idx val="7"/>
-            <c:marker>
-              <c:spPr>
-                <a:solidFill>
-                  <a:srgbClr val="FFFF00"/>
-                </a:solidFill>
-                <a:ln w="9525">
-                  <a:solidFill>
-                    <a:schemeClr val="accent1"/>
-                  </a:solidFill>
-                </a:ln>
-                <a:effectLst/>
-              </c:spPr>
-            </c:marker>
             <c:bubble3D val="0"/>
             <c:spPr>
               <a:ln w="19050">
@@ -350,19 +311,6 @@
           </c:dPt>
           <c:dPt>
             <c:idx val="8"/>
-            <c:marker>
-              <c:spPr>
-                <a:solidFill>
-                  <a:srgbClr val="FFFF00"/>
-                </a:solidFill>
-                <a:ln w="9525">
-                  <a:solidFill>
-                    <a:schemeClr val="accent1"/>
-                  </a:solidFill>
-                </a:ln>
-                <a:effectLst/>
-              </c:spPr>
-            </c:marker>
             <c:bubble3D val="0"/>
             <c:extLst>
               <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
@@ -372,19 +320,6 @@
           </c:dPt>
           <c:dPt>
             <c:idx val="9"/>
-            <c:marker>
-              <c:spPr>
-                <a:solidFill>
-                  <a:srgbClr val="FFFF00"/>
-                </a:solidFill>
-                <a:ln w="9525">
-                  <a:solidFill>
-                    <a:schemeClr val="accent1"/>
-                  </a:solidFill>
-                </a:ln>
-                <a:effectLst/>
-              </c:spPr>
-            </c:marker>
             <c:bubble3D val="0"/>
             <c:extLst>
               <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
@@ -394,19 +329,6 @@
           </c:dPt>
           <c:dPt>
             <c:idx val="10"/>
-            <c:marker>
-              <c:spPr>
-                <a:solidFill>
-                  <a:srgbClr val="FFFF00"/>
-                </a:solidFill>
-                <a:ln w="9525">
-                  <a:solidFill>
-                    <a:schemeClr val="accent1"/>
-                  </a:solidFill>
-                </a:ln>
-                <a:effectLst/>
-              </c:spPr>
-            </c:marker>
             <c:bubble3D val="0"/>
             <c:extLst>
               <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
@@ -416,19 +338,6 @@
           </c:dPt>
           <c:dPt>
             <c:idx val="11"/>
-            <c:marker>
-              <c:spPr>
-                <a:solidFill>
-                  <a:srgbClr val="FFFF00"/>
-                </a:solidFill>
-                <a:ln w="9525">
-                  <a:solidFill>
-                    <a:schemeClr val="accent1"/>
-                  </a:solidFill>
-                </a:ln>
-                <a:effectLst/>
-              </c:spPr>
-            </c:marker>
             <c:bubble3D val="0"/>
             <c:extLst>
               <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
@@ -438,19 +347,6 @@
           </c:dPt>
           <c:dPt>
             <c:idx val="12"/>
-            <c:marker>
-              <c:spPr>
-                <a:solidFill>
-                  <a:srgbClr val="FFFF00"/>
-                </a:solidFill>
-                <a:ln w="9525">
-                  <a:solidFill>
-                    <a:schemeClr val="accent1"/>
-                  </a:solidFill>
-                </a:ln>
-                <a:effectLst/>
-              </c:spPr>
-            </c:marker>
             <c:bubble3D val="0"/>
             <c:extLst>
               <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
@@ -460,19 +356,6 @@
           </c:dPt>
           <c:dPt>
             <c:idx val="13"/>
-            <c:marker>
-              <c:spPr>
-                <a:solidFill>
-                  <a:srgbClr val="FFFF00"/>
-                </a:solidFill>
-                <a:ln w="9525">
-                  <a:solidFill>
-                    <a:schemeClr val="accent1"/>
-                  </a:solidFill>
-                </a:ln>
-                <a:effectLst/>
-              </c:spPr>
-            </c:marker>
             <c:bubble3D val="0"/>
             <c:extLst>
               <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
@@ -482,19 +365,6 @@
           </c:dPt>
           <c:dPt>
             <c:idx val="14"/>
-            <c:marker>
-              <c:spPr>
-                <a:solidFill>
-                  <a:srgbClr val="FFFF00"/>
-                </a:solidFill>
-                <a:ln w="9525">
-                  <a:solidFill>
-                    <a:schemeClr val="accent1"/>
-                  </a:solidFill>
-                </a:ln>
-                <a:effectLst/>
-              </c:spPr>
-            </c:marker>
             <c:bubble3D val="0"/>
             <c:extLst>
               <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
@@ -504,19 +374,6 @@
           </c:dPt>
           <c:dPt>
             <c:idx val="18"/>
-            <c:marker>
-              <c:spPr>
-                <a:solidFill>
-                  <a:srgbClr val="FFFF00"/>
-                </a:solidFill>
-                <a:ln w="9525">
-                  <a:solidFill>
-                    <a:schemeClr val="accent1"/>
-                  </a:solidFill>
-                </a:ln>
-                <a:effectLst/>
-              </c:spPr>
-            </c:marker>
             <c:bubble3D val="0"/>
             <c:extLst>
               <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
@@ -526,19 +383,6 @@
           </c:dPt>
           <c:dPt>
             <c:idx val="19"/>
-            <c:marker>
-              <c:spPr>
-                <a:solidFill>
-                  <a:srgbClr val="FFFF00"/>
-                </a:solidFill>
-                <a:ln w="9525">
-                  <a:solidFill>
-                    <a:schemeClr val="accent1"/>
-                  </a:solidFill>
-                </a:ln>
-                <a:effectLst/>
-              </c:spPr>
-            </c:marker>
             <c:bubble3D val="0"/>
             <c:extLst>
               <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
@@ -548,19 +392,6 @@
           </c:dPt>
           <c:dPt>
             <c:idx val="20"/>
-            <c:marker>
-              <c:spPr>
-                <a:solidFill>
-                  <a:srgbClr val="FFFF00"/>
-                </a:solidFill>
-                <a:ln w="9525">
-                  <a:solidFill>
-                    <a:schemeClr val="accent1"/>
-                  </a:solidFill>
-                </a:ln>
-                <a:effectLst/>
-              </c:spPr>
-            </c:marker>
             <c:bubble3D val="0"/>
             <c:extLst>
               <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
@@ -886,11 +717,11 @@
           </c:marker>
           <c:dLbls>
             <c:dLbl>
-              <c:idx val="23"/>
+              <c:idx val="24"/>
               <c:layout>
                 <c:manualLayout>
-                  <c:x val="-0.1231200641283493"/>
-                  <c:y val="-0.19792078725322496"/>
+                  <c:x val="-9.9231096461654733E-2"/>
+                  <c:y val="-0.20213186783308074"/>
                 </c:manualLayout>
               </c:layout>
               <c:showLegendKey val="0"/>
@@ -902,7 +733,7 @@
               <c:extLst>
                 <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}"/>
                 <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-                  <c16:uniqueId val="{00000011-4A04-4E09-ACAD-2358E39F7A61}"/>
+                  <c16:uniqueId val="{00000011-14FC-45C3-88FA-89CF0E31E72E}"/>
                 </c:ext>
               </c:extLst>
             </c:dLbl>
@@ -1097,10 +928,13 @@
                   <c:v>13355586</c:v>
                 </c:pt>
                 <c:pt idx="22" formatCode="General">
-                  <c:v>12440861</c:v>
+                  <c:v>12440863</c:v>
                 </c:pt>
                 <c:pt idx="23" formatCode="General">
-                  <c:v>12264351</c:v>
+                  <c:v>12430895</c:v>
+                </c:pt>
+                <c:pt idx="24" formatCode="General">
+                  <c:v>11410703</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -1219,79 +1053,79 @@
                 <c:formatCode>0</c:formatCode>
                 <c:ptCount val="25"/>
                 <c:pt idx="0">
-                  <c:v>17880200</c:v>
+                  <c:v>22030500</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>17586900</c:v>
+                  <c:v>21497400</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>17293600</c:v>
+                  <c:v>20964300</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>17000300</c:v>
+                  <c:v>20431200</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>16707000</c:v>
+                  <c:v>19898100</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>16413700</c:v>
+                  <c:v>19365000</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>16120400</c:v>
+                  <c:v>18831900</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>15827100</c:v>
+                  <c:v>18298800</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>15533800</c:v>
+                  <c:v>17765700</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>15240500</c:v>
+                  <c:v>17232600</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>14947200</c:v>
+                  <c:v>16699500</c:v>
                 </c:pt>
                 <c:pt idx="11">
-                  <c:v>14653900</c:v>
+                  <c:v>16166400</c:v>
                 </c:pt>
                 <c:pt idx="12">
-                  <c:v>14360600</c:v>
+                  <c:v>15633299.999999998</c:v>
                 </c:pt>
                 <c:pt idx="13">
-                  <c:v>14067300</c:v>
+                  <c:v>15100199.999999998</c:v>
                 </c:pt>
                 <c:pt idx="14">
-                  <c:v>13774000</c:v>
+                  <c:v>14567099.999999998</c:v>
                 </c:pt>
                 <c:pt idx="15">
-                  <c:v>13480700</c:v>
+                  <c:v>14033999.999999998</c:v>
                 </c:pt>
                 <c:pt idx="16">
-                  <c:v>13187400</c:v>
+                  <c:v>13500899.999999998</c:v>
                 </c:pt>
                 <c:pt idx="17">
-                  <c:v>12894100</c:v>
+                  <c:v>12967799.999999998</c:v>
                 </c:pt>
                 <c:pt idx="18">
-                  <c:v>12600800</c:v>
+                  <c:v>12434699.999999998</c:v>
                 </c:pt>
                 <c:pt idx="19">
-                  <c:v>12307500</c:v>
+                  <c:v>11901599.999999998</c:v>
                 </c:pt>
                 <c:pt idx="20">
-                  <c:v>12014200</c:v>
+                  <c:v>11368499.999999998</c:v>
                 </c:pt>
                 <c:pt idx="21">
-                  <c:v>11720900</c:v>
+                  <c:v>10835399.999999998</c:v>
                 </c:pt>
                 <c:pt idx="22">
-                  <c:v>11427600</c:v>
+                  <c:v>10302299.999999998</c:v>
                 </c:pt>
                 <c:pt idx="23">
-                  <c:v>11134300</c:v>
+                  <c:v>9769199.9999999981</c:v>
                 </c:pt>
                 <c:pt idx="24">
-                  <c:v>10840999.999999998</c:v>
+                  <c:v>9236099.9999999963</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -1526,7 +1360,7 @@
         <c:axId val="319767456"/>
         <c:scaling>
           <c:orientation val="minMax"/>
-          <c:max val="44090"/>
+          <c:max val="44100"/>
           <c:min val="43920"/>
         </c:scaling>
         <c:delete val="0"/>
@@ -3392,8 +3226,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:M2834"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A2816" zoomScale="160" zoomScaleNormal="160" workbookViewId="0">
-      <selection activeCell="F2836" sqref="F2836"/>
+    <sheetView tabSelected="1" topLeftCell="C2765" zoomScale="160" zoomScaleNormal="160" workbookViewId="0">
+      <selection activeCell="G2787" sqref="G2787"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="20.7109375" defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
@@ -25677,11 +25511,11 @@
         <v>2074782</v>
       </c>
       <c r="F2787">
-        <f t="array" ref="F2787:G2787">LINEST(E2810:E2813,D2810:D2813,TRUE)</f>
-        <v>-293300.00000000006</v>
+        <f t="array" ref="F2787:G2787">LINEST(E2811:E2814,D2811:D2814,TRUE)</f>
+        <v>-533100.00000000012</v>
       </c>
       <c r="G2787">
-        <v>17880200</v>
+        <v>22030500</v>
       </c>
       <c r="L2787">
         <v>-41794.117647058796</v>
@@ -25735,7 +25569,7 @@
         <v>12461658</v>
       </c>
       <c r="E2790" s="2">
-        <f t="shared" ref="E2790:E2813" si="0">B2790</f>
+        <f t="shared" ref="E2790:E2814" si="0">B2790</f>
         <v>11914000</v>
       </c>
       <c r="F2790" s="2"/>
@@ -25919,7 +25753,7 @@
       </c>
       <c r="F2795" s="2">
         <f>$G$2787+($F$2787*D2795)</f>
-        <v>17880200</v>
+        <v>22030500</v>
       </c>
       <c r="G2795">
         <f t="shared" si="4"/>
@@ -25962,7 +25796,7 @@
       </c>
       <c r="F2796" s="2">
         <f t="shared" ref="F2796:F2833" si="7">$G$2787+($F$2787*D2796)</f>
-        <v>17586900</v>
+        <v>21497400</v>
       </c>
       <c r="G2796">
         <f t="shared" si="4"/>
@@ -26005,7 +25839,7 @@
       </c>
       <c r="F2797" s="2">
         <f t="shared" si="7"/>
-        <v>17293600</v>
+        <v>20964300</v>
       </c>
       <c r="G2797">
         <f t="shared" si="4"/>
@@ -26048,7 +25882,7 @@
       </c>
       <c r="F2798" s="2">
         <f t="shared" si="7"/>
-        <v>17000300</v>
+        <v>20431200</v>
       </c>
       <c r="G2798">
         <f t="shared" si="4"/>
@@ -26091,7 +25925,7 @@
       </c>
       <c r="F2799" s="2">
         <f t="shared" si="7"/>
-        <v>16707000</v>
+        <v>19898100</v>
       </c>
       <c r="G2799">
         <f t="shared" si="4"/>
@@ -26134,7 +25968,7 @@
       </c>
       <c r="F2800" s="2">
         <f t="shared" si="7"/>
-        <v>16413700</v>
+        <v>19365000</v>
       </c>
       <c r="G2800">
         <f t="shared" si="4"/>
@@ -26177,7 +26011,7 @@
       </c>
       <c r="F2801" s="2">
         <f t="shared" si="7"/>
-        <v>16120400</v>
+        <v>18831900</v>
       </c>
       <c r="G2801">
         <f t="shared" si="4"/>
@@ -26220,7 +26054,7 @@
       </c>
       <c r="F2802" s="2">
         <f t="shared" si="7"/>
-        <v>15827100</v>
+        <v>18298800</v>
       </c>
       <c r="G2802">
         <f t="shared" si="4"/>
@@ -26262,7 +26096,7 @@
       </c>
       <c r="F2803" s="2">
         <f t="shared" si="7"/>
-        <v>15533800</v>
+        <v>17765700</v>
       </c>
       <c r="H2803" s="1">
         <f t="shared" ref="H2803:I2803" si="9">A2237</f>
@@ -26300,7 +26134,7 @@
       </c>
       <c r="F2804" s="2">
         <f t="shared" si="7"/>
-        <v>15240500</v>
+        <v>17232600</v>
       </c>
       <c r="H2804" s="1">
         <f t="shared" ref="H2804:I2804" si="10">A2238</f>
@@ -26338,7 +26172,7 @@
       </c>
       <c r="F2805" s="2">
         <f t="shared" si="7"/>
-        <v>14947200</v>
+        <v>16699500</v>
       </c>
       <c r="H2805" s="1">
         <f t="shared" ref="H2805:I2805" si="11">A2239</f>
@@ -26376,7 +26210,7 @@
       </c>
       <c r="F2806" s="2">
         <f t="shared" si="7"/>
-        <v>14653900</v>
+        <v>16166400</v>
       </c>
       <c r="H2806" s="1">
         <f t="shared" ref="H2806:I2806" si="12">A2240</f>
@@ -26414,7 +26248,7 @@
       </c>
       <c r="F2807" s="2">
         <f t="shared" si="7"/>
-        <v>14360600</v>
+        <v>15633299.999999998</v>
       </c>
     </row>
     <row r="2808" spans="1:11" x14ac:dyDescent="0.2">
@@ -26438,7 +26272,7 @@
       </c>
       <c r="F2808" s="2">
         <f t="shared" si="7"/>
-        <v>14067300</v>
+        <v>15100199.999999998</v>
       </c>
     </row>
     <row r="2809" spans="1:11" x14ac:dyDescent="0.2">
@@ -26462,7 +26296,7 @@
       </c>
       <c r="F2809" s="2">
         <f t="shared" si="7"/>
-        <v>13774000</v>
+        <v>14567099.999999998</v>
       </c>
     </row>
     <row r="2810" spans="1:11" x14ac:dyDescent="0.2">
@@ -26486,7 +26320,7 @@
       </c>
       <c r="F2810" s="2">
         <f t="shared" si="7"/>
-        <v>13480700</v>
+        <v>14033999.999999998</v>
       </c>
     </row>
     <row r="2811" spans="1:11" x14ac:dyDescent="0.2">
@@ -26510,7 +26344,7 @@
       </c>
       <c r="F2811" s="2">
         <f t="shared" si="7"/>
-        <v>13187400</v>
+        <v>13500899.999999998</v>
       </c>
     </row>
     <row r="2812" spans="1:11" x14ac:dyDescent="0.2">
@@ -26522,7 +26356,7 @@
         <v>12747000</v>
       </c>
       <c r="C2812">
-        <v>12440861</v>
+        <v>12440863</v>
       </c>
       <c r="D2812">
         <f t="shared" si="8"/>
@@ -26534,7 +26368,7 @@
       </c>
       <c r="F2812" s="2">
         <f t="shared" si="7"/>
-        <v>12894100</v>
+        <v>12967799.999999998</v>
       </c>
     </row>
     <row r="2813" spans="1:11" x14ac:dyDescent="0.2">
@@ -26543,10 +26377,10 @@
         <v>44086</v>
       </c>
       <c r="B2813">
-        <v>12580000</v>
+        <v>12747000</v>
       </c>
       <c r="C2813">
-        <v>12264351</v>
+        <v>12430895</v>
       </c>
       <c r="D2813">
         <f t="shared" si="8"/>
@@ -26554,11 +26388,11 @@
       </c>
       <c r="E2813" s="2">
         <f t="shared" si="0"/>
-        <v>12580000</v>
+        <v>12747000</v>
       </c>
       <c r="F2813" s="2">
         <f t="shared" si="7"/>
-        <v>12600800</v>
+        <v>12434699.999999998</v>
       </c>
     </row>
     <row r="2814" spans="1:11" x14ac:dyDescent="0.2">
@@ -26566,13 +26400,23 @@
         <f t="shared" si="5"/>
         <v>44093</v>
       </c>
+      <c r="B2814">
+        <v>11767000</v>
+      </c>
+      <c r="C2814">
+        <v>11410703</v>
+      </c>
       <c r="D2814">
         <f t="shared" si="8"/>
         <v>19</v>
       </c>
+      <c r="E2814" s="2">
+        <f t="shared" si="0"/>
+        <v>11767000</v>
+      </c>
       <c r="F2814" s="2">
         <f t="shared" si="7"/>
-        <v>12307500</v>
+        <v>11901599.999999998</v>
       </c>
     </row>
     <row r="2815" spans="1:11" x14ac:dyDescent="0.2">
@@ -26586,7 +26430,7 @@
       </c>
       <c r="F2815" s="2">
         <f t="shared" si="7"/>
-        <v>12014200</v>
+        <v>11368499.999999998</v>
       </c>
     </row>
     <row r="2816" spans="1:11" x14ac:dyDescent="0.2">
@@ -26600,7 +26444,7 @@
       </c>
       <c r="F2816" s="2">
         <f t="shared" si="7"/>
-        <v>11720900</v>
+        <v>10835399.999999998</v>
       </c>
     </row>
     <row r="2817" spans="1:6" x14ac:dyDescent="0.2">
@@ -26614,7 +26458,7 @@
       </c>
       <c r="F2817" s="2">
         <f t="shared" si="7"/>
-        <v>11427600</v>
+        <v>10302299.999999998</v>
       </c>
     </row>
     <row r="2818" spans="1:6" x14ac:dyDescent="0.2">
@@ -26628,7 +26472,7 @@
       </c>
       <c r="F2818" s="2">
         <f t="shared" si="7"/>
-        <v>11134300</v>
+        <v>9769199.9999999981</v>
       </c>
     </row>
     <row r="2819" spans="1:6" x14ac:dyDescent="0.2">
@@ -26642,7 +26486,7 @@
       </c>
       <c r="F2819" s="2">
         <f t="shared" si="7"/>
-        <v>10840999.999999998</v>
+        <v>9236099.9999999963</v>
       </c>
     </row>
     <row r="2820" spans="1:6" x14ac:dyDescent="0.2">
@@ -26656,7 +26500,7 @@
       </c>
       <c r="F2820" s="2">
         <f t="shared" si="7"/>
-        <v>10547699.999999998</v>
+        <v>8702999.9999999963</v>
       </c>
     </row>
     <row r="2821" spans="1:6" x14ac:dyDescent="0.2">
@@ -26670,7 +26514,7 @@
       </c>
       <c r="F2821" s="2">
         <f t="shared" si="7"/>
-        <v>10254399.999999998</v>
+        <v>8169899.9999999963</v>
       </c>
     </row>
     <row r="2822" spans="1:6" x14ac:dyDescent="0.2">
@@ -26684,7 +26528,7 @@
       </c>
       <c r="F2822" s="2">
         <f t="shared" si="7"/>
-        <v>9961099.9999999981</v>
+        <v>7636799.9999999963</v>
       </c>
     </row>
     <row r="2823" spans="1:6" x14ac:dyDescent="0.2">
@@ -26698,7 +26542,7 @@
       </c>
       <c r="F2823" s="2">
         <f t="shared" si="7"/>
-        <v>9667799.9999999981</v>
+        <v>7103699.9999999963</v>
       </c>
     </row>
     <row r="2824" spans="1:6" x14ac:dyDescent="0.2">
@@ -26712,7 +26556,7 @@
       </c>
       <c r="F2824" s="2">
         <f t="shared" si="7"/>
-        <v>9374499.9999999981</v>
+        <v>6570599.9999999963</v>
       </c>
     </row>
     <row r="2825" spans="1:6" x14ac:dyDescent="0.2">
@@ -26726,7 +26570,7 @@
       </c>
       <c r="F2825" s="2">
         <f t="shared" si="7"/>
-        <v>9081199.9999999981</v>
+        <v>6037499.9999999963</v>
       </c>
     </row>
     <row r="2826" spans="1:6" x14ac:dyDescent="0.2">
@@ -26740,7 +26584,7 @@
       </c>
       <c r="F2826" s="2">
         <f t="shared" si="7"/>
-        <v>8787899.9999999981</v>
+        <v>5504399.9999999963</v>
       </c>
     </row>
     <row r="2827" spans="1:6" x14ac:dyDescent="0.2">
@@ -26754,7 +26598,7 @@
       </c>
       <c r="F2827" s="2">
         <f t="shared" si="7"/>
-        <v>8494599.9999999981</v>
+        <v>4971299.9999999963</v>
       </c>
     </row>
     <row r="2828" spans="1:6" x14ac:dyDescent="0.2">
@@ -26768,7 +26612,7 @@
       </c>
       <c r="F2828" s="2">
         <f t="shared" si="7"/>
-        <v>8201299.9999999981</v>
+        <v>4438199.9999999963</v>
       </c>
     </row>
     <row r="2829" spans="1:6" x14ac:dyDescent="0.2">
@@ -26782,7 +26626,7 @@
       </c>
       <c r="F2829" s="2">
         <f t="shared" si="7"/>
-        <v>7907999.9999999981</v>
+        <v>3905099.9999999963</v>
       </c>
     </row>
     <row r="2830" spans="1:6" x14ac:dyDescent="0.2">
@@ -26796,7 +26640,7 @@
       </c>
       <c r="F2830" s="2">
         <f t="shared" si="7"/>
-        <v>7614699.9999999981</v>
+        <v>3371999.9999999963</v>
       </c>
     </row>
     <row r="2831" spans="1:6" x14ac:dyDescent="0.2">
@@ -26810,7 +26654,7 @@
       </c>
       <c r="F2831" s="2">
         <f t="shared" si="7"/>
-        <v>7321399.9999999981</v>
+        <v>2838899.9999999963</v>
       </c>
     </row>
     <row r="2832" spans="1:6" x14ac:dyDescent="0.2">
@@ -26824,7 +26668,7 @@
       </c>
       <c r="F2832" s="2">
         <f t="shared" si="7"/>
-        <v>7028099.9999999981</v>
+        <v>2305799.9999999963</v>
       </c>
     </row>
     <row r="2833" spans="1:6" x14ac:dyDescent="0.2">
@@ -26838,7 +26682,7 @@
       </c>
       <c r="F2833" s="2">
         <f t="shared" si="7"/>
-        <v>6734799.9999999981</v>
+        <v>1772699.9999999963</v>
       </c>
     </row>
     <row r="2834" spans="1:6" x14ac:dyDescent="0.2">

--- a/CCSA.xlsx
+++ b/CCSA.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="23127"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="23231"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Rainy\Documents\GitHub\Economics\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9E102038-6836-4C84-9103-F68C8996E964}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{81D97126-AFF2-4441-BBEA-3C8B4BAF9F75}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -157,7 +157,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="5">
+  <cellXfs count="6">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="1" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
@@ -165,6 +165,7 @@
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="165" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="1" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -401,10 +402,10 @@
           </c:dPt>
           <c:xVal>
             <c:numRef>
-              <c:f>'FRED Graph'!$A$2790:$A$2810</c:f>
+              <c:f>'FRED Graph'!$A$2790:$A$2818</c:f>
               <c:numCache>
                 <c:formatCode>yyyy\-mm\-dd</c:formatCode>
-                <c:ptCount val="21"/>
+                <c:ptCount val="29"/>
                 <c:pt idx="0">
                   <c:v>43925</c:v>
                 </c:pt>
@@ -462,21 +463,45 @@
                 <c:pt idx="18" formatCode="yyyy\-mm\-dd;@">
                   <c:v>44051</c:v>
                 </c:pt>
-                <c:pt idx="19">
+                <c:pt idx="19" formatCode="yyyy\-mm\-dd;@">
                   <c:v>44058</c:v>
                 </c:pt>
-                <c:pt idx="20">
+                <c:pt idx="20" formatCode="yyyy\-mm\-dd;@">
                   <c:v>44065</c:v>
+                </c:pt>
+                <c:pt idx="21" formatCode="yyyy\-mm\-dd;@">
+                  <c:v>44072</c:v>
+                </c:pt>
+                <c:pt idx="22" formatCode="yyyy\-mm\-dd;@">
+                  <c:v>44079</c:v>
+                </c:pt>
+                <c:pt idx="23" formatCode="yyyy\-mm\-dd;@">
+                  <c:v>44086</c:v>
+                </c:pt>
+                <c:pt idx="24" formatCode="yyyy\-mm\-dd;@">
+                  <c:v>44093</c:v>
+                </c:pt>
+                <c:pt idx="25" formatCode="yyyy\-mm\-dd;@">
+                  <c:v>44100</c:v>
+                </c:pt>
+                <c:pt idx="26" formatCode="yyyy\-mm\-dd;@">
+                  <c:v>44107</c:v>
+                </c:pt>
+                <c:pt idx="27" formatCode="yyyy\-mm\-dd;@">
+                  <c:v>44114</c:v>
+                </c:pt>
+                <c:pt idx="28" formatCode="yyyy\-mm\-dd;@">
+                  <c:v>44121</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
           </c:xVal>
           <c:yVal>
             <c:numRef>
-              <c:f>'FRED Graph'!$E$2790:$E$2810</c:f>
+              <c:f>'FRED Graph'!$E$2790:$E$2818</c:f>
               <c:numCache>
                 <c:formatCode>0</c:formatCode>
-                <c:ptCount val="21"/>
+                <c:ptCount val="29"/>
                 <c:pt idx="0">
                   <c:v>11914000</c:v>
                 </c:pt>
@@ -539,6 +564,30 @@
                 </c:pt>
                 <c:pt idx="20">
                   <c:v>13292000</c:v>
+                </c:pt>
+                <c:pt idx="21">
+                  <c:v>13544000</c:v>
+                </c:pt>
+                <c:pt idx="22">
+                  <c:v>12747000</c:v>
+                </c:pt>
+                <c:pt idx="23">
+                  <c:v>12747000</c:v>
+                </c:pt>
+                <c:pt idx="24">
+                  <c:v>11979000</c:v>
+                </c:pt>
+                <c:pt idx="25">
+                  <c:v>10594000</c:v>
+                </c:pt>
+                <c:pt idx="26">
+                  <c:v>9398000</c:v>
+                </c:pt>
+                <c:pt idx="27">
+                  <c:v>8465000</c:v>
+                </c:pt>
+                <c:pt idx="28">
+                  <c:v>7756000</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -717,11 +766,11 @@
           </c:marker>
           <c:dLbls>
             <c:dLbl>
-              <c:idx val="24"/>
+              <c:idx val="28"/>
               <c:layout>
                 <c:manualLayout>
-                  <c:x val="-9.9231096461654733E-2"/>
-                  <c:y val="-0.20213186783308074"/>
+                  <c:x val="-4.0427483743637083E-2"/>
+                  <c:y val="-0.18528754551365742"/>
                 </c:manualLayout>
               </c:layout>
               <c:showLegendKey val="0"/>
@@ -733,7 +782,7 @@
               <c:extLst>
                 <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}"/>
                 <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-                  <c16:uniqueId val="{00000011-14FC-45C3-88FA-89CF0E31E72E}"/>
+                  <c16:uniqueId val="{00000011-192F-4F2C-BCB7-70A15C636A83}"/>
                 </c:ext>
               </c:extLst>
             </c:dLbl>
@@ -819,34 +868,34 @@
                 <c:pt idx="18" formatCode="yyyy\-mm\-dd;@">
                   <c:v>44051</c:v>
                 </c:pt>
-                <c:pt idx="19">
+                <c:pt idx="19" formatCode="yyyy\-mm\-dd;@">
                   <c:v>44058</c:v>
                 </c:pt>
-                <c:pt idx="20">
+                <c:pt idx="20" formatCode="yyyy\-mm\-dd;@">
                   <c:v>44065</c:v>
                 </c:pt>
-                <c:pt idx="21">
+                <c:pt idx="21" formatCode="yyyy\-mm\-dd;@">
                   <c:v>44072</c:v>
                 </c:pt>
-                <c:pt idx="22">
+                <c:pt idx="22" formatCode="yyyy\-mm\-dd;@">
                   <c:v>44079</c:v>
                 </c:pt>
-                <c:pt idx="23">
+                <c:pt idx="23" formatCode="yyyy\-mm\-dd;@">
                   <c:v>44086</c:v>
                 </c:pt>
-                <c:pt idx="24">
+                <c:pt idx="24" formatCode="yyyy\-mm\-dd;@">
                   <c:v>44093</c:v>
                 </c:pt>
-                <c:pt idx="25">
+                <c:pt idx="25" formatCode="yyyy\-mm\-dd;@">
                   <c:v>44100</c:v>
                 </c:pt>
-                <c:pt idx="26">
+                <c:pt idx="26" formatCode="yyyy\-mm\-dd;@">
                   <c:v>44107</c:v>
                 </c:pt>
-                <c:pt idx="27">
+                <c:pt idx="27" formatCode="yyyy\-mm\-dd;@">
                   <c:v>44114</c:v>
                 </c:pt>
-                <c:pt idx="28">
+                <c:pt idx="28" formatCode="yyyy\-mm\-dd;@">
                   <c:v>44121</c:v>
                 </c:pt>
                 <c:pt idx="29">
@@ -900,41 +949,53 @@
                 <c:pt idx="12">
                   <c:v>16516869</c:v>
                 </c:pt>
-                <c:pt idx="13" formatCode="General">
+                <c:pt idx="13">
                   <c:v>17321763</c:v>
                 </c:pt>
-                <c:pt idx="14" formatCode="General">
+                <c:pt idx="14">
                   <c:v>16344839</c:v>
                 </c:pt>
-                <c:pt idx="15" formatCode="General">
+                <c:pt idx="15">
                   <c:v>16815346</c:v>
                 </c:pt>
-                <c:pt idx="16" formatCode="General">
+                <c:pt idx="16">
                   <c:v>15832498</c:v>
                 </c:pt>
-                <c:pt idx="17" formatCode="General">
+                <c:pt idx="17">
                   <c:v>15201491</c:v>
                 </c:pt>
-                <c:pt idx="18" formatCode="General">
+                <c:pt idx="18">
                   <c:v>14182946</c:v>
                 </c:pt>
-                <c:pt idx="19" formatCode="General">
+                <c:pt idx="19">
                   <c:v>13869218</c:v>
                 </c:pt>
-                <c:pt idx="20" formatCode="General">
+                <c:pt idx="20">
                   <c:v>13142717</c:v>
                 </c:pt>
-                <c:pt idx="21" formatCode="General">
+                <c:pt idx="21">
                   <c:v>13355586</c:v>
                 </c:pt>
-                <c:pt idx="22" formatCode="General">
+                <c:pt idx="22">
                   <c:v>12440863</c:v>
                 </c:pt>
-                <c:pt idx="23" formatCode="General">
-                  <c:v>12430895</c:v>
+                <c:pt idx="23">
+                  <c:v>12431032</c:v>
                 </c:pt>
-                <c:pt idx="24" formatCode="General">
-                  <c:v>11410703</c:v>
+                <c:pt idx="24">
+                  <c:v>11622396</c:v>
+                </c:pt>
+                <c:pt idx="25">
+                  <c:v>10230506</c:v>
+                </c:pt>
+                <c:pt idx="26">
+                  <c:v>9011067</c:v>
+                </c:pt>
+                <c:pt idx="27">
+                  <c:v>8084859</c:v>
+                </c:pt>
+                <c:pt idx="28">
+                  <c:v>7422454</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -1010,34 +1071,34 @@
                 <c:pt idx="13" formatCode="yyyy\-mm\-dd;@">
                   <c:v>44051</c:v>
                 </c:pt>
-                <c:pt idx="14">
+                <c:pt idx="14" formatCode="yyyy\-mm\-dd;@">
                   <c:v>44058</c:v>
                 </c:pt>
-                <c:pt idx="15">
+                <c:pt idx="15" formatCode="yyyy\-mm\-dd;@">
                   <c:v>44065</c:v>
                 </c:pt>
-                <c:pt idx="16">
+                <c:pt idx="16" formatCode="yyyy\-mm\-dd;@">
                   <c:v>44072</c:v>
                 </c:pt>
-                <c:pt idx="17">
+                <c:pt idx="17" formatCode="yyyy\-mm\-dd;@">
                   <c:v>44079</c:v>
                 </c:pt>
-                <c:pt idx="18">
+                <c:pt idx="18" formatCode="yyyy\-mm\-dd;@">
                   <c:v>44086</c:v>
                 </c:pt>
-                <c:pt idx="19">
+                <c:pt idx="19" formatCode="yyyy\-mm\-dd;@">
                   <c:v>44093</c:v>
                 </c:pt>
-                <c:pt idx="20">
+                <c:pt idx="20" formatCode="yyyy\-mm\-dd;@">
                   <c:v>44100</c:v>
                 </c:pt>
-                <c:pt idx="21">
+                <c:pt idx="21" formatCode="yyyy\-mm\-dd;@">
                   <c:v>44107</c:v>
                 </c:pt>
-                <c:pt idx="22">
+                <c:pt idx="22" formatCode="yyyy\-mm\-dd;@">
                   <c:v>44114</c:v>
                 </c:pt>
-                <c:pt idx="23">
+                <c:pt idx="23" formatCode="yyyy\-mm\-dd;@">
                   <c:v>44121</c:v>
                 </c:pt>
                 <c:pt idx="24">
@@ -1053,79 +1114,79 @@
                 <c:formatCode>0</c:formatCode>
                 <c:ptCount val="25"/>
                 <c:pt idx="0">
-                  <c:v>22030500</c:v>
+                  <c:v>31845899.999999996</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>21497400</c:v>
+                  <c:v>30788399.999999996</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>20964300</c:v>
+                  <c:v>29730899.999999996</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>20431200</c:v>
+                  <c:v>28673399.999999996</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>19898100</c:v>
+                  <c:v>27615899.999999996</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>19365000</c:v>
+                  <c:v>26558399.999999996</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>18831900</c:v>
+                  <c:v>25500900</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>18298800</c:v>
+                  <c:v>24443400</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>17765700</c:v>
+                  <c:v>23385900</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>17232600</c:v>
+                  <c:v>22328400</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>16699500</c:v>
+                  <c:v>21270900</c:v>
                 </c:pt>
                 <c:pt idx="11">
-                  <c:v>16166400</c:v>
+                  <c:v>20213400</c:v>
                 </c:pt>
                 <c:pt idx="12">
-                  <c:v>15633299.999999998</c:v>
+                  <c:v>19155900</c:v>
                 </c:pt>
                 <c:pt idx="13">
-                  <c:v>15100199.999999998</c:v>
+                  <c:v>18098400</c:v>
                 </c:pt>
                 <c:pt idx="14">
-                  <c:v>14567099.999999998</c:v>
+                  <c:v>17040900</c:v>
                 </c:pt>
                 <c:pt idx="15">
-                  <c:v>14033999.999999998</c:v>
+                  <c:v>15983400</c:v>
                 </c:pt>
                 <c:pt idx="16">
-                  <c:v>13500899.999999998</c:v>
+                  <c:v>14925900</c:v>
                 </c:pt>
                 <c:pt idx="17">
-                  <c:v>12967799.999999998</c:v>
+                  <c:v>13868400</c:v>
                 </c:pt>
                 <c:pt idx="18">
-                  <c:v>12434699.999999998</c:v>
+                  <c:v>12810900</c:v>
                 </c:pt>
                 <c:pt idx="19">
-                  <c:v>11901599.999999998</c:v>
+                  <c:v>11753400</c:v>
                 </c:pt>
                 <c:pt idx="20">
-                  <c:v>11368499.999999998</c:v>
+                  <c:v>10695900</c:v>
                 </c:pt>
                 <c:pt idx="21">
-                  <c:v>10835399.999999998</c:v>
+                  <c:v>9638400</c:v>
                 </c:pt>
                 <c:pt idx="22">
-                  <c:v>10302299.999999998</c:v>
+                  <c:v>8580900</c:v>
                 </c:pt>
                 <c:pt idx="23">
-                  <c:v>9769199.9999999981</c:v>
+                  <c:v>7523400</c:v>
                 </c:pt>
                 <c:pt idx="24">
-                  <c:v>9236099.9999999963</c:v>
+                  <c:v>6465900.0000000037</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -1360,7 +1421,7 @@
         <c:axId val="319767456"/>
         <c:scaling>
           <c:orientation val="minMax"/>
-          <c:max val="44100"/>
+          <c:max val="44150"/>
           <c:min val="43920"/>
         </c:scaling>
         <c:delete val="0"/>
@@ -1431,7 +1492,7 @@
           <a:effectLst/>
         </c:spPr>
         <c:txPr>
-          <a:bodyPr rot="0" vert="horz"/>
+          <a:bodyPr rot="-2700000" vert="horz"/>
           <a:lstStyle/>
           <a:p>
             <a:pPr>
@@ -3226,8 +3287,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:M2834"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="C2765" zoomScale="160" zoomScaleNormal="160" workbookViewId="0">
-      <selection activeCell="G2787" sqref="G2787"/>
+    <sheetView tabSelected="1" topLeftCell="C2763" zoomScale="160" zoomScaleNormal="160" workbookViewId="0">
+      <selection activeCell="F2819" sqref="F2819"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="20.7109375" defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
@@ -25511,11 +25572,11 @@
         <v>2074782</v>
       </c>
       <c r="F2787">
-        <f t="array" ref="F2787:G2787">LINEST(E2811:E2814,D2811:D2814,TRUE)</f>
-        <v>-533100.00000000012</v>
+        <f t="array" ref="F2787:G2787">LINEST(E2814:E2818,D2814:D2818,TRUE)</f>
+        <v>-1057499.9999999998</v>
       </c>
       <c r="G2787">
-        <v>22030500</v>
+        <v>31845899.999999996</v>
       </c>
       <c r="L2787">
         <v>-41794.117647058796</v>
@@ -25569,7 +25630,7 @@
         <v>12461658</v>
       </c>
       <c r="E2790" s="2">
-        <f t="shared" ref="E2790:E2814" si="0">B2790</f>
+        <f t="shared" ref="E2790:E2818" si="0">B2790</f>
         <v>11914000</v>
       </c>
       <c r="F2790" s="2"/>
@@ -25753,7 +25814,7 @@
       </c>
       <c r="F2795" s="2">
         <f>$G$2787+($F$2787*D2795)</f>
-        <v>22030500</v>
+        <v>31845899.999999996</v>
       </c>
       <c r="G2795">
         <f t="shared" si="4"/>
@@ -25796,7 +25857,7 @@
       </c>
       <c r="F2796" s="2">
         <f t="shared" ref="F2796:F2833" si="7">$G$2787+($F$2787*D2796)</f>
-        <v>21497400</v>
+        <v>30788399.999999996</v>
       </c>
       <c r="G2796">
         <f t="shared" si="4"/>
@@ -25839,7 +25900,7 @@
       </c>
       <c r="F2797" s="2">
         <f t="shared" si="7"/>
-        <v>20964300</v>
+        <v>29730899.999999996</v>
       </c>
       <c r="G2797">
         <f t="shared" si="4"/>
@@ -25882,7 +25943,7 @@
       </c>
       <c r="F2798" s="2">
         <f t="shared" si="7"/>
-        <v>20431200</v>
+        <v>28673399.999999996</v>
       </c>
       <c r="G2798">
         <f t="shared" si="4"/>
@@ -25925,7 +25986,7 @@
       </c>
       <c r="F2799" s="2">
         <f t="shared" si="7"/>
-        <v>19898100</v>
+        <v>27615899.999999996</v>
       </c>
       <c r="G2799">
         <f t="shared" si="4"/>
@@ -25968,7 +26029,7 @@
       </c>
       <c r="F2800" s="2">
         <f t="shared" si="7"/>
-        <v>19365000</v>
+        <v>26558399.999999996</v>
       </c>
       <c r="G2800">
         <f t="shared" si="4"/>
@@ -26011,7 +26072,7 @@
       </c>
       <c r="F2801" s="2">
         <f t="shared" si="7"/>
-        <v>18831900</v>
+        <v>25500900</v>
       </c>
       <c r="G2801">
         <f t="shared" si="4"/>
@@ -26054,7 +26115,7 @@
       </c>
       <c r="F2802" s="2">
         <f t="shared" si="7"/>
-        <v>18298800</v>
+        <v>24443400</v>
       </c>
       <c r="G2802">
         <f t="shared" si="4"/>
@@ -26078,12 +26139,13 @@
     </row>
     <row r="2803" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A2803" s="4">
+        <f t="shared" si="5"/>
         <v>44016</v>
       </c>
       <c r="B2803">
         <v>17304000</v>
       </c>
-      <c r="C2803">
+      <c r="C2803" s="5">
         <v>17321763</v>
       </c>
       <c r="D2803">
@@ -26096,7 +26158,7 @@
       </c>
       <c r="F2803" s="2">
         <f t="shared" si="7"/>
-        <v>17765700</v>
+        <v>23385900</v>
       </c>
       <c r="H2803" s="1">
         <f t="shared" ref="H2803:I2803" si="9">A2237</f>
@@ -26116,12 +26178,13 @@
     </row>
     <row r="2804" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A2804" s="4">
+        <f t="shared" si="5"/>
         <v>44023</v>
       </c>
       <c r="B2804">
         <v>16151000</v>
       </c>
-      <c r="C2804">
+      <c r="C2804" s="5">
         <v>16344839</v>
       </c>
       <c r="D2804">
@@ -26134,7 +26197,7 @@
       </c>
       <c r="F2804" s="2">
         <f t="shared" si="7"/>
-        <v>17232600</v>
+        <v>22328400</v>
       </c>
       <c r="H2804" s="1">
         <f t="shared" ref="H2804:I2804" si="10">A2238</f>
@@ -26154,12 +26217,13 @@
     </row>
     <row r="2805" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A2805" s="4">
+        <f t="shared" si="5"/>
         <v>44030</v>
       </c>
       <c r="B2805">
         <v>16951000</v>
       </c>
-      <c r="C2805">
+      <c r="C2805" s="5">
         <v>16815346</v>
       </c>
       <c r="D2805">
@@ -26172,7 +26236,7 @@
       </c>
       <c r="F2805" s="2">
         <f t="shared" si="7"/>
-        <v>16699500</v>
+        <v>21270900</v>
       </c>
       <c r="H2805" s="1">
         <f t="shared" ref="H2805:I2805" si="11">A2239</f>
@@ -26192,12 +26256,13 @@
     </row>
     <row r="2806" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A2806" s="4">
+        <f t="shared" si="5"/>
         <v>44037</v>
       </c>
       <c r="B2806">
         <v>16090000</v>
       </c>
-      <c r="C2806">
+      <c r="C2806" s="5">
         <v>15832498</v>
       </c>
       <c r="D2806">
@@ -26210,7 +26275,7 @@
       </c>
       <c r="F2806" s="2">
         <f t="shared" si="7"/>
-        <v>16166400</v>
+        <v>20213400</v>
       </c>
       <c r="H2806" s="1">
         <f t="shared" ref="H2806:I2806" si="12">A2240</f>
@@ -26230,12 +26295,13 @@
     </row>
     <row r="2807" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A2807" s="4">
+        <f t="shared" si="5"/>
         <v>44044</v>
       </c>
       <c r="B2807">
         <v>15480000</v>
       </c>
-      <c r="C2807">
+      <c r="C2807" s="5">
         <v>15201491</v>
       </c>
       <c r="D2807">
@@ -26248,7 +26314,7 @@
       </c>
       <c r="F2807" s="2">
         <f t="shared" si="7"/>
-        <v>15633299.999999998</v>
+        <v>19155900</v>
       </c>
     </row>
     <row r="2808" spans="1:11" x14ac:dyDescent="0.2">
@@ -26259,7 +26325,7 @@
       <c r="B2808">
         <v>14759000</v>
       </c>
-      <c r="C2808">
+      <c r="C2808" s="5">
         <v>14182946</v>
       </c>
       <c r="D2808">
@@ -26272,18 +26338,18 @@
       </c>
       <c r="F2808" s="2">
         <f t="shared" si="7"/>
-        <v>15100199.999999998</v>
+        <v>18098400</v>
       </c>
     </row>
     <row r="2809" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A2809" s="1">
+      <c r="A2809" s="4">
         <f t="shared" si="5"/>
         <v>44058</v>
       </c>
       <c r="B2809">
         <v>14492000</v>
       </c>
-      <c r="C2809">
+      <c r="C2809" s="5">
         <v>13869218</v>
       </c>
       <c r="D2809">
@@ -26296,18 +26362,18 @@
       </c>
       <c r="F2809" s="2">
         <f t="shared" si="7"/>
-        <v>14567099.999999998</v>
+        <v>17040900</v>
       </c>
     </row>
     <row r="2810" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A2810" s="1">
+      <c r="A2810" s="4">
         <f t="shared" si="5"/>
         <v>44065</v>
       </c>
       <c r="B2810">
         <v>13292000</v>
       </c>
-      <c r="C2810">
+      <c r="C2810" s="5">
         <v>13142717</v>
       </c>
       <c r="D2810">
@@ -26320,18 +26386,18 @@
       </c>
       <c r="F2810" s="2">
         <f t="shared" si="7"/>
-        <v>14033999.999999998</v>
+        <v>15983400</v>
       </c>
     </row>
     <row r="2811" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A2811" s="1">
+      <c r="A2811" s="4">
         <f t="shared" si="5"/>
         <v>44072</v>
       </c>
       <c r="B2811">
         <v>13544000</v>
       </c>
-      <c r="C2811">
+      <c r="C2811" s="5">
         <v>13355586</v>
       </c>
       <c r="D2811">
@@ -26344,18 +26410,18 @@
       </c>
       <c r="F2811" s="2">
         <f t="shared" si="7"/>
-        <v>13500899.999999998</v>
+        <v>14925900</v>
       </c>
     </row>
     <row r="2812" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A2812" s="1">
+      <c r="A2812" s="4">
         <f t="shared" si="5"/>
         <v>44079</v>
       </c>
       <c r="B2812">
         <v>12747000</v>
       </c>
-      <c r="C2812">
+      <c r="C2812" s="5">
         <v>12440863</v>
       </c>
       <c r="D2812">
@@ -26368,19 +26434,19 @@
       </c>
       <c r="F2812" s="2">
         <f t="shared" si="7"/>
-        <v>12967799.999999998</v>
+        <v>13868400</v>
       </c>
     </row>
     <row r="2813" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A2813" s="1">
+      <c r="A2813" s="4">
         <f t="shared" si="5"/>
         <v>44086</v>
       </c>
       <c r="B2813">
         <v>12747000</v>
       </c>
-      <c r="C2813">
-        <v>12430895</v>
+      <c r="C2813" s="5">
+        <v>12431032</v>
       </c>
       <c r="D2813">
         <f t="shared" si="8"/>
@@ -26392,19 +26458,19 @@
       </c>
       <c r="F2813" s="2">
         <f t="shared" si="7"/>
-        <v>12434699.999999998</v>
+        <v>12810900</v>
       </c>
     </row>
     <row r="2814" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A2814" s="1">
+      <c r="A2814" s="4">
         <f t="shared" si="5"/>
         <v>44093</v>
       </c>
       <c r="B2814">
-        <v>11767000</v>
-      </c>
-      <c r="C2814">
-        <v>11410703</v>
+        <v>11979000</v>
+      </c>
+      <c r="C2814" s="5">
+        <v>11622396</v>
       </c>
       <c r="D2814">
         <f t="shared" si="8"/>
@@ -26412,67 +26478,107 @@
       </c>
       <c r="E2814" s="2">
         <f t="shared" si="0"/>
-        <v>11767000</v>
+        <v>11979000</v>
       </c>
       <c r="F2814" s="2">
         <f t="shared" si="7"/>
-        <v>11901599.999999998</v>
+        <v>11753400</v>
       </c>
     </row>
     <row r="2815" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A2815" s="1">
+      <c r="A2815" s="4">
         <f t="shared" si="5"/>
         <v>44100</v>
+      </c>
+      <c r="B2815">
+        <v>10594000</v>
+      </c>
+      <c r="C2815" s="5">
+        <v>10230506</v>
       </c>
       <c r="D2815">
         <f t="shared" si="8"/>
         <v>20</v>
       </c>
+      <c r="E2815" s="5">
+        <f t="shared" si="0"/>
+        <v>10594000</v>
+      </c>
       <c r="F2815" s="2">
         <f t="shared" si="7"/>
-        <v>11368499.999999998</v>
+        <v>10695900</v>
       </c>
     </row>
     <row r="2816" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A2816" s="1">
+      <c r="A2816" s="4">
         <f t="shared" si="5"/>
         <v>44107</v>
+      </c>
+      <c r="B2816">
+        <v>9398000</v>
+      </c>
+      <c r="C2816" s="5">
+        <v>9011067</v>
       </c>
       <c r="D2816">
         <f t="shared" si="8"/>
         <v>21</v>
       </c>
+      <c r="E2816" s="5">
+        <f t="shared" si="0"/>
+        <v>9398000</v>
+      </c>
       <c r="F2816" s="2">
         <f t="shared" si="7"/>
-        <v>10835399.999999998</v>
+        <v>9638400</v>
       </c>
     </row>
     <row r="2817" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A2817" s="1">
+      <c r="A2817" s="4">
         <f t="shared" si="5"/>
         <v>44114</v>
+      </c>
+      <c r="B2817">
+        <v>8465000</v>
+      </c>
+      <c r="C2817" s="5">
+        <v>8084859</v>
       </c>
       <c r="D2817">
         <f t="shared" si="8"/>
         <v>22</v>
       </c>
+      <c r="E2817" s="5">
+        <f t="shared" si="0"/>
+        <v>8465000</v>
+      </c>
       <c r="F2817" s="2">
         <f t="shared" si="7"/>
-        <v>10302299.999999998</v>
+        <v>8580900</v>
       </c>
     </row>
     <row r="2818" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A2818" s="1">
+      <c r="A2818" s="4">
         <f t="shared" si="5"/>
         <v>44121</v>
+      </c>
+      <c r="B2818">
+        <v>7756000</v>
+      </c>
+      <c r="C2818" s="5">
+        <v>7422454</v>
       </c>
       <c r="D2818">
         <f t="shared" si="8"/>
         <v>23</v>
       </c>
+      <c r="E2818" s="5">
+        <f t="shared" si="0"/>
+        <v>7756000</v>
+      </c>
       <c r="F2818" s="2">
         <f t="shared" si="7"/>
-        <v>9769199.9999999981</v>
+        <v>7523400</v>
       </c>
     </row>
     <row r="2819" spans="1:6" x14ac:dyDescent="0.2">
@@ -26486,7 +26592,7 @@
       </c>
       <c r="F2819" s="2">
         <f t="shared" si="7"/>
-        <v>9236099.9999999963</v>
+        <v>6465900.0000000037</v>
       </c>
     </row>
     <row r="2820" spans="1:6" x14ac:dyDescent="0.2">
@@ -26500,7 +26606,7 @@
       </c>
       <c r="F2820" s="2">
         <f t="shared" si="7"/>
-        <v>8702999.9999999963</v>
+        <v>5408400.0000000037</v>
       </c>
     </row>
     <row r="2821" spans="1:6" x14ac:dyDescent="0.2">
@@ -26514,7 +26620,7 @@
       </c>
       <c r="F2821" s="2">
         <f t="shared" si="7"/>
-        <v>8169899.9999999963</v>
+        <v>4350900.0000000037</v>
       </c>
     </row>
     <row r="2822" spans="1:6" x14ac:dyDescent="0.2">
@@ -26528,7 +26634,7 @@
       </c>
       <c r="F2822" s="2">
         <f t="shared" si="7"/>
-        <v>7636799.9999999963</v>
+        <v>3293400.0000000037</v>
       </c>
     </row>
     <row r="2823" spans="1:6" x14ac:dyDescent="0.2">
@@ -26542,7 +26648,7 @@
       </c>
       <c r="F2823" s="2">
         <f t="shared" si="7"/>
-        <v>7103699.9999999963</v>
+        <v>2235900.0000000037</v>
       </c>
     </row>
     <row r="2824" spans="1:6" x14ac:dyDescent="0.2">
@@ -26556,7 +26662,7 @@
       </c>
       <c r="F2824" s="2">
         <f t="shared" si="7"/>
-        <v>6570599.9999999963</v>
+        <v>1178400.0000000037</v>
       </c>
     </row>
     <row r="2825" spans="1:6" x14ac:dyDescent="0.2">
@@ -26570,7 +26676,7 @@
       </c>
       <c r="F2825" s="2">
         <f t="shared" si="7"/>
-        <v>6037499.9999999963</v>
+        <v>120900.00000000373</v>
       </c>
     </row>
     <row r="2826" spans="1:6" x14ac:dyDescent="0.2">
@@ -26584,7 +26690,7 @@
       </c>
       <c r="F2826" s="2">
         <f t="shared" si="7"/>
-        <v>5504399.9999999963</v>
+        <v>-936599.99999999627</v>
       </c>
     </row>
     <row r="2827" spans="1:6" x14ac:dyDescent="0.2">
@@ -26598,7 +26704,7 @@
       </c>
       <c r="F2827" s="2">
         <f t="shared" si="7"/>
-        <v>4971299.9999999963</v>
+        <v>-1994099.9999999963</v>
       </c>
     </row>
     <row r="2828" spans="1:6" x14ac:dyDescent="0.2">
@@ -26612,7 +26718,7 @@
       </c>
       <c r="F2828" s="2">
         <f t="shared" si="7"/>
-        <v>4438199.9999999963</v>
+        <v>-3051599.9999999963</v>
       </c>
     </row>
     <row r="2829" spans="1:6" x14ac:dyDescent="0.2">
@@ -26626,7 +26732,7 @@
       </c>
       <c r="F2829" s="2">
         <f t="shared" si="7"/>
-        <v>3905099.9999999963</v>
+        <v>-4109099.9999999963</v>
       </c>
     </row>
     <row r="2830" spans="1:6" x14ac:dyDescent="0.2">
@@ -26640,7 +26746,7 @@
       </c>
       <c r="F2830" s="2">
         <f t="shared" si="7"/>
-        <v>3371999.9999999963</v>
+        <v>-5166599.9999999963</v>
       </c>
     </row>
     <row r="2831" spans="1:6" x14ac:dyDescent="0.2">
@@ -26654,7 +26760,7 @@
       </c>
       <c r="F2831" s="2">
         <f t="shared" si="7"/>
-        <v>2838899.9999999963</v>
+        <v>-6224099.9999999963</v>
       </c>
     </row>
     <row r="2832" spans="1:6" x14ac:dyDescent="0.2">
@@ -26668,7 +26774,7 @@
       </c>
       <c r="F2832" s="2">
         <f t="shared" si="7"/>
-        <v>2305799.9999999963</v>
+        <v>-7281599.9999999963</v>
       </c>
     </row>
     <row r="2833" spans="1:6" x14ac:dyDescent="0.2">
@@ -26682,7 +26788,7 @@
       </c>
       <c r="F2833" s="2">
         <f t="shared" si="7"/>
-        <v>1772699.9999999963</v>
+        <v>-8339099.9999999963</v>
       </c>
     </row>
     <row r="2834" spans="1:6" x14ac:dyDescent="0.2">

--- a/CCSA.xlsx
+++ b/CCSA.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="23231"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="23328"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Rainy\Documents\GitHub\Economics\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{81D97126-AFF2-4441-BBEA-3C8B4BAF9F75}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{133901EA-F006-45FC-B127-76ADE25769CB}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -402,10 +402,10 @@
           </c:dPt>
           <c:xVal>
             <c:numRef>
-              <c:f>'FRED Graph'!$A$2790:$A$2818</c:f>
+              <c:f>'FRED Graph'!$A$2790:$A$2834</c:f>
               <c:numCache>
                 <c:formatCode>yyyy\-mm\-dd</c:formatCode>
-                <c:ptCount val="29"/>
+                <c:ptCount val="45"/>
                 <c:pt idx="0">
                   <c:v>43925</c:v>
                 </c:pt>
@@ -492,16 +492,64 @@
                 </c:pt>
                 <c:pt idx="28" formatCode="yyyy\-mm\-dd;@">
                   <c:v>44121</c:v>
+                </c:pt>
+                <c:pt idx="29">
+                  <c:v>44128</c:v>
+                </c:pt>
+                <c:pt idx="30">
+                  <c:v>44135</c:v>
+                </c:pt>
+                <c:pt idx="31">
+                  <c:v>44142</c:v>
+                </c:pt>
+                <c:pt idx="32">
+                  <c:v>44149</c:v>
+                </c:pt>
+                <c:pt idx="33">
+                  <c:v>44156</c:v>
+                </c:pt>
+                <c:pt idx="34">
+                  <c:v>44163</c:v>
+                </c:pt>
+                <c:pt idx="35">
+                  <c:v>44170</c:v>
+                </c:pt>
+                <c:pt idx="36">
+                  <c:v>44177</c:v>
+                </c:pt>
+                <c:pt idx="37">
+                  <c:v>44184</c:v>
+                </c:pt>
+                <c:pt idx="38">
+                  <c:v>44191</c:v>
+                </c:pt>
+                <c:pt idx="39">
+                  <c:v>44198</c:v>
+                </c:pt>
+                <c:pt idx="40">
+                  <c:v>44205</c:v>
+                </c:pt>
+                <c:pt idx="41">
+                  <c:v>44212</c:v>
+                </c:pt>
+                <c:pt idx="42">
+                  <c:v>44219</c:v>
+                </c:pt>
+                <c:pt idx="43">
+                  <c:v>44226</c:v>
+                </c:pt>
+                <c:pt idx="44">
+                  <c:v>44233</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
           </c:xVal>
           <c:yVal>
             <c:numRef>
-              <c:f>'FRED Graph'!$E$2790:$E$2818</c:f>
+              <c:f>'FRED Graph'!$E$2790:$E$2834</c:f>
               <c:numCache>
                 <c:formatCode>0</c:formatCode>
-                <c:ptCount val="29"/>
+                <c:ptCount val="45"/>
                 <c:pt idx="0">
                   <c:v>11914000</c:v>
                 </c:pt>
@@ -584,10 +632,22 @@
                   <c:v>9398000</c:v>
                 </c:pt>
                 <c:pt idx="27">
-                  <c:v>8465000</c:v>
+                  <c:v>8472000</c:v>
                 </c:pt>
                 <c:pt idx="28">
-                  <c:v>7756000</c:v>
+                  <c:v>7823000</c:v>
+                </c:pt>
+                <c:pt idx="29">
+                  <c:v>7222000</c:v>
+                </c:pt>
+                <c:pt idx="30">
+                  <c:v>6798000</c:v>
+                </c:pt>
+                <c:pt idx="31">
+                  <c:v>6370000</c:v>
+                </c:pt>
+                <c:pt idx="32">
+                  <c:v>6071000</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -601,7 +661,7 @@
         </c:ser>
         <c:ser>
           <c:idx val="2"/>
-          <c:order val="3"/>
+          <c:order val="2"/>
           <c:tx>
             <c:v>2008 Peak</c:v>
           </c:tx>
@@ -618,10 +678,10 @@
           </c:marker>
           <c:xVal>
             <c:numRef>
-              <c:f>'FRED Graph'!$A$2790:$A$2805</c:f>
+              <c:f>'FRED Graph'!$A$2790:$A$2834</c:f>
               <c:numCache>
                 <c:formatCode>yyyy\-mm\-dd</c:formatCode>
-                <c:ptCount val="16"/>
+                <c:ptCount val="45"/>
                 <c:pt idx="0">
                   <c:v>43925</c:v>
                 </c:pt>
@@ -669,16 +729,103 @@
                 </c:pt>
                 <c:pt idx="15" formatCode="yyyy\-mm\-dd;@">
                   <c:v>44030</c:v>
+                </c:pt>
+                <c:pt idx="16" formatCode="yyyy\-mm\-dd;@">
+                  <c:v>44037</c:v>
+                </c:pt>
+                <c:pt idx="17" formatCode="yyyy\-mm\-dd;@">
+                  <c:v>44044</c:v>
+                </c:pt>
+                <c:pt idx="18" formatCode="yyyy\-mm\-dd;@">
+                  <c:v>44051</c:v>
+                </c:pt>
+                <c:pt idx="19" formatCode="yyyy\-mm\-dd;@">
+                  <c:v>44058</c:v>
+                </c:pt>
+                <c:pt idx="20" formatCode="yyyy\-mm\-dd;@">
+                  <c:v>44065</c:v>
+                </c:pt>
+                <c:pt idx="21" formatCode="yyyy\-mm\-dd;@">
+                  <c:v>44072</c:v>
+                </c:pt>
+                <c:pt idx="22" formatCode="yyyy\-mm\-dd;@">
+                  <c:v>44079</c:v>
+                </c:pt>
+                <c:pt idx="23" formatCode="yyyy\-mm\-dd;@">
+                  <c:v>44086</c:v>
+                </c:pt>
+                <c:pt idx="24" formatCode="yyyy\-mm\-dd;@">
+                  <c:v>44093</c:v>
+                </c:pt>
+                <c:pt idx="25" formatCode="yyyy\-mm\-dd;@">
+                  <c:v>44100</c:v>
+                </c:pt>
+                <c:pt idx="26" formatCode="yyyy\-mm\-dd;@">
+                  <c:v>44107</c:v>
+                </c:pt>
+                <c:pt idx="27" formatCode="yyyy\-mm\-dd;@">
+                  <c:v>44114</c:v>
+                </c:pt>
+                <c:pt idx="28" formatCode="yyyy\-mm\-dd;@">
+                  <c:v>44121</c:v>
+                </c:pt>
+                <c:pt idx="29">
+                  <c:v>44128</c:v>
+                </c:pt>
+                <c:pt idx="30">
+                  <c:v>44135</c:v>
+                </c:pt>
+                <c:pt idx="31">
+                  <c:v>44142</c:v>
+                </c:pt>
+                <c:pt idx="32">
+                  <c:v>44149</c:v>
+                </c:pt>
+                <c:pt idx="33">
+                  <c:v>44156</c:v>
+                </c:pt>
+                <c:pt idx="34">
+                  <c:v>44163</c:v>
+                </c:pt>
+                <c:pt idx="35">
+                  <c:v>44170</c:v>
+                </c:pt>
+                <c:pt idx="36">
+                  <c:v>44177</c:v>
+                </c:pt>
+                <c:pt idx="37">
+                  <c:v>44184</c:v>
+                </c:pt>
+                <c:pt idx="38">
+                  <c:v>44191</c:v>
+                </c:pt>
+                <c:pt idx="39">
+                  <c:v>44198</c:v>
+                </c:pt>
+                <c:pt idx="40">
+                  <c:v>44205</c:v>
+                </c:pt>
+                <c:pt idx="41">
+                  <c:v>44212</c:v>
+                </c:pt>
+                <c:pt idx="42">
+                  <c:v>44219</c:v>
+                </c:pt>
+                <c:pt idx="43">
+                  <c:v>44226</c:v>
+                </c:pt>
+                <c:pt idx="44">
+                  <c:v>44233</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
           </c:xVal>
           <c:yVal>
             <c:numRef>
-              <c:f>'FRED Graph'!$G$2790:$G$2805</c:f>
+              <c:f>'FRED Graph'!$G$2790:$G$2834</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="16"/>
+                <c:ptCount val="45"/>
                 <c:pt idx="0" formatCode="0">
                   <c:v>6635000</c:v>
                 </c:pt>
@@ -716,6 +863,66 @@
                   <c:v>6635000</c:v>
                 </c:pt>
                 <c:pt idx="12">
+                  <c:v>6635000</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>6635000</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>6635000</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>6635000</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>6635000</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>6635000</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>6635000</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>6635000</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>6635000</c:v>
+                </c:pt>
+                <c:pt idx="21">
+                  <c:v>6635000</c:v>
+                </c:pt>
+                <c:pt idx="22">
+                  <c:v>6635000</c:v>
+                </c:pt>
+                <c:pt idx="23">
+                  <c:v>6635000</c:v>
+                </c:pt>
+                <c:pt idx="24">
+                  <c:v>6635000</c:v>
+                </c:pt>
+                <c:pt idx="25">
+                  <c:v>6635000</c:v>
+                </c:pt>
+                <c:pt idx="26">
+                  <c:v>6635000</c:v>
+                </c:pt>
+                <c:pt idx="27">
+                  <c:v>6635000</c:v>
+                </c:pt>
+                <c:pt idx="28">
+                  <c:v>6635000</c:v>
+                </c:pt>
+                <c:pt idx="29">
+                  <c:v>6635000</c:v>
+                </c:pt>
+                <c:pt idx="30">
+                  <c:v>6635000</c:v>
+                </c:pt>
+                <c:pt idx="31">
+                  <c:v>6635000</c:v>
+                </c:pt>
+                <c:pt idx="32">
                   <c:v>6635000</c:v>
                 </c:pt>
               </c:numCache>
@@ -766,11 +973,11 @@
           </c:marker>
           <c:dLbls>
             <c:dLbl>
-              <c:idx val="28"/>
+              <c:idx val="32"/>
               <c:layout>
                 <c:manualLayout>
-                  <c:x val="-4.0427483743637083E-2"/>
-                  <c:y val="-0.18528754551365742"/>
+                  <c:x val="-6.9829290102645936E-2"/>
+                  <c:y val="-0.18107646493380147"/>
                 </c:manualLayout>
               </c:layout>
               <c:showLegendKey val="0"/>
@@ -782,7 +989,7 @@
               <c:extLst>
                 <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}"/>
                 <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-                  <c16:uniqueId val="{00000011-192F-4F2C-BCB7-70A15C636A83}"/>
+                  <c16:uniqueId val="{00000011-4B5B-4A30-9A78-93680915A544}"/>
                 </c:ext>
               </c:extLst>
             </c:dLbl>
@@ -807,10 +1014,10 @@
           </c:dLbls>
           <c:xVal>
             <c:numRef>
-              <c:f>'FRED Graph'!$A$2790:$A$2819</c:f>
+              <c:f>'FRED Graph'!$A$2790:$A$2834</c:f>
               <c:numCache>
                 <c:formatCode>yyyy\-mm\-dd</c:formatCode>
-                <c:ptCount val="30"/>
+                <c:ptCount val="45"/>
                 <c:pt idx="0">
                   <c:v>43925</c:v>
                 </c:pt>
@@ -900,16 +1107,61 @@
                 </c:pt>
                 <c:pt idx="29">
                   <c:v>44128</c:v>
+                </c:pt>
+                <c:pt idx="30">
+                  <c:v>44135</c:v>
+                </c:pt>
+                <c:pt idx="31">
+                  <c:v>44142</c:v>
+                </c:pt>
+                <c:pt idx="32">
+                  <c:v>44149</c:v>
+                </c:pt>
+                <c:pt idx="33">
+                  <c:v>44156</c:v>
+                </c:pt>
+                <c:pt idx="34">
+                  <c:v>44163</c:v>
+                </c:pt>
+                <c:pt idx="35">
+                  <c:v>44170</c:v>
+                </c:pt>
+                <c:pt idx="36">
+                  <c:v>44177</c:v>
+                </c:pt>
+                <c:pt idx="37">
+                  <c:v>44184</c:v>
+                </c:pt>
+                <c:pt idx="38">
+                  <c:v>44191</c:v>
+                </c:pt>
+                <c:pt idx="39">
+                  <c:v>44198</c:v>
+                </c:pt>
+                <c:pt idx="40">
+                  <c:v>44205</c:v>
+                </c:pt>
+                <c:pt idx="41">
+                  <c:v>44212</c:v>
+                </c:pt>
+                <c:pt idx="42">
+                  <c:v>44219</c:v>
+                </c:pt>
+                <c:pt idx="43">
+                  <c:v>44226</c:v>
+                </c:pt>
+                <c:pt idx="44">
+                  <c:v>44233</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
           </c:xVal>
           <c:yVal>
             <c:numRef>
-              <c:f>'FRED Graph'!$C$2790:$C$2819</c:f>
+              <c:f>'FRED Graph'!$C$2790:$C$2834</c:f>
               <c:numCache>
                 <c:formatCode>0</c:formatCode>
-                <c:ptCount val="30"/>
+                <c:ptCount val="45"/>
                 <c:pt idx="0">
                   <c:v>12461658</c:v>
                 </c:pt>
@@ -949,53 +1201,65 @@
                 <c:pt idx="12">
                   <c:v>16516869</c:v>
                 </c:pt>
-                <c:pt idx="13">
+                <c:pt idx="13" formatCode="General">
                   <c:v>17321763</c:v>
                 </c:pt>
-                <c:pt idx="14">
+                <c:pt idx="14" formatCode="General">
                   <c:v>16344839</c:v>
                 </c:pt>
-                <c:pt idx="15">
+                <c:pt idx="15" formatCode="General">
                   <c:v>16815346</c:v>
                 </c:pt>
-                <c:pt idx="16">
+                <c:pt idx="16" formatCode="General">
                   <c:v>15832498</c:v>
                 </c:pt>
-                <c:pt idx="17">
+                <c:pt idx="17" formatCode="General">
                   <c:v>15201491</c:v>
                 </c:pt>
-                <c:pt idx="18">
+                <c:pt idx="18" formatCode="General">
                   <c:v>14182946</c:v>
                 </c:pt>
-                <c:pt idx="19">
+                <c:pt idx="19" formatCode="General">
                   <c:v>13869218</c:v>
                 </c:pt>
-                <c:pt idx="20">
+                <c:pt idx="20" formatCode="General">
                   <c:v>13142717</c:v>
                 </c:pt>
-                <c:pt idx="21">
+                <c:pt idx="21" formatCode="General">
                   <c:v>13355586</c:v>
                 </c:pt>
-                <c:pt idx="22">
+                <c:pt idx="22" formatCode="General">
                   <c:v>12440863</c:v>
                 </c:pt>
-                <c:pt idx="23">
+                <c:pt idx="23" formatCode="General">
                   <c:v>12431032</c:v>
                 </c:pt>
-                <c:pt idx="24">
+                <c:pt idx="24" formatCode="General">
                   <c:v>11622396</c:v>
                 </c:pt>
-                <c:pt idx="25">
+                <c:pt idx="25" formatCode="General">
                   <c:v>10230506</c:v>
                 </c:pt>
-                <c:pt idx="26">
+                <c:pt idx="26" formatCode="General">
                   <c:v>9011067</c:v>
                 </c:pt>
-                <c:pt idx="27">
-                  <c:v>8084859</c:v>
-                </c:pt>
-                <c:pt idx="28">
-                  <c:v>7422454</c:v>
+                <c:pt idx="27" formatCode="General">
+                  <c:v>8091731</c:v>
+                </c:pt>
+                <c:pt idx="28" formatCode="General">
+                  <c:v>7489704</c:v>
+                </c:pt>
+                <c:pt idx="29" formatCode="General">
+                  <c:v>6888363</c:v>
+                </c:pt>
+                <c:pt idx="30" formatCode="General">
+                  <c:v>6498415</c:v>
+                </c:pt>
+                <c:pt idx="31" formatCode="General">
+                  <c:v>6079582</c:v>
+                </c:pt>
+                <c:pt idx="32" formatCode="General">
+                  <c:v>5911965</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -1008,199 +1272,8 @@
           </c:extLst>
         </c:ser>
         <c:ser>
-          <c:idx val="4"/>
-          <c:order val="2"/>
-          <c:tx>
-            <c:v>Lin. Projection</c:v>
-          </c:tx>
-          <c:spPr>
-            <a:ln w="19050">
-              <a:solidFill>
-                <a:schemeClr val="accent1"/>
-              </a:solidFill>
-            </a:ln>
-          </c:spPr>
-          <c:marker>
-            <c:symbol val="none"/>
-          </c:marker>
-          <c:xVal>
-            <c:numRef>
-              <c:f>'FRED Graph'!$A$2795:$A$2819</c:f>
-              <c:numCache>
-                <c:formatCode>yyyy\-mm\-dd</c:formatCode>
-                <c:ptCount val="25"/>
-                <c:pt idx="0">
-                  <c:v>43960</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>43967</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>43974</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>43981</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>43988</c:v>
-                </c:pt>
-                <c:pt idx="5">
-                  <c:v>43995</c:v>
-                </c:pt>
-                <c:pt idx="6">
-                  <c:v>44002</c:v>
-                </c:pt>
-                <c:pt idx="7" formatCode="yyyy\-mm\-dd;@">
-                  <c:v>44009</c:v>
-                </c:pt>
-                <c:pt idx="8" formatCode="yyyy\-mm\-dd;@">
-                  <c:v>44016</c:v>
-                </c:pt>
-                <c:pt idx="9" formatCode="yyyy\-mm\-dd;@">
-                  <c:v>44023</c:v>
-                </c:pt>
-                <c:pt idx="10" formatCode="yyyy\-mm\-dd;@">
-                  <c:v>44030</c:v>
-                </c:pt>
-                <c:pt idx="11" formatCode="yyyy\-mm\-dd;@">
-                  <c:v>44037</c:v>
-                </c:pt>
-                <c:pt idx="12" formatCode="yyyy\-mm\-dd;@">
-                  <c:v>44044</c:v>
-                </c:pt>
-                <c:pt idx="13" formatCode="yyyy\-mm\-dd;@">
-                  <c:v>44051</c:v>
-                </c:pt>
-                <c:pt idx="14" formatCode="yyyy\-mm\-dd;@">
-                  <c:v>44058</c:v>
-                </c:pt>
-                <c:pt idx="15" formatCode="yyyy\-mm\-dd;@">
-                  <c:v>44065</c:v>
-                </c:pt>
-                <c:pt idx="16" formatCode="yyyy\-mm\-dd;@">
-                  <c:v>44072</c:v>
-                </c:pt>
-                <c:pt idx="17" formatCode="yyyy\-mm\-dd;@">
-                  <c:v>44079</c:v>
-                </c:pt>
-                <c:pt idx="18" formatCode="yyyy\-mm\-dd;@">
-                  <c:v>44086</c:v>
-                </c:pt>
-                <c:pt idx="19" formatCode="yyyy\-mm\-dd;@">
-                  <c:v>44093</c:v>
-                </c:pt>
-                <c:pt idx="20" formatCode="yyyy\-mm\-dd;@">
-                  <c:v>44100</c:v>
-                </c:pt>
-                <c:pt idx="21" formatCode="yyyy\-mm\-dd;@">
-                  <c:v>44107</c:v>
-                </c:pt>
-                <c:pt idx="22" formatCode="yyyy\-mm\-dd;@">
-                  <c:v>44114</c:v>
-                </c:pt>
-                <c:pt idx="23" formatCode="yyyy\-mm\-dd;@">
-                  <c:v>44121</c:v>
-                </c:pt>
-                <c:pt idx="24">
-                  <c:v>44128</c:v>
-                </c:pt>
-              </c:numCache>
-            </c:numRef>
-          </c:xVal>
-          <c:yVal>
-            <c:numRef>
-              <c:f>'FRED Graph'!$F$2795:$F$2819</c:f>
-              <c:numCache>
-                <c:formatCode>0</c:formatCode>
-                <c:ptCount val="25"/>
-                <c:pt idx="0">
-                  <c:v>31845899.999999996</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>30788399.999999996</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>29730899.999999996</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>28673399.999999996</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>27615899.999999996</c:v>
-                </c:pt>
-                <c:pt idx="5">
-                  <c:v>26558399.999999996</c:v>
-                </c:pt>
-                <c:pt idx="6">
-                  <c:v>25500900</c:v>
-                </c:pt>
-                <c:pt idx="7">
-                  <c:v>24443400</c:v>
-                </c:pt>
-                <c:pt idx="8">
-                  <c:v>23385900</c:v>
-                </c:pt>
-                <c:pt idx="9">
-                  <c:v>22328400</c:v>
-                </c:pt>
-                <c:pt idx="10">
-                  <c:v>21270900</c:v>
-                </c:pt>
-                <c:pt idx="11">
-                  <c:v>20213400</c:v>
-                </c:pt>
-                <c:pt idx="12">
-                  <c:v>19155900</c:v>
-                </c:pt>
-                <c:pt idx="13">
-                  <c:v>18098400</c:v>
-                </c:pt>
-                <c:pt idx="14">
-                  <c:v>17040900</c:v>
-                </c:pt>
-                <c:pt idx="15">
-                  <c:v>15983400</c:v>
-                </c:pt>
-                <c:pt idx="16">
-                  <c:v>14925900</c:v>
-                </c:pt>
-                <c:pt idx="17">
-                  <c:v>13868400</c:v>
-                </c:pt>
-                <c:pt idx="18">
-                  <c:v>12810900</c:v>
-                </c:pt>
-                <c:pt idx="19">
-                  <c:v>11753400</c:v>
-                </c:pt>
-                <c:pt idx="20">
-                  <c:v>10695900</c:v>
-                </c:pt>
-                <c:pt idx="21">
-                  <c:v>9638400</c:v>
-                </c:pt>
-                <c:pt idx="22">
-                  <c:v>8580900</c:v>
-                </c:pt>
-                <c:pt idx="23">
-                  <c:v>7523400</c:v>
-                </c:pt>
-                <c:pt idx="24">
-                  <c:v>6465900.0000000037</c:v>
-                </c:pt>
-              </c:numCache>
-            </c:numRef>
-          </c:yVal>
-          <c:smooth val="0"/>
-          <c:extLst>
-            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{0000000F-8E70-4620-A5D3-02867E777C38}"/>
-            </c:ext>
-          </c:extLst>
-        </c:ser>
-        <c:ser>
           <c:idx val="3"/>
-          <c:order val="4"/>
+          <c:order val="3"/>
           <c:tx>
             <c:v>2008 CCSA Data From Peak</c:v>
           </c:tx>
@@ -1421,7 +1494,7 @@
         <c:axId val="319767456"/>
         <c:scaling>
           <c:orientation val="minMax"/>
-          <c:max val="44150"/>
+          <c:max val="44164"/>
           <c:min val="43920"/>
         </c:scaling>
         <c:delete val="0"/>
@@ -3288,7 +3361,7 @@
   <dimension ref="A1:M2834"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="C2763" zoomScale="160" zoomScaleNormal="160" workbookViewId="0">
-      <selection activeCell="F2819" sqref="F2819"/>
+      <selection activeCell="H2765" sqref="H2765"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="20.7109375" defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
@@ -25573,10 +25646,10 @@
       </c>
       <c r="F2787">
         <f t="array" ref="F2787:G2787">LINEST(E2814:E2818,D2814:D2818,TRUE)</f>
-        <v>-1057499.9999999998</v>
+        <v>-1043399.9999999997</v>
       </c>
       <c r="G2787">
-        <v>31845899.999999996</v>
+        <v>31564599.999999993</v>
       </c>
       <c r="L2787">
         <v>-41794.117647058796</v>
@@ -25630,7 +25703,7 @@
         <v>12461658</v>
       </c>
       <c r="E2790" s="2">
-        <f t="shared" ref="E2790:E2818" si="0">B2790</f>
+        <f t="shared" ref="E2790:E2822" si="0">B2790</f>
         <v>11914000</v>
       </c>
       <c r="F2790" s="2"/>
@@ -25705,7 +25778,7 @@
       </c>
       <c r="F2792" s="2"/>
       <c r="G2792">
-        <f t="shared" ref="G2792:G2802" si="4">G2791</f>
+        <f t="shared" ref="G2792:G2822" si="4">G2791</f>
         <v>6635000</v>
       </c>
       <c r="H2792" s="1">
@@ -25814,7 +25887,7 @@
       </c>
       <c r="F2795" s="2">
         <f>$G$2787+($F$2787*D2795)</f>
-        <v>31845899.999999996</v>
+        <v>31564599.999999993</v>
       </c>
       <c r="G2795">
         <f t="shared" si="4"/>
@@ -25857,7 +25930,7 @@
       </c>
       <c r="F2796" s="2">
         <f t="shared" ref="F2796:F2833" si="7">$G$2787+($F$2787*D2796)</f>
-        <v>30788399.999999996</v>
+        <v>30521199.999999993</v>
       </c>
       <c r="G2796">
         <f t="shared" si="4"/>
@@ -25900,7 +25973,7 @@
       </c>
       <c r="F2797" s="2">
         <f t="shared" si="7"/>
-        <v>29730899.999999996</v>
+        <v>29477799.999999993</v>
       </c>
       <c r="G2797">
         <f t="shared" si="4"/>
@@ -25943,7 +26016,7 @@
       </c>
       <c r="F2798" s="2">
         <f t="shared" si="7"/>
-        <v>28673399.999999996</v>
+        <v>28434399.999999993</v>
       </c>
       <c r="G2798">
         <f t="shared" si="4"/>
@@ -25986,7 +26059,7 @@
       </c>
       <c r="F2799" s="2">
         <f t="shared" si="7"/>
-        <v>27615899.999999996</v>
+        <v>27390999.999999993</v>
       </c>
       <c r="G2799">
         <f t="shared" si="4"/>
@@ -26029,7 +26102,7 @@
       </c>
       <c r="F2800" s="2">
         <f t="shared" si="7"/>
-        <v>26558399.999999996</v>
+        <v>26347599.999999993</v>
       </c>
       <c r="G2800">
         <f t="shared" si="4"/>
@@ -26072,7 +26145,7 @@
       </c>
       <c r="F2801" s="2">
         <f t="shared" si="7"/>
-        <v>25500900</v>
+        <v>25304199.999999993</v>
       </c>
       <c r="G2801">
         <f t="shared" si="4"/>
@@ -26115,7 +26188,7 @@
       </c>
       <c r="F2802" s="2">
         <f t="shared" si="7"/>
-        <v>24443400</v>
+        <v>24260799.999999996</v>
       </c>
       <c r="G2802">
         <f t="shared" si="4"/>
@@ -26145,7 +26218,7 @@
       <c r="B2803">
         <v>17304000</v>
       </c>
-      <c r="C2803" s="5">
+      <c r="C2803">
         <v>17321763</v>
       </c>
       <c r="D2803">
@@ -26158,7 +26231,11 @@
       </c>
       <c r="F2803" s="2">
         <f t="shared" si="7"/>
-        <v>23385900</v>
+        <v>23217399.999999996</v>
+      </c>
+      <c r="G2803">
+        <f t="shared" si="4"/>
+        <v>6635000</v>
       </c>
       <c r="H2803" s="1">
         <f t="shared" ref="H2803:I2803" si="9">A2237</f>
@@ -26184,7 +26261,7 @@
       <c r="B2804">
         <v>16151000</v>
       </c>
-      <c r="C2804" s="5">
+      <c r="C2804">
         <v>16344839</v>
       </c>
       <c r="D2804">
@@ -26197,7 +26274,11 @@
       </c>
       <c r="F2804" s="2">
         <f t="shared" si="7"/>
-        <v>22328400</v>
+        <v>22173999.999999996</v>
+      </c>
+      <c r="G2804">
+        <f t="shared" si="4"/>
+        <v>6635000</v>
       </c>
       <c r="H2804" s="1">
         <f t="shared" ref="H2804:I2804" si="10">A2238</f>
@@ -26223,7 +26304,7 @@
       <c r="B2805">
         <v>16951000</v>
       </c>
-      <c r="C2805" s="5">
+      <c r="C2805">
         <v>16815346</v>
       </c>
       <c r="D2805">
@@ -26236,7 +26317,11 @@
       </c>
       <c r="F2805" s="2">
         <f t="shared" si="7"/>
-        <v>21270900</v>
+        <v>21130599.999999996</v>
+      </c>
+      <c r="G2805">
+        <f t="shared" si="4"/>
+        <v>6635000</v>
       </c>
       <c r="H2805" s="1">
         <f t="shared" ref="H2805:I2805" si="11">A2239</f>
@@ -26262,7 +26347,7 @@
       <c r="B2806">
         <v>16090000</v>
       </c>
-      <c r="C2806" s="5">
+      <c r="C2806">
         <v>15832498</v>
       </c>
       <c r="D2806">
@@ -26275,7 +26360,11 @@
       </c>
       <c r="F2806" s="2">
         <f t="shared" si="7"/>
-        <v>20213400</v>
+        <v>20087199.999999996</v>
+      </c>
+      <c r="G2806">
+        <f t="shared" si="4"/>
+        <v>6635000</v>
       </c>
       <c r="H2806" s="1">
         <f t="shared" ref="H2806:I2806" si="12">A2240</f>
@@ -26301,7 +26390,7 @@
       <c r="B2807">
         <v>15480000</v>
       </c>
-      <c r="C2807" s="5">
+      <c r="C2807">
         <v>15201491</v>
       </c>
       <c r="D2807">
@@ -26314,7 +26403,11 @@
       </c>
       <c r="F2807" s="2">
         <f t="shared" si="7"/>
-        <v>19155900</v>
+        <v>19043799.999999996</v>
+      </c>
+      <c r="G2807">
+        <f t="shared" si="4"/>
+        <v>6635000</v>
       </c>
     </row>
     <row r="2808" spans="1:11" x14ac:dyDescent="0.2">
@@ -26325,7 +26418,7 @@
       <c r="B2808">
         <v>14759000</v>
       </c>
-      <c r="C2808" s="5">
+      <c r="C2808">
         <v>14182946</v>
       </c>
       <c r="D2808">
@@ -26338,7 +26431,11 @@
       </c>
       <c r="F2808" s="2">
         <f t="shared" si="7"/>
-        <v>18098400</v>
+        <v>18000399.999999996</v>
+      </c>
+      <c r="G2808">
+        <f t="shared" si="4"/>
+        <v>6635000</v>
       </c>
     </row>
     <row r="2809" spans="1:11" x14ac:dyDescent="0.2">
@@ -26349,7 +26446,7 @@
       <c r="B2809">
         <v>14492000</v>
       </c>
-      <c r="C2809" s="5">
+      <c r="C2809">
         <v>13869218</v>
       </c>
       <c r="D2809">
@@ -26362,7 +26459,11 @@
       </c>
       <c r="F2809" s="2">
         <f t="shared" si="7"/>
-        <v>17040900</v>
+        <v>16957000</v>
+      </c>
+      <c r="G2809">
+        <f t="shared" si="4"/>
+        <v>6635000</v>
       </c>
     </row>
     <row r="2810" spans="1:11" x14ac:dyDescent="0.2">
@@ -26373,7 +26474,7 @@
       <c r="B2810">
         <v>13292000</v>
       </c>
-      <c r="C2810" s="5">
+      <c r="C2810">
         <v>13142717</v>
       </c>
       <c r="D2810">
@@ -26386,7 +26487,11 @@
       </c>
       <c r="F2810" s="2">
         <f t="shared" si="7"/>
-        <v>15983400</v>
+        <v>15913599.999999998</v>
+      </c>
+      <c r="G2810">
+        <f t="shared" si="4"/>
+        <v>6635000</v>
       </c>
     </row>
     <row r="2811" spans="1:11" x14ac:dyDescent="0.2">
@@ -26397,7 +26502,7 @@
       <c r="B2811">
         <v>13544000</v>
       </c>
-      <c r="C2811" s="5">
+      <c r="C2811">
         <v>13355586</v>
       </c>
       <c r="D2811">
@@ -26410,7 +26515,11 @@
       </c>
       <c r="F2811" s="2">
         <f t="shared" si="7"/>
-        <v>14925900</v>
+        <v>14870199.999999998</v>
+      </c>
+      <c r="G2811">
+        <f t="shared" si="4"/>
+        <v>6635000</v>
       </c>
     </row>
     <row r="2812" spans="1:11" x14ac:dyDescent="0.2">
@@ -26421,7 +26530,7 @@
       <c r="B2812">
         <v>12747000</v>
       </c>
-      <c r="C2812" s="5">
+      <c r="C2812">
         <v>12440863</v>
       </c>
       <c r="D2812">
@@ -26434,7 +26543,11 @@
       </c>
       <c r="F2812" s="2">
         <f t="shared" si="7"/>
-        <v>13868400</v>
+        <v>13826800</v>
+      </c>
+      <c r="G2812">
+        <f t="shared" si="4"/>
+        <v>6635000</v>
       </c>
     </row>
     <row r="2813" spans="1:11" x14ac:dyDescent="0.2">
@@ -26445,7 +26558,7 @@
       <c r="B2813">
         <v>12747000</v>
       </c>
-      <c r="C2813" s="5">
+      <c r="C2813">
         <v>12431032</v>
       </c>
       <c r="D2813">
@@ -26458,7 +26571,11 @@
       </c>
       <c r="F2813" s="2">
         <f t="shared" si="7"/>
-        <v>12810900</v>
+        <v>12783400</v>
+      </c>
+      <c r="G2813">
+        <f t="shared" si="4"/>
+        <v>6635000</v>
       </c>
     </row>
     <row r="2814" spans="1:11" x14ac:dyDescent="0.2">
@@ -26469,7 +26586,7 @@
       <c r="B2814">
         <v>11979000</v>
       </c>
-      <c r="C2814" s="5">
+      <c r="C2814">
         <v>11622396</v>
       </c>
       <c r="D2814">
@@ -26482,7 +26599,11 @@
       </c>
       <c r="F2814" s="2">
         <f t="shared" si="7"/>
-        <v>11753400</v>
+        <v>11740000</v>
+      </c>
+      <c r="G2814">
+        <f t="shared" si="4"/>
+        <v>6635000</v>
       </c>
     </row>
     <row r="2815" spans="1:11" x14ac:dyDescent="0.2">
@@ -26493,7 +26614,7 @@
       <c r="B2815">
         <v>10594000</v>
       </c>
-      <c r="C2815" s="5">
+      <c r="C2815">
         <v>10230506</v>
       </c>
       <c r="D2815">
@@ -26506,7 +26627,11 @@
       </c>
       <c r="F2815" s="2">
         <f t="shared" si="7"/>
-        <v>10695900</v>
+        <v>10696600</v>
+      </c>
+      <c r="G2815">
+        <f t="shared" si="4"/>
+        <v>6635000</v>
       </c>
     </row>
     <row r="2816" spans="1:11" x14ac:dyDescent="0.2">
@@ -26517,7 +26642,7 @@
       <c r="B2816">
         <v>9398000</v>
       </c>
-      <c r="C2816" s="5">
+      <c r="C2816">
         <v>9011067</v>
       </c>
       <c r="D2816">
@@ -26530,19 +26655,23 @@
       </c>
       <c r="F2816" s="2">
         <f t="shared" si="7"/>
-        <v>9638400</v>
-      </c>
-    </row>
-    <row r="2817" spans="1:6" x14ac:dyDescent="0.2">
+        <v>9653200</v>
+      </c>
+      <c r="G2816">
+        <f t="shared" si="4"/>
+        <v>6635000</v>
+      </c>
+    </row>
+    <row r="2817" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A2817" s="4">
         <f t="shared" si="5"/>
         <v>44114</v>
       </c>
       <c r="B2817">
-        <v>8465000</v>
-      </c>
-      <c r="C2817" s="5">
-        <v>8084859</v>
+        <v>8472000</v>
+      </c>
+      <c r="C2817">
+        <v>8091731</v>
       </c>
       <c r="D2817">
         <f t="shared" si="8"/>
@@ -26550,23 +26679,27 @@
       </c>
       <c r="E2817" s="5">
         <f t="shared" si="0"/>
-        <v>8465000</v>
+        <v>8472000</v>
       </c>
       <c r="F2817" s="2">
         <f t="shared" si="7"/>
-        <v>8580900</v>
-      </c>
-    </row>
-    <row r="2818" spans="1:6" x14ac:dyDescent="0.2">
+        <v>8609800</v>
+      </c>
+      <c r="G2817">
+        <f t="shared" si="4"/>
+        <v>6635000</v>
+      </c>
+    </row>
+    <row r="2818" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A2818" s="4">
         <f t="shared" si="5"/>
         <v>44121</v>
       </c>
       <c r="B2818">
-        <v>7756000</v>
-      </c>
-      <c r="C2818" s="5">
-        <v>7422454</v>
+        <v>7823000</v>
+      </c>
+      <c r="C2818">
+        <v>7489704</v>
       </c>
       <c r="D2818">
         <f t="shared" si="8"/>
@@ -26574,70 +26707,130 @@
       </c>
       <c r="E2818" s="5">
         <f t="shared" si="0"/>
-        <v>7756000</v>
+        <v>7823000</v>
       </c>
       <c r="F2818" s="2">
         <f t="shared" si="7"/>
-        <v>7523400</v>
-      </c>
-    </row>
-    <row r="2819" spans="1:6" x14ac:dyDescent="0.2">
+        <v>7566400</v>
+      </c>
+      <c r="G2818">
+        <f t="shared" si="4"/>
+        <v>6635000</v>
+      </c>
+    </row>
+    <row r="2819" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A2819" s="1">
         <f t="shared" si="5"/>
         <v>44128</v>
       </c>
+      <c r="B2819">
+        <v>7222000</v>
+      </c>
+      <c r="C2819">
+        <v>6888363</v>
+      </c>
       <c r="D2819">
         <f t="shared" si="8"/>
         <v>24</v>
       </c>
+      <c r="E2819" s="5">
+        <f t="shared" si="0"/>
+        <v>7222000</v>
+      </c>
       <c r="F2819" s="2">
         <f t="shared" si="7"/>
-        <v>6465900.0000000037</v>
-      </c>
-    </row>
-    <row r="2820" spans="1:6" x14ac:dyDescent="0.2">
+        <v>6523000</v>
+      </c>
+      <c r="G2819">
+        <f t="shared" si="4"/>
+        <v>6635000</v>
+      </c>
+    </row>
+    <row r="2820" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A2820" s="1">
         <f t="shared" si="5"/>
         <v>44135</v>
       </c>
+      <c r="B2820">
+        <v>6798000</v>
+      </c>
+      <c r="C2820">
+        <v>6498415</v>
+      </c>
       <c r="D2820">
         <f t="shared" si="8"/>
         <v>25</v>
       </c>
+      <c r="E2820" s="5">
+        <f t="shared" si="0"/>
+        <v>6798000</v>
+      </c>
       <c r="F2820" s="2">
         <f t="shared" si="7"/>
-        <v>5408400.0000000037</v>
-      </c>
-    </row>
-    <row r="2821" spans="1:6" x14ac:dyDescent="0.2">
+        <v>5479600</v>
+      </c>
+      <c r="G2820">
+        <f t="shared" si="4"/>
+        <v>6635000</v>
+      </c>
+    </row>
+    <row r="2821" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A2821" s="1">
         <f t="shared" si="5"/>
         <v>44142</v>
       </c>
+      <c r="B2821">
+        <v>6370000</v>
+      </c>
+      <c r="C2821">
+        <v>6079582</v>
+      </c>
       <c r="D2821">
         <f t="shared" si="8"/>
         <v>26</v>
       </c>
+      <c r="E2821" s="5">
+        <f t="shared" si="0"/>
+        <v>6370000</v>
+      </c>
       <c r="F2821" s="2">
         <f t="shared" si="7"/>
-        <v>4350900.0000000037</v>
-      </c>
-    </row>
-    <row r="2822" spans="1:6" x14ac:dyDescent="0.2">
+        <v>4436200</v>
+      </c>
+      <c r="G2821">
+        <f t="shared" si="4"/>
+        <v>6635000</v>
+      </c>
+    </row>
+    <row r="2822" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A2822" s="1">
         <f t="shared" si="5"/>
         <v>44149</v>
       </c>
+      <c r="B2822">
+        <v>6071000</v>
+      </c>
+      <c r="C2822">
+        <v>5911965</v>
+      </c>
       <c r="D2822">
         <f t="shared" si="8"/>
         <v>27</v>
       </c>
+      <c r="E2822" s="5">
+        <f t="shared" si="0"/>
+        <v>6071000</v>
+      </c>
       <c r="F2822" s="2">
         <f t="shared" si="7"/>
-        <v>3293400.0000000037</v>
-      </c>
-    </row>
-    <row r="2823" spans="1:6" x14ac:dyDescent="0.2">
+        <v>3392800.0000000037</v>
+      </c>
+      <c r="G2822">
+        <f t="shared" si="4"/>
+        <v>6635000</v>
+      </c>
+    </row>
+    <row r="2823" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A2823" s="1">
         <f t="shared" si="5"/>
         <v>44156</v>
@@ -26648,10 +26841,10 @@
       </c>
       <c r="F2823" s="2">
         <f t="shared" si="7"/>
-        <v>2235900.0000000037</v>
-      </c>
-    </row>
-    <row r="2824" spans="1:6" x14ac:dyDescent="0.2">
+        <v>2349400.0000000037</v>
+      </c>
+    </row>
+    <row r="2824" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A2824" s="1">
         <f t="shared" si="5"/>
         <v>44163</v>
@@ -26662,10 +26855,10 @@
       </c>
       <c r="F2824" s="2">
         <f t="shared" si="7"/>
-        <v>1178400.0000000037</v>
-      </c>
-    </row>
-    <row r="2825" spans="1:6" x14ac:dyDescent="0.2">
+        <v>1306000.0000000037</v>
+      </c>
+    </row>
+    <row r="2825" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A2825" s="1">
         <f t="shared" si="5"/>
         <v>44170</v>
@@ -26676,10 +26869,10 @@
       </c>
       <c r="F2825" s="2">
         <f t="shared" si="7"/>
-        <v>120900.00000000373</v>
-      </c>
-    </row>
-    <row r="2826" spans="1:6" x14ac:dyDescent="0.2">
+        <v>262600.00000000373</v>
+      </c>
+    </row>
+    <row r="2826" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A2826" s="1">
         <f t="shared" si="5"/>
         <v>44177</v>
@@ -26690,10 +26883,10 @@
       </c>
       <c r="F2826" s="2">
         <f t="shared" si="7"/>
-        <v>-936599.99999999627</v>
-      </c>
-    </row>
-    <row r="2827" spans="1:6" x14ac:dyDescent="0.2">
+        <v>-780799.99999999627</v>
+      </c>
+    </row>
+    <row r="2827" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A2827" s="1">
         <f t="shared" si="5"/>
         <v>44184</v>
@@ -26704,10 +26897,10 @@
       </c>
       <c r="F2827" s="2">
         <f t="shared" si="7"/>
-        <v>-1994099.9999999963</v>
-      </c>
-    </row>
-    <row r="2828" spans="1:6" x14ac:dyDescent="0.2">
+        <v>-1824199.9999999963</v>
+      </c>
+    </row>
+    <row r="2828" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A2828" s="1">
         <f t="shared" si="5"/>
         <v>44191</v>
@@ -26718,10 +26911,10 @@
       </c>
       <c r="F2828" s="2">
         <f t="shared" si="7"/>
-        <v>-3051599.9999999963</v>
-      </c>
-    </row>
-    <row r="2829" spans="1:6" x14ac:dyDescent="0.2">
+        <v>-2867599.9999999925</v>
+      </c>
+    </row>
+    <row r="2829" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A2829" s="1">
         <f t="shared" si="5"/>
         <v>44198</v>
@@ -26732,10 +26925,10 @@
       </c>
       <c r="F2829" s="2">
         <f t="shared" si="7"/>
-        <v>-4109099.9999999963</v>
-      </c>
-    </row>
-    <row r="2830" spans="1:6" x14ac:dyDescent="0.2">
+        <v>-3910999.9999999925</v>
+      </c>
+    </row>
+    <row r="2830" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A2830" s="1">
         <f t="shared" si="5"/>
         <v>44205</v>
@@ -26746,10 +26939,10 @@
       </c>
       <c r="F2830" s="2">
         <f t="shared" si="7"/>
-        <v>-5166599.9999999963</v>
-      </c>
-    </row>
-    <row r="2831" spans="1:6" x14ac:dyDescent="0.2">
+        <v>-4954399.9999999925</v>
+      </c>
+    </row>
+    <row r="2831" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A2831" s="1">
         <f t="shared" si="5"/>
         <v>44212</v>
@@ -26760,10 +26953,10 @@
       </c>
       <c r="F2831" s="2">
         <f t="shared" si="7"/>
-        <v>-6224099.9999999963</v>
-      </c>
-    </row>
-    <row r="2832" spans="1:6" x14ac:dyDescent="0.2">
+        <v>-5997799.9999999925</v>
+      </c>
+    </row>
+    <row r="2832" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A2832" s="1">
         <f t="shared" si="5"/>
         <v>44219</v>
@@ -26774,7 +26967,7 @@
       </c>
       <c r="F2832" s="2">
         <f t="shared" si="7"/>
-        <v>-7281599.9999999963</v>
+        <v>-7041199.9999999925</v>
       </c>
     </row>
     <row r="2833" spans="1:6" x14ac:dyDescent="0.2">
@@ -26788,7 +26981,7 @@
       </c>
       <c r="F2833" s="2">
         <f t="shared" si="7"/>
-        <v>-8339099.9999999963</v>
+        <v>-8084599.9999999925</v>
       </c>
     </row>
     <row r="2834" spans="1:6" x14ac:dyDescent="0.2">

--- a/CCSA.xlsx
+++ b/CCSA.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="23328"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="23426"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Rainy\Documents\GitHub\Economics\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{133901EA-F006-45FC-B127-76ADE25769CB}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{888DBF15-396D-478C-B1BD-2E144B65E432}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -647,7 +647,7 @@
                   <c:v>6370000</c:v>
                 </c:pt>
                 <c:pt idx="32">
-                  <c:v>6071000</c:v>
+                  <c:v>6089000</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -1256,10 +1256,13 @@
                   <c:v>6498415</c:v>
                 </c:pt>
                 <c:pt idx="31" formatCode="General">
-                  <c:v>6079582</c:v>
+                  <c:v>6079652</c:v>
                 </c:pt>
                 <c:pt idx="32" formatCode="General">
-                  <c:v>5911965</c:v>
+                  <c:v>5930745</c:v>
+                </c:pt>
+                <c:pt idx="33" formatCode="General">
+                  <c:v>5240575</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -1494,7 +1497,7 @@
         <c:axId val="319767456"/>
         <c:scaling>
           <c:orientation val="minMax"/>
-          <c:max val="44164"/>
+          <c:max val="44184"/>
           <c:min val="43920"/>
         </c:scaling>
         <c:delete val="0"/>
@@ -3360,8 +3363,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:M2834"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="C2763" zoomScale="160" zoomScaleNormal="160" workbookViewId="0">
-      <selection activeCell="H2765" sqref="H2765"/>
+    <sheetView tabSelected="1" topLeftCell="D2769" zoomScale="160" zoomScaleNormal="160" workbookViewId="0">
+      <selection activeCell="C2803" sqref="C2803:C2823"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="20.7109375" defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
@@ -26783,7 +26786,7 @@
         <v>6370000</v>
       </c>
       <c r="C2821">
-        <v>6079582</v>
+        <v>6079652</v>
       </c>
       <c r="D2821">
         <f t="shared" si="8"/>
@@ -26808,10 +26811,10 @@
         <v>44149</v>
       </c>
       <c r="B2822">
-        <v>6071000</v>
+        <v>6089000</v>
       </c>
       <c r="C2822">
-        <v>5911965</v>
+        <v>5930745</v>
       </c>
       <c r="D2822">
         <f t="shared" si="8"/>
@@ -26819,7 +26822,7 @@
       </c>
       <c r="E2822" s="5">
         <f t="shared" si="0"/>
-        <v>6071000</v>
+        <v>6089000</v>
       </c>
       <c r="F2822" s="2">
         <f t="shared" si="7"/>
@@ -26834,6 +26837,12 @@
       <c r="A2823" s="1">
         <f t="shared" si="5"/>
         <v>44156</v>
+      </c>
+      <c r="B2823">
+        <v>5520000</v>
+      </c>
+      <c r="C2823">
+        <v>5240575</v>
       </c>
       <c r="D2823">
         <f t="shared" si="8"/>

--- a/CCSA.xlsx
+++ b/CCSA.xlsx
@@ -1,31 +1,30 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="23426"/>
-  <workbookPr defaultThemeVersion="166925"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
+  <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Rainy\Documents\GitHub\Economics\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="H:\Documents\Hobby\GitHub\Economics\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{888DBF15-396D-478C-B1BD-2E144B65E432}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840"/>
   </bookViews>
   <sheets>
     <sheet name="FRED Graph" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="181029"/>
+  <calcPr calcId="152511"/>
 </workbook>
 </file>
 
 <file path=xl/comments1.xml><?xml version="1.0" encoding="utf-8"?>
-<comments xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr">
+<comments xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <authors>
     <author>Brian Howard</author>
   </authors>
   <commentList>
-    <comment ref="B2801" authorId="0" shapeId="0" xr:uid="{ABB340B0-CD95-46A4-92F4-AD9E6E185C93}">
+    <comment ref="B2801" authorId="0" shapeId="0">
       <text>
         <r>
           <rPr>
@@ -107,7 +106,7 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <numFmts count="2">
     <numFmt numFmtId="164" formatCode="yyyy\-mm\-dd"/>
     <numFmt numFmtId="165" formatCode="yyyy\-mm\-dd;@"/>
@@ -184,7 +183,7 @@
 </file>
 
 <file path=xl/charts/chart1.xml><?xml version="1.0" encoding="utf-8"?>
-<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <c:date1904 val="0"/>
   <c:lang val="en-US"/>
   <c:roundedCorners val="0"/>
@@ -228,6 +227,7 @@
           </a:p>
         </c:rich>
       </c:tx>
+      <c:layout/>
       <c:overlay val="0"/>
       <c:spPr>
         <a:noFill/>
@@ -276,7 +276,7 @@
                 <a:noFill/>
               </a:ln>
             </c:spPr>
-            <c:extLst>
+            <c:extLst xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
               <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
                 <c16:uniqueId val="{00000001-56E9-43F7-B39A-E50EC1519892}"/>
               </c:ext>
@@ -290,7 +290,7 @@
                 <a:noFill/>
               </a:ln>
             </c:spPr>
-            <c:extLst>
+            <c:extLst xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
               <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
                 <c16:uniqueId val="{00000003-56E9-43F7-B39A-E50EC1519892}"/>
               </c:ext>
@@ -304,7 +304,7 @@
                 <a:noFill/>
               </a:ln>
             </c:spPr>
-            <c:extLst>
+            <c:extLst xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
               <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
                 <c16:uniqueId val="{00000008-56E9-43F7-B39A-E50EC1519892}"/>
               </c:ext>
@@ -313,7 +313,7 @@
           <c:dPt>
             <c:idx val="8"/>
             <c:bubble3D val="0"/>
-            <c:extLst>
+            <c:extLst xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
               <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
                 <c16:uniqueId val="{00000006-B4B4-49F9-88A6-AD61E14B1813}"/>
               </c:ext>
@@ -322,7 +322,7 @@
           <c:dPt>
             <c:idx val="9"/>
             <c:bubble3D val="0"/>
-            <c:extLst>
+            <c:extLst xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
               <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
                 <c16:uniqueId val="{00000008-A5CB-4AB6-BD38-9E83578F397A}"/>
               </c:ext>
@@ -331,7 +331,7 @@
           <c:dPt>
             <c:idx val="10"/>
             <c:bubble3D val="0"/>
-            <c:extLst>
+            <c:extLst xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
               <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
                 <c16:uniqueId val="{0000000A-3FA1-4148-9C0C-648E50CC2FF1}"/>
               </c:ext>
@@ -340,7 +340,7 @@
           <c:dPt>
             <c:idx val="11"/>
             <c:bubble3D val="0"/>
-            <c:extLst>
+            <c:extLst xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
               <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
                 <c16:uniqueId val="{00000008-3FA1-4148-9C0C-648E50CC2FF1}"/>
               </c:ext>
@@ -349,7 +349,7 @@
           <c:dPt>
             <c:idx val="12"/>
             <c:bubble3D val="0"/>
-            <c:extLst>
+            <c:extLst xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
               <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
                 <c16:uniqueId val="{0000000A-8232-4DDC-9D49-24F67FE3D335}"/>
               </c:ext>
@@ -358,7 +358,7 @@
           <c:dPt>
             <c:idx val="13"/>
             <c:bubble3D val="0"/>
-            <c:extLst>
+            <c:extLst xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
               <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
                 <c16:uniqueId val="{0000000C-7FAC-478C-BA9C-B7E6ABC15101}"/>
               </c:ext>
@@ -367,7 +367,7 @@
           <c:dPt>
             <c:idx val="14"/>
             <c:bubble3D val="0"/>
-            <c:extLst>
+            <c:extLst xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
               <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
                 <c16:uniqueId val="{0000000E-9DC2-412E-8450-CDF10A4ECBCD}"/>
               </c:ext>
@@ -376,7 +376,7 @@
           <c:dPt>
             <c:idx val="18"/>
             <c:bubble3D val="0"/>
-            <c:extLst>
+            <c:extLst xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
               <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
                 <c16:uniqueId val="{0000000E-2C58-4ACA-AFCF-33DC423D0FD7}"/>
               </c:ext>
@@ -385,7 +385,7 @@
           <c:dPt>
             <c:idx val="19"/>
             <c:bubble3D val="0"/>
-            <c:extLst>
+            <c:extLst xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
               <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
                 <c16:uniqueId val="{0000000F-AAD6-4CEA-AA11-2F25C400B5C7}"/>
               </c:ext>
@@ -394,7 +394,7 @@
           <c:dPt>
             <c:idx val="20"/>
             <c:bubble3D val="0"/>
-            <c:extLst>
+            <c:extLst xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
               <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
                 <c16:uniqueId val="{00000010-B2C2-45C9-AB94-9FE0A9CB3089}"/>
               </c:ext>
@@ -649,11 +649,26 @@
                 <c:pt idx="32">
                   <c:v>6089000</c:v>
                 </c:pt>
+                <c:pt idx="33">
+                  <c:v>5527000</c:v>
+                </c:pt>
+                <c:pt idx="34">
+                  <c:v>5781000</c:v>
+                </c:pt>
+                <c:pt idx="35">
+                  <c:v>5507000</c:v>
+                </c:pt>
+                <c:pt idx="36">
+                  <c:v>5322000</c:v>
+                </c:pt>
+                <c:pt idx="37">
+                  <c:v>5219000</c:v>
+                </c:pt>
               </c:numCache>
             </c:numRef>
           </c:yVal>
           <c:smooth val="0"/>
-          <c:extLst>
+          <c:extLst xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
               <c16:uniqueId val="{00000004-56E9-43F7-B39A-E50EC1519892}"/>
             </c:ext>
@@ -929,7 +944,7 @@
             </c:numRef>
           </c:yVal>
           <c:smooth val="0"/>
-          <c:extLst>
+          <c:extLst xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
               <c16:uniqueId val="{00000006-56E9-43F7-B39A-E50EC1519892}"/>
             </c:ext>
@@ -943,8 +958,8 @@
           <c:showPercent val="0"/>
           <c:showBubbleSize val="0"/>
         </c:dLbls>
-        <c:axId val="319767456"/>
-        <c:axId val="1"/>
+        <c:axId val="2022579280"/>
+        <c:axId val="2022582000"/>
       </c:scatterChart>
       <c:scatterChart>
         <c:scatterStyle val="lineMarker"/>
@@ -973,11 +988,11 @@
           </c:marker>
           <c:dLbls>
             <c:dLbl>
-              <c:idx val="32"/>
+              <c:idx val="37"/>
               <c:layout>
                 <c:manualLayout>
-                  <c:x val="-6.9829290102645936E-2"/>
-                  <c:y val="-0.18107646493380147"/>
+                  <c:x val="-8.4530193282150265E-2"/>
+                  <c:y val="-0.20634294841293657"/>
                 </c:manualLayout>
               </c:layout>
               <c:showLegendKey val="0"/>
@@ -987,9 +1002,8 @@
               <c:showPercent val="0"/>
               <c:showBubbleSize val="0"/>
               <c:extLst>
-                <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}"/>
-                <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-                  <c16:uniqueId val="{00000011-4B5B-4A30-9A78-93680915A544}"/>
+                <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
+                  <c15:layout/>
                 </c:ext>
               </c:extLst>
             </c:dLbl>
@@ -1259,16 +1273,28 @@
                   <c:v>6079652</c:v>
                 </c:pt>
                 <c:pt idx="32" formatCode="General">
-                  <c:v>5930745</c:v>
+                  <c:v>5930743</c:v>
                 </c:pt>
                 <c:pt idx="33" formatCode="General">
-                  <c:v>5240575</c:v>
+                  <c:v>5247626</c:v>
+                </c:pt>
+                <c:pt idx="34" formatCode="General">
+                  <c:v>5805124</c:v>
+                </c:pt>
+                <c:pt idx="35" formatCode="General">
+                  <c:v>5491904</c:v>
+                </c:pt>
+                <c:pt idx="36" formatCode="General">
+                  <c:v>5429108</c:v>
+                </c:pt>
+                <c:pt idx="37" formatCode="General">
+                  <c:v>5258073</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
           </c:yVal>
           <c:smooth val="0"/>
-          <c:extLst>
+          <c:extLst xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
               <c16:uniqueId val="{0000000D-81A1-417F-9D6F-A8A69987238A}"/>
             </c:ext>
@@ -1332,13 +1358,14 @@
               <c:showSerName val="0"/>
               <c:showPercent val="0"/>
               <c:showBubbleSize val="0"/>
-              <c:extLst>
+              <c:extLst xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+                <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+                  <c16:uniqueId val="{0000000A-E64B-4A4A-9C92-4C24CD0CD538}"/>
+                </c:ext>
                 <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
+                  <c15:layout/>
                   <c15:dlblFieldTable/>
                   <c15:showDataLabelsRange val="0"/>
-                </c:ext>
-                <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-                  <c16:uniqueId val="{0000000A-E64B-4A4A-9C92-4C24CD0CD538}"/>
                 </c:ext>
               </c:extLst>
             </c:dLbl>
@@ -1355,7 +1382,7 @@
             <c:showSerName val="0"/>
             <c:showPercent val="0"/>
             <c:showBubbleSize val="0"/>
-            <c:extLst>
+            <c:extLst xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
               <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
                 <c15:showLeaderLines val="1"/>
               </c:ext>
@@ -1476,7 +1503,7 @@
             </c:numRef>
           </c:yVal>
           <c:smooth val="0"/>
-          <c:extLst>
+          <c:extLst xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
               <c16:uniqueId val="{00000007-56E9-43F7-B39A-E50EC1519892}"/>
             </c:ext>
@@ -1490,14 +1517,14 @@
           <c:showPercent val="0"/>
           <c:showBubbleSize val="0"/>
         </c:dLbls>
-        <c:axId val="3"/>
-        <c:axId val="4"/>
+        <c:axId val="2022584176"/>
+        <c:axId val="2022584720"/>
       </c:scatterChart>
       <c:valAx>
-        <c:axId val="319767456"/>
+        <c:axId val="2022579280"/>
         <c:scaling>
           <c:orientation val="minMax"/>
-          <c:max val="44184"/>
+          <c:max val="44194"/>
           <c:min val="43920"/>
         </c:scaling>
         <c:delete val="0"/>
@@ -1542,6 +1569,7 @@
               </a:p>
             </c:rich>
           </c:tx>
+          <c:layout/>
           <c:overlay val="0"/>
           <c:spPr>
             <a:noFill/>
@@ -1584,13 +1612,13 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="1"/>
+        <c:crossAx val="2022582000"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
         <c:majorUnit val="30"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="1"/>
+        <c:axId val="2022582000"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1636,6 +1664,7 @@
               </a:p>
             </c:rich>
           </c:tx>
+          <c:layout/>
           <c:overlay val="0"/>
           <c:spPr>
             <a:noFill/>
@@ -1681,12 +1710,12 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="319767456"/>
+        <c:crossAx val="2022579280"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="3"/>
+        <c:axId val="2022584176"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1696,12 +1725,12 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="4"/>
+        <c:crossAx val="2022584720"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="4"/>
+        <c:axId val="2022584720"/>
         <c:scaling>
           <c:orientation val="minMax"/>
           <c:max val="30000000"/>
@@ -1735,6 +1764,7 @@
               </a:p>
             </c:rich>
           </c:tx>
+          <c:layout/>
           <c:overlay val="0"/>
           <c:spPr>
             <a:noFill/>
@@ -1780,7 +1810,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="3"/>
+        <c:crossAx val="2022584176"/>
         <c:crosses val="max"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
@@ -1793,6 +1823,7 @@
     </c:plotArea>
     <c:legend>
       <c:legendPos val="r"/>
+      <c:layout/>
       <c:overlay val="0"/>
       <c:spPr>
         <a:noFill/>
@@ -1859,7 +1890,7 @@
 </file>
 
 <file path=xl/charts/chart2.xml><?xml version="1.0" encoding="utf-8"?>
-<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <c:date1904 val="0"/>
   <c:lang val="en-US"/>
   <c:roundedCorners val="0"/>
@@ -1903,6 +1934,7 @@
           </a:p>
         </c:rich>
       </c:tx>
+      <c:layout/>
       <c:overlay val="0"/>
       <c:spPr>
         <a:noFill/>
@@ -2126,7 +2158,7 @@
             </c:numRef>
           </c:yVal>
           <c:smooth val="0"/>
-          <c:extLst>
+          <c:extLst xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
               <c16:uniqueId val="{00000000-F045-4929-B6A6-AAA378793F01}"/>
             </c:ext>
@@ -2140,11 +2172,11 @@
           <c:showPercent val="0"/>
           <c:showBubbleSize val="0"/>
         </c:dLbls>
-        <c:axId val="508647160"/>
-        <c:axId val="519777824"/>
+        <c:axId val="2022585808"/>
+        <c:axId val="1930102240"/>
       </c:scatterChart>
       <c:valAx>
-        <c:axId val="508647160"/>
+        <c:axId val="2022585808"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -2190,6 +2222,7 @@
               </a:p>
             </c:rich>
           </c:tx>
+          <c:layout/>
           <c:overlay val="0"/>
           <c:spPr>
             <a:noFill/>
@@ -2256,12 +2289,12 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="519777824"/>
+        <c:crossAx val="1930102240"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="519777824"/>
+        <c:axId val="1930102240"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -2307,6 +2340,7 @@
               </a:p>
             </c:rich>
           </c:tx>
+          <c:layout/>
           <c:overlay val="0"/>
           <c:spPr>
             <a:noFill/>
@@ -2373,7 +2407,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="508647160"/>
+        <c:crossAx val="2022585808"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
@@ -2387,14 +2421,14 @@
     </c:plotArea>
     <c:plotVisOnly val="1"/>
     <c:dispBlanksAs val="gap"/>
-    <c:extLst>
+    <c:showDLblsOverMax val="0"/>
+    <c:extLst xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
       <c:ext xmlns:c16r3="http://schemas.microsoft.com/office/drawing/2017/03/chart" uri="{56B9EC1D-385E-4148-901F-78D8002777C0}">
         <c16r3:dataDisplayOptions16>
           <c16r3:dispNaAsBlank val="1"/>
         </c16r3:dataDisplayOptions16>
       </c:ext>
     </c:extLst>
-    <c:showDLblsOverMax val="0"/>
   </c:chart>
   <c:spPr>
     <a:solidFill>
@@ -3005,7 +3039,7 @@
         <xdr:cNvPr id="1041" name="Chart 3">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{E1139446-7452-42CF-AFE8-077EBF68E693}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{E1139446-7452-42CF-AFE8-077EBF68E693}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -3043,7 +3077,7 @@
         <xdr:cNvPr id="2" name="Chart 1">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{5512BDA0-ADB1-451C-A6A5-6A6F3FE37D22}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{5512BDA0-ADB1-451C-A6A5-6A6F3FE37D22}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -3360,11 +3394,11 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:M2834"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="D2769" zoomScale="160" zoomScaleNormal="160" workbookViewId="0">
-      <selection activeCell="C2803" sqref="C2803:C2823"/>
+    <sheetView tabSelected="1" topLeftCell="B2765" zoomScale="160" zoomScaleNormal="160" workbookViewId="0">
+      <selection activeCell="C2772" sqref="C2772"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="20.7109375" defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
@@ -25706,7 +25740,7 @@
         <v>12461658</v>
       </c>
       <c r="E2790" s="2">
-        <f t="shared" ref="E2790:E2822" si="0">B2790</f>
+        <f t="shared" ref="E2790:E2827" si="0">B2790</f>
         <v>11914000</v>
       </c>
       <c r="F2790" s="2"/>
@@ -26814,7 +26848,7 @@
         <v>6089000</v>
       </c>
       <c r="C2822">
-        <v>5930745</v>
+        <v>5930743</v>
       </c>
       <c r="D2822">
         <f t="shared" si="8"/>
@@ -26839,14 +26873,18 @@
         <v>44156</v>
       </c>
       <c r="B2823">
-        <v>5520000</v>
+        <v>5527000</v>
       </c>
       <c r="C2823">
-        <v>5240575</v>
+        <v>5247626</v>
       </c>
       <c r="D2823">
         <f t="shared" si="8"/>
         <v>28</v>
+      </c>
+      <c r="E2823" s="5">
+        <f t="shared" si="0"/>
+        <v>5527000</v>
       </c>
       <c r="F2823" s="2">
         <f t="shared" si="7"/>
@@ -26858,9 +26896,19 @@
         <f t="shared" si="5"/>
         <v>44163</v>
       </c>
+      <c r="B2824">
+        <v>5781000</v>
+      </c>
+      <c r="C2824">
+        <v>5805124</v>
+      </c>
       <c r="D2824">
         <f t="shared" si="8"/>
         <v>29</v>
+      </c>
+      <c r="E2824" s="5">
+        <f t="shared" si="0"/>
+        <v>5781000</v>
       </c>
       <c r="F2824" s="2">
         <f t="shared" si="7"/>
@@ -26872,9 +26920,19 @@
         <f t="shared" si="5"/>
         <v>44170</v>
       </c>
+      <c r="B2825">
+        <v>5507000</v>
+      </c>
+      <c r="C2825">
+        <v>5491904</v>
+      </c>
       <c r="D2825">
         <f t="shared" si="8"/>
         <v>30</v>
+      </c>
+      <c r="E2825" s="5">
+        <f t="shared" si="0"/>
+        <v>5507000</v>
       </c>
       <c r="F2825" s="2">
         <f t="shared" si="7"/>
@@ -26886,9 +26944,19 @@
         <f t="shared" si="5"/>
         <v>44177</v>
       </c>
+      <c r="B2826">
+        <v>5322000</v>
+      </c>
+      <c r="C2826">
+        <v>5429108</v>
+      </c>
       <c r="D2826">
         <f t="shared" si="8"/>
         <v>31</v>
+      </c>
+      <c r="E2826" s="5">
+        <f t="shared" si="0"/>
+        <v>5322000</v>
       </c>
       <c r="F2826" s="2">
         <f t="shared" si="7"/>
@@ -26900,9 +26968,19 @@
         <f t="shared" si="5"/>
         <v>44184</v>
       </c>
+      <c r="B2827">
+        <v>5219000</v>
+      </c>
+      <c r="C2827">
+        <v>5258073</v>
+      </c>
       <c r="D2827">
         <f t="shared" si="8"/>
         <v>32</v>
+      </c>
+      <c r="E2827" s="5">
+        <f t="shared" si="0"/>
+        <v>5219000</v>
       </c>
       <c r="F2827" s="2">
         <f t="shared" si="7"/>

--- a/CCSA.xlsx
+++ b/CCSA.xlsx
@@ -662,7 +662,10 @@
                   <c:v>5322000</c:v>
                 </c:pt>
                 <c:pt idx="37">
-                  <c:v>5219000</c:v>
+                  <c:v>5198000</c:v>
+                </c:pt>
+                <c:pt idx="38">
+                  <c:v>5072000</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -958,8 +961,8 @@
           <c:showPercent val="0"/>
           <c:showBubbleSize val="0"/>
         </c:dLbls>
-        <c:axId val="2022579280"/>
-        <c:axId val="2022582000"/>
+        <c:axId val="339685472"/>
+        <c:axId val="339689280"/>
       </c:scatterChart>
       <c:scatterChart>
         <c:scatterStyle val="lineMarker"/>
@@ -989,12 +992,42 @@
           <c:dLbls>
             <c:dLbl>
               <c:idx val="37"/>
+              <c:delete val="1"/>
+              <c:extLst>
+                <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
+                  <c15:layout/>
+                </c:ext>
+              </c:extLst>
+            </c:dLbl>
+            <c:dLbl>
+              <c:idx val="38"/>
               <c:layout>
                 <c:manualLayout>
-                  <c:x val="-8.4530193282150265E-2"/>
-                  <c:y val="-0.20634294841293657"/>
+                  <c:x val="-6.615406430776978E-2"/>
+                  <c:y val="-0.16002106203452232"/>
                 </c:manualLayout>
               </c:layout>
+              <c:spPr>
+                <a:solidFill>
+                  <a:schemeClr val="bg1"/>
+                </a:solidFill>
+                <a:ln>
+                  <a:noFill/>
+                </a:ln>
+                <a:effectLst/>
+              </c:spPr>
+              <c:txPr>
+                <a:bodyPr wrap="square" lIns="38100" tIns="19050" rIns="38100" bIns="19050" anchor="ctr">
+                  <a:spAutoFit/>
+                </a:bodyPr>
+                <a:lstStyle/>
+                <a:p>
+                  <a:pPr>
+                    <a:defRPr/>
+                  </a:pPr>
+                  <a:endParaRPr lang="en-US"/>
+                </a:p>
+              </c:txPr>
               <c:showLegendKey val="0"/>
               <c:showVal val="1"/>
               <c:showCatName val="0"/>
@@ -1285,10 +1318,13 @@
                   <c:v>5491904</c:v>
                 </c:pt>
                 <c:pt idx="36" formatCode="General">
-                  <c:v>5429108</c:v>
+                  <c:v>5429507</c:v>
                 </c:pt>
                 <c:pt idx="37" formatCode="General">
-                  <c:v>5258073</c:v>
+                  <c:v>5237015</c:v>
+                </c:pt>
+                <c:pt idx="38" formatCode="General">
+                  <c:v>5382459</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -1331,18 +1367,25 @@
               <c:idx val="0"/>
               <c:layout>
                 <c:manualLayout>
-                  <c:x val="5.3175775480059084E-2"/>
-                  <c:y val="-6.3166208697837803E-2"/>
+                  <c:x val="1.722581223937006E-3"/>
+                  <c:y val="-7.1588369857549419E-2"/>
                 </c:manualLayout>
               </c:layout>
               <c:tx>
                 <c:rich>
-                  <a:bodyPr/>
+                  <a:bodyPr wrap="square" lIns="38100" tIns="19050" rIns="38100" bIns="19050" anchor="ctr">
+                    <a:spAutoFit/>
+                  </a:bodyPr>
                   <a:lstStyle/>
                   <a:p>
+                    <a:pPr>
+                      <a:defRPr/>
+                    </a:pPr>
                     <a:fld id="{414844D0-E852-453D-A198-5CFB11F3905A}" type="YVALUE">
                       <a:rPr lang="en-US"/>
-                      <a:pPr/>
+                      <a:pPr>
+                        <a:defRPr/>
+                      </a:pPr>
                       <a:t>[Y VALUE]</a:t>
                     </a:fld>
                     <a:r>
@@ -1352,6 +1395,15 @@
                   </a:p>
                 </c:rich>
               </c:tx>
+              <c:spPr>
+                <a:solidFill>
+                  <a:schemeClr val="bg1"/>
+                </a:solidFill>
+                <a:ln>
+                  <a:noFill/>
+                </a:ln>
+                <a:effectLst/>
+              </c:spPr>
               <c:showLegendKey val="0"/>
               <c:showVal val="1"/>
               <c:showCatName val="0"/>
@@ -1517,14 +1569,14 @@
           <c:showPercent val="0"/>
           <c:showBubbleSize val="0"/>
         </c:dLbls>
-        <c:axId val="2022584176"/>
-        <c:axId val="2022584720"/>
+        <c:axId val="339686016"/>
+        <c:axId val="339689824"/>
       </c:scatterChart>
       <c:valAx>
-        <c:axId val="2022579280"/>
+        <c:axId val="339685472"/>
         <c:scaling>
           <c:orientation val="minMax"/>
-          <c:max val="44194"/>
+          <c:max val="44294"/>
           <c:min val="43920"/>
         </c:scaling>
         <c:delete val="0"/>
@@ -1612,13 +1664,13 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="2022582000"/>
+        <c:crossAx val="339689280"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
         <c:majorUnit val="30"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="2022582000"/>
+        <c:axId val="339689280"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1710,12 +1762,12 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="2022579280"/>
+        <c:crossAx val="339685472"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="2022584176"/>
+        <c:axId val="339686016"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1725,12 +1777,12 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="2022584720"/>
+        <c:crossAx val="339689824"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="2022584720"/>
+        <c:axId val="339689824"/>
         <c:scaling>
           <c:orientation val="minMax"/>
           <c:max val="30000000"/>
@@ -1810,7 +1862,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="2022584176"/>
+        <c:crossAx val="339686016"/>
         <c:crosses val="max"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
@@ -2172,11 +2224,11 @@
           <c:showPercent val="0"/>
           <c:showBubbleSize val="0"/>
         </c:dLbls>
-        <c:axId val="2022585808"/>
-        <c:axId val="1930102240"/>
+        <c:axId val="339690368"/>
+        <c:axId val="339692000"/>
       </c:scatterChart>
       <c:valAx>
-        <c:axId val="2022585808"/>
+        <c:axId val="339690368"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -2289,12 +2341,12 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="1930102240"/>
+        <c:crossAx val="339692000"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="1930102240"/>
+        <c:axId val="339692000"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -2407,7 +2459,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="2022585808"/>
+        <c:crossAx val="339690368"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
@@ -3039,7 +3091,7 @@
         <xdr:cNvPr id="1041" name="Chart 3">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{E1139446-7452-42CF-AFE8-077EBF68E693}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{E1139446-7452-42CF-AFE8-077EBF68E693}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -3077,7 +3129,7 @@
         <xdr:cNvPr id="2" name="Chart 1">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{5512BDA0-ADB1-451C-A6A5-6A6F3FE37D22}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{5512BDA0-ADB1-451C-A6A5-6A6F3FE37D22}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -3398,7 +3450,7 @@
   <dimension ref="A1:M2834"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="B2765" zoomScale="160" zoomScaleNormal="160" workbookViewId="0">
-      <selection activeCell="C2772" sqref="C2772"/>
+      <selection activeCell="D2773" sqref="D2773"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="20.7109375" defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
@@ -25682,11 +25734,11 @@
         <v>2074782</v>
       </c>
       <c r="F2787">
-        <f t="array" ref="F2787:G2787">LINEST(E2814:E2818,D2814:D2818,TRUE)</f>
-        <v>-1043399.9999999997</v>
+        <f t="array" ref="F2787:G2787">LINEST(E2824:E2828,D2824:D2828,TRUE)</f>
+        <v>-172700</v>
       </c>
       <c r="G2787">
-        <v>31564599.999999993</v>
+        <v>10729700</v>
       </c>
       <c r="L2787">
         <v>-41794.117647058796</v>
@@ -25740,7 +25792,7 @@
         <v>12461658</v>
       </c>
       <c r="E2790" s="2">
-        <f t="shared" ref="E2790:E2827" si="0">B2790</f>
+        <f t="shared" ref="E2790:E2828" si="0">B2790</f>
         <v>11914000</v>
       </c>
       <c r="F2790" s="2"/>
@@ -25924,7 +25976,7 @@
       </c>
       <c r="F2795" s="2">
         <f>$G$2787+($F$2787*D2795)</f>
-        <v>31564599.999999993</v>
+        <v>10729700</v>
       </c>
       <c r="G2795">
         <f t="shared" si="4"/>
@@ -25967,7 +26019,7 @@
       </c>
       <c r="F2796" s="2">
         <f t="shared" ref="F2796:F2833" si="7">$G$2787+($F$2787*D2796)</f>
-        <v>30521199.999999993</v>
+        <v>10557000</v>
       </c>
       <c r="G2796">
         <f t="shared" si="4"/>
@@ -26010,7 +26062,7 @@
       </c>
       <c r="F2797" s="2">
         <f t="shared" si="7"/>
-        <v>29477799.999999993</v>
+        <v>10384300</v>
       </c>
       <c r="G2797">
         <f t="shared" si="4"/>
@@ -26053,7 +26105,7 @@
       </c>
       <c r="F2798" s="2">
         <f t="shared" si="7"/>
-        <v>28434399.999999993</v>
+        <v>10211600</v>
       </c>
       <c r="G2798">
         <f t="shared" si="4"/>
@@ -26096,7 +26148,7 @@
       </c>
       <c r="F2799" s="2">
         <f t="shared" si="7"/>
-        <v>27390999.999999993</v>
+        <v>10038900</v>
       </c>
       <c r="G2799">
         <f t="shared" si="4"/>
@@ -26139,7 +26191,7 @@
       </c>
       <c r="F2800" s="2">
         <f t="shared" si="7"/>
-        <v>26347599.999999993</v>
+        <v>9866200</v>
       </c>
       <c r="G2800">
         <f t="shared" si="4"/>
@@ -26182,7 +26234,7 @@
       </c>
       <c r="F2801" s="2">
         <f t="shared" si="7"/>
-        <v>25304199.999999993</v>
+        <v>9693500</v>
       </c>
       <c r="G2801">
         <f t="shared" si="4"/>
@@ -26225,7 +26277,7 @@
       </c>
       <c r="F2802" s="2">
         <f t="shared" si="7"/>
-        <v>24260799.999999996</v>
+        <v>9520800</v>
       </c>
       <c r="G2802">
         <f t="shared" si="4"/>
@@ -26268,7 +26320,7 @@
       </c>
       <c r="F2803" s="2">
         <f t="shared" si="7"/>
-        <v>23217399.999999996</v>
+        <v>9348100</v>
       </c>
       <c r="G2803">
         <f t="shared" si="4"/>
@@ -26311,7 +26363,7 @@
       </c>
       <c r="F2804" s="2">
         <f t="shared" si="7"/>
-        <v>22173999.999999996</v>
+        <v>9175400</v>
       </c>
       <c r="G2804">
         <f t="shared" si="4"/>
@@ -26354,7 +26406,7 @@
       </c>
       <c r="F2805" s="2">
         <f t="shared" si="7"/>
-        <v>21130599.999999996</v>
+        <v>9002700</v>
       </c>
       <c r="G2805">
         <f t="shared" si="4"/>
@@ -26397,7 +26449,7 @@
       </c>
       <c r="F2806" s="2">
         <f t="shared" si="7"/>
-        <v>20087199.999999996</v>
+        <v>8830000</v>
       </c>
       <c r="G2806">
         <f t="shared" si="4"/>
@@ -26440,7 +26492,7 @@
       </c>
       <c r="F2807" s="2">
         <f t="shared" si="7"/>
-        <v>19043799.999999996</v>
+        <v>8657300</v>
       </c>
       <c r="G2807">
         <f t="shared" si="4"/>
@@ -26468,7 +26520,7 @@
       </c>
       <c r="F2808" s="2">
         <f t="shared" si="7"/>
-        <v>18000399.999999996</v>
+        <v>8484600</v>
       </c>
       <c r="G2808">
         <f t="shared" si="4"/>
@@ -26496,7 +26548,7 @@
       </c>
       <c r="F2809" s="2">
         <f t="shared" si="7"/>
-        <v>16957000</v>
+        <v>8311900</v>
       </c>
       <c r="G2809">
         <f t="shared" si="4"/>
@@ -26524,7 +26576,7 @@
       </c>
       <c r="F2810" s="2">
         <f t="shared" si="7"/>
-        <v>15913599.999999998</v>
+        <v>8139200</v>
       </c>
       <c r="G2810">
         <f t="shared" si="4"/>
@@ -26552,7 +26604,7 @@
       </c>
       <c r="F2811" s="2">
         <f t="shared" si="7"/>
-        <v>14870199.999999998</v>
+        <v>7966500</v>
       </c>
       <c r="G2811">
         <f t="shared" si="4"/>
@@ -26580,7 +26632,7 @@
       </c>
       <c r="F2812" s="2">
         <f t="shared" si="7"/>
-        <v>13826800</v>
+        <v>7793800</v>
       </c>
       <c r="G2812">
         <f t="shared" si="4"/>
@@ -26608,7 +26660,7 @@
       </c>
       <c r="F2813" s="2">
         <f t="shared" si="7"/>
-        <v>12783400</v>
+        <v>7621100</v>
       </c>
       <c r="G2813">
         <f t="shared" si="4"/>
@@ -26636,7 +26688,7 @@
       </c>
       <c r="F2814" s="2">
         <f t="shared" si="7"/>
-        <v>11740000</v>
+        <v>7448400</v>
       </c>
       <c r="G2814">
         <f t="shared" si="4"/>
@@ -26664,7 +26716,7 @@
       </c>
       <c r="F2815" s="2">
         <f t="shared" si="7"/>
-        <v>10696600</v>
+        <v>7275700</v>
       </c>
       <c r="G2815">
         <f t="shared" si="4"/>
@@ -26692,7 +26744,7 @@
       </c>
       <c r="F2816" s="2">
         <f t="shared" si="7"/>
-        <v>9653200</v>
+        <v>7103000</v>
       </c>
       <c r="G2816">
         <f t="shared" si="4"/>
@@ -26720,7 +26772,7 @@
       </c>
       <c r="F2817" s="2">
         <f t="shared" si="7"/>
-        <v>8609800</v>
+        <v>6930300</v>
       </c>
       <c r="G2817">
         <f t="shared" si="4"/>
@@ -26748,7 +26800,7 @@
       </c>
       <c r="F2818" s="2">
         <f t="shared" si="7"/>
-        <v>7566400</v>
+        <v>6757600</v>
       </c>
       <c r="G2818">
         <f t="shared" si="4"/>
@@ -26776,7 +26828,7 @@
       </c>
       <c r="F2819" s="2">
         <f t="shared" si="7"/>
-        <v>6523000</v>
+        <v>6584900</v>
       </c>
       <c r="G2819">
         <f t="shared" si="4"/>
@@ -26804,7 +26856,7 @@
       </c>
       <c r="F2820" s="2">
         <f t="shared" si="7"/>
-        <v>5479600</v>
+        <v>6412200</v>
       </c>
       <c r="G2820">
         <f t="shared" si="4"/>
@@ -26832,7 +26884,7 @@
       </c>
       <c r="F2821" s="2">
         <f t="shared" si="7"/>
-        <v>4436200</v>
+        <v>6239500</v>
       </c>
       <c r="G2821">
         <f t="shared" si="4"/>
@@ -26860,7 +26912,7 @@
       </c>
       <c r="F2822" s="2">
         <f t="shared" si="7"/>
-        <v>3392800.0000000037</v>
+        <v>6066800</v>
       </c>
       <c r="G2822">
         <f t="shared" si="4"/>
@@ -26888,7 +26940,7 @@
       </c>
       <c r="F2823" s="2">
         <f t="shared" si="7"/>
-        <v>2349400.0000000037</v>
+        <v>5894100</v>
       </c>
     </row>
     <row r="2824" spans="1:7" x14ac:dyDescent="0.2">
@@ -26912,7 +26964,7 @@
       </c>
       <c r="F2824" s="2">
         <f t="shared" si="7"/>
-        <v>1306000.0000000037</v>
+        <v>5721400</v>
       </c>
     </row>
     <row r="2825" spans="1:7" x14ac:dyDescent="0.2">
@@ -26936,7 +26988,7 @@
       </c>
       <c r="F2825" s="2">
         <f t="shared" si="7"/>
-        <v>262600.00000000373</v>
+        <v>5548700</v>
       </c>
     </row>
     <row r="2826" spans="1:7" x14ac:dyDescent="0.2">
@@ -26948,7 +27000,7 @@
         <v>5322000</v>
       </c>
       <c r="C2826">
-        <v>5429108</v>
+        <v>5429507</v>
       </c>
       <c r="D2826">
         <f t="shared" si="8"/>
@@ -26960,7 +27012,7 @@
       </c>
       <c r="F2826" s="2">
         <f t="shared" si="7"/>
-        <v>-780799.99999999627</v>
+        <v>5376000</v>
       </c>
     </row>
     <row r="2827" spans="1:7" x14ac:dyDescent="0.2">
@@ -26969,10 +27021,10 @@
         <v>44184</v>
       </c>
       <c r="B2827">
-        <v>5219000</v>
+        <v>5198000</v>
       </c>
       <c r="C2827">
-        <v>5258073</v>
+        <v>5237015</v>
       </c>
       <c r="D2827">
         <f t="shared" si="8"/>
@@ -26980,11 +27032,11 @@
       </c>
       <c r="E2827" s="5">
         <f t="shared" si="0"/>
-        <v>5219000</v>
+        <v>5198000</v>
       </c>
       <c r="F2827" s="2">
         <f t="shared" si="7"/>
-        <v>-1824199.9999999963</v>
+        <v>5203300</v>
       </c>
     </row>
     <row r="2828" spans="1:7" x14ac:dyDescent="0.2">
@@ -26992,13 +27044,23 @@
         <f t="shared" si="5"/>
         <v>44191</v>
       </c>
+      <c r="B2828">
+        <v>5072000</v>
+      </c>
+      <c r="C2828">
+        <v>5382459</v>
+      </c>
       <c r="D2828">
         <f t="shared" si="8"/>
         <v>33</v>
       </c>
+      <c r="E2828" s="5">
+        <f t="shared" si="0"/>
+        <v>5072000</v>
+      </c>
       <c r="F2828" s="2">
         <f t="shared" si="7"/>
-        <v>-2867599.9999999925</v>
+        <v>5030600</v>
       </c>
     </row>
     <row r="2829" spans="1:7" x14ac:dyDescent="0.2">
@@ -27012,7 +27074,7 @@
       </c>
       <c r="F2829" s="2">
         <f t="shared" si="7"/>
-        <v>-3910999.9999999925</v>
+        <v>4857900</v>
       </c>
     </row>
     <row r="2830" spans="1:7" x14ac:dyDescent="0.2">
@@ -27026,7 +27088,7 @@
       </c>
       <c r="F2830" s="2">
         <f t="shared" si="7"/>
-        <v>-4954399.9999999925</v>
+        <v>4685200</v>
       </c>
     </row>
     <row r="2831" spans="1:7" x14ac:dyDescent="0.2">
@@ -27040,7 +27102,7 @@
       </c>
       <c r="F2831" s="2">
         <f t="shared" si="7"/>
-        <v>-5997799.9999999925</v>
+        <v>4512500</v>
       </c>
     </row>
     <row r="2832" spans="1:7" x14ac:dyDescent="0.2">
@@ -27054,7 +27116,7 @@
       </c>
       <c r="F2832" s="2">
         <f t="shared" si="7"/>
-        <v>-7041199.9999999925</v>
+        <v>4339800</v>
       </c>
     </row>
     <row r="2833" spans="1:6" x14ac:dyDescent="0.2">
@@ -27068,7 +27130,7 @@
       </c>
       <c r="F2833" s="2">
         <f t="shared" si="7"/>
-        <v>-8084599.9999999925</v>
+        <v>4167100</v>
       </c>
     </row>
     <row r="2834" spans="1:6" x14ac:dyDescent="0.2">
